--- a/D1_spread.xlsx
+++ b/D1_spread.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4782C146-C114-45F6-BB37-A879B8714704}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2D4998-4B5A-41BE-9A02-F68A00D84B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="242">
   <si>
     <t>Div</t>
   </si>
@@ -180,31 +180,166 @@
     <t>GoalsXcornerXbookings</t>
   </si>
   <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>242</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>244</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>832</t>
+  </si>
+  <si>
+    <t>833</t>
+  </si>
+  <si>
+    <t>834</t>
+  </si>
+  <si>
+    <t>835</t>
+  </si>
+  <si>
+    <t>836</t>
+  </si>
+  <si>
+    <t>837</t>
+  </si>
+  <si>
+    <t>838</t>
+  </si>
+  <si>
+    <t>839</t>
+  </si>
+  <si>
+    <t>840</t>
   </si>
   <si>
     <t>D1</t>
@@ -237,33 +372,33 @@
     <t>Ein Frankfurt</t>
   </si>
   <si>
+    <t>RB Leipzig</t>
+  </si>
+  <si>
+    <t>Bochum</t>
+  </si>
+  <si>
+    <t>Darmstadt</t>
+  </si>
+  <si>
+    <t>FC Koln</t>
+  </si>
+  <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>Heidenheim</t>
+  </si>
+  <si>
+    <t>Mgladbach</t>
+  </si>
+  <si>
+    <t>Mainz</t>
+  </si>
+  <si>
     <t>Bayern Munich</t>
   </si>
   <si>
-    <t>Mgladbach</t>
-  </si>
-  <si>
-    <t>Freiburg</t>
-  </si>
-  <si>
-    <t>RB Leipzig</t>
-  </si>
-  <si>
-    <t>Bochum</t>
-  </si>
-  <si>
-    <t>Heidenheim</t>
-  </si>
-  <si>
-    <t>FC Koln</t>
-  </si>
-  <si>
-    <t>Mainz</t>
-  </si>
-  <si>
-    <t>Darmstadt</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -294,15 +429,30 @@
     <t>1-0</t>
   </si>
   <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>3-0</t>
+  </si>
+  <si>
+    <t>4-0</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
     <t>0-4</t>
   </si>
   <si>
     <t>4-4</t>
   </si>
   <si>
-    <t>1-2</t>
-  </si>
-  <si>
     <t>3-2</t>
   </si>
   <si>
@@ -312,33 +462,132 @@
     <t>4-1</t>
   </si>
   <si>
+    <t>5-1</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>7-0</t>
+  </si>
+  <si>
     <t>0-6</t>
   </si>
   <si>
     <t>8-7</t>
   </si>
   <si>
-    <t>4-2</t>
-  </si>
-  <si>
     <t>4-5</t>
   </si>
   <si>
-    <t>7-0</t>
-  </si>
-  <si>
     <t>1-7</t>
   </si>
   <si>
     <t>6-3</t>
   </si>
   <si>
-    <t>3-1</t>
-  </si>
-  <si>
     <t>7-3</t>
   </si>
   <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>10-6</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>1-15</t>
+  </si>
+  <si>
+    <t>8-1</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>7-4</t>
+  </si>
+  <si>
+    <t>13-4</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>8-2</t>
+  </si>
+  <si>
+    <t>10-1</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>11-6</t>
+  </si>
+  <si>
+    <t>9-8</t>
+  </si>
+  <si>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>5-10</t>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -370,12 +619,150 @@
   </si>
   <si>
     <t>Ein Frankfurt-Darmstadt</t>
+  </si>
+  <si>
+    <t>RB Leipzig-Stuttgart</t>
+  </si>
+  <si>
+    <t>Bochum-Dortmund</t>
+  </si>
+  <si>
+    <t>Darmstadt-Union Berlin</t>
+  </si>
+  <si>
+    <t>FC Koln-Wolfsburg</t>
+  </si>
+  <si>
+    <t>Freiburg-Werder Bremen</t>
+  </si>
+  <si>
+    <t>Heidenheim-Hoffenheim</t>
+  </si>
+  <si>
+    <t>Mgladbach-Leverkusen</t>
+  </si>
+  <si>
+    <t>Mainz-Ein Frankfurt</t>
+  </si>
+  <si>
+    <t>Bayern Munich-Augsburg</t>
+  </si>
+  <si>
+    <t>Dortmund-Heidenheim</t>
+  </si>
+  <si>
+    <t>Augsburg-Bochum</t>
+  </si>
+  <si>
+    <t>Hoffenheim-Wolfsburg</t>
+  </si>
+  <si>
+    <t>Leverkusen-Darmstadt</t>
+  </si>
+  <si>
+    <t>Stuttgart-Freiburg</t>
+  </si>
+  <si>
+    <t>Werder Bremen-Mainz</t>
+  </si>
+  <si>
+    <t>Mgladbach-Bayern Munich</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt-FC Koln</t>
+  </si>
+  <si>
+    <t>Union Berlin-RB Leipzig</t>
+  </si>
+  <si>
+    <t>Bayern Munich-Leverkusen</t>
+  </si>
+  <si>
+    <t>FC Koln-Hoffenheim</t>
+  </si>
+  <si>
+    <t>Freiburg-Dortmund</t>
+  </si>
+  <si>
+    <t>Mainz-Stuttgart</t>
+  </si>
+  <si>
+    <t>RB Leipzig-Augsburg</t>
+  </si>
+  <si>
+    <t>Wolfsburg-Union Berlin</t>
+  </si>
+  <si>
+    <t>Bochum-Ein Frankfurt</t>
+  </si>
+  <si>
+    <t>Heidenheim-Werder Bremen</t>
+  </si>
+  <si>
+    <t>Darmstadt-Mgladbach</t>
+  </si>
+  <si>
+    <t>Stuttgart-Darmstadt</t>
+  </si>
+  <si>
+    <t>Augsburg-Mainz</t>
+  </si>
+  <si>
+    <t>Bayern Munich-Bochum</t>
+  </si>
+  <si>
+    <t>Dortmund-Wolfsburg</t>
+  </si>
+  <si>
+    <t>Mgladbach-RB Leipzig</t>
+  </si>
+  <si>
+    <t>Union Berlin-Hoffenheim</t>
+  </si>
+  <si>
+    <t>Werder Bremen-FC Koln</t>
+  </si>
+  <si>
+    <t>Leverkusen-Heidenheim</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt-Freiburg</t>
+  </si>
+  <si>
+    <t>Hoffenheim-Dortmund</t>
+  </si>
+  <si>
+    <t>Bochum-Mgladbach</t>
+  </si>
+  <si>
+    <t>FC Koln-Stuttgart</t>
+  </si>
+  <si>
+    <t>Heidenheim-Union Berlin</t>
+  </si>
+  <si>
+    <t>Mainz-Leverkusen</t>
+  </si>
+  <si>
+    <t>Wolfsburg-Ein Frankfurt</t>
+  </si>
+  <si>
+    <t>RB Leipzig-Bayern Munich</t>
+  </si>
+  <si>
+    <t>Darmstadt-Werder Bremen</t>
+  </si>
+  <si>
+    <t>Freiburg-Augsburg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,7 +794,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,13 +1109,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY10"/>
+  <dimension ref="A1:AY55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AM1" sqref="AM1"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="AD26" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AO56" sqref="AO56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -887,16 +1322,16 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1">
         <v>45156</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -905,7 +1340,7 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -914,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="L2">
         <v>8.59</v>
@@ -926,10 +1361,10 @@
         <v>1.33</v>
       </c>
       <c r="O2" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="P2" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -977,16 +1412,16 @@
         <v>27</v>
       </c>
       <c r="AF2" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="AG2" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="AH2" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="AI2" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="AJ2">
         <v>3</v>
@@ -995,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>105</v>
+        <v>188</v>
       </c>
       <c r="AM2">
         <v>258</v>
@@ -1019,22 +1454,18 @@
         <v>180</v>
       </c>
       <c r="AT2">
-        <f>AO2*AP2</f>
         <v>2040</v>
       </c>
       <c r="AU2">
         <v>24</v>
       </c>
       <c r="AV2">
-        <f>AN2*AO2</f>
         <v>272</v>
       </c>
       <c r="AW2">
-        <f>AO2*AD2</f>
         <v>408</v>
       </c>
       <c r="AX2">
-        <f>AM2*AD2</f>
         <v>1548</v>
       </c>
       <c r="AY2">
@@ -1046,16 +1477,16 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="C3" s="1">
         <v>45157</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -1064,7 +1495,7 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="I3">
         <v>3</v>
@@ -1073,7 +1504,7 @@
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="L3">
         <v>2.74</v>
@@ -1085,10 +1516,10 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="O3" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="P3" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="Q3">
         <v>20</v>
@@ -1136,16 +1567,16 @@
         <v>23</v>
       </c>
       <c r="AF3" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="AG3" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="AH3" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="AI3" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="AJ3">
         <v>3</v>
@@ -1154,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="AM3">
         <v>358</v>
@@ -1178,22 +1609,18 @@
         <v>450</v>
       </c>
       <c r="AT3">
-        <f t="shared" ref="AT3:AT10" si="0">AO3*AP3</f>
         <v>4530</v>
       </c>
       <c r="AU3">
         <v>120</v>
       </c>
       <c r="AV3">
-        <f t="shared" ref="AV3:AV10" si="1">AN3*AO3</f>
         <v>1208</v>
       </c>
       <c r="AW3">
-        <f t="shared" ref="AW3:AW10" si="2">AO3*AD3</f>
         <v>2265</v>
       </c>
       <c r="AX3">
-        <f t="shared" ref="AX3:AX10" si="3">AM3*AD3</f>
         <v>5370</v>
       </c>
       <c r="AY3">
@@ -1205,16 +1632,16 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1">
         <v>45157</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1223,7 +1650,7 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1232,7 +1659,7 @@
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="L4">
         <v>2.4300000000000002</v>
@@ -1244,10 +1671,10 @@
         <v>2.92</v>
       </c>
       <c r="O4" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="P4" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="Q4">
         <v>24</v>
@@ -1295,16 +1722,16 @@
         <v>18</v>
       </c>
       <c r="AF4" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="AG4" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="AH4" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="AI4" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="AJ4">
         <v>1</v>
@@ -1313,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="AM4">
         <v>134</v>
@@ -1337,22 +1764,18 @@
         <v>60</v>
       </c>
       <c r="AT4">
-        <f t="shared" si="0"/>
         <v>680</v>
       </c>
       <c r="AU4">
         <v>18</v>
       </c>
       <c r="AV4">
-        <f t="shared" si="1"/>
         <v>204</v>
       </c>
       <c r="AW4">
-        <f t="shared" si="2"/>
         <v>408</v>
       </c>
       <c r="AX4">
-        <f t="shared" si="3"/>
         <v>804</v>
       </c>
       <c r="AY4">
@@ -1364,16 +1787,16 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="C5" s="1">
         <v>45157</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -1382,7 +1805,7 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -1391,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="L5">
         <v>2.5</v>
@@ -1403,10 +1826,10 @@
         <v>2.85</v>
       </c>
       <c r="O5" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="P5" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="Q5">
         <v>11</v>
@@ -1454,16 +1877,16 @@
         <v>23</v>
       </c>
       <c r="AF5" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="AG5" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="AH5" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="AI5" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="AJ5">
         <v>3</v>
@@ -1472,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="AM5">
         <v>233</v>
@@ -1496,22 +1919,18 @@
         <v>270</v>
       </c>
       <c r="AT5">
-        <f t="shared" si="0"/>
         <v>2040</v>
       </c>
       <c r="AU5">
         <v>45</v>
       </c>
       <c r="AV5">
-        <f t="shared" si="1"/>
         <v>340</v>
       </c>
       <c r="AW5">
-        <f t="shared" si="2"/>
         <v>612</v>
       </c>
       <c r="AX5">
-        <f t="shared" si="3"/>
         <v>2097</v>
       </c>
       <c r="AY5">
@@ -1523,16 +1942,16 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="C6" s="1">
         <v>45157</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -1541,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -1550,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="L6">
         <v>1.7</v>
@@ -1562,10 +1981,10 @@
         <v>4.78</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="P6" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="Q6">
         <v>19</v>
@@ -1613,16 +2032,16 @@
         <v>17</v>
       </c>
       <c r="AF6" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="AG6" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="AH6" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="AI6" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="AJ6">
         <v>2</v>
@@ -1631,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="s">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="AM6">
         <v>260</v>
@@ -1655,22 +2074,18 @@
         <v>140</v>
       </c>
       <c r="AT6">
-        <f t="shared" si="0"/>
         <v>1380</v>
       </c>
       <c r="AU6">
         <v>35</v>
       </c>
       <c r="AV6">
-        <f t="shared" si="1"/>
         <v>345</v>
       </c>
       <c r="AW6">
-        <f t="shared" si="2"/>
         <v>483</v>
       </c>
       <c r="AX6">
-        <f t="shared" si="3"/>
         <v>1820</v>
       </c>
       <c r="AY6">
@@ -1682,16 +2097,16 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="C7" s="1">
         <v>45157</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1700,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -1709,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="L7">
         <v>1.62</v>
@@ -1721,10 +2136,10 @@
         <v>5.24</v>
       </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="P7" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="Q7">
         <v>18</v>
@@ -1772,16 +2187,16 @@
         <v>19</v>
       </c>
       <c r="AF7" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="AG7" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="AH7" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="AI7" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="AJ7">
         <v>3</v>
@@ -1790,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="s">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="AM7">
         <v>33</v>
@@ -1814,22 +2229,18 @@
         <v>240</v>
       </c>
       <c r="AT7">
-        <f t="shared" si="0"/>
         <v>1380</v>
       </c>
       <c r="AU7">
         <v>16</v>
       </c>
       <c r="AV7">
-        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="AW7">
-        <f t="shared" si="2"/>
         <v>368</v>
       </c>
       <c r="AX7">
-        <f t="shared" si="3"/>
         <v>264</v>
       </c>
       <c r="AY7">
@@ -1841,16 +2252,16 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="C8" s="1">
         <v>45157</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1859,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1868,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="L8">
         <v>1.41</v>
@@ -1880,10 +2291,10 @@
         <v>7.25</v>
       </c>
       <c r="O8" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="P8" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="Q8">
         <v>12</v>
@@ -1931,16 +2342,16 @@
         <v>24</v>
       </c>
       <c r="AF8" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="AG8" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="AH8" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="AI8" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="AJ8">
         <v>1</v>
@@ -1949,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="AM8">
         <v>88</v>
@@ -1973,22 +2384,18 @@
         <v>90</v>
       </c>
       <c r="AT8">
-        <f t="shared" si="0"/>
         <v>210</v>
       </c>
       <c r="AU8">
         <v>9</v>
       </c>
       <c r="AV8">
-        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="AW8">
-        <f t="shared" si="2"/>
         <v>189</v>
       </c>
       <c r="AX8">
-        <f t="shared" si="3"/>
         <v>792</v>
       </c>
       <c r="AY8">
@@ -2000,16 +2407,16 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1">
         <v>45158</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -2018,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -2027,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="L9">
         <v>2.02</v>
@@ -2039,10 +2446,10 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="O9" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="P9" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="Q9">
         <v>12</v>
@@ -2090,16 +2497,16 @@
         <v>31</v>
       </c>
       <c r="AF9" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="AG9" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="AH9" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="AI9" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="AJ9">
         <v>6</v>
@@ -2108,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="s">
-        <v>112</v>
+        <v>195</v>
       </c>
       <c r="AM9">
         <v>234</v>
@@ -2132,22 +2539,18 @@
         <v>240</v>
       </c>
       <c r="AT9">
-        <f t="shared" si="0"/>
         <v>6120</v>
       </c>
       <c r="AU9">
         <v>20</v>
       </c>
       <c r="AV9">
-        <f t="shared" si="1"/>
         <v>510</v>
       </c>
       <c r="AW9">
-        <f t="shared" si="2"/>
         <v>408</v>
       </c>
       <c r="AX9">
-        <f t="shared" si="3"/>
         <v>936</v>
       </c>
       <c r="AY9">
@@ -2159,16 +2562,16 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="C10" s="1">
         <v>45158</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2177,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2186,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="L10">
         <v>1.4</v>
@@ -2198,10 +2601,10 @@
         <v>7.44</v>
       </c>
       <c r="O10" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="P10" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="Q10">
         <v>10</v>
@@ -2249,16 +2652,16 @@
         <v>23</v>
       </c>
       <c r="AF10" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="AG10" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="AH10" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="AI10" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="AJ10">
         <v>5</v>
@@ -2267,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>113</v>
+        <v>196</v>
       </c>
       <c r="AM10">
         <v>40</v>
@@ -2291,26 +2694,7033 @@
         <v>500</v>
       </c>
       <c r="AT10">
-        <f t="shared" si="0"/>
         <v>450</v>
       </c>
       <c r="AU10">
         <v>10</v>
       </c>
       <c r="AV10">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="AW10">
-        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="AX10">
-        <f t="shared" si="3"/>
         <v>400</v>
       </c>
       <c r="AY10">
         <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45163</v>
+      </c>
+      <c r="D11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11">
+        <v>1.53</v>
+      </c>
+      <c r="M11">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="N11">
+        <v>6.14</v>
+      </c>
+      <c r="O11" t="s">
+        <v>126</v>
+      </c>
+      <c r="P11" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q11">
+        <v>20</v>
+      </c>
+      <c r="R11">
+        <v>11</v>
+      </c>
+      <c r="S11">
+        <v>8</v>
+      </c>
+      <c r="T11">
+        <v>3</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>4</v>
+      </c>
+      <c r="Z11">
+        <v>4</v>
+      </c>
+      <c r="AA11">
+        <v>12</v>
+      </c>
+      <c r="AB11">
+        <v>10</v>
+      </c>
+      <c r="AC11">
+        <v>6</v>
+      </c>
+      <c r="AD11">
+        <v>8</v>
+      </c>
+      <c r="AE11">
+        <v>22</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ11">
+        <v>2</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM11">
+        <v>365</v>
+      </c>
+      <c r="AN11">
+        <v>6</v>
+      </c>
+      <c r="AO11">
+        <v>136</v>
+      </c>
+      <c r="AP11">
+        <v>20</v>
+      </c>
+      <c r="AQ11">
+        <v>100</v>
+      </c>
+      <c r="AR11">
+        <v>120</v>
+      </c>
+      <c r="AS11">
+        <v>160</v>
+      </c>
+      <c r="AT11">
+        <v>2720</v>
+      </c>
+      <c r="AU11">
+        <v>48</v>
+      </c>
+      <c r="AV11">
+        <v>816</v>
+      </c>
+      <c r="AW11">
+        <v>1088</v>
+      </c>
+      <c r="AX11">
+        <v>2920</v>
+      </c>
+      <c r="AY11">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45164</v>
+      </c>
+      <c r="D12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12">
+        <v>6.63</v>
+      </c>
+      <c r="M12">
+        <v>5.36</v>
+      </c>
+      <c r="N12">
+        <v>1.44</v>
+      </c>
+      <c r="O12" t="s">
+        <v>132</v>
+      </c>
+      <c r="P12" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q12">
+        <v>17</v>
+      </c>
+      <c r="R12">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>13</v>
+      </c>
+      <c r="T12">
+        <v>3</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>5</v>
+      </c>
+      <c r="Z12">
+        <v>4</v>
+      </c>
+      <c r="AA12">
+        <v>21</v>
+      </c>
+      <c r="AB12">
+        <v>7</v>
+      </c>
+      <c r="AC12">
+        <v>2</v>
+      </c>
+      <c r="AD12">
+        <v>9</v>
+      </c>
+      <c r="AE12">
+        <v>28</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ12">
+        <v>3</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>198</v>
+      </c>
+      <c r="AM12">
+        <v>69</v>
+      </c>
+      <c r="AN12">
+        <v>2</v>
+      </c>
+      <c r="AO12">
+        <v>28</v>
+      </c>
+      <c r="AP12">
+        <v>30</v>
+      </c>
+      <c r="AQ12">
+        <v>200</v>
+      </c>
+      <c r="AR12">
+        <v>60</v>
+      </c>
+      <c r="AS12">
+        <v>270</v>
+      </c>
+      <c r="AT12">
+        <v>840</v>
+      </c>
+      <c r="AU12">
+        <v>18</v>
+      </c>
+      <c r="AV12">
+        <v>56</v>
+      </c>
+      <c r="AW12">
+        <v>252</v>
+      </c>
+      <c r="AX12">
+        <v>621</v>
+      </c>
+      <c r="AY12">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45164</v>
+      </c>
+      <c r="D13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13">
+        <v>3.94</v>
+      </c>
+      <c r="M13">
+        <v>3.42</v>
+      </c>
+      <c r="N13">
+        <v>2.08</v>
+      </c>
+      <c r="O13" t="s">
+        <v>133</v>
+      </c>
+      <c r="P13" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q13">
+        <v>18</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="S13">
+        <v>12</v>
+      </c>
+      <c r="T13">
+        <v>6</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>3</v>
+      </c>
+      <c r="Z13">
+        <v>5</v>
+      </c>
+      <c r="AA13">
+        <v>15</v>
+      </c>
+      <c r="AB13">
+        <v>12</v>
+      </c>
+      <c r="AC13">
+        <v>5</v>
+      </c>
+      <c r="AD13">
+        <v>8</v>
+      </c>
+      <c r="AE13">
+        <v>27</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ13">
+        <v>4</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM13">
+        <v>166</v>
+      </c>
+      <c r="AN13">
+        <v>5</v>
+      </c>
+      <c r="AO13">
+        <v>40</v>
+      </c>
+      <c r="AP13">
+        <v>65</v>
+      </c>
+      <c r="AQ13">
+        <v>900</v>
+      </c>
+      <c r="AR13">
+        <v>325</v>
+      </c>
+      <c r="AS13">
+        <v>520</v>
+      </c>
+      <c r="AT13">
+        <v>2600</v>
+      </c>
+      <c r="AU13">
+        <v>40</v>
+      </c>
+      <c r="AV13">
+        <v>200</v>
+      </c>
+      <c r="AW13">
+        <v>320</v>
+      </c>
+      <c r="AX13">
+        <v>1328</v>
+      </c>
+      <c r="AY13">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45164</v>
+      </c>
+      <c r="D14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14">
+        <v>2.41</v>
+      </c>
+      <c r="M14">
+        <v>3.53</v>
+      </c>
+      <c r="N14">
+        <v>3.04</v>
+      </c>
+      <c r="O14" t="s">
+        <v>131</v>
+      </c>
+      <c r="P14" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q14">
+        <v>14</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>9</v>
+      </c>
+      <c r="T14">
+        <v>6</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>5</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>6</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>6</v>
+      </c>
+      <c r="AB14">
+        <v>10</v>
+      </c>
+      <c r="AC14">
+        <v>3</v>
+      </c>
+      <c r="AD14">
+        <v>7</v>
+      </c>
+      <c r="AE14">
+        <v>16</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ14">
+        <v>6</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM14">
+        <v>189</v>
+      </c>
+      <c r="AN14">
+        <v>3</v>
+      </c>
+      <c r="AO14">
+        <v>55</v>
+      </c>
+      <c r="AP14">
+        <v>60</v>
+      </c>
+      <c r="AQ14">
+        <v>500</v>
+      </c>
+      <c r="AR14">
+        <v>180</v>
+      </c>
+      <c r="AS14">
+        <v>420</v>
+      </c>
+      <c r="AT14">
+        <v>3300</v>
+      </c>
+      <c r="AU14">
+        <v>21</v>
+      </c>
+      <c r="AV14">
+        <v>165</v>
+      </c>
+      <c r="AW14">
+        <v>385</v>
+      </c>
+      <c r="AX14">
+        <v>1323</v>
+      </c>
+      <c r="AY14">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45164</v>
+      </c>
+      <c r="D15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>124</v>
+      </c>
+      <c r="L15">
+        <v>1.72</v>
+      </c>
+      <c r="M15">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="N15">
+        <v>4.76</v>
+      </c>
+      <c r="O15" t="s">
+        <v>131</v>
+      </c>
+      <c r="P15" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q15">
+        <v>23</v>
+      </c>
+      <c r="R15">
+        <v>6</v>
+      </c>
+      <c r="S15">
+        <v>16</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="V15">
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>5</v>
+      </c>
+      <c r="Z15">
+        <v>5</v>
+      </c>
+      <c r="AA15">
+        <v>9</v>
+      </c>
+      <c r="AB15">
+        <v>8</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>10</v>
+      </c>
+      <c r="AE15">
+        <v>17</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ15">
+        <v>4</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM15">
+        <v>90</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
+        <v>26</v>
+      </c>
+      <c r="AP15">
+        <v>40</v>
+      </c>
+      <c r="AQ15">
+        <v>400</v>
+      </c>
+      <c r="AR15">
+        <v>40</v>
+      </c>
+      <c r="AS15">
+        <v>400</v>
+      </c>
+      <c r="AT15">
+        <v>1040</v>
+      </c>
+      <c r="AU15">
+        <v>10</v>
+      </c>
+      <c r="AV15">
+        <v>26</v>
+      </c>
+      <c r="AW15">
+        <v>260</v>
+      </c>
+      <c r="AX15">
+        <v>900</v>
+      </c>
+      <c r="AY15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45164</v>
+      </c>
+      <c r="D16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>125</v>
+      </c>
+      <c r="L16">
+        <v>2.96</v>
+      </c>
+      <c r="M16">
+        <v>3.81</v>
+      </c>
+      <c r="N16">
+        <v>2.34</v>
+      </c>
+      <c r="O16" t="s">
+        <v>132</v>
+      </c>
+      <c r="P16" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q16">
+        <v>19</v>
+      </c>
+      <c r="R16">
+        <v>9</v>
+      </c>
+      <c r="S16">
+        <v>16</v>
+      </c>
+      <c r="T16">
+        <v>6</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>5</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>10</v>
+      </c>
+      <c r="Z16">
+        <v>6</v>
+      </c>
+      <c r="AA16">
+        <v>13</v>
+      </c>
+      <c r="AB16">
+        <v>9</v>
+      </c>
+      <c r="AC16">
+        <v>5</v>
+      </c>
+      <c r="AD16">
+        <v>16</v>
+      </c>
+      <c r="AE16">
+        <v>22</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ16">
+        <v>6</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM16">
+        <v>331</v>
+      </c>
+      <c r="AN16">
+        <v>5</v>
+      </c>
+      <c r="AO16">
+        <v>99</v>
+      </c>
+      <c r="AP16">
+        <v>60</v>
+      </c>
+      <c r="AQ16">
+        <v>500</v>
+      </c>
+      <c r="AR16">
+        <v>300</v>
+      </c>
+      <c r="AS16">
+        <v>960</v>
+      </c>
+      <c r="AT16">
+        <v>5940</v>
+      </c>
+      <c r="AU16">
+        <v>80</v>
+      </c>
+      <c r="AV16">
+        <v>495</v>
+      </c>
+      <c r="AW16">
+        <v>1584</v>
+      </c>
+      <c r="AX16">
+        <v>5296</v>
+      </c>
+      <c r="AY16">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45164</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>123</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>123</v>
+      </c>
+      <c r="L17">
+        <v>3.73</v>
+      </c>
+      <c r="M17">
+        <v>4.2</v>
+      </c>
+      <c r="N17">
+        <v>1.91</v>
+      </c>
+      <c r="O17" t="s">
+        <v>128</v>
+      </c>
+      <c r="P17" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q17">
+        <v>13</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>24</v>
+      </c>
+      <c r="T17">
+        <v>10</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <v>3</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>5</v>
+      </c>
+      <c r="Z17">
+        <v>8</v>
+      </c>
+      <c r="AA17">
+        <v>7</v>
+      </c>
+      <c r="AB17">
+        <v>8</v>
+      </c>
+      <c r="AC17">
+        <v>3</v>
+      </c>
+      <c r="AD17">
+        <v>13</v>
+      </c>
+      <c r="AE17">
+        <v>15</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ17">
+        <v>5</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>203</v>
+      </c>
+      <c r="AM17">
+        <v>119</v>
+      </c>
+      <c r="AN17">
+        <v>3</v>
+      </c>
+      <c r="AO17">
+        <v>48</v>
+      </c>
+      <c r="AP17">
+        <v>50</v>
+      </c>
+      <c r="AQ17">
+        <v>600</v>
+      </c>
+      <c r="AR17">
+        <v>150</v>
+      </c>
+      <c r="AS17">
+        <v>650</v>
+      </c>
+      <c r="AT17">
+        <v>2400</v>
+      </c>
+      <c r="AU17">
+        <v>39</v>
+      </c>
+      <c r="AV17">
+        <v>144</v>
+      </c>
+      <c r="AW17">
+        <v>624</v>
+      </c>
+      <c r="AX17">
+        <v>1547</v>
+      </c>
+      <c r="AY17">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45165</v>
+      </c>
+      <c r="D18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>124</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>125</v>
+      </c>
+      <c r="L18">
+        <v>2.39</v>
+      </c>
+      <c r="M18">
+        <v>3.74</v>
+      </c>
+      <c r="N18">
+        <v>2.92</v>
+      </c>
+      <c r="O18" t="s">
+        <v>132</v>
+      </c>
+      <c r="P18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q18">
+        <v>13</v>
+      </c>
+      <c r="R18">
+        <v>7</v>
+      </c>
+      <c r="S18">
+        <v>8</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18">
+        <v>3</v>
+      </c>
+      <c r="V18">
+        <v>4</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>5</v>
+      </c>
+      <c r="Z18">
+        <v>4</v>
+      </c>
+      <c r="AA18">
+        <v>23</v>
+      </c>
+      <c r="AB18">
+        <v>12</v>
+      </c>
+      <c r="AC18">
+        <v>2</v>
+      </c>
+      <c r="AD18">
+        <v>9</v>
+      </c>
+      <c r="AE18">
+        <v>35</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ18">
+        <v>7</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM18">
+        <v>115</v>
+      </c>
+      <c r="AN18">
+        <v>2</v>
+      </c>
+      <c r="AO18">
+        <v>14</v>
+      </c>
+      <c r="AP18">
+        <v>95</v>
+      </c>
+      <c r="AQ18">
+        <v>1950</v>
+      </c>
+      <c r="AR18">
+        <v>190</v>
+      </c>
+      <c r="AS18">
+        <v>855</v>
+      </c>
+      <c r="AT18">
+        <v>1330</v>
+      </c>
+      <c r="AU18">
+        <v>18</v>
+      </c>
+      <c r="AV18">
+        <v>28</v>
+      </c>
+      <c r="AW18">
+        <v>126</v>
+      </c>
+      <c r="AX18">
+        <v>1035</v>
+      </c>
+      <c r="AY18">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45165</v>
+      </c>
+      <c r="D19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>125</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>125</v>
+      </c>
+      <c r="L19">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="M19">
+        <v>14.24</v>
+      </c>
+      <c r="N19">
+        <v>22.48</v>
+      </c>
+      <c r="O19" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q19">
+        <v>19</v>
+      </c>
+      <c r="R19">
+        <v>6</v>
+      </c>
+      <c r="S19">
+        <v>11</v>
+      </c>
+      <c r="T19">
+        <v>2</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>10</v>
+      </c>
+      <c r="Z19">
+        <v>4</v>
+      </c>
+      <c r="AA19">
+        <v>13</v>
+      </c>
+      <c r="AB19">
+        <v>8</v>
+      </c>
+      <c r="AC19">
+        <v>4</v>
+      </c>
+      <c r="AD19">
+        <v>14</v>
+      </c>
+      <c r="AE19">
+        <v>21</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ19">
+        <v>3</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM19">
+        <v>227</v>
+      </c>
+      <c r="AN19">
+        <v>4</v>
+      </c>
+      <c r="AO19">
+        <v>44</v>
+      </c>
+      <c r="AP19">
+        <v>30</v>
+      </c>
+      <c r="AQ19">
+        <v>200</v>
+      </c>
+      <c r="AR19">
+        <v>120</v>
+      </c>
+      <c r="AS19">
+        <v>420</v>
+      </c>
+      <c r="AT19">
+        <v>1320</v>
+      </c>
+      <c r="AU19">
+        <v>56</v>
+      </c>
+      <c r="AV19">
+        <v>176</v>
+      </c>
+      <c r="AW19">
+        <v>616</v>
+      </c>
+      <c r="AX19">
+        <v>3178</v>
+      </c>
+      <c r="AY19">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45170</v>
+      </c>
+      <c r="D20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>124</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20">
+        <v>1.26</v>
+      </c>
+      <c r="M20">
+        <v>7.07</v>
+      </c>
+      <c r="N20">
+        <v>10.23</v>
+      </c>
+      <c r="O20" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q20">
+        <v>20</v>
+      </c>
+      <c r="R20">
+        <v>9</v>
+      </c>
+      <c r="S20">
+        <v>15</v>
+      </c>
+      <c r="T20">
+        <v>6</v>
+      </c>
+      <c r="U20">
+        <v>3</v>
+      </c>
+      <c r="V20">
+        <v>3</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>3</v>
+      </c>
+      <c r="Z20">
+        <v>6</v>
+      </c>
+      <c r="AA20">
+        <v>9</v>
+      </c>
+      <c r="AB20">
+        <v>22</v>
+      </c>
+      <c r="AC20">
+        <v>4</v>
+      </c>
+      <c r="AD20">
+        <v>9</v>
+      </c>
+      <c r="AE20">
+        <v>31</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ20">
+        <v>6</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM20">
+        <v>165</v>
+      </c>
+      <c r="AN20">
+        <v>4</v>
+      </c>
+      <c r="AO20">
+        <v>60</v>
+      </c>
+      <c r="AP20">
+        <v>60</v>
+      </c>
+      <c r="AQ20">
+        <v>900</v>
+      </c>
+      <c r="AR20">
+        <v>240</v>
+      </c>
+      <c r="AS20">
+        <v>540</v>
+      </c>
+      <c r="AT20">
+        <v>3600</v>
+      </c>
+      <c r="AU20">
+        <v>36</v>
+      </c>
+      <c r="AV20">
+        <v>240</v>
+      </c>
+      <c r="AW20">
+        <v>540</v>
+      </c>
+      <c r="AX20">
+        <v>1485</v>
+      </c>
+      <c r="AY20">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45171</v>
+      </c>
+      <c r="D21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>124</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>124</v>
+      </c>
+      <c r="L21">
+        <v>2.09</v>
+      </c>
+      <c r="M21">
+        <v>3.67</v>
+      </c>
+      <c r="N21">
+        <v>3.61</v>
+      </c>
+      <c r="O21" t="s">
+        <v>134</v>
+      </c>
+      <c r="P21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q21">
+        <v>11</v>
+      </c>
+      <c r="R21">
+        <v>3</v>
+      </c>
+      <c r="S21">
+        <v>22</v>
+      </c>
+      <c r="T21">
+        <v>9</v>
+      </c>
+      <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21">
+        <v>2</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>3</v>
+      </c>
+      <c r="Z21">
+        <v>5</v>
+      </c>
+      <c r="AA21">
+        <v>15</v>
+      </c>
+      <c r="AB21">
+        <v>13</v>
+      </c>
+      <c r="AC21">
+        <v>4</v>
+      </c>
+      <c r="AD21">
+        <v>8</v>
+      </c>
+      <c r="AE21">
+        <v>28</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ21">
+        <v>4</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM21">
+        <v>206</v>
+      </c>
+      <c r="AN21">
+        <v>4</v>
+      </c>
+      <c r="AO21">
+        <v>38</v>
+      </c>
+      <c r="AP21">
+        <v>40</v>
+      </c>
+      <c r="AQ21">
+        <v>400</v>
+      </c>
+      <c r="AR21">
+        <v>160</v>
+      </c>
+      <c r="AS21">
+        <v>320</v>
+      </c>
+      <c r="AT21">
+        <v>1520</v>
+      </c>
+      <c r="AU21">
+        <v>32</v>
+      </c>
+      <c r="AV21">
+        <v>152</v>
+      </c>
+      <c r="AW21">
+        <v>304</v>
+      </c>
+      <c r="AX21">
+        <v>1648</v>
+      </c>
+      <c r="AY21">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45171</v>
+      </c>
+      <c r="D22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>124</v>
+      </c>
+      <c r="L22">
+        <v>2.48</v>
+      </c>
+      <c r="M22">
+        <v>3.86</v>
+      </c>
+      <c r="N22">
+        <v>2.73</v>
+      </c>
+      <c r="O22" t="s">
+        <v>134</v>
+      </c>
+      <c r="P22" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q22">
+        <v>11</v>
+      </c>
+      <c r="R22">
+        <v>5</v>
+      </c>
+      <c r="S22">
+        <v>14</v>
+      </c>
+      <c r="T22">
+        <v>7</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="V22">
+        <v>2</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>3</v>
+      </c>
+      <c r="Z22">
+        <v>3</v>
+      </c>
+      <c r="AA22">
+        <v>12</v>
+      </c>
+      <c r="AB22">
+        <v>15</v>
+      </c>
+      <c r="AC22">
+        <v>4</v>
+      </c>
+      <c r="AD22">
+        <v>6</v>
+      </c>
+      <c r="AE22">
+        <v>27</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ22">
+        <v>4</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM22">
+        <v>215</v>
+      </c>
+      <c r="AN22">
+        <v>4</v>
+      </c>
+      <c r="AO22">
+        <v>77</v>
+      </c>
+      <c r="AP22">
+        <v>40</v>
+      </c>
+      <c r="AQ22">
+        <v>400</v>
+      </c>
+      <c r="AR22">
+        <v>160</v>
+      </c>
+      <c r="AS22">
+        <v>240</v>
+      </c>
+      <c r="AT22">
+        <v>3080</v>
+      </c>
+      <c r="AU22">
+        <v>24</v>
+      </c>
+      <c r="AV22">
+        <v>308</v>
+      </c>
+      <c r="AW22">
+        <v>462</v>
+      </c>
+      <c r="AX22">
+        <v>1290</v>
+      </c>
+      <c r="AY22">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45171</v>
+      </c>
+      <c r="D23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>124</v>
+      </c>
+      <c r="L23">
+        <v>1.2</v>
+      </c>
+      <c r="M23">
+        <v>7.79</v>
+      </c>
+      <c r="N23">
+        <v>13.72</v>
+      </c>
+      <c r="O23" t="s">
+        <v>134</v>
+      </c>
+      <c r="P23" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q23">
+        <v>24</v>
+      </c>
+      <c r="R23">
+        <v>13</v>
+      </c>
+      <c r="S23">
+        <v>5</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>3</v>
+      </c>
+      <c r="V23">
+        <v>2</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>4</v>
+      </c>
+      <c r="Z23">
+        <v>2</v>
+      </c>
+      <c r="AA23">
+        <v>8</v>
+      </c>
+      <c r="AB23">
+        <v>11</v>
+      </c>
+      <c r="AC23">
+        <v>6</v>
+      </c>
+      <c r="AD23">
+        <v>6</v>
+      </c>
+      <c r="AE23">
+        <v>19</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ23">
+        <v>5</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM23">
+        <v>306</v>
+      </c>
+      <c r="AN23">
+        <v>6</v>
+      </c>
+      <c r="AO23">
+        <v>128</v>
+      </c>
+      <c r="AP23">
+        <v>50</v>
+      </c>
+      <c r="AQ23">
+        <v>600</v>
+      </c>
+      <c r="AR23">
+        <v>300</v>
+      </c>
+      <c r="AS23">
+        <v>300</v>
+      </c>
+      <c r="AT23">
+        <v>6400</v>
+      </c>
+      <c r="AU23">
+        <v>36</v>
+      </c>
+      <c r="AV23">
+        <v>768</v>
+      </c>
+      <c r="AW23">
+        <v>768</v>
+      </c>
+      <c r="AX23">
+        <v>1836</v>
+      </c>
+      <c r="AY23">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45171</v>
+      </c>
+      <c r="D24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>125</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>125</v>
+      </c>
+      <c r="L24">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="M24">
+        <v>3.79</v>
+      </c>
+      <c r="N24">
+        <v>3.28</v>
+      </c>
+      <c r="O24" t="s">
+        <v>135</v>
+      </c>
+      <c r="P24" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q24">
+        <v>13</v>
+      </c>
+      <c r="R24">
+        <v>6</v>
+      </c>
+      <c r="S24">
+        <v>11</v>
+      </c>
+      <c r="T24">
+        <v>5</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>2</v>
+      </c>
+      <c r="Z24">
+        <v>4</v>
+      </c>
+      <c r="AA24">
+        <v>9</v>
+      </c>
+      <c r="AB24">
+        <v>10</v>
+      </c>
+      <c r="AC24">
+        <v>5</v>
+      </c>
+      <c r="AD24">
+        <v>6</v>
+      </c>
+      <c r="AE24">
+        <v>19</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ24">
+        <v>2</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM24">
+        <v>181</v>
+      </c>
+      <c r="AN24">
+        <v>5</v>
+      </c>
+      <c r="AO24">
+        <v>82</v>
+      </c>
+      <c r="AP24">
+        <v>20</v>
+      </c>
+      <c r="AQ24">
+        <v>100</v>
+      </c>
+      <c r="AR24">
+        <v>100</v>
+      </c>
+      <c r="AS24">
+        <v>120</v>
+      </c>
+      <c r="AT24">
+        <v>1640</v>
+      </c>
+      <c r="AU24">
+        <v>30</v>
+      </c>
+      <c r="AV24">
+        <v>410</v>
+      </c>
+      <c r="AW24">
+        <v>492</v>
+      </c>
+      <c r="AX24">
+        <v>1086</v>
+      </c>
+      <c r="AY24">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45171</v>
+      </c>
+      <c r="D25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>125</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L25">
+        <v>2.76</v>
+      </c>
+      <c r="M25">
+        <v>3.55</v>
+      </c>
+      <c r="N25">
+        <v>2.61</v>
+      </c>
+      <c r="O25" t="s">
+        <v>132</v>
+      </c>
+      <c r="P25" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q25">
+        <v>12</v>
+      </c>
+      <c r="R25">
+        <v>6</v>
+      </c>
+      <c r="S25">
+        <v>12</v>
+      </c>
+      <c r="T25">
+        <v>3</v>
+      </c>
+      <c r="U25">
+        <v>2</v>
+      </c>
+      <c r="V25">
+        <v>2</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>7</v>
+      </c>
+      <c r="AA25">
+        <v>18</v>
+      </c>
+      <c r="AB25">
+        <v>14</v>
+      </c>
+      <c r="AC25">
+        <v>4</v>
+      </c>
+      <c r="AD25">
+        <v>8</v>
+      </c>
+      <c r="AE25">
+        <v>32</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ25">
+        <v>4</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM25">
+        <v>221</v>
+      </c>
+      <c r="AN25">
+        <v>4</v>
+      </c>
+      <c r="AO25">
+        <v>40</v>
+      </c>
+      <c r="AP25">
+        <v>40</v>
+      </c>
+      <c r="AQ25">
+        <v>400</v>
+      </c>
+      <c r="AR25">
+        <v>160</v>
+      </c>
+      <c r="AS25">
+        <v>320</v>
+      </c>
+      <c r="AT25">
+        <v>1600</v>
+      </c>
+      <c r="AU25">
+        <v>32</v>
+      </c>
+      <c r="AV25">
+        <v>160</v>
+      </c>
+      <c r="AW25">
+        <v>320</v>
+      </c>
+      <c r="AX25">
+        <v>1768</v>
+      </c>
+      <c r="AY25">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45171</v>
+      </c>
+      <c r="D26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>123</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>125</v>
+      </c>
+      <c r="L26">
+        <v>7.93</v>
+      </c>
+      <c r="M26">
+        <v>6.61</v>
+      </c>
+      <c r="N26">
+        <v>1.31</v>
+      </c>
+      <c r="O26" t="s">
+        <v>132</v>
+      </c>
+      <c r="P26" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q26">
+        <v>8</v>
+      </c>
+      <c r="R26">
+        <v>3</v>
+      </c>
+      <c r="S26">
+        <v>25</v>
+      </c>
+      <c r="T26">
+        <v>9</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>2</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>15</v>
+      </c>
+      <c r="AA26">
+        <v>5</v>
+      </c>
+      <c r="AB26">
+        <v>20</v>
+      </c>
+      <c r="AC26">
+        <v>3</v>
+      </c>
+      <c r="AD26">
+        <v>16</v>
+      </c>
+      <c r="AE26">
+        <v>25</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>166</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ26">
+        <v>2</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>212</v>
+      </c>
+      <c r="AM26">
+        <v>175</v>
+      </c>
+      <c r="AN26">
+        <v>3</v>
+      </c>
+      <c r="AO26">
+        <v>52</v>
+      </c>
+      <c r="AP26">
+        <v>20</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>60</v>
+      </c>
+      <c r="AS26">
+        <v>320</v>
+      </c>
+      <c r="AT26">
+        <v>1040</v>
+      </c>
+      <c r="AU26">
+        <v>48</v>
+      </c>
+      <c r="AV26">
+        <v>156</v>
+      </c>
+      <c r="AW26">
+        <v>832</v>
+      </c>
+      <c r="AX26">
+        <v>2800</v>
+      </c>
+      <c r="AY26">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>123</v>
+      </c>
+      <c r="L27">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="M27">
+        <v>3.49</v>
+      </c>
+      <c r="N27">
+        <v>3.54</v>
+      </c>
+      <c r="O27" t="s">
+        <v>126</v>
+      </c>
+      <c r="P27" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q27">
+        <v>12</v>
+      </c>
+      <c r="R27">
+        <v>4</v>
+      </c>
+      <c r="S27">
+        <v>6</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>3</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>8</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AA27">
+        <v>10</v>
+      </c>
+      <c r="AB27">
+        <v>10</v>
+      </c>
+      <c r="AC27">
+        <v>2</v>
+      </c>
+      <c r="AD27">
+        <v>9</v>
+      </c>
+      <c r="AE27">
+        <v>20</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ27">
+        <v>4</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>213</v>
+      </c>
+      <c r="AM27">
+        <v>130</v>
+      </c>
+      <c r="AN27">
+        <v>2</v>
+      </c>
+      <c r="AO27">
+        <v>40</v>
+      </c>
+      <c r="AP27">
+        <v>40</v>
+      </c>
+      <c r="AQ27">
+        <v>300</v>
+      </c>
+      <c r="AR27">
+        <v>80</v>
+      </c>
+      <c r="AS27">
+        <v>360</v>
+      </c>
+      <c r="AT27">
+        <v>1600</v>
+      </c>
+      <c r="AU27">
+        <v>18</v>
+      </c>
+      <c r="AV27">
+        <v>80</v>
+      </c>
+      <c r="AW27">
+        <v>360</v>
+      </c>
+      <c r="AX27">
+        <v>1170</v>
+      </c>
+      <c r="AY27">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>124</v>
+      </c>
+      <c r="L28">
+        <v>3.24</v>
+      </c>
+      <c r="M28">
+        <v>3.48</v>
+      </c>
+      <c r="N28">
+        <v>2.31</v>
+      </c>
+      <c r="O28" t="s">
+        <v>131</v>
+      </c>
+      <c r="P28" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q28">
+        <v>4</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>15</v>
+      </c>
+      <c r="T28">
+        <v>8</v>
+      </c>
+      <c r="U28">
+        <v>3</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>3</v>
+      </c>
+      <c r="Z28">
+        <v>7</v>
+      </c>
+      <c r="AA28">
+        <v>16</v>
+      </c>
+      <c r="AB28">
+        <v>9</v>
+      </c>
+      <c r="AC28">
+        <v>3</v>
+      </c>
+      <c r="AD28">
+        <v>10</v>
+      </c>
+      <c r="AE28">
+        <v>25</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ28">
+        <v>4</v>
+      </c>
+      <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM28">
+        <v>223</v>
+      </c>
+      <c r="AN28">
+        <v>3</v>
+      </c>
+      <c r="AO28">
+        <v>80</v>
+      </c>
+      <c r="AP28">
+        <v>65</v>
+      </c>
+      <c r="AQ28">
+        <v>550</v>
+      </c>
+      <c r="AR28">
+        <v>195</v>
+      </c>
+      <c r="AS28">
+        <v>650</v>
+      </c>
+      <c r="AT28">
+        <v>5200</v>
+      </c>
+      <c r="AU28">
+        <v>30</v>
+      </c>
+      <c r="AV28">
+        <v>240</v>
+      </c>
+      <c r="AW28">
+        <v>800</v>
+      </c>
+      <c r="AX28">
+        <v>2230</v>
+      </c>
+      <c r="AY28">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45184</v>
+      </c>
+      <c r="D29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>124</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>124</v>
+      </c>
+      <c r="L29">
+        <v>1.65</v>
+      </c>
+      <c r="M29">
+        <v>4.7</v>
+      </c>
+      <c r="N29">
+        <v>4.78</v>
+      </c>
+      <c r="O29" t="s">
+        <v>134</v>
+      </c>
+      <c r="P29" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q29">
+        <v>15</v>
+      </c>
+      <c r="R29">
+        <v>9</v>
+      </c>
+      <c r="S29">
+        <v>12</v>
+      </c>
+      <c r="T29">
+        <v>5</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>3</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>7</v>
+      </c>
+      <c r="Z29">
+        <v>4</v>
+      </c>
+      <c r="AA29">
+        <v>6</v>
+      </c>
+      <c r="AB29">
+        <v>6</v>
+      </c>
+      <c r="AC29">
+        <v>4</v>
+      </c>
+      <c r="AD29">
+        <v>11</v>
+      </c>
+      <c r="AE29">
+        <v>12</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ29">
+        <v>3</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM29">
+        <v>207</v>
+      </c>
+      <c r="AN29">
+        <v>4</v>
+      </c>
+      <c r="AO29">
+        <v>62</v>
+      </c>
+      <c r="AP29">
+        <v>30</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>120</v>
+      </c>
+      <c r="AS29">
+        <v>330</v>
+      </c>
+      <c r="AT29">
+        <v>1860</v>
+      </c>
+      <c r="AU29">
+        <v>44</v>
+      </c>
+      <c r="AV29">
+        <v>248</v>
+      </c>
+      <c r="AW29">
+        <v>682</v>
+      </c>
+      <c r="AX29">
+        <v>2277</v>
+      </c>
+      <c r="AY29">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45185</v>
+      </c>
+      <c r="D30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30" t="s">
+        <v>123</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30" t="s">
+        <v>123</v>
+      </c>
+      <c r="L30">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="M30">
+        <v>3.87</v>
+      </c>
+      <c r="N30">
+        <v>3.06</v>
+      </c>
+      <c r="O30" t="s">
+        <v>128</v>
+      </c>
+      <c r="P30" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q30">
+        <v>17</v>
+      </c>
+      <c r="R30">
+        <v>7</v>
+      </c>
+      <c r="S30">
+        <v>17</v>
+      </c>
+      <c r="T30">
+        <v>5</v>
+      </c>
+      <c r="U30">
+        <v>4</v>
+      </c>
+      <c r="V30">
+        <v>4</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>13</v>
+      </c>
+      <c r="Z30">
+        <v>4</v>
+      </c>
+      <c r="AA30">
+        <v>15</v>
+      </c>
+      <c r="AB30">
+        <v>14</v>
+      </c>
+      <c r="AC30">
+        <v>4</v>
+      </c>
+      <c r="AD30">
+        <v>17</v>
+      </c>
+      <c r="AE30">
+        <v>29</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ30">
+        <v>8</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>216</v>
+      </c>
+      <c r="AM30">
+        <v>142</v>
+      </c>
+      <c r="AN30">
+        <v>4</v>
+      </c>
+      <c r="AO30">
+        <v>79</v>
+      </c>
+      <c r="AP30">
+        <v>105</v>
+      </c>
+      <c r="AQ30">
+        <v>2600</v>
+      </c>
+      <c r="AR30">
+        <v>420</v>
+      </c>
+      <c r="AS30">
+        <v>1785</v>
+      </c>
+      <c r="AT30">
+        <v>8295</v>
+      </c>
+      <c r="AU30">
+        <v>68</v>
+      </c>
+      <c r="AV30">
+        <v>316</v>
+      </c>
+      <c r="AW30">
+        <v>1343</v>
+      </c>
+      <c r="AX30">
+        <v>2414</v>
+      </c>
+      <c r="AY30">
+        <v>7140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45185</v>
+      </c>
+      <c r="D31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31" t="s">
+        <v>123</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>125</v>
+      </c>
+      <c r="L31">
+        <v>3.16</v>
+      </c>
+      <c r="M31">
+        <v>3.86</v>
+      </c>
+      <c r="N31">
+        <v>2.21</v>
+      </c>
+      <c r="O31" t="s">
+        <v>129</v>
+      </c>
+      <c r="P31" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q31">
+        <v>14</v>
+      </c>
+      <c r="R31">
+        <v>4</v>
+      </c>
+      <c r="S31">
+        <v>14</v>
+      </c>
+      <c r="T31">
+        <v>6</v>
+      </c>
+      <c r="U31">
+        <v>2</v>
+      </c>
+      <c r="V31">
+        <v>3</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>6</v>
+      </c>
+      <c r="Z31">
+        <v>8</v>
+      </c>
+      <c r="AA31">
+        <v>12</v>
+      </c>
+      <c r="AB31">
+        <v>16</v>
+      </c>
+      <c r="AC31">
+        <v>6</v>
+      </c>
+      <c r="AD31">
+        <v>14</v>
+      </c>
+      <c r="AE31">
+        <v>28</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ31">
+        <v>5</v>
+      </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM31">
+        <v>339</v>
+      </c>
+      <c r="AN31">
+        <v>6</v>
+      </c>
+      <c r="AO31">
+        <v>98</v>
+      </c>
+      <c r="AP31">
+        <v>75</v>
+      </c>
+      <c r="AQ31">
+        <v>1350</v>
+      </c>
+      <c r="AR31">
+        <v>450</v>
+      </c>
+      <c r="AS31">
+        <v>1050</v>
+      </c>
+      <c r="AT31">
+        <v>7350</v>
+      </c>
+      <c r="AU31">
+        <v>84</v>
+      </c>
+      <c r="AV31">
+        <v>588</v>
+      </c>
+      <c r="AW31">
+        <v>1372</v>
+      </c>
+      <c r="AX31">
+        <v>4746</v>
+      </c>
+      <c r="AY31">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45185</v>
+      </c>
+      <c r="D32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>123</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>124</v>
+      </c>
+      <c r="L32">
+        <v>2.57</v>
+      </c>
+      <c r="M32">
+        <v>3.71</v>
+      </c>
+      <c r="N32">
+        <v>2.71</v>
+      </c>
+      <c r="O32" t="s">
+        <v>131</v>
+      </c>
+      <c r="P32" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q32">
+        <v>15</v>
+      </c>
+      <c r="R32">
+        <v>3</v>
+      </c>
+      <c r="S32">
+        <v>16</v>
+      </c>
+      <c r="T32">
+        <v>6</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>2</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>6</v>
+      </c>
+      <c r="Z32">
+        <v>4</v>
+      </c>
+      <c r="AA32">
+        <v>12</v>
+      </c>
+      <c r="AB32">
+        <v>9</v>
+      </c>
+      <c r="AC32">
+        <v>4</v>
+      </c>
+      <c r="AD32">
+        <v>10</v>
+      </c>
+      <c r="AE32">
+        <v>21</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ32">
+        <v>3</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>218</v>
+      </c>
+      <c r="AM32">
+        <v>300</v>
+      </c>
+      <c r="AN32">
+        <v>4</v>
+      </c>
+      <c r="AO32">
+        <v>35</v>
+      </c>
+      <c r="AP32">
+        <v>30</v>
+      </c>
+      <c r="AQ32">
+        <v>200</v>
+      </c>
+      <c r="AR32">
+        <v>120</v>
+      </c>
+      <c r="AS32">
+        <v>300</v>
+      </c>
+      <c r="AT32">
+        <v>1050</v>
+      </c>
+      <c r="AU32">
+        <v>40</v>
+      </c>
+      <c r="AV32">
+        <v>140</v>
+      </c>
+      <c r="AW32">
+        <v>350</v>
+      </c>
+      <c r="AX32">
+        <v>3000</v>
+      </c>
+      <c r="AY32">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45185</v>
+      </c>
+      <c r="D33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>125</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>125</v>
+      </c>
+      <c r="L33">
+        <v>1.24</v>
+      </c>
+      <c r="M33">
+        <v>7.19</v>
+      </c>
+      <c r="N33">
+        <v>11.19</v>
+      </c>
+      <c r="O33" t="s">
+        <v>135</v>
+      </c>
+      <c r="P33" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q33">
+        <v>9</v>
+      </c>
+      <c r="R33">
+        <v>6</v>
+      </c>
+      <c r="S33">
+        <v>16</v>
+      </c>
+      <c r="T33">
+        <v>4</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <v>6</v>
+      </c>
+      <c r="AA33">
+        <v>16</v>
+      </c>
+      <c r="AB33">
+        <v>12</v>
+      </c>
+      <c r="AC33">
+        <v>3</v>
+      </c>
+      <c r="AD33">
+        <v>7</v>
+      </c>
+      <c r="AE33">
+        <v>28</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM33">
+        <v>45</v>
+      </c>
+      <c r="AN33">
+        <v>3</v>
+      </c>
+      <c r="AO33">
+        <v>59</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <v>21</v>
+      </c>
+      <c r="AV33">
+        <v>177</v>
+      </c>
+      <c r="AW33">
+        <v>413</v>
+      </c>
+      <c r="AX33">
+        <v>315</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="1">
+        <v>45185</v>
+      </c>
+      <c r="D34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>125</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>125</v>
+      </c>
+      <c r="L34">
+        <v>2.27</v>
+      </c>
+      <c r="M34">
+        <v>3.55</v>
+      </c>
+      <c r="N34">
+        <v>3.27</v>
+      </c>
+      <c r="O34" t="s">
+        <v>129</v>
+      </c>
+      <c r="P34" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q34">
+        <v>8</v>
+      </c>
+      <c r="R34">
+        <v>3</v>
+      </c>
+      <c r="S34">
+        <v>17</v>
+      </c>
+      <c r="T34">
+        <v>5</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>3</v>
+      </c>
+      <c r="Z34">
+        <v>7</v>
+      </c>
+      <c r="AA34">
+        <v>6</v>
+      </c>
+      <c r="AB34">
+        <v>8</v>
+      </c>
+      <c r="AC34">
+        <v>3</v>
+      </c>
+      <c r="AD34">
+        <v>10</v>
+      </c>
+      <c r="AE34">
+        <v>14</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ34">
+        <v>1</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>220</v>
+      </c>
+      <c r="AM34">
+        <v>70</v>
+      </c>
+      <c r="AN34">
+        <v>3</v>
+      </c>
+      <c r="AO34">
+        <v>50</v>
+      </c>
+      <c r="AP34">
+        <v>10</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>30</v>
+      </c>
+      <c r="AS34">
+        <v>100</v>
+      </c>
+      <c r="AT34">
+        <v>500</v>
+      </c>
+      <c r="AU34">
+        <v>30</v>
+      </c>
+      <c r="AV34">
+        <v>150</v>
+      </c>
+      <c r="AW34">
+        <v>500</v>
+      </c>
+      <c r="AX34">
+        <v>700</v>
+      </c>
+      <c r="AY34">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45185</v>
+      </c>
+      <c r="D35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>124</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>124</v>
+      </c>
+      <c r="L35">
+        <v>2.95</v>
+      </c>
+      <c r="M35">
+        <v>3.63</v>
+      </c>
+      <c r="N35">
+        <v>2.42</v>
+      </c>
+      <c r="O35" t="s">
+        <v>131</v>
+      </c>
+      <c r="P35" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q35">
+        <v>24</v>
+      </c>
+      <c r="R35">
+        <v>10</v>
+      </c>
+      <c r="S35">
+        <v>8</v>
+      </c>
+      <c r="T35">
+        <v>6</v>
+      </c>
+      <c r="U35">
+        <v>3</v>
+      </c>
+      <c r="V35">
+        <v>2</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>8</v>
+      </c>
+      <c r="Z35">
+        <v>2</v>
+      </c>
+      <c r="AA35">
+        <v>13</v>
+      </c>
+      <c r="AB35">
+        <v>14</v>
+      </c>
+      <c r="AC35">
+        <v>2</v>
+      </c>
+      <c r="AD35">
+        <v>10</v>
+      </c>
+      <c r="AE35">
+        <v>27</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ35">
+        <v>5</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>221</v>
+      </c>
+      <c r="AM35">
+        <v>129</v>
+      </c>
+      <c r="AN35">
+        <v>2</v>
+      </c>
+      <c r="AO35">
+        <v>33</v>
+      </c>
+      <c r="AP35">
+        <v>50</v>
+      </c>
+      <c r="AQ35">
+        <v>600</v>
+      </c>
+      <c r="AR35">
+        <v>100</v>
+      </c>
+      <c r="AS35">
+        <v>500</v>
+      </c>
+      <c r="AT35">
+        <v>1650</v>
+      </c>
+      <c r="AU35">
+        <v>20</v>
+      </c>
+      <c r="AV35">
+        <v>66</v>
+      </c>
+      <c r="AW35">
+        <v>330</v>
+      </c>
+      <c r="AX35">
+        <v>1290</v>
+      </c>
+      <c r="AY35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="1">
+        <v>45186</v>
+      </c>
+      <c r="D36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>125</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>125</v>
+      </c>
+      <c r="L36">
+        <v>2.39</v>
+      </c>
+      <c r="M36">
+        <v>3.88</v>
+      </c>
+      <c r="N36">
+        <v>2.85</v>
+      </c>
+      <c r="O36" t="s">
+        <v>130</v>
+      </c>
+      <c r="P36" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q36">
+        <v>19</v>
+      </c>
+      <c r="R36">
+        <v>4</v>
+      </c>
+      <c r="S36">
+        <v>11</v>
+      </c>
+      <c r="T36">
+        <v>4</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>10</v>
+      </c>
+      <c r="Z36">
+        <v>1</v>
+      </c>
+      <c r="AA36">
+        <v>21</v>
+      </c>
+      <c r="AB36">
+        <v>9</v>
+      </c>
+      <c r="AC36">
+        <v>6</v>
+      </c>
+      <c r="AD36">
+        <v>11</v>
+      </c>
+      <c r="AE36">
+        <v>30</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ36">
+        <v>2</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>222</v>
+      </c>
+      <c r="AM36">
+        <v>306</v>
+      </c>
+      <c r="AN36">
+        <v>6</v>
+      </c>
+      <c r="AO36">
+        <v>78</v>
+      </c>
+      <c r="AP36">
+        <v>20</v>
+      </c>
+      <c r="AQ36">
+        <v>100</v>
+      </c>
+      <c r="AR36">
+        <v>120</v>
+      </c>
+      <c r="AS36">
+        <v>220</v>
+      </c>
+      <c r="AT36">
+        <v>1560</v>
+      </c>
+      <c r="AU36">
+        <v>66</v>
+      </c>
+      <c r="AV36">
+        <v>468</v>
+      </c>
+      <c r="AW36">
+        <v>858</v>
+      </c>
+      <c r="AX36">
+        <v>3366</v>
+      </c>
+      <c r="AY36">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45186</v>
+      </c>
+      <c r="D37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37" t="s">
+        <v>124</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>125</v>
+      </c>
+      <c r="L37">
+        <v>3.01</v>
+      </c>
+      <c r="M37">
+        <v>3.74</v>
+      </c>
+      <c r="N37">
+        <v>2.34</v>
+      </c>
+      <c r="O37" t="s">
+        <v>135</v>
+      </c>
+      <c r="P37" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q37">
+        <v>15</v>
+      </c>
+      <c r="R37">
+        <v>8</v>
+      </c>
+      <c r="S37">
+        <v>21</v>
+      </c>
+      <c r="T37">
+        <v>10</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>6</v>
+      </c>
+      <c r="Z37">
+        <v>6</v>
+      </c>
+      <c r="AA37">
+        <v>12</v>
+      </c>
+      <c r="AB37">
+        <v>8</v>
+      </c>
+      <c r="AC37">
+        <v>6</v>
+      </c>
+      <c r="AD37">
+        <v>12</v>
+      </c>
+      <c r="AE37">
+        <v>20</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ37">
+        <v>2</v>
+      </c>
+      <c r="AK37">
+        <v>1</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>223</v>
+      </c>
+      <c r="AM37">
+        <v>257</v>
+      </c>
+      <c r="AN37">
+        <v>6</v>
+      </c>
+      <c r="AO37">
+        <v>79</v>
+      </c>
+      <c r="AP37">
+        <v>45</v>
+      </c>
+      <c r="AQ37">
+        <v>350</v>
+      </c>
+      <c r="AR37">
+        <v>270</v>
+      </c>
+      <c r="AS37">
+        <v>540</v>
+      </c>
+      <c r="AT37">
+        <v>3555</v>
+      </c>
+      <c r="AU37">
+        <v>72</v>
+      </c>
+      <c r="AV37">
+        <v>474</v>
+      </c>
+      <c r="AW37">
+        <v>948</v>
+      </c>
+      <c r="AX37">
+        <v>3084</v>
+      </c>
+      <c r="AY37">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="1">
+        <v>45191</v>
+      </c>
+      <c r="D38" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>125</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>125</v>
+      </c>
+      <c r="L38">
+        <v>1.4</v>
+      </c>
+      <c r="M38">
+        <v>5.24</v>
+      </c>
+      <c r="N38">
+        <v>8.18</v>
+      </c>
+      <c r="O38" t="s">
+        <v>129</v>
+      </c>
+      <c r="P38" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q38">
+        <v>18</v>
+      </c>
+      <c r="R38">
+        <v>11</v>
+      </c>
+      <c r="S38">
+        <v>3</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>6</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>5</v>
+      </c>
+      <c r="Z38">
+        <v>4</v>
+      </c>
+      <c r="AA38">
+        <v>7</v>
+      </c>
+      <c r="AB38">
+        <v>12</v>
+      </c>
+      <c r="AC38">
+        <v>4</v>
+      </c>
+      <c r="AD38">
+        <v>9</v>
+      </c>
+      <c r="AE38">
+        <v>19</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ38">
+        <v>7</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM38">
+        <v>161</v>
+      </c>
+      <c r="AN38">
+        <v>4</v>
+      </c>
+      <c r="AO38">
+        <v>49</v>
+      </c>
+      <c r="AP38">
+        <v>70</v>
+      </c>
+      <c r="AQ38">
+        <v>600</v>
+      </c>
+      <c r="AR38">
+        <v>280</v>
+      </c>
+      <c r="AS38">
+        <v>630</v>
+      </c>
+      <c r="AT38">
+        <v>3430</v>
+      </c>
+      <c r="AU38">
+        <v>36</v>
+      </c>
+      <c r="AV38">
+        <v>196</v>
+      </c>
+      <c r="AW38">
+        <v>441</v>
+      </c>
+      <c r="AX38">
+        <v>1449</v>
+      </c>
+      <c r="AY38">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45192</v>
+      </c>
+      <c r="D39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>125</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>125</v>
+      </c>
+      <c r="L39">
+        <v>2.61</v>
+      </c>
+      <c r="M39">
+        <v>3.7</v>
+      </c>
+      <c r="N39">
+        <v>2.68</v>
+      </c>
+      <c r="O39" t="s">
+        <v>129</v>
+      </c>
+      <c r="P39" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q39">
+        <v>6</v>
+      </c>
+      <c r="R39">
+        <v>3</v>
+      </c>
+      <c r="S39">
+        <v>13</v>
+      </c>
+      <c r="T39">
+        <v>3</v>
+      </c>
+      <c r="U39">
+        <v>2</v>
+      </c>
+      <c r="V39">
+        <v>3</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>3</v>
+      </c>
+      <c r="Z39">
+        <v>4</v>
+      </c>
+      <c r="AA39">
+        <v>16</v>
+      </c>
+      <c r="AB39">
+        <v>14</v>
+      </c>
+      <c r="AC39">
+        <v>3</v>
+      </c>
+      <c r="AD39">
+        <v>7</v>
+      </c>
+      <c r="AE39">
+        <v>30</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ39">
+        <v>5</v>
+      </c>
+      <c r="AK39">
+        <v>1</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>225</v>
+      </c>
+      <c r="AM39">
+        <v>66</v>
+      </c>
+      <c r="AN39">
+        <v>3</v>
+      </c>
+      <c r="AO39">
+        <v>35</v>
+      </c>
+      <c r="AP39">
+        <v>75</v>
+      </c>
+      <c r="AQ39">
+        <v>1350</v>
+      </c>
+      <c r="AR39">
+        <v>225</v>
+      </c>
+      <c r="AS39">
+        <v>525</v>
+      </c>
+      <c r="AT39">
+        <v>2625</v>
+      </c>
+      <c r="AU39">
+        <v>21</v>
+      </c>
+      <c r="AV39">
+        <v>105</v>
+      </c>
+      <c r="AW39">
+        <v>245</v>
+      </c>
+      <c r="AX39">
+        <v>462</v>
+      </c>
+      <c r="AY39">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="1">
+        <v>45192</v>
+      </c>
+      <c r="D40" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" t="s">
+        <v>115</v>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>125</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>125</v>
+      </c>
+      <c r="L40">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M40">
+        <v>12.85</v>
+      </c>
+      <c r="N40">
+        <v>20.11</v>
+      </c>
+      <c r="O40" t="s">
+        <v>136</v>
+      </c>
+      <c r="P40" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q40">
+        <v>26</v>
+      </c>
+      <c r="R40">
+        <v>16</v>
+      </c>
+      <c r="S40">
+        <v>4</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>8</v>
+      </c>
+      <c r="Z40">
+        <v>1</v>
+      </c>
+      <c r="AA40">
+        <v>8</v>
+      </c>
+      <c r="AB40">
+        <v>10</v>
+      </c>
+      <c r="AC40">
+        <v>7</v>
+      </c>
+      <c r="AD40">
+        <v>9</v>
+      </c>
+      <c r="AE40">
+        <v>18</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ40">
+        <v>1</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM40">
+        <v>307</v>
+      </c>
+      <c r="AN40">
+        <v>7</v>
+      </c>
+      <c r="AO40">
+        <v>93</v>
+      </c>
+      <c r="AP40">
+        <v>10</v>
+      </c>
+      <c r="AQ40">
+        <v>0</v>
+      </c>
+      <c r="AR40">
+        <v>70</v>
+      </c>
+      <c r="AS40">
+        <v>90</v>
+      </c>
+      <c r="AT40">
+        <v>930</v>
+      </c>
+      <c r="AU40">
+        <v>63</v>
+      </c>
+      <c r="AV40">
+        <v>651</v>
+      </c>
+      <c r="AW40">
+        <v>837</v>
+      </c>
+      <c r="AX40">
+        <v>2763</v>
+      </c>
+      <c r="AY40">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45192</v>
+      </c>
+      <c r="D41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>125</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>124</v>
+      </c>
+      <c r="L41">
+        <v>1.71</v>
+      </c>
+      <c r="M41">
+        <v>4.47</v>
+      </c>
+      <c r="N41">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="O41" t="s">
+        <v>131</v>
+      </c>
+      <c r="P41" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q41">
+        <v>18</v>
+      </c>
+      <c r="R41">
+        <v>4</v>
+      </c>
+      <c r="S41">
+        <v>8</v>
+      </c>
+      <c r="T41">
+        <v>2</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>5</v>
+      </c>
+      <c r="Z41">
+        <v>3</v>
+      </c>
+      <c r="AA41">
+        <v>9</v>
+      </c>
+      <c r="AB41">
+        <v>14</v>
+      </c>
+      <c r="AC41">
+        <v>1</v>
+      </c>
+      <c r="AD41">
+        <v>8</v>
+      </c>
+      <c r="AE41">
+        <v>23</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ41">
+        <v>1</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>227</v>
+      </c>
+      <c r="AM41">
+        <v>68</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
+        <v>11</v>
+      </c>
+      <c r="AP41">
+        <v>10</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <v>10</v>
+      </c>
+      <c r="AS41">
+        <v>80</v>
+      </c>
+      <c r="AT41">
+        <v>110</v>
+      </c>
+      <c r="AU41">
+        <v>8</v>
+      </c>
+      <c r="AV41">
+        <v>11</v>
+      </c>
+      <c r="AW41">
+        <v>88</v>
+      </c>
+      <c r="AX41">
+        <v>544</v>
+      </c>
+      <c r="AY41">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="1">
+        <v>45192</v>
+      </c>
+      <c r="D42" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>124</v>
+      </c>
+      <c r="L42">
+        <v>5.26</v>
+      </c>
+      <c r="M42">
+        <v>4.74</v>
+      </c>
+      <c r="N42">
+        <v>1.59</v>
+      </c>
+      <c r="O42" t="s">
+        <v>131</v>
+      </c>
+      <c r="P42" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q42">
+        <v>13</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>8</v>
+      </c>
+      <c r="T42">
+        <v>4</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>11</v>
+      </c>
+      <c r="Z42">
+        <v>6</v>
+      </c>
+      <c r="AA42">
+        <v>14</v>
+      </c>
+      <c r="AB42">
+        <v>7</v>
+      </c>
+      <c r="AC42">
+        <v>1</v>
+      </c>
+      <c r="AD42">
+        <v>17</v>
+      </c>
+      <c r="AE42">
+        <v>21</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ42">
+        <v>2</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM42">
+        <v>75</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
+        <v>11</v>
+      </c>
+      <c r="AP42">
+        <v>20</v>
+      </c>
+      <c r="AQ42">
+        <v>100</v>
+      </c>
+      <c r="AR42">
+        <v>20</v>
+      </c>
+      <c r="AS42">
+        <v>340</v>
+      </c>
+      <c r="AT42">
+        <v>220</v>
+      </c>
+      <c r="AU42">
+        <v>17</v>
+      </c>
+      <c r="AV42">
+        <v>11</v>
+      </c>
+      <c r="AW42">
+        <v>187</v>
+      </c>
+      <c r="AX42">
+        <v>1275</v>
+      </c>
+      <c r="AY42">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="1">
+        <v>45192</v>
+      </c>
+      <c r="D43" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" t="s">
+        <v>107</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43" t="s">
+        <v>123</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43" t="s">
+        <v>123</v>
+      </c>
+      <c r="L43">
+        <v>2.15</v>
+      </c>
+      <c r="M43">
+        <v>3.72</v>
+      </c>
+      <c r="N43">
+        <v>3.39</v>
+      </c>
+      <c r="O43" t="s">
+        <v>128</v>
+      </c>
+      <c r="P43" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q43">
+        <v>22</v>
+      </c>
+      <c r="R43">
+        <v>6</v>
+      </c>
+      <c r="S43">
+        <v>11</v>
+      </c>
+      <c r="T43">
+        <v>4</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <v>3</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>11</v>
+      </c>
+      <c r="Z43">
+        <v>6</v>
+      </c>
+      <c r="AA43">
+        <v>11</v>
+      </c>
+      <c r="AB43">
+        <v>13</v>
+      </c>
+      <c r="AC43">
+        <v>2</v>
+      </c>
+      <c r="AD43">
+        <v>17</v>
+      </c>
+      <c r="AE43">
+        <v>24</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ43">
+        <v>4</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM43">
+        <v>60</v>
+      </c>
+      <c r="AN43">
+        <v>2</v>
+      </c>
+      <c r="AO43">
+        <v>14</v>
+      </c>
+      <c r="AP43">
+        <v>40</v>
+      </c>
+      <c r="AQ43">
+        <v>300</v>
+      </c>
+      <c r="AR43">
+        <v>80</v>
+      </c>
+      <c r="AS43">
+        <v>680</v>
+      </c>
+      <c r="AT43">
+        <v>560</v>
+      </c>
+      <c r="AU43">
+        <v>34</v>
+      </c>
+      <c r="AV43">
+        <v>28</v>
+      </c>
+      <c r="AW43">
+        <v>238</v>
+      </c>
+      <c r="AX43">
+        <v>1020</v>
+      </c>
+      <c r="AY43">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="1">
+        <v>45192</v>
+      </c>
+      <c r="D44" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" t="s">
+        <v>117</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>125</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>124</v>
+      </c>
+      <c r="L44">
+        <v>2.56</v>
+      </c>
+      <c r="M44">
+        <v>3.69</v>
+      </c>
+      <c r="N44">
+        <v>2.74</v>
+      </c>
+      <c r="O44" t="s">
+        <v>134</v>
+      </c>
+      <c r="P44" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q44">
+        <v>17</v>
+      </c>
+      <c r="R44">
+        <v>6</v>
+      </c>
+      <c r="S44">
+        <v>13</v>
+      </c>
+      <c r="T44">
+        <v>5</v>
+      </c>
+      <c r="U44">
+        <v>2</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>9</v>
+      </c>
+      <c r="Z44">
+        <v>8</v>
+      </c>
+      <c r="AA44">
+        <v>18</v>
+      </c>
+      <c r="AB44">
+        <v>16</v>
+      </c>
+      <c r="AC44">
+        <v>3</v>
+      </c>
+      <c r="AD44">
+        <v>17</v>
+      </c>
+      <c r="AE44">
+        <v>34</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ44">
+        <v>3</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>230</v>
+      </c>
+      <c r="AM44">
+        <v>136</v>
+      </c>
+      <c r="AN44">
+        <v>3</v>
+      </c>
+      <c r="AO44">
+        <v>63</v>
+      </c>
+      <c r="AP44">
+        <v>30</v>
+      </c>
+      <c r="AQ44">
+        <v>200</v>
+      </c>
+      <c r="AR44">
+        <v>90</v>
+      </c>
+      <c r="AS44">
+        <v>510</v>
+      </c>
+      <c r="AT44">
+        <v>1890</v>
+      </c>
+      <c r="AU44">
+        <v>51</v>
+      </c>
+      <c r="AV44">
+        <v>189</v>
+      </c>
+      <c r="AW44">
+        <v>1071</v>
+      </c>
+      <c r="AX44">
+        <v>2312</v>
+      </c>
+      <c r="AY44">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="1">
+        <v>45193</v>
+      </c>
+      <c r="D45" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>125</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>125</v>
+      </c>
+      <c r="L45">
+        <v>1.23</v>
+      </c>
+      <c r="M45">
+        <v>7.35</v>
+      </c>
+      <c r="N45">
+        <v>11.42</v>
+      </c>
+      <c r="O45" t="s">
+        <v>132</v>
+      </c>
+      <c r="P45" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q45">
+        <v>20</v>
+      </c>
+      <c r="R45">
+        <v>10</v>
+      </c>
+      <c r="S45">
+        <v>1</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>1</v>
+      </c>
+      <c r="V45">
+        <v>1</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>7</v>
+      </c>
+      <c r="Z45">
+        <v>2</v>
+      </c>
+      <c r="AA45">
+        <v>9</v>
+      </c>
+      <c r="AB45">
+        <v>10</v>
+      </c>
+      <c r="AC45">
+        <v>5</v>
+      </c>
+      <c r="AD45">
+        <v>9</v>
+      </c>
+      <c r="AE45">
+        <v>19</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ45">
+        <v>2</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>231</v>
+      </c>
+      <c r="AM45">
+        <v>286</v>
+      </c>
+      <c r="AN45">
+        <v>5</v>
+      </c>
+      <c r="AO45">
+        <v>80</v>
+      </c>
+      <c r="AP45">
+        <v>20</v>
+      </c>
+      <c r="AQ45">
+        <v>100</v>
+      </c>
+      <c r="AR45">
+        <v>100</v>
+      </c>
+      <c r="AS45">
+        <v>180</v>
+      </c>
+      <c r="AT45">
+        <v>1600</v>
+      </c>
+      <c r="AU45">
+        <v>45</v>
+      </c>
+      <c r="AV45">
+        <v>400</v>
+      </c>
+      <c r="AW45">
+        <v>720</v>
+      </c>
+      <c r="AX45">
+        <v>2574</v>
+      </c>
+      <c r="AY45">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="1">
+        <v>45193</v>
+      </c>
+      <c r="D46" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" t="s">
+        <v>118</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>124</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>124</v>
+      </c>
+      <c r="L46">
+        <v>2.16</v>
+      </c>
+      <c r="M46">
+        <v>3.66</v>
+      </c>
+      <c r="N46">
+        <v>3.42</v>
+      </c>
+      <c r="O46" t="s">
+        <v>131</v>
+      </c>
+      <c r="P46" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q46">
+        <v>13</v>
+      </c>
+      <c r="R46">
+        <v>5</v>
+      </c>
+      <c r="S46">
+        <v>9</v>
+      </c>
+      <c r="T46">
+        <v>2</v>
+      </c>
+      <c r="U46">
+        <v>4</v>
+      </c>
+      <c r="V46">
+        <v>2</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>7</v>
+      </c>
+      <c r="Z46">
+        <v>3</v>
+      </c>
+      <c r="AA46">
+        <v>12</v>
+      </c>
+      <c r="AB46">
+        <v>5</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>10</v>
+      </c>
+      <c r="AE46">
+        <v>17</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ46">
+        <v>6</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>0</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>60</v>
+      </c>
+      <c r="AQ46">
+        <v>800</v>
+      </c>
+      <c r="AR46">
+        <v>0</v>
+      </c>
+      <c r="AS46">
+        <v>600</v>
+      </c>
+      <c r="AT46">
+        <v>0</v>
+      </c>
+      <c r="AU46">
+        <v>0</v>
+      </c>
+      <c r="AV46">
+        <v>0</v>
+      </c>
+      <c r="AW46">
+        <v>0</v>
+      </c>
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="1">
+        <v>45198</v>
+      </c>
+      <c r="D47" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47" t="s">
+        <v>123</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47" t="s">
+        <v>123</v>
+      </c>
+      <c r="L47">
+        <v>3.15</v>
+      </c>
+      <c r="M47">
+        <v>4.16</v>
+      </c>
+      <c r="N47">
+        <v>2.12</v>
+      </c>
+      <c r="O47" t="s">
+        <v>137</v>
+      </c>
+      <c r="P47" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q47">
+        <v>15</v>
+      </c>
+      <c r="R47">
+        <v>5</v>
+      </c>
+      <c r="S47">
+        <v>6</v>
+      </c>
+      <c r="T47">
+        <v>5</v>
+      </c>
+      <c r="U47">
+        <v>3</v>
+      </c>
+      <c r="V47">
+        <v>4</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>1</v>
+      </c>
+      <c r="Y47">
+        <v>4</v>
+      </c>
+      <c r="Z47">
+        <v>3</v>
+      </c>
+      <c r="AA47">
+        <v>14</v>
+      </c>
+      <c r="AB47">
+        <v>16</v>
+      </c>
+      <c r="AC47">
+        <v>4</v>
+      </c>
+      <c r="AD47">
+        <v>7</v>
+      </c>
+      <c r="AE47">
+        <v>30</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ47">
+        <v>7</v>
+      </c>
+      <c r="AK47">
+        <v>1</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>233</v>
+      </c>
+      <c r="AM47">
+        <v>178</v>
+      </c>
+      <c r="AN47">
+        <v>4</v>
+      </c>
+      <c r="AO47">
+        <v>78</v>
+      </c>
+      <c r="AP47">
+        <v>95</v>
+      </c>
+      <c r="AQ47">
+        <v>1950</v>
+      </c>
+      <c r="AR47">
+        <v>380</v>
+      </c>
+      <c r="AS47">
+        <v>665</v>
+      </c>
+      <c r="AT47">
+        <f>AO47*AP47</f>
+        <v>7410</v>
+      </c>
+      <c r="AU47">
+        <v>28</v>
+      </c>
+      <c r="AV47">
+        <f>AN47*AO47</f>
+        <v>312</v>
+      </c>
+      <c r="AW47">
+        <f>AO47*AD47</f>
+        <v>546</v>
+      </c>
+      <c r="AX47">
+        <f>AM47*AD47</f>
+        <v>1246</v>
+      </c>
+      <c r="AY47">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="1">
+        <v>45199</v>
+      </c>
+      <c r="D48" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48" t="s">
+        <v>123</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+      <c r="K48" t="s">
+        <v>123</v>
+      </c>
+      <c r="L48">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="M48">
+        <v>3.88</v>
+      </c>
+      <c r="N48">
+        <v>2.96</v>
+      </c>
+      <c r="O48" t="s">
+        <v>138</v>
+      </c>
+      <c r="P48" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q48">
+        <v>23</v>
+      </c>
+      <c r="R48">
+        <v>5</v>
+      </c>
+      <c r="S48">
+        <v>25</v>
+      </c>
+      <c r="T48">
+        <v>9</v>
+      </c>
+      <c r="U48">
+        <v>2</v>
+      </c>
+      <c r="V48">
+        <v>3</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>5</v>
+      </c>
+      <c r="Z48">
+        <v>10</v>
+      </c>
+      <c r="AA48">
+        <v>12</v>
+      </c>
+      <c r="AB48">
+        <v>12</v>
+      </c>
+      <c r="AC48">
+        <v>4</v>
+      </c>
+      <c r="AD48">
+        <v>15</v>
+      </c>
+      <c r="AE48">
+        <v>24</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ48">
+        <v>5</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>234</v>
+      </c>
+      <c r="AM48">
+        <v>177</v>
+      </c>
+      <c r="AN48">
+        <v>4</v>
+      </c>
+      <c r="AO48">
+        <v>46</v>
+      </c>
+      <c r="AP48">
+        <v>50</v>
+      </c>
+      <c r="AQ48">
+        <v>600</v>
+      </c>
+      <c r="AR48">
+        <v>200</v>
+      </c>
+      <c r="AS48">
+        <v>750</v>
+      </c>
+      <c r="AT48">
+        <f t="shared" ref="AT48:AT55" si="0">AO48*AP48</f>
+        <v>2300</v>
+      </c>
+      <c r="AU48">
+        <v>60</v>
+      </c>
+      <c r="AV48">
+        <f t="shared" ref="AV48:AV55" si="1">AN48*AO48</f>
+        <v>184</v>
+      </c>
+      <c r="AW48">
+        <f t="shared" ref="AW48:AW55" si="2">AO48*AD48</f>
+        <v>690</v>
+      </c>
+      <c r="AX48">
+        <f t="shared" ref="AX48:AX55" si="3">AM48*AD48</f>
+        <v>2655</v>
+      </c>
+      <c r="AY48">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="1">
+        <v>45199</v>
+      </c>
+      <c r="D49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" t="s">
+        <v>109</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>123</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>124</v>
+      </c>
+      <c r="L49">
+        <v>2.89</v>
+      </c>
+      <c r="M49">
+        <v>3.64</v>
+      </c>
+      <c r="N49">
+        <v>2.46</v>
+      </c>
+      <c r="O49" t="s">
+        <v>131</v>
+      </c>
+      <c r="P49" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q49">
+        <v>14</v>
+      </c>
+      <c r="R49">
+        <v>5</v>
+      </c>
+      <c r="S49">
+        <v>18</v>
+      </c>
+      <c r="T49">
+        <v>4</v>
+      </c>
+      <c r="U49">
+        <v>2</v>
+      </c>
+      <c r="V49">
+        <v>1</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>8</v>
+      </c>
+      <c r="Z49">
+        <v>4</v>
+      </c>
+      <c r="AA49">
+        <v>16</v>
+      </c>
+      <c r="AB49">
+        <v>8</v>
+      </c>
+      <c r="AC49">
+        <v>2</v>
+      </c>
+      <c r="AD49">
+        <v>12</v>
+      </c>
+      <c r="AE49">
+        <v>24</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ49">
+        <v>3</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>235</v>
+      </c>
+      <c r="AM49">
+        <v>156</v>
+      </c>
+      <c r="AN49">
+        <v>2</v>
+      </c>
+      <c r="AO49">
+        <v>52</v>
+      </c>
+      <c r="AP49">
+        <v>30</v>
+      </c>
+      <c r="AQ49">
+        <v>200</v>
+      </c>
+      <c r="AR49">
+        <v>60</v>
+      </c>
+      <c r="AS49">
+        <v>360</v>
+      </c>
+      <c r="AT49">
+        <f t="shared" si="0"/>
+        <v>1560</v>
+      </c>
+      <c r="AU49">
+        <v>24</v>
+      </c>
+      <c r="AV49">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="AW49">
+        <f t="shared" si="2"/>
+        <v>624</v>
+      </c>
+      <c r="AX49">
+        <f t="shared" si="3"/>
+        <v>1872</v>
+      </c>
+      <c r="AY49">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="1">
+        <v>45199</v>
+      </c>
+      <c r="D50" t="s">
+        <v>119</v>
+      </c>
+      <c r="E50" t="s">
+        <v>112</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>125</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>124</v>
+      </c>
+      <c r="L50">
+        <v>3.05</v>
+      </c>
+      <c r="M50">
+        <v>3.72</v>
+      </c>
+      <c r="N50">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="O50" t="s">
+        <v>131</v>
+      </c>
+      <c r="P50" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q50">
+        <v>9</v>
+      </c>
+      <c r="R50">
+        <v>4</v>
+      </c>
+      <c r="S50">
+        <v>19</v>
+      </c>
+      <c r="T50">
+        <v>8</v>
+      </c>
+      <c r="U50">
+        <v>1</v>
+      </c>
+      <c r="V50">
+        <v>2</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>5</v>
+      </c>
+      <c r="Z50">
+        <v>7</v>
+      </c>
+      <c r="AA50">
+        <v>11</v>
+      </c>
+      <c r="AB50">
+        <v>14</v>
+      </c>
+      <c r="AC50">
+        <v>1</v>
+      </c>
+      <c r="AD50">
+        <v>12</v>
+      </c>
+      <c r="AE50">
+        <v>25</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ50">
+        <v>3</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>236</v>
+      </c>
+      <c r="AM50">
+        <v>59</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
+        <v>37</v>
+      </c>
+      <c r="AP50">
+        <v>30</v>
+      </c>
+      <c r="AQ50">
+        <v>200</v>
+      </c>
+      <c r="AR50">
+        <v>30</v>
+      </c>
+      <c r="AS50">
+        <v>360</v>
+      </c>
+      <c r="AT50">
+        <f t="shared" si="0"/>
+        <v>1110</v>
+      </c>
+      <c r="AU50">
+        <v>12</v>
+      </c>
+      <c r="AV50">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="AW50">
+        <f t="shared" si="2"/>
+        <v>444</v>
+      </c>
+      <c r="AX50">
+        <f t="shared" si="3"/>
+        <v>708</v>
+      </c>
+      <c r="AY50">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="1">
+        <v>45199</v>
+      </c>
+      <c r="D51" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51" t="s">
+        <v>123</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
+        <v>123</v>
+      </c>
+      <c r="L51">
+        <v>5.85</v>
+      </c>
+      <c r="M51">
+        <v>4.72</v>
+      </c>
+      <c r="N51">
+        <v>1.54</v>
+      </c>
+      <c r="O51" t="s">
+        <v>126</v>
+      </c>
+      <c r="P51" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q51">
+        <v>10</v>
+      </c>
+      <c r="R51">
+        <v>3</v>
+      </c>
+      <c r="S51">
+        <v>6</v>
+      </c>
+      <c r="T51">
+        <v>3</v>
+      </c>
+      <c r="U51">
+        <v>4</v>
+      </c>
+      <c r="V51">
+        <v>1</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>3</v>
+      </c>
+      <c r="Z51">
+        <v>1</v>
+      </c>
+      <c r="AA51">
+        <v>13</v>
+      </c>
+      <c r="AB51">
+        <v>11</v>
+      </c>
+      <c r="AC51">
+        <v>3</v>
+      </c>
+      <c r="AD51">
+        <v>4</v>
+      </c>
+      <c r="AE51">
+        <v>24</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ51">
+        <v>5</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>237</v>
+      </c>
+      <c r="AM51">
+        <v>142</v>
+      </c>
+      <c r="AN51">
+        <v>3</v>
+      </c>
+      <c r="AO51">
+        <v>30</v>
+      </c>
+      <c r="AP51">
+        <v>50</v>
+      </c>
+      <c r="AQ51">
+        <v>400</v>
+      </c>
+      <c r="AR51">
+        <v>150</v>
+      </c>
+      <c r="AS51">
+        <v>200</v>
+      </c>
+      <c r="AT51">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="AU51">
+        <v>12</v>
+      </c>
+      <c r="AV51">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="AW51">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="AX51">
+        <f t="shared" si="3"/>
+        <v>568</v>
+      </c>
+      <c r="AY51">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="1">
+        <v>45199</v>
+      </c>
+      <c r="D52" t="s">
+        <v>110</v>
+      </c>
+      <c r="E52" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>125</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>125</v>
+      </c>
+      <c r="L52">
+        <v>2.11</v>
+      </c>
+      <c r="M52">
+        <v>3.53</v>
+      </c>
+      <c r="N52">
+        <v>3.68</v>
+      </c>
+      <c r="O52" t="s">
+        <v>132</v>
+      </c>
+      <c r="P52" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q52">
+        <v>19</v>
+      </c>
+      <c r="R52">
+        <v>7</v>
+      </c>
+      <c r="S52">
+        <v>7</v>
+      </c>
+      <c r="T52">
+        <v>3</v>
+      </c>
+      <c r="U52">
+        <v>1</v>
+      </c>
+      <c r="V52">
+        <v>6</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>1</v>
+      </c>
+      <c r="Y52">
+        <v>7</v>
+      </c>
+      <c r="Z52">
+        <v>4</v>
+      </c>
+      <c r="AA52">
+        <v>11</v>
+      </c>
+      <c r="AB52">
+        <v>18</v>
+      </c>
+      <c r="AC52">
+        <v>2</v>
+      </c>
+      <c r="AD52">
+        <v>11</v>
+      </c>
+      <c r="AE52">
+        <v>29</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ52">
+        <v>7</v>
+      </c>
+      <c r="AK52">
+        <v>1</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM52">
+        <v>115</v>
+      </c>
+      <c r="AN52">
+        <v>2</v>
+      </c>
+      <c r="AO52">
+        <v>46</v>
+      </c>
+      <c r="AP52">
+        <v>95</v>
+      </c>
+      <c r="AQ52">
+        <v>850</v>
+      </c>
+      <c r="AR52">
+        <v>190</v>
+      </c>
+      <c r="AS52">
+        <v>1045</v>
+      </c>
+      <c r="AT52">
+        <f t="shared" si="0"/>
+        <v>4370</v>
+      </c>
+      <c r="AU52">
+        <v>22</v>
+      </c>
+      <c r="AV52">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="AW52">
+        <f t="shared" si="2"/>
+        <v>506</v>
+      </c>
+      <c r="AX52">
+        <f t="shared" si="3"/>
+        <v>1265</v>
+      </c>
+      <c r="AY52">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="1">
+        <v>45199</v>
+      </c>
+      <c r="D53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" t="s">
+        <v>122</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53" t="s">
+        <v>124</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>125</v>
+      </c>
+      <c r="L53">
+        <v>3.73</v>
+      </c>
+      <c r="M53">
+        <v>4.2</v>
+      </c>
+      <c r="N53">
+        <v>1.91</v>
+      </c>
+      <c r="O53" t="s">
+        <v>130</v>
+      </c>
+      <c r="P53" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q53">
+        <v>7</v>
+      </c>
+      <c r="R53">
+        <v>2</v>
+      </c>
+      <c r="S53">
+        <v>11</v>
+      </c>
+      <c r="T53">
+        <v>5</v>
+      </c>
+      <c r="U53">
+        <v>2</v>
+      </c>
+      <c r="V53">
+        <v>5</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>5</v>
+      </c>
+      <c r="Z53">
+        <v>1</v>
+      </c>
+      <c r="AA53">
+        <v>10</v>
+      </c>
+      <c r="AB53">
+        <v>11</v>
+      </c>
+      <c r="AC53">
+        <v>4</v>
+      </c>
+      <c r="AD53">
+        <v>6</v>
+      </c>
+      <c r="AE53">
+        <v>21</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ53">
+        <v>7</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM53">
+        <v>173</v>
+      </c>
+      <c r="AN53">
+        <v>4</v>
+      </c>
+      <c r="AO53">
+        <v>59</v>
+      </c>
+      <c r="AP53">
+        <v>70</v>
+      </c>
+      <c r="AQ53">
+        <v>1000</v>
+      </c>
+      <c r="AR53">
+        <v>280</v>
+      </c>
+      <c r="AS53">
+        <v>420</v>
+      </c>
+      <c r="AT53">
+        <f t="shared" si="0"/>
+        <v>4130</v>
+      </c>
+      <c r="AU53">
+        <v>24</v>
+      </c>
+      <c r="AV53">
+        <f t="shared" si="1"/>
+        <v>236</v>
+      </c>
+      <c r="AW53">
+        <f t="shared" si="2"/>
+        <v>354</v>
+      </c>
+      <c r="AX53">
+        <f t="shared" si="3"/>
+        <v>1038</v>
+      </c>
+      <c r="AY53">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="1">
+        <v>45200</v>
+      </c>
+      <c r="D54" t="s">
+        <v>116</v>
+      </c>
+      <c r="E54" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54" t="s">
+        <v>125</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>125</v>
+      </c>
+      <c r="L54">
+        <v>2.82</v>
+      </c>
+      <c r="M54">
+        <v>3.74</v>
+      </c>
+      <c r="N54">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="O54" t="s">
+        <v>130</v>
+      </c>
+      <c r="P54" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q54">
+        <v>14</v>
+      </c>
+      <c r="R54">
+        <v>5</v>
+      </c>
+      <c r="S54">
+        <v>10</v>
+      </c>
+      <c r="T54">
+        <v>7</v>
+      </c>
+      <c r="U54">
+        <v>3</v>
+      </c>
+      <c r="V54">
+        <v>2</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>2</v>
+      </c>
+      <c r="Z54">
+        <v>4</v>
+      </c>
+      <c r="AA54">
+        <v>19</v>
+      </c>
+      <c r="AB54">
+        <v>19</v>
+      </c>
+      <c r="AC54">
+        <v>6</v>
+      </c>
+      <c r="AD54">
+        <v>6</v>
+      </c>
+      <c r="AE54">
+        <v>38</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ54">
+        <v>5</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM54">
+        <v>291</v>
+      </c>
+      <c r="AN54">
+        <v>6</v>
+      </c>
+      <c r="AO54">
+        <v>85</v>
+      </c>
+      <c r="AP54">
+        <v>50</v>
+      </c>
+      <c r="AQ54">
+        <v>600</v>
+      </c>
+      <c r="AR54">
+        <v>300</v>
+      </c>
+      <c r="AS54">
+        <v>300</v>
+      </c>
+      <c r="AT54">
+        <f t="shared" si="0"/>
+        <v>4250</v>
+      </c>
+      <c r="AU54">
+        <v>36</v>
+      </c>
+      <c r="AV54">
+        <f t="shared" si="1"/>
+        <v>510</v>
+      </c>
+      <c r="AW54">
+        <f t="shared" si="2"/>
+        <v>510</v>
+      </c>
+      <c r="AX54">
+        <f t="shared" si="3"/>
+        <v>1746</v>
+      </c>
+      <c r="AY54">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="1">
+        <v>45200</v>
+      </c>
+      <c r="D55" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>125</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>125</v>
+      </c>
+      <c r="L55">
+        <v>1.73</v>
+      </c>
+      <c r="M55">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="N55">
+        <v>4.68</v>
+      </c>
+      <c r="O55" t="s">
+        <v>132</v>
+      </c>
+      <c r="P55" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q55">
+        <v>7</v>
+      </c>
+      <c r="R55">
+        <v>3</v>
+      </c>
+      <c r="S55">
+        <v>13</v>
+      </c>
+      <c r="T55">
+        <v>4</v>
+      </c>
+      <c r="U55">
+        <v>2</v>
+      </c>
+      <c r="V55">
+        <v>2</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>2</v>
+      </c>
+      <c r="Z55">
+        <v>3</v>
+      </c>
+      <c r="AA55">
+        <v>13</v>
+      </c>
+      <c r="AB55">
+        <v>17</v>
+      </c>
+      <c r="AC55">
+        <v>2</v>
+      </c>
+      <c r="AD55">
+        <v>5</v>
+      </c>
+      <c r="AE55">
+        <v>30</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ55">
+        <v>4</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM55">
+        <v>61</v>
+      </c>
+      <c r="AN55">
+        <v>2</v>
+      </c>
+      <c r="AO55">
+        <v>35</v>
+      </c>
+      <c r="AP55">
+        <v>40</v>
+      </c>
+      <c r="AQ55">
+        <v>400</v>
+      </c>
+      <c r="AR55">
+        <v>80</v>
+      </c>
+      <c r="AS55">
+        <v>200</v>
+      </c>
+      <c r="AT55">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="AU55">
+        <v>10</v>
+      </c>
+      <c r="AV55">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="AW55">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="AX55">
+        <f t="shared" si="3"/>
+        <v>305</v>
+      </c>
+      <c r="AY55">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/D1_spread.xlsx
+++ b/D1_spread.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D016BFC6-10BB-4D6A-915E-1A83064E0430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8921905-F557-4859-9F07-0B31C376DED7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="137">
   <si>
     <t>Div</t>
   </si>
@@ -180,31 +180,58 @@
     <t>GoalsXcornerXbookings</t>
   </si>
   <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>240</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>369</t>
   </si>
   <si>
     <t>D1</t>
@@ -237,33 +264,33 @@
     <t>St Pauli</t>
   </si>
   <si>
+    <t>Union Berlin</t>
+  </si>
+  <si>
+    <t>Bochum</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt</t>
+  </si>
+  <si>
+    <t>Holstein Kiel</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Werder Bremen</t>
+  </si>
+  <si>
     <t>Leverkusen</t>
   </si>
   <si>
-    <t>Werder Bremen</t>
-  </si>
-  <si>
-    <t>Stuttgart</t>
-  </si>
-  <si>
-    <t>Holstein Kiel</t>
-  </si>
-  <si>
-    <t>Union Berlin</t>
-  </si>
-  <si>
-    <t>Bochum</t>
-  </si>
-  <si>
-    <t>Ein Frankfurt</t>
+    <t>Heidenheim</t>
   </si>
   <si>
     <t>Bayern Munich</t>
   </si>
   <si>
-    <t>Heidenheim</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -291,6 +318,9 @@
     <t>0-1</t>
   </si>
   <si>
+    <t>1-0</t>
+  </si>
+  <si>
     <t>2-3</t>
   </si>
   <si>
@@ -303,7 +333,10 @@
     <t>3-2</t>
   </si>
   <si>
-    <t>1-0</t>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>4-0</t>
   </si>
   <si>
     <t>2-4</t>
@@ -330,6 +363,24 @@
     <t>1-7</t>
   </si>
   <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>11-2</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>18-2</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -361,6 +412,33 @@
   </si>
   <si>
     <t>St Pauli-Heidenheim</t>
+  </si>
+  <si>
+    <t>Union Berlin-St Pauli</t>
+  </si>
+  <si>
+    <t>Bochum-Mgladbach</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt-Hoffenheim</t>
+  </si>
+  <si>
+    <t>Holstein Kiel-Wolfsburg</t>
+  </si>
+  <si>
+    <t>Stuttgart-Mainz</t>
+  </si>
+  <si>
+    <t>Werder Bremen-Dortmund</t>
+  </si>
+  <si>
+    <t>Leverkusen-RB Leipzig</t>
+  </si>
+  <si>
+    <t>Heidenheim-Augsburg</t>
+  </si>
+  <si>
+    <t>Bayern Munich-Freiburg</t>
   </si>
 </sst>
 </file>
@@ -368,7 +446,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -716,61 +794,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY10"/>
+  <dimension ref="A1:AY19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO11" sqref="AO11"/>
+      <selection pane="bottomRight" activeCell="AO20" sqref="AO20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="17" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
@@ -930,16 +1007,16 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1">
         <v>45527</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -948,7 +1025,7 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -957,7 +1034,7 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="L2">
         <v>5.33</v>
@@ -969,10 +1046,10 @@
         <v>1.6</v>
       </c>
       <c r="O2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="Q2">
         <v>14</v>
@@ -1020,16 +1097,16 @@
         <v>18</v>
       </c>
       <c r="AF2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="AG2" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AH2" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AI2" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AJ2">
         <v>1</v>
@@ -1038,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AM2">
         <v>284</v>
@@ -1062,22 +1139,18 @@
         <v>60</v>
       </c>
       <c r="AT2">
-        <f>AO2*AP2</f>
         <v>950</v>
       </c>
       <c r="AU2">
         <v>30</v>
       </c>
       <c r="AV2">
-        <f>AN2*AO2</f>
         <v>475</v>
       </c>
       <c r="AW2">
-        <f>AO2*AD2</f>
         <v>570</v>
       </c>
       <c r="AX2">
-        <f>AM2*AD2</f>
         <v>1704</v>
       </c>
       <c r="AY2">
@@ -1089,16 +1162,16 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1">
         <v>45528</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1107,7 +1180,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -1116,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="L3">
         <v>2.3199999999999998</v>
@@ -1128,10 +1201,10 @@
         <v>3.11</v>
       </c>
       <c r="O3" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="Q3">
         <v>10</v>
@@ -1179,16 +1252,16 @@
         <v>21</v>
       </c>
       <c r="AF3" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="AG3" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AH3" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AI3" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AJ3">
         <v>4</v>
@@ -1197,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AM3">
         <v>121</v>
@@ -1221,22 +1294,18 @@
         <v>240</v>
       </c>
       <c r="AT3">
-        <f t="shared" ref="AT3:AT10" si="0">AO3*AP3</f>
         <v>2200</v>
       </c>
       <c r="AU3">
         <v>24</v>
       </c>
       <c r="AV3">
-        <f t="shared" ref="AV3:AV10" si="1">AN3*AO3</f>
         <v>220</v>
       </c>
       <c r="AW3">
-        <f t="shared" ref="AW3:AW10" si="2">AO3*AD3</f>
         <v>330</v>
       </c>
       <c r="AX3">
-        <f t="shared" ref="AX3:AX10" si="3">AM3*AD3</f>
         <v>726</v>
       </c>
       <c r="AY3">
@@ -1248,16 +1317,16 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1">
         <v>45528</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -1266,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1275,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="L4">
         <v>3.5</v>
@@ -1287,10 +1356,10 @@
         <v>2.09</v>
       </c>
       <c r="O4" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q4">
         <v>15</v>
@@ -1338,16 +1407,16 @@
         <v>17</v>
       </c>
       <c r="AF4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="AG4" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AH4" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AI4" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AJ4">
         <v>3</v>
@@ -1356,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AM4">
         <v>144</v>
@@ -1380,22 +1449,18 @@
         <v>270</v>
       </c>
       <c r="AT4">
-        <f t="shared" si="0"/>
         <v>2550</v>
       </c>
       <c r="AU4">
         <v>36</v>
       </c>
       <c r="AV4">
-        <f t="shared" si="1"/>
         <v>340</v>
       </c>
       <c r="AW4">
-        <f t="shared" si="2"/>
         <v>765</v>
       </c>
       <c r="AX4">
-        <f t="shared" si="3"/>
         <v>1296</v>
       </c>
       <c r="AY4">
@@ -1407,16 +1472,16 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1">
         <v>45528</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -1425,7 +1490,7 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -1434,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="L5">
         <v>1.64</v>
@@ -1446,10 +1511,10 @@
         <v>5.07</v>
       </c>
       <c r="O5" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Q5">
         <v>20</v>
@@ -1497,16 +1562,16 @@
         <v>22</v>
       </c>
       <c r="AF5" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AH5" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AI5" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AJ5">
         <v>5</v>
@@ -1515,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="AL5" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AM5">
         <v>282</v>
@@ -1539,22 +1604,18 @@
         <v>1050</v>
       </c>
       <c r="AT5">
-        <f t="shared" si="0"/>
         <v>8250</v>
       </c>
       <c r="AU5">
         <v>70</v>
       </c>
       <c r="AV5">
-        <f t="shared" si="1"/>
         <v>550</v>
       </c>
       <c r="AW5">
-        <f t="shared" si="2"/>
         <v>1540</v>
       </c>
       <c r="AX5">
-        <f t="shared" si="3"/>
         <v>3948</v>
       </c>
       <c r="AY5">
@@ -1566,16 +1627,16 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1">
         <v>45528</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1584,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1593,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="L6">
         <v>2.08</v>
@@ -1605,10 +1666,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="Q6">
         <v>15</v>
@@ -1656,16 +1717,16 @@
         <v>24</v>
       </c>
       <c r="AF6" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="AG6" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AH6" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AI6" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AJ6">
         <v>4</v>
@@ -1674,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="AM6">
         <v>127</v>
@@ -1698,22 +1759,18 @@
         <v>680</v>
       </c>
       <c r="AT6">
-        <f t="shared" si="0"/>
         <v>1520</v>
       </c>
       <c r="AU6">
         <v>34</v>
       </c>
       <c r="AV6">
-        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="AW6">
-        <f t="shared" si="2"/>
         <v>646</v>
       </c>
       <c r="AX6">
-        <f t="shared" si="3"/>
         <v>2159</v>
       </c>
       <c r="AY6">
@@ -1725,16 +1782,16 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1">
         <v>45528</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1743,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1752,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="L7">
         <v>1.25</v>
@@ -1764,10 +1821,10 @@
         <v>10.65</v>
       </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q7">
         <v>12</v>
@@ -1815,16 +1872,16 @@
         <v>26</v>
       </c>
       <c r="AF7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="AG7" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AH7" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AI7" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AJ7">
         <v>4</v>
@@ -1833,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="AL7" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="AM7">
         <v>59</v>
@@ -1857,22 +1914,18 @@
         <v>780</v>
       </c>
       <c r="AT7">
-        <f t="shared" si="0"/>
         <v>455</v>
       </c>
       <c r="AU7">
         <v>12</v>
       </c>
       <c r="AV7">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="AW7">
-        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="AX7">
-        <f t="shared" si="3"/>
         <v>708</v>
       </c>
       <c r="AY7">
@@ -1884,16 +1937,16 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1">
         <v>45528</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -1902,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1911,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="L8">
         <v>1.71</v>
@@ -1923,10 +1976,10 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="O8" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="Q8">
         <v>17</v>
@@ -1974,16 +2027,16 @@
         <v>9</v>
       </c>
       <c r="AF8" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="AG8" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AH8" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AI8" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AJ8">
         <v>1</v>
@@ -1992,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="AM8">
         <v>162</v>
@@ -2016,22 +2069,18 @@
         <v>140</v>
       </c>
       <c r="AT8">
-        <f t="shared" si="0"/>
         <v>860</v>
       </c>
       <c r="AU8">
         <v>28</v>
       </c>
       <c r="AV8">
-        <f t="shared" si="1"/>
         <v>172</v>
       </c>
       <c r="AW8">
-        <f t="shared" si="2"/>
         <v>1204</v>
       </c>
       <c r="AX8">
-        <f t="shared" si="3"/>
         <v>2268</v>
       </c>
       <c r="AY8">
@@ -2043,16 +2092,16 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1">
         <v>45529</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -2061,7 +2110,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2070,7 +2119,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="L9">
         <v>6.33</v>
@@ -2082,10 +2131,10 @@
         <v>1.47</v>
       </c>
       <c r="O9" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2133,16 +2182,16 @@
         <v>24</v>
       </c>
       <c r="AF9" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AG9" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AH9" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AI9" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AJ9">
         <v>5</v>
@@ -2151,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="AM9">
         <v>269</v>
@@ -2175,22 +2224,18 @@
         <v>400</v>
       </c>
       <c r="AT9">
-        <f t="shared" si="0"/>
         <v>5150</v>
       </c>
       <c r="AU9">
         <v>40</v>
       </c>
       <c r="AV9">
-        <f t="shared" si="1"/>
         <v>515</v>
       </c>
       <c r="AW9">
-        <f t="shared" si="2"/>
         <v>824</v>
       </c>
       <c r="AX9">
-        <f t="shared" si="3"/>
         <v>2152</v>
       </c>
       <c r="AY9">
@@ -2202,16 +2247,16 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C10" s="1">
         <v>45529</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2220,7 +2265,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2229,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="L10">
         <v>2.13</v>
@@ -2241,10 +2286,10 @@
         <v>3.59</v>
       </c>
       <c r="O10" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -2292,16 +2337,16 @@
         <v>25</v>
       </c>
       <c r="AF10" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="AG10" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AH10" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AI10" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AJ10">
         <v>5</v>
@@ -2310,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="AM10">
         <v>148</v>
@@ -2334,26 +2379,1453 @@
         <v>300</v>
       </c>
       <c r="AT10">
-        <f t="shared" si="0"/>
         <v>650</v>
       </c>
       <c r="AU10">
         <v>12</v>
       </c>
       <c r="AV10">
-        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="AW10">
-        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="AX10">
-        <f t="shared" si="3"/>
         <v>888</v>
       </c>
       <c r="AY10">
         <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11">
+        <v>1.96</v>
+      </c>
+      <c r="M11">
+        <v>3.5</v>
+      </c>
+      <c r="N11">
+        <v>4.29</v>
+      </c>
+      <c r="O11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P11" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q11">
+        <v>10</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>8</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>3</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>5</v>
+      </c>
+      <c r="Z11">
+        <v>4</v>
+      </c>
+      <c r="AA11">
+        <v>10</v>
+      </c>
+      <c r="AB11">
+        <v>11</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>9</v>
+      </c>
+      <c r="AE11">
+        <v>21</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ11">
+        <v>4</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM11">
+        <v>34</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
+        <v>16</v>
+      </c>
+      <c r="AP11">
+        <v>40</v>
+      </c>
+      <c r="AQ11">
+        <v>300</v>
+      </c>
+      <c r="AR11">
+        <v>40</v>
+      </c>
+      <c r="AS11">
+        <v>360</v>
+      </c>
+      <c r="AT11">
+        <f>AO11*AP11</f>
+        <v>640</v>
+      </c>
+      <c r="AU11">
+        <v>9</v>
+      </c>
+      <c r="AV11">
+        <f>AN11*AO11</f>
+        <v>16</v>
+      </c>
+      <c r="AW11">
+        <f>AO11*AD11</f>
+        <v>144</v>
+      </c>
+      <c r="AX11">
+        <f>AM11*AD11</f>
+        <v>306</v>
+      </c>
+      <c r="AY11">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45535</v>
+      </c>
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12">
+        <v>2.66</v>
+      </c>
+      <c r="M12">
+        <v>3.73</v>
+      </c>
+      <c r="N12">
+        <v>2.57</v>
+      </c>
+      <c r="O12" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q12">
+        <v>16</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="S12">
+        <v>15</v>
+      </c>
+      <c r="T12">
+        <v>6</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>3</v>
+      </c>
+      <c r="Z12">
+        <v>4</v>
+      </c>
+      <c r="AA12">
+        <v>9</v>
+      </c>
+      <c r="AB12">
+        <v>10</v>
+      </c>
+      <c r="AC12">
+        <v>2</v>
+      </c>
+      <c r="AD12">
+        <v>7</v>
+      </c>
+      <c r="AE12">
+        <v>19</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ12">
+        <v>1</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM12">
+        <v>145</v>
+      </c>
+      <c r="AN12">
+        <v>2</v>
+      </c>
+      <c r="AO12">
+        <v>20</v>
+      </c>
+      <c r="AP12">
+        <v>10</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>20</v>
+      </c>
+      <c r="AS12">
+        <v>70</v>
+      </c>
+      <c r="AT12">
+        <f t="shared" ref="AT12:AT19" si="0">AO12*AP12</f>
+        <v>200</v>
+      </c>
+      <c r="AU12">
+        <v>14</v>
+      </c>
+      <c r="AV12">
+        <f t="shared" ref="AV12:AV19" si="1">AN12*AO12</f>
+        <v>40</v>
+      </c>
+      <c r="AW12">
+        <f t="shared" ref="AW12:AW19" si="2">AO12*AD12</f>
+        <v>140</v>
+      </c>
+      <c r="AX12">
+        <f t="shared" ref="AX12:AX19" si="3">AM12*AD12</f>
+        <v>1015</v>
+      </c>
+      <c r="AY12">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45535</v>
+      </c>
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13">
+        <v>1.8</v>
+      </c>
+      <c r="M13">
+        <v>4.2</v>
+      </c>
+      <c r="N13">
+        <v>4.12</v>
+      </c>
+      <c r="O13" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q13">
+        <v>17</v>
+      </c>
+      <c r="R13">
+        <v>7</v>
+      </c>
+      <c r="S13">
+        <v>10</v>
+      </c>
+      <c r="T13">
+        <v>3</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>3</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>4</v>
+      </c>
+      <c r="AA13">
+        <v>10</v>
+      </c>
+      <c r="AB13">
+        <v>10</v>
+      </c>
+      <c r="AC13">
+        <v>4</v>
+      </c>
+      <c r="AD13">
+        <v>5</v>
+      </c>
+      <c r="AE13">
+        <v>20</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ13">
+        <v>3</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM13">
+        <v>167</v>
+      </c>
+      <c r="AN13">
+        <v>4</v>
+      </c>
+      <c r="AO13">
+        <v>61</v>
+      </c>
+      <c r="AP13">
+        <v>30</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>120</v>
+      </c>
+      <c r="AS13">
+        <v>150</v>
+      </c>
+      <c r="AT13">
+        <f t="shared" si="0"/>
+        <v>1830</v>
+      </c>
+      <c r="AU13">
+        <v>20</v>
+      </c>
+      <c r="AV13">
+        <f t="shared" si="1"/>
+        <v>244</v>
+      </c>
+      <c r="AW13">
+        <f t="shared" si="2"/>
+        <v>305</v>
+      </c>
+      <c r="AX13">
+        <f t="shared" si="3"/>
+        <v>835</v>
+      </c>
+      <c r="AY13">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45535</v>
+      </c>
+      <c r="D14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14">
+        <v>3.26</v>
+      </c>
+      <c r="M14">
+        <v>3.69</v>
+      </c>
+      <c r="N14">
+        <v>2.19</v>
+      </c>
+      <c r="O14" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q14">
+        <v>12</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="S14">
+        <v>12</v>
+      </c>
+      <c r="T14">
+        <v>4</v>
+      </c>
+      <c r="U14">
+        <v>4</v>
+      </c>
+      <c r="V14">
+        <v>7</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>7</v>
+      </c>
+      <c r="AA14">
+        <v>17</v>
+      </c>
+      <c r="AB14">
+        <v>14</v>
+      </c>
+      <c r="AC14">
+        <v>2</v>
+      </c>
+      <c r="AD14">
+        <v>8</v>
+      </c>
+      <c r="AE14">
+        <v>31</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ14">
+        <v>11</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM14">
+        <v>57</v>
+      </c>
+      <c r="AN14">
+        <v>2</v>
+      </c>
+      <c r="AO14">
+        <v>30</v>
+      </c>
+      <c r="AP14">
+        <v>110</v>
+      </c>
+      <c r="AQ14">
+        <v>2800</v>
+      </c>
+      <c r="AR14">
+        <v>220</v>
+      </c>
+      <c r="AS14">
+        <v>880</v>
+      </c>
+      <c r="AT14">
+        <f t="shared" si="0"/>
+        <v>3300</v>
+      </c>
+      <c r="AU14">
+        <v>16</v>
+      </c>
+      <c r="AV14">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="AW14">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="AX14">
+        <f t="shared" si="3"/>
+        <v>456</v>
+      </c>
+      <c r="AY14">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45535</v>
+      </c>
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>89</v>
+      </c>
+      <c r="L15">
+        <v>1.66</v>
+      </c>
+      <c r="M15">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="N15">
+        <v>5.09</v>
+      </c>
+      <c r="O15" t="s">
+        <v>91</v>
+      </c>
+      <c r="P15" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q15">
+        <v>28</v>
+      </c>
+      <c r="R15">
+        <v>13</v>
+      </c>
+      <c r="S15">
+        <v>9</v>
+      </c>
+      <c r="T15">
+        <v>7</v>
+      </c>
+      <c r="U15">
+        <v>4</v>
+      </c>
+      <c r="V15">
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>11</v>
+      </c>
+      <c r="Z15">
+        <v>2</v>
+      </c>
+      <c r="AA15">
+        <v>6</v>
+      </c>
+      <c r="AB15">
+        <v>12</v>
+      </c>
+      <c r="AC15">
+        <v>6</v>
+      </c>
+      <c r="AD15">
+        <v>13</v>
+      </c>
+      <c r="AE15">
+        <v>18</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ15">
+        <v>6</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM15">
+        <v>306</v>
+      </c>
+      <c r="AN15">
+        <v>6</v>
+      </c>
+      <c r="AO15">
+        <v>110</v>
+      </c>
+      <c r="AP15">
+        <v>60</v>
+      </c>
+      <c r="AQ15">
+        <v>800</v>
+      </c>
+      <c r="AR15">
+        <v>360</v>
+      </c>
+      <c r="AS15">
+        <v>780</v>
+      </c>
+      <c r="AT15">
+        <f t="shared" si="0"/>
+        <v>6600</v>
+      </c>
+      <c r="AU15">
+        <v>78</v>
+      </c>
+      <c r="AV15">
+        <f t="shared" si="1"/>
+        <v>660</v>
+      </c>
+      <c r="AW15">
+        <f t="shared" si="2"/>
+        <v>1430</v>
+      </c>
+      <c r="AX15">
+        <f t="shared" si="3"/>
+        <v>3978</v>
+      </c>
+      <c r="AY15">
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45535</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16">
+        <v>4.05</v>
+      </c>
+      <c r="M16">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="N16">
+        <v>1.83</v>
+      </c>
+      <c r="O16" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16">
+        <v>5</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>9</v>
+      </c>
+      <c r="T16">
+        <v>4</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16">
+        <v>7</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>5</v>
+      </c>
+      <c r="Z16">
+        <v>6</v>
+      </c>
+      <c r="AA16">
+        <v>11</v>
+      </c>
+      <c r="AB16">
+        <v>16</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>11</v>
+      </c>
+      <c r="AE16">
+        <v>27</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ16">
+        <v>9</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>115</v>
+      </c>
+      <c r="AQ16">
+        <v>1900</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>1265</v>
+      </c>
+      <c r="AT16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45535</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17">
+        <v>1.8</v>
+      </c>
+      <c r="M17">
+        <v>4.22</v>
+      </c>
+      <c r="N17">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q17">
+        <v>27</v>
+      </c>
+      <c r="R17">
+        <v>10</v>
+      </c>
+      <c r="S17">
+        <v>10</v>
+      </c>
+      <c r="T17">
+        <v>4</v>
+      </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>18</v>
+      </c>
+      <c r="Z17">
+        <v>2</v>
+      </c>
+      <c r="AA17">
+        <v>7</v>
+      </c>
+      <c r="AB17">
+        <v>8</v>
+      </c>
+      <c r="AC17">
+        <v>5</v>
+      </c>
+      <c r="AD17">
+        <v>20</v>
+      </c>
+      <c r="AE17">
+        <v>15</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ17">
+        <v>4</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM17">
+        <v>266</v>
+      </c>
+      <c r="AN17">
+        <v>5</v>
+      </c>
+      <c r="AO17">
+        <v>116</v>
+      </c>
+      <c r="AP17">
+        <v>40</v>
+      </c>
+      <c r="AQ17">
+        <v>300</v>
+      </c>
+      <c r="AR17">
+        <v>200</v>
+      </c>
+      <c r="AS17">
+        <v>800</v>
+      </c>
+      <c r="AT17">
+        <f t="shared" si="0"/>
+        <v>4640</v>
+      </c>
+      <c r="AU17">
+        <v>100</v>
+      </c>
+      <c r="AV17">
+        <f t="shared" si="1"/>
+        <v>580</v>
+      </c>
+      <c r="AW17">
+        <f t="shared" si="2"/>
+        <v>2320</v>
+      </c>
+      <c r="AX17">
+        <f t="shared" si="3"/>
+        <v>5320</v>
+      </c>
+      <c r="AY17">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45536</v>
+      </c>
+      <c r="D18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>89</v>
+      </c>
+      <c r="L18">
+        <v>2.42</v>
+      </c>
+      <c r="M18">
+        <v>3.47</v>
+      </c>
+      <c r="N18">
+        <v>3.02</v>
+      </c>
+      <c r="O18" t="s">
+        <v>93</v>
+      </c>
+      <c r="P18" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q18">
+        <v>17</v>
+      </c>
+      <c r="R18">
+        <v>9</v>
+      </c>
+      <c r="S18">
+        <v>15</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>3</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>5</v>
+      </c>
+      <c r="Z18">
+        <v>6</v>
+      </c>
+      <c r="AA18">
+        <v>15</v>
+      </c>
+      <c r="AB18">
+        <v>11</v>
+      </c>
+      <c r="AC18">
+        <v>4</v>
+      </c>
+      <c r="AD18">
+        <v>11</v>
+      </c>
+      <c r="AE18">
+        <v>26</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ18">
+        <v>3</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM18">
+        <v>181</v>
+      </c>
+      <c r="AN18">
+        <v>4</v>
+      </c>
+      <c r="AO18">
+        <v>53</v>
+      </c>
+      <c r="AP18">
+        <v>30</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>120</v>
+      </c>
+      <c r="AS18">
+        <v>330</v>
+      </c>
+      <c r="AT18">
+        <f t="shared" si="0"/>
+        <v>1590</v>
+      </c>
+      <c r="AU18">
+        <v>44</v>
+      </c>
+      <c r="AV18">
+        <f t="shared" si="1"/>
+        <v>212</v>
+      </c>
+      <c r="AW18">
+        <f t="shared" si="2"/>
+        <v>583</v>
+      </c>
+      <c r="AX18">
+        <f t="shared" si="3"/>
+        <v>1991</v>
+      </c>
+      <c r="AY18">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45536</v>
+      </c>
+      <c r="D19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19">
+        <v>1.21</v>
+      </c>
+      <c r="M19">
+        <v>7.89</v>
+      </c>
+      <c r="N19">
+        <v>11.45</v>
+      </c>
+      <c r="O19" t="s">
+        <v>96</v>
+      </c>
+      <c r="P19" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q19">
+        <v>11</v>
+      </c>
+      <c r="R19">
+        <v>4</v>
+      </c>
+      <c r="S19">
+        <v>8</v>
+      </c>
+      <c r="T19">
+        <v>4</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>2</v>
+      </c>
+      <c r="Z19">
+        <v>4</v>
+      </c>
+      <c r="AA19">
+        <v>13</v>
+      </c>
+      <c r="AB19">
+        <v>12</v>
+      </c>
+      <c r="AC19">
+        <v>2</v>
+      </c>
+      <c r="AD19">
+        <v>6</v>
+      </c>
+      <c r="AE19">
+        <v>25</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ19">
+        <v>1</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM19">
+        <v>116</v>
+      </c>
+      <c r="AN19">
+        <v>2</v>
+      </c>
+      <c r="AO19">
+        <v>34</v>
+      </c>
+      <c r="AP19">
+        <v>10</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>20</v>
+      </c>
+      <c r="AS19">
+        <v>60</v>
+      </c>
+      <c r="AT19">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+      <c r="AU19">
+        <v>12</v>
+      </c>
+      <c r="AV19">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="AW19">
+        <f t="shared" si="2"/>
+        <v>204</v>
+      </c>
+      <c r="AX19">
+        <f t="shared" si="3"/>
+        <v>696</v>
+      </c>
+      <c r="AY19">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/D1_spread.xlsx
+++ b/D1_spread.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8921905-F557-4859-9F07-0B31C376DED7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBAE6DF-8F9C-403E-A51B-1621106E31F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3225" yWindow="3705" windowWidth="20355" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="193">
   <si>
     <t>Div</t>
   </si>
@@ -207,31 +207,85 @@
     <t>9</t>
   </si>
   <si>
-    <t>361</t>
-  </si>
-  <si>
-    <t>362</t>
-  </si>
-  <si>
-    <t>363</t>
-  </si>
-  <si>
-    <t>364</t>
-  </si>
-  <si>
-    <t>365</t>
-  </si>
-  <si>
-    <t>366</t>
-  </si>
-  <si>
-    <t>367</t>
-  </si>
-  <si>
-    <t>368</t>
-  </si>
-  <si>
-    <t>369</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>569</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>571</t>
+  </si>
+  <si>
+    <t>572</t>
+  </si>
+  <si>
+    <t>573</t>
+  </si>
+  <si>
+    <t>574</t>
+  </si>
+  <si>
+    <t>575</t>
+  </si>
+  <si>
+    <t>576</t>
+  </si>
+  <si>
+    <t>577</t>
   </si>
   <si>
     <t>D1</t>
@@ -321,15 +375,21 @@
     <t>1-0</t>
   </si>
   <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>0-4</t>
+  </si>
+  <si>
     <t>2-3</t>
   </si>
   <si>
     <t>2-2</t>
   </si>
   <si>
-    <t>3-1</t>
-  </si>
-  <si>
     <t>3-2</t>
   </si>
   <si>
@@ -339,12 +399,33 @@
     <t>4-0</t>
   </si>
   <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>0-5</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>5-1</t>
+  </si>
+  <si>
     <t>2-4</t>
   </si>
   <si>
-    <t>4-2</t>
-  </si>
-  <si>
     <t>6-3</t>
   </si>
   <si>
@@ -369,9 +450,6 @@
     <t>3-4</t>
   </si>
   <si>
-    <t>1-4</t>
-  </si>
-  <si>
     <t>11-2</t>
   </si>
   <si>
@@ -381,6 +459,42 @@
     <t>18-2</t>
   </si>
   <si>
+    <t>8-1</t>
+  </si>
+  <si>
+    <t>4-12</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>6-5</t>
+  </si>
+  <si>
+    <t>2-10</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>14-1</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>3-9</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>8-5</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -439,6 +553,60 @@
   </si>
   <si>
     <t>Bayern Munich-Freiburg</t>
+  </si>
+  <si>
+    <t>Dortmund-Heidenheim</t>
+  </si>
+  <si>
+    <t>Freiburg-Bochum</t>
+  </si>
+  <si>
+    <t>Hoffenheim-Leverkusen</t>
+  </si>
+  <si>
+    <t>Mgladbach-Stuttgart</t>
+  </si>
+  <si>
+    <t>RB Leipzig-Union Berlin</t>
+  </si>
+  <si>
+    <t>Wolfsburg-Ein Frankfurt</t>
+  </si>
+  <si>
+    <t>Holstein Kiel-Bayern Munich</t>
+  </si>
+  <si>
+    <t>Augsburg-St Pauli</t>
+  </si>
+  <si>
+    <t>Mainz-Werder Bremen</t>
+  </si>
+  <si>
+    <t>Augsburg-Mainz</t>
+  </si>
+  <si>
+    <t>Bochum-Holstein Kiel</t>
+  </si>
+  <si>
+    <t>Heidenheim-Freiburg</t>
+  </si>
+  <si>
+    <t>Union Berlin-Hoffenheim</t>
+  </si>
+  <si>
+    <t>Werder Bremen-Bayern Munich</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt-Mgladbach</t>
+  </si>
+  <si>
+    <t>Leverkusen-Wolfsburg</t>
+  </si>
+  <si>
+    <t>Stuttgart-Dortmund</t>
+  </si>
+  <si>
+    <t>St Pauli-RB Leipzig</t>
   </si>
 </sst>
 </file>
@@ -794,13 +962,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY19"/>
+  <dimension ref="A1:AY37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AD11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO20" sqref="AO20"/>
+      <selection pane="bottomRight" activeCell="AO37" sqref="AO37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,7 +1002,7 @@
     <col min="33" max="35" width="6" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="2.42578125" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -1007,16 +1175,16 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1">
         <v>45527</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -1025,7 +1193,7 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1034,7 +1202,7 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="L2">
         <v>5.33</v>
@@ -1046,10 +1214,10 @@
         <v>1.6</v>
       </c>
       <c r="O2" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="P2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="Q2">
         <v>14</v>
@@ -1097,16 +1265,16 @@
         <v>18</v>
       </c>
       <c r="AF2" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="AG2" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="AH2" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="AI2" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="AJ2">
         <v>1</v>
@@ -1115,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="AM2">
         <v>284</v>
@@ -1162,16 +1330,16 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C3" s="1">
         <v>45528</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1180,7 +1348,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -1189,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="L3">
         <v>2.3199999999999998</v>
@@ -1201,10 +1369,10 @@
         <v>3.11</v>
       </c>
       <c r="O3" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="P3" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="Q3">
         <v>10</v>
@@ -1252,16 +1420,16 @@
         <v>21</v>
       </c>
       <c r="AF3" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="AG3" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="AH3" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="AI3" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="AJ3">
         <v>4</v>
@@ -1270,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="AM3">
         <v>121</v>
@@ -1317,16 +1485,16 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C4" s="1">
         <v>45528</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -1335,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1344,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="L4">
         <v>3.5</v>
@@ -1356,10 +1524,10 @@
         <v>2.09</v>
       </c>
       <c r="O4" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="P4" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="Q4">
         <v>15</v>
@@ -1407,16 +1575,16 @@
         <v>17</v>
       </c>
       <c r="AF4" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AG4" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="AH4" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="AI4" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="AJ4">
         <v>3</v>
@@ -1425,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="AM4">
         <v>144</v>
@@ -1472,16 +1640,16 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1">
         <v>45528</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -1490,7 +1658,7 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -1499,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="L5">
         <v>1.64</v>
@@ -1511,10 +1679,10 @@
         <v>5.07</v>
       </c>
       <c r="O5" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="P5" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Q5">
         <v>20</v>
@@ -1562,16 +1730,16 @@
         <v>22</v>
       </c>
       <c r="AF5" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="AG5" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="AH5" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="AI5" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="AJ5">
         <v>5</v>
@@ -1580,7 +1748,7 @@
         <v>1</v>
       </c>
       <c r="AL5" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="AM5">
         <v>282</v>
@@ -1627,16 +1795,16 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C6" s="1">
         <v>45528</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1645,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1654,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="L6">
         <v>2.08</v>
@@ -1666,10 +1834,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="O6" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="P6" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="Q6">
         <v>15</v>
@@ -1717,16 +1885,16 @@
         <v>24</v>
       </c>
       <c r="AF6" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="AG6" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="AH6" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="AI6" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="AJ6">
         <v>4</v>
@@ -1735,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="AM6">
         <v>127</v>
@@ -1782,16 +1950,16 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C7" s="1">
         <v>45528</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1800,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1809,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="L7">
         <v>1.25</v>
@@ -1821,10 +1989,10 @@
         <v>10.65</v>
       </c>
       <c r="O7" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="P7" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="Q7">
         <v>12</v>
@@ -1872,16 +2040,16 @@
         <v>26</v>
       </c>
       <c r="AF7" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="AG7" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="AH7" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="AI7" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="AJ7">
         <v>4</v>
@@ -1890,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="AL7" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="AM7">
         <v>59</v>
@@ -1937,16 +2105,16 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C8" s="1">
         <v>45528</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -1955,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1964,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="L8">
         <v>1.71</v>
@@ -1976,10 +2144,10 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="P8" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="Q8">
         <v>17</v>
@@ -2027,16 +2195,16 @@
         <v>9</v>
       </c>
       <c r="AF8" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="AG8" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="AH8" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="AI8" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="AJ8">
         <v>1</v>
@@ -2045,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="AM8">
         <v>162</v>
@@ -2092,16 +2260,16 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C9" s="1">
         <v>45529</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -2110,7 +2278,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2119,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="L9">
         <v>6.33</v>
@@ -2131,10 +2299,10 @@
         <v>1.47</v>
       </c>
       <c r="O9" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="P9" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2182,16 +2350,16 @@
         <v>24</v>
       </c>
       <c r="AF9" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="AH9" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="AI9" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="AJ9">
         <v>5</v>
@@ -2200,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="AM9">
         <v>269</v>
@@ -2247,16 +2415,16 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C10" s="1">
         <v>45529</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2265,7 +2433,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2274,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="L10">
         <v>2.13</v>
@@ -2286,10 +2454,10 @@
         <v>3.59</v>
       </c>
       <c r="O10" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -2337,16 +2505,16 @@
         <v>25</v>
       </c>
       <c r="AF10" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="AG10" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="AH10" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="AI10" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="AJ10">
         <v>5</v>
@@ -2355,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="AM10">
         <v>148</v>
@@ -2402,16 +2570,16 @@
         <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C11" s="1">
         <v>45534</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2420,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -2429,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="L11">
         <v>1.96</v>
@@ -2441,10 +2609,10 @@
         <v>4.29</v>
       </c>
       <c r="O11" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="P11" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -2492,16 +2660,16 @@
         <v>21</v>
       </c>
       <c r="AF11" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="AH11" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="AI11" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="AJ11">
         <v>4</v>
@@ -2510,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="AM11">
         <v>34</v>
@@ -2534,22 +2702,18 @@
         <v>360</v>
       </c>
       <c r="AT11">
-        <f>AO11*AP11</f>
         <v>640</v>
       </c>
       <c r="AU11">
         <v>9</v>
       </c>
       <c r="AV11">
-        <f>AN11*AO11</f>
         <v>16</v>
       </c>
       <c r="AW11">
-        <f>AO11*AD11</f>
         <v>144</v>
       </c>
       <c r="AX11">
-        <f>AM11*AD11</f>
         <v>306</v>
       </c>
       <c r="AY11">
@@ -2561,16 +2725,16 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C12" s="1">
         <v>45535</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2579,7 +2743,7 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2588,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="L12">
         <v>2.66</v>
@@ -2600,10 +2764,10 @@
         <v>2.57</v>
       </c>
       <c r="O12" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="P12" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="Q12">
         <v>16</v>
@@ -2651,16 +2815,16 @@
         <v>19</v>
       </c>
       <c r="AF12" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="AG12" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="AH12" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="AI12" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="AJ12">
         <v>1</v>
@@ -2669,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="AL12" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="AM12">
         <v>145</v>
@@ -2693,22 +2857,18 @@
         <v>70</v>
       </c>
       <c r="AT12">
-        <f t="shared" ref="AT12:AT19" si="0">AO12*AP12</f>
         <v>200</v>
       </c>
       <c r="AU12">
         <v>14</v>
       </c>
       <c r="AV12">
-        <f t="shared" ref="AV12:AV19" si="1">AN12*AO12</f>
         <v>40</v>
       </c>
       <c r="AW12">
-        <f t="shared" ref="AW12:AW19" si="2">AO12*AD12</f>
         <v>140</v>
       </c>
       <c r="AX12">
-        <f t="shared" ref="AX12:AX19" si="3">AM12*AD12</f>
         <v>1015</v>
       </c>
       <c r="AY12">
@@ -2720,16 +2880,16 @@
         <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C13" s="1">
         <v>45535</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -2738,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -2747,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="L13">
         <v>1.8</v>
@@ -2759,10 +2919,10 @@
         <v>4.12</v>
       </c>
       <c r="O13" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="P13" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="Q13">
         <v>17</v>
@@ -2810,16 +2970,16 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="AG13" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="AH13" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="AI13" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="AJ13">
         <v>3</v>
@@ -2828,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="AM13">
         <v>167</v>
@@ -2852,22 +3012,18 @@
         <v>150</v>
       </c>
       <c r="AT13">
-        <f t="shared" si="0"/>
         <v>1830</v>
       </c>
       <c r="AU13">
         <v>20</v>
       </c>
       <c r="AV13">
-        <f t="shared" si="1"/>
         <v>244</v>
       </c>
       <c r="AW13">
-        <f t="shared" si="2"/>
         <v>305</v>
       </c>
       <c r="AX13">
-        <f t="shared" si="3"/>
         <v>835</v>
       </c>
       <c r="AY13">
@@ -2879,16 +3035,16 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C14" s="1">
         <v>45535</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2897,7 +3053,7 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2906,7 +3062,7 @@
         <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="L14">
         <v>3.26</v>
@@ -2918,10 +3074,10 @@
         <v>2.19</v>
       </c>
       <c r="O14" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="P14" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="Q14">
         <v>12</v>
@@ -2969,16 +3125,16 @@
         <v>31</v>
       </c>
       <c r="AF14" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="AG14" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="AH14" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="AI14" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="AJ14">
         <v>11</v>
@@ -2987,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="AM14">
         <v>57</v>
@@ -3011,22 +3167,18 @@
         <v>880</v>
       </c>
       <c r="AT14">
-        <f t="shared" si="0"/>
         <v>3300</v>
       </c>
       <c r="AU14">
         <v>16</v>
       </c>
       <c r="AV14">
-        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="AW14">
-        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="AX14">
-        <f t="shared" si="3"/>
         <v>456</v>
       </c>
       <c r="AY14">
@@ -3038,16 +3190,16 @@
         <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C15" s="1">
         <v>45535</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -3056,7 +3208,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -3065,7 +3217,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="L15">
         <v>1.66</v>
@@ -3077,10 +3229,10 @@
         <v>5.09</v>
       </c>
       <c r="O15" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="P15" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="Q15">
         <v>28</v>
@@ -3128,16 +3280,16 @@
         <v>18</v>
       </c>
       <c r="AF15" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="AG15" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="AH15" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="AI15" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="AJ15">
         <v>6</v>
@@ -3146,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="AM15">
         <v>306</v>
@@ -3170,22 +3322,18 @@
         <v>780</v>
       </c>
       <c r="AT15">
-        <f t="shared" si="0"/>
         <v>6600</v>
       </c>
       <c r="AU15">
         <v>78</v>
       </c>
       <c r="AV15">
-        <f t="shared" si="1"/>
         <v>660</v>
       </c>
       <c r="AW15">
-        <f t="shared" si="2"/>
         <v>1430</v>
       </c>
       <c r="AX15">
-        <f t="shared" si="3"/>
         <v>3978</v>
       </c>
       <c r="AY15">
@@ -3197,16 +3345,16 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C16" s="1">
         <v>45535</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3215,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -3224,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="L16">
         <v>4.05</v>
@@ -3236,10 +3384,10 @@
         <v>1.83</v>
       </c>
       <c r="O16" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="P16" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -3287,16 +3435,16 @@
         <v>27</v>
       </c>
       <c r="AF16" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="AG16" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="AH16" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="AI16" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="AJ16">
         <v>9</v>
@@ -3305,7 +3453,7 @@
         <v>1</v>
       </c>
       <c r="AL16" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="AM16">
         <v>0</v>
@@ -3329,22 +3477,18 @@
         <v>1265</v>
       </c>
       <c r="AT16">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AU16">
         <v>0</v>
       </c>
       <c r="AV16">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AW16">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AX16">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AY16">
@@ -3356,16 +3500,16 @@
         <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C17" s="1">
         <v>45535</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -3374,7 +3518,7 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -3383,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="L17">
         <v>1.8</v>
@@ -3395,10 +3539,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="O17" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="P17" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="Q17">
         <v>27</v>
@@ -3446,16 +3590,16 @@
         <v>15</v>
       </c>
       <c r="AF17" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="AG17" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="AH17" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="AI17" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="AJ17">
         <v>4</v>
@@ -3464,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="AM17">
         <v>266</v>
@@ -3488,22 +3632,18 @@
         <v>800</v>
       </c>
       <c r="AT17">
-        <f t="shared" si="0"/>
         <v>4640</v>
       </c>
       <c r="AU17">
         <v>100</v>
       </c>
       <c r="AV17">
-        <f t="shared" si="1"/>
         <v>580</v>
       </c>
       <c r="AW17">
-        <f t="shared" si="2"/>
         <v>2320</v>
       </c>
       <c r="AX17">
-        <f t="shared" si="3"/>
         <v>5320</v>
       </c>
       <c r="AY17">
@@ -3515,16 +3655,16 @@
         <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C18" s="1">
         <v>45536</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -3533,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -3542,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="L18">
         <v>2.42</v>
@@ -3554,10 +3694,10 @@
         <v>3.02</v>
       </c>
       <c r="O18" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="P18" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="Q18">
         <v>17</v>
@@ -3605,16 +3745,16 @@
         <v>26</v>
       </c>
       <c r="AF18" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="AG18" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="AH18" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="AI18" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="AJ18">
         <v>3</v>
@@ -3623,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="AL18" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="AM18">
         <v>181</v>
@@ -3647,22 +3787,18 @@
         <v>330</v>
       </c>
       <c r="AT18">
-        <f t="shared" si="0"/>
         <v>1590</v>
       </c>
       <c r="AU18">
         <v>44</v>
       </c>
       <c r="AV18">
-        <f t="shared" si="1"/>
         <v>212</v>
       </c>
       <c r="AW18">
-        <f t="shared" si="2"/>
         <v>583</v>
       </c>
       <c r="AX18">
-        <f t="shared" si="3"/>
         <v>1991</v>
       </c>
       <c r="AY18">
@@ -3674,16 +3810,16 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C19" s="1">
         <v>45536</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -3692,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -3701,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="L19">
         <v>1.21</v>
@@ -3713,10 +3849,10 @@
         <v>11.45</v>
       </c>
       <c r="O19" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="P19" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="Q19">
         <v>11</v>
@@ -3764,16 +3900,16 @@
         <v>25</v>
       </c>
       <c r="AF19" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="AG19" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="AH19" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="AI19" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="AJ19">
         <v>1</v>
@@ -3782,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="AM19">
         <v>116</v>
@@ -3806,26 +3942,2848 @@
         <v>60</v>
       </c>
       <c r="AT19">
-        <f t="shared" si="0"/>
         <v>340</v>
       </c>
       <c r="AU19">
         <v>12</v>
       </c>
       <c r="AV19">
-        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="AW19">
-        <f t="shared" si="2"/>
         <v>204</v>
       </c>
       <c r="AX19">
-        <f t="shared" si="3"/>
         <v>696</v>
       </c>
       <c r="AY19">
         <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>107</v>
+      </c>
+      <c r="L20">
+        <v>1.39</v>
+      </c>
+      <c r="M20">
+        <v>5.35</v>
+      </c>
+      <c r="N20">
+        <v>7.83</v>
+      </c>
+      <c r="O20" t="s">
+        <v>115</v>
+      </c>
+      <c r="P20" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q20">
+        <v>13</v>
+      </c>
+      <c r="R20">
+        <v>7</v>
+      </c>
+      <c r="S20">
+        <v>11</v>
+      </c>
+      <c r="T20">
+        <v>4</v>
+      </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>2</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>8</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>13</v>
+      </c>
+      <c r="AB20">
+        <v>18</v>
+      </c>
+      <c r="AC20">
+        <v>6</v>
+      </c>
+      <c r="AD20">
+        <v>9</v>
+      </c>
+      <c r="AE20">
+        <v>31</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ20">
+        <v>4</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM20">
+        <v>273</v>
+      </c>
+      <c r="AN20">
+        <v>6</v>
+      </c>
+      <c r="AO20">
+        <v>130</v>
+      </c>
+      <c r="AP20">
+        <v>40</v>
+      </c>
+      <c r="AQ20">
+        <v>400</v>
+      </c>
+      <c r="AR20">
+        <v>240</v>
+      </c>
+      <c r="AS20">
+        <v>360</v>
+      </c>
+      <c r="AT20">
+        <v>5200</v>
+      </c>
+      <c r="AU20">
+        <v>54</v>
+      </c>
+      <c r="AV20">
+        <v>780</v>
+      </c>
+      <c r="AW20">
+        <v>1170</v>
+      </c>
+      <c r="AX20">
+        <v>2457</v>
+      </c>
+      <c r="AY20">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45549</v>
+      </c>
+      <c r="D21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>107</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L21">
+        <v>1.69</v>
+      </c>
+      <c r="M21">
+        <v>4.08</v>
+      </c>
+      <c r="N21">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O21" t="s">
+        <v>113</v>
+      </c>
+      <c r="P21" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q21">
+        <v>27</v>
+      </c>
+      <c r="R21">
+        <v>9</v>
+      </c>
+      <c r="S21">
+        <v>13</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>3</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>5</v>
+      </c>
+      <c r="Z21">
+        <v>6</v>
+      </c>
+      <c r="AA21">
+        <v>5</v>
+      </c>
+      <c r="AB21">
+        <v>16</v>
+      </c>
+      <c r="AC21">
+        <v>3</v>
+      </c>
+      <c r="AD21">
+        <v>11</v>
+      </c>
+      <c r="AE21">
+        <v>21</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ21">
+        <v>3</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM21">
+        <v>164</v>
+      </c>
+      <c r="AN21">
+        <v>3</v>
+      </c>
+      <c r="AO21">
+        <v>49</v>
+      </c>
+      <c r="AP21">
+        <v>30</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>90</v>
+      </c>
+      <c r="AS21">
+        <v>330</v>
+      </c>
+      <c r="AT21">
+        <v>1470</v>
+      </c>
+      <c r="AU21">
+        <v>33</v>
+      </c>
+      <c r="AV21">
+        <v>147</v>
+      </c>
+      <c r="AW21">
+        <v>539</v>
+      </c>
+      <c r="AX21">
+        <v>1804</v>
+      </c>
+      <c r="AY21">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45549</v>
+      </c>
+      <c r="D22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22" t="s">
+        <v>105</v>
+      </c>
+      <c r="L22">
+        <v>5.95</v>
+      </c>
+      <c r="M22">
+        <v>4.96</v>
+      </c>
+      <c r="N22">
+        <v>1.49</v>
+      </c>
+      <c r="O22" t="s">
+        <v>116</v>
+      </c>
+      <c r="P22" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q22">
+        <v>14</v>
+      </c>
+      <c r="R22">
+        <v>5</v>
+      </c>
+      <c r="S22">
+        <v>20</v>
+      </c>
+      <c r="T22">
+        <v>8</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="V22">
+        <v>2</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>4</v>
+      </c>
+      <c r="Z22">
+        <v>12</v>
+      </c>
+      <c r="AA22">
+        <v>9</v>
+      </c>
+      <c r="AB22">
+        <v>10</v>
+      </c>
+      <c r="AC22">
+        <v>5</v>
+      </c>
+      <c r="AD22">
+        <v>16</v>
+      </c>
+      <c r="AE22">
+        <v>19</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ22">
+        <v>4</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM22">
+        <v>161</v>
+      </c>
+      <c r="AN22">
+        <v>5</v>
+      </c>
+      <c r="AO22">
+        <v>75</v>
+      </c>
+      <c r="AP22">
+        <v>40</v>
+      </c>
+      <c r="AQ22">
+        <v>400</v>
+      </c>
+      <c r="AR22">
+        <v>200</v>
+      </c>
+      <c r="AS22">
+        <v>640</v>
+      </c>
+      <c r="AT22">
+        <v>3000</v>
+      </c>
+      <c r="AU22">
+        <v>80</v>
+      </c>
+      <c r="AV22">
+        <v>375</v>
+      </c>
+      <c r="AW22">
+        <v>1200</v>
+      </c>
+      <c r="AX22">
+        <v>2576</v>
+      </c>
+      <c r="AY22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45549</v>
+      </c>
+      <c r="D23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>106</v>
+      </c>
+      <c r="L23">
+        <v>2.84</v>
+      </c>
+      <c r="M23">
+        <v>3.96</v>
+      </c>
+      <c r="N23">
+        <v>2.31</v>
+      </c>
+      <c r="O23" t="s">
+        <v>110</v>
+      </c>
+      <c r="P23" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q23">
+        <v>15</v>
+      </c>
+      <c r="R23">
+        <v>7</v>
+      </c>
+      <c r="S23">
+        <v>12</v>
+      </c>
+      <c r="T23">
+        <v>7</v>
+      </c>
+      <c r="U23">
+        <v>2</v>
+      </c>
+      <c r="V23">
+        <v>2</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>6</v>
+      </c>
+      <c r="Z23">
+        <v>2</v>
+      </c>
+      <c r="AA23">
+        <v>14</v>
+      </c>
+      <c r="AB23">
+        <v>12</v>
+      </c>
+      <c r="AC23">
+        <v>4</v>
+      </c>
+      <c r="AD23">
+        <v>8</v>
+      </c>
+      <c r="AE23">
+        <v>26</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ23">
+        <v>4</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM23">
+        <v>167</v>
+      </c>
+      <c r="AN23">
+        <v>4</v>
+      </c>
+      <c r="AO23">
+        <v>58</v>
+      </c>
+      <c r="AP23">
+        <v>40</v>
+      </c>
+      <c r="AQ23">
+        <v>400</v>
+      </c>
+      <c r="AR23">
+        <v>160</v>
+      </c>
+      <c r="AS23">
+        <v>320</v>
+      </c>
+      <c r="AT23">
+        <v>2320</v>
+      </c>
+      <c r="AU23">
+        <v>32</v>
+      </c>
+      <c r="AV23">
+        <v>232</v>
+      </c>
+      <c r="AW23">
+        <v>464</v>
+      </c>
+      <c r="AX23">
+        <v>1336</v>
+      </c>
+      <c r="AY23">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45549</v>
+      </c>
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>106</v>
+      </c>
+      <c r="L24">
+        <v>1.48</v>
+      </c>
+      <c r="M24">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="N24">
+        <v>6.64</v>
+      </c>
+      <c r="O24" t="s">
+        <v>112</v>
+      </c>
+      <c r="P24" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q24">
+        <v>16</v>
+      </c>
+      <c r="R24">
+        <v>3</v>
+      </c>
+      <c r="S24">
+        <v>11</v>
+      </c>
+      <c r="T24">
+        <v>3</v>
+      </c>
+      <c r="U24">
+        <v>2</v>
+      </c>
+      <c r="V24">
+        <v>3</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>6</v>
+      </c>
+      <c r="Z24">
+        <v>5</v>
+      </c>
+      <c r="AA24">
+        <v>9</v>
+      </c>
+      <c r="AB24">
+        <v>19</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>11</v>
+      </c>
+      <c r="AE24">
+        <v>28</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ24">
+        <v>5</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>179</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>50</v>
+      </c>
+      <c r="AQ24">
+        <v>600</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>550</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45549</v>
+      </c>
+      <c r="D25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>105</v>
+      </c>
+      <c r="L25">
+        <v>2.72</v>
+      </c>
+      <c r="M25">
+        <v>3.45</v>
+      </c>
+      <c r="N25">
+        <v>2.63</v>
+      </c>
+      <c r="O25" t="s">
+        <v>113</v>
+      </c>
+      <c r="P25" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q25">
+        <v>17</v>
+      </c>
+      <c r="R25">
+        <v>4</v>
+      </c>
+      <c r="S25">
+        <v>15</v>
+      </c>
+      <c r="T25">
+        <v>7</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>2</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>5</v>
+      </c>
+      <c r="Z25">
+        <v>4</v>
+      </c>
+      <c r="AA25">
+        <v>7</v>
+      </c>
+      <c r="AB25">
+        <v>18</v>
+      </c>
+      <c r="AC25">
+        <v>3</v>
+      </c>
+      <c r="AD25">
+        <v>9</v>
+      </c>
+      <c r="AE25">
+        <v>25</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ25">
+        <v>3</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM25">
+        <v>188</v>
+      </c>
+      <c r="AN25">
+        <v>3</v>
+      </c>
+      <c r="AO25">
+        <v>34</v>
+      </c>
+      <c r="AP25">
+        <v>30</v>
+      </c>
+      <c r="AQ25">
+        <v>200</v>
+      </c>
+      <c r="AR25">
+        <v>90</v>
+      </c>
+      <c r="AS25">
+        <v>270</v>
+      </c>
+      <c r="AT25">
+        <v>1020</v>
+      </c>
+      <c r="AU25">
+        <v>27</v>
+      </c>
+      <c r="AV25">
+        <v>102</v>
+      </c>
+      <c r="AW25">
+        <v>306</v>
+      </c>
+      <c r="AX25">
+        <v>1692</v>
+      </c>
+      <c r="AY25">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45549</v>
+      </c>
+      <c r="D26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26" t="s">
+        <v>105</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26" t="s">
+        <v>105</v>
+      </c>
+      <c r="L26">
+        <v>11.8</v>
+      </c>
+      <c r="M26">
+        <v>7.52</v>
+      </c>
+      <c r="N26">
+        <v>1.21</v>
+      </c>
+      <c r="O26" t="s">
+        <v>117</v>
+      </c>
+      <c r="P26" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q26">
+        <v>5</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>23</v>
+      </c>
+      <c r="T26">
+        <v>13</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>2</v>
+      </c>
+      <c r="Z26">
+        <v>10</v>
+      </c>
+      <c r="AA26">
+        <v>12</v>
+      </c>
+      <c r="AB26">
+        <v>11</v>
+      </c>
+      <c r="AC26">
+        <v>7</v>
+      </c>
+      <c r="AD26">
+        <v>12</v>
+      </c>
+      <c r="AE26">
+        <v>23</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ26">
+        <v>1</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>181</v>
+      </c>
+      <c r="AM26">
+        <v>301</v>
+      </c>
+      <c r="AN26">
+        <v>7</v>
+      </c>
+      <c r="AO26">
+        <v>145</v>
+      </c>
+      <c r="AP26">
+        <v>10</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>70</v>
+      </c>
+      <c r="AS26">
+        <v>120</v>
+      </c>
+      <c r="AT26">
+        <v>1450</v>
+      </c>
+      <c r="AU26">
+        <v>84</v>
+      </c>
+      <c r="AV26">
+        <v>1015</v>
+      </c>
+      <c r="AW26">
+        <v>1740</v>
+      </c>
+      <c r="AX26">
+        <v>3612</v>
+      </c>
+      <c r="AY26">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45550</v>
+      </c>
+      <c r="D27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>107</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>106</v>
+      </c>
+      <c r="L27">
+        <v>2.09</v>
+      </c>
+      <c r="M27">
+        <v>3.61</v>
+      </c>
+      <c r="N27">
+        <v>3.52</v>
+      </c>
+      <c r="O27" t="s">
+        <v>112</v>
+      </c>
+      <c r="P27" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q27">
+        <v>18</v>
+      </c>
+      <c r="R27">
+        <v>10</v>
+      </c>
+      <c r="S27">
+        <v>12</v>
+      </c>
+      <c r="T27">
+        <v>3</v>
+      </c>
+      <c r="U27">
+        <v>4</v>
+      </c>
+      <c r="V27">
+        <v>3</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>7</v>
+      </c>
+      <c r="Z27">
+        <v>7</v>
+      </c>
+      <c r="AA27">
+        <v>12</v>
+      </c>
+      <c r="AB27">
+        <v>10</v>
+      </c>
+      <c r="AC27">
+        <v>4</v>
+      </c>
+      <c r="AD27">
+        <v>14</v>
+      </c>
+      <c r="AE27">
+        <v>22</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ27">
+        <v>7</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM27">
+        <v>279</v>
+      </c>
+      <c r="AN27">
+        <v>4</v>
+      </c>
+      <c r="AO27">
+        <v>55</v>
+      </c>
+      <c r="AP27">
+        <v>70</v>
+      </c>
+      <c r="AQ27">
+        <v>1200</v>
+      </c>
+      <c r="AR27">
+        <v>280</v>
+      </c>
+      <c r="AS27">
+        <v>980</v>
+      </c>
+      <c r="AT27">
+        <v>3850</v>
+      </c>
+      <c r="AU27">
+        <v>56</v>
+      </c>
+      <c r="AV27">
+        <v>220</v>
+      </c>
+      <c r="AW27">
+        <v>770</v>
+      </c>
+      <c r="AX27">
+        <v>3906</v>
+      </c>
+      <c r="AY27">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45550</v>
+      </c>
+      <c r="D28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>105</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>106</v>
+      </c>
+      <c r="L28">
+        <v>2.04</v>
+      </c>
+      <c r="M28">
+        <v>3.66</v>
+      </c>
+      <c r="N28">
+        <v>3.61</v>
+      </c>
+      <c r="O28" t="s">
+        <v>110</v>
+      </c>
+      <c r="P28" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q28">
+        <v>11</v>
+      </c>
+      <c r="R28">
+        <v>5</v>
+      </c>
+      <c r="S28">
+        <v>11</v>
+      </c>
+      <c r="T28">
+        <v>5</v>
+      </c>
+      <c r="U28">
+        <v>3</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <v>10</v>
+      </c>
+      <c r="Z28">
+        <v>4</v>
+      </c>
+      <c r="AA28">
+        <v>12</v>
+      </c>
+      <c r="AB28">
+        <v>7</v>
+      </c>
+      <c r="AC28">
+        <v>3</v>
+      </c>
+      <c r="AD28">
+        <v>14</v>
+      </c>
+      <c r="AE28">
+        <v>19</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ28">
+        <v>4</v>
+      </c>
+      <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM28">
+        <v>104</v>
+      </c>
+      <c r="AN28">
+        <v>3</v>
+      </c>
+      <c r="AO28">
+        <v>33</v>
+      </c>
+      <c r="AP28">
+        <v>65</v>
+      </c>
+      <c r="AQ28">
+        <v>1050</v>
+      </c>
+      <c r="AR28">
+        <v>195</v>
+      </c>
+      <c r="AS28">
+        <v>910</v>
+      </c>
+      <c r="AT28">
+        <v>2145</v>
+      </c>
+      <c r="AU28">
+        <v>42</v>
+      </c>
+      <c r="AV28">
+        <v>99</v>
+      </c>
+      <c r="AW28">
+        <v>462</v>
+      </c>
+      <c r="AX28">
+        <v>1456</v>
+      </c>
+      <c r="AY28">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29" t="s">
+        <v>105</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29" t="s">
+        <v>105</v>
+      </c>
+      <c r="L29">
+        <v>2.42</v>
+      </c>
+      <c r="M29">
+        <v>3.6</v>
+      </c>
+      <c r="N29">
+        <v>2.97</v>
+      </c>
+      <c r="O29" t="s">
+        <v>116</v>
+      </c>
+      <c r="P29" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q29">
+        <v>30</v>
+      </c>
+      <c r="R29">
+        <v>9</v>
+      </c>
+      <c r="S29">
+        <v>5</v>
+      </c>
+      <c r="T29">
+        <v>3</v>
+      </c>
+      <c r="U29">
+        <v>3</v>
+      </c>
+      <c r="V29">
+        <v>5</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <v>14</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AA29">
+        <v>7</v>
+      </c>
+      <c r="AB29">
+        <v>12</v>
+      </c>
+      <c r="AC29">
+        <v>5</v>
+      </c>
+      <c r="AD29">
+        <v>15</v>
+      </c>
+      <c r="AE29">
+        <v>19</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ29">
+        <v>8</v>
+      </c>
+      <c r="AK29">
+        <v>2</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM29">
+        <v>159</v>
+      </c>
+      <c r="AN29">
+        <v>5</v>
+      </c>
+      <c r="AO29">
+        <v>109</v>
+      </c>
+      <c r="AP29">
+        <v>130</v>
+      </c>
+      <c r="AQ29">
+        <v>4125</v>
+      </c>
+      <c r="AR29">
+        <v>650</v>
+      </c>
+      <c r="AS29">
+        <v>1950</v>
+      </c>
+      <c r="AT29">
+        <f>AO29*AP29</f>
+        <v>14170</v>
+      </c>
+      <c r="AU29">
+        <v>75</v>
+      </c>
+      <c r="AV29">
+        <f>AN29*AO29</f>
+        <v>545</v>
+      </c>
+      <c r="AW29">
+        <f>AO29*AD29</f>
+        <v>1635</v>
+      </c>
+      <c r="AX29">
+        <f>AM29*AD29</f>
+        <v>2385</v>
+      </c>
+      <c r="AY29">
+        <v>9750</v>
+      </c>
+    </row>
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45556</v>
+      </c>
+      <c r="D30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>107</v>
+      </c>
+      <c r="L30">
+        <v>1.99</v>
+      </c>
+      <c r="M30">
+        <v>3.8</v>
+      </c>
+      <c r="N30">
+        <v>3.7</v>
+      </c>
+      <c r="O30" t="s">
+        <v>109</v>
+      </c>
+      <c r="P30" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q30">
+        <v>14</v>
+      </c>
+      <c r="R30">
+        <v>3</v>
+      </c>
+      <c r="S30">
+        <v>13</v>
+      </c>
+      <c r="T30">
+        <v>4</v>
+      </c>
+      <c r="U30">
+        <v>4</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>2</v>
+      </c>
+      <c r="Z30">
+        <v>5</v>
+      </c>
+      <c r="AA30">
+        <v>20</v>
+      </c>
+      <c r="AB30">
+        <v>9</v>
+      </c>
+      <c r="AC30">
+        <v>4</v>
+      </c>
+      <c r="AD30">
+        <v>7</v>
+      </c>
+      <c r="AE30">
+        <v>29</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ30">
+        <v>5</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM30">
+        <v>161</v>
+      </c>
+      <c r="AN30">
+        <v>4</v>
+      </c>
+      <c r="AO30">
+        <v>53</v>
+      </c>
+      <c r="AP30">
+        <v>50</v>
+      </c>
+      <c r="AQ30">
+        <v>400</v>
+      </c>
+      <c r="AR30">
+        <v>200</v>
+      </c>
+      <c r="AS30">
+        <v>350</v>
+      </c>
+      <c r="AT30">
+        <f t="shared" ref="AT30:AT37" si="0">AO30*AP30</f>
+        <v>2650</v>
+      </c>
+      <c r="AU30">
+        <v>28</v>
+      </c>
+      <c r="AV30">
+        <f t="shared" ref="AV30:AV37" si="1">AN30*AO30</f>
+        <v>212</v>
+      </c>
+      <c r="AW30">
+        <f t="shared" ref="AW30:AW37" si="2">AO30*AD30</f>
+        <v>371</v>
+      </c>
+      <c r="AX30">
+        <f t="shared" ref="AX30:AX37" si="3">AM30*AD30</f>
+        <v>1127</v>
+      </c>
+      <c r="AY30">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45556</v>
+      </c>
+      <c r="D31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31" t="s">
+        <v>105</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>106</v>
+      </c>
+      <c r="L31">
+        <v>2.75</v>
+      </c>
+      <c r="M31">
+        <v>3.4</v>
+      </c>
+      <c r="N31">
+        <v>2.66</v>
+      </c>
+      <c r="O31" t="s">
+        <v>112</v>
+      </c>
+      <c r="P31" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q31">
+        <v>7</v>
+      </c>
+      <c r="R31">
+        <v>2</v>
+      </c>
+      <c r="S31">
+        <v>14</v>
+      </c>
+      <c r="T31">
+        <v>5</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>3</v>
+      </c>
+      <c r="Z31">
+        <v>9</v>
+      </c>
+      <c r="AA31">
+        <v>6</v>
+      </c>
+      <c r="AB31">
+        <v>7</v>
+      </c>
+      <c r="AC31">
+        <v>3</v>
+      </c>
+      <c r="AD31">
+        <v>12</v>
+      </c>
+      <c r="AE31">
+        <v>13</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ31">
+        <v>2</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM31">
+        <v>178</v>
+      </c>
+      <c r="AN31">
+        <v>3</v>
+      </c>
+      <c r="AO31">
+        <v>106</v>
+      </c>
+      <c r="AP31">
+        <v>20</v>
+      </c>
+      <c r="AQ31">
+        <v>100</v>
+      </c>
+      <c r="AR31">
+        <v>60</v>
+      </c>
+      <c r="AS31">
+        <v>240</v>
+      </c>
+      <c r="AT31">
+        <f t="shared" si="0"/>
+        <v>2120</v>
+      </c>
+      <c r="AU31">
+        <v>36</v>
+      </c>
+      <c r="AV31">
+        <f t="shared" si="1"/>
+        <v>318</v>
+      </c>
+      <c r="AW31">
+        <f t="shared" si="2"/>
+        <v>1272</v>
+      </c>
+      <c r="AX31">
+        <f t="shared" si="3"/>
+        <v>2136</v>
+      </c>
+      <c r="AY31">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45556</v>
+      </c>
+      <c r="D32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>107</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>107</v>
+      </c>
+      <c r="L32">
+        <v>2.04</v>
+      </c>
+      <c r="M32">
+        <v>3.72</v>
+      </c>
+      <c r="N32">
+        <v>3.65</v>
+      </c>
+      <c r="O32" t="s">
+        <v>111</v>
+      </c>
+      <c r="P32" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q32">
+        <v>12</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>6</v>
+      </c>
+      <c r="T32">
+        <v>3</v>
+      </c>
+      <c r="U32">
+        <v>3</v>
+      </c>
+      <c r="V32">
+        <v>3</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>5</v>
+      </c>
+      <c r="Z32">
+        <v>5</v>
+      </c>
+      <c r="AA32">
+        <v>17</v>
+      </c>
+      <c r="AB32">
+        <v>18</v>
+      </c>
+      <c r="AC32">
+        <v>3</v>
+      </c>
+      <c r="AD32">
+        <v>10</v>
+      </c>
+      <c r="AE32">
+        <v>35</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ32">
+        <v>6</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM32">
+        <v>77</v>
+      </c>
+      <c r="AN32">
+        <v>3</v>
+      </c>
+      <c r="AO32">
+        <v>47</v>
+      </c>
+      <c r="AP32">
+        <v>60</v>
+      </c>
+      <c r="AQ32">
+        <v>900</v>
+      </c>
+      <c r="AR32">
+        <v>180</v>
+      </c>
+      <c r="AS32">
+        <v>600</v>
+      </c>
+      <c r="AT32">
+        <f t="shared" si="0"/>
+        <v>2820</v>
+      </c>
+      <c r="AU32">
+        <v>30</v>
+      </c>
+      <c r="AV32">
+        <f t="shared" si="1"/>
+        <v>141</v>
+      </c>
+      <c r="AW32">
+        <f t="shared" si="2"/>
+        <v>470</v>
+      </c>
+      <c r="AX32">
+        <f t="shared" si="3"/>
+        <v>770</v>
+      </c>
+      <c r="AY32">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45556</v>
+      </c>
+      <c r="D33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33" t="s">
+        <v>105</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33" t="s">
+        <v>105</v>
+      </c>
+      <c r="L33">
+        <v>7.92</v>
+      </c>
+      <c r="M33">
+        <v>5.6</v>
+      </c>
+      <c r="N33">
+        <v>1.36</v>
+      </c>
+      <c r="O33" t="s">
+        <v>108</v>
+      </c>
+      <c r="P33" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>25</v>
+      </c>
+      <c r="T33">
+        <v>7</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>3</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <v>4</v>
+      </c>
+      <c r="AA33">
+        <v>4</v>
+      </c>
+      <c r="AB33">
+        <v>13</v>
+      </c>
+      <c r="AC33">
+        <v>5</v>
+      </c>
+      <c r="AD33">
+        <v>5</v>
+      </c>
+      <c r="AE33">
+        <v>17</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ33">
+        <v>3</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM33">
+        <v>237</v>
+      </c>
+      <c r="AN33">
+        <v>5</v>
+      </c>
+      <c r="AO33">
+        <v>92</v>
+      </c>
+      <c r="AP33">
+        <v>30</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>150</v>
+      </c>
+      <c r="AS33">
+        <v>150</v>
+      </c>
+      <c r="AT33">
+        <f t="shared" si="0"/>
+        <v>2760</v>
+      </c>
+      <c r="AU33">
+        <v>25</v>
+      </c>
+      <c r="AV33">
+        <f t="shared" si="1"/>
+        <v>460</v>
+      </c>
+      <c r="AW33">
+        <f t="shared" si="2"/>
+        <v>460</v>
+      </c>
+      <c r="AX33">
+        <f t="shared" si="3"/>
+        <v>1185</v>
+      </c>
+      <c r="AY33">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="1">
+        <v>45556</v>
+      </c>
+      <c r="D34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>107</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>107</v>
+      </c>
+      <c r="L34">
+        <v>1.79</v>
+      </c>
+      <c r="M34">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="N34">
+        <v>4.26</v>
+      </c>
+      <c r="O34" t="s">
+        <v>114</v>
+      </c>
+      <c r="P34" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q34">
+        <v>14</v>
+      </c>
+      <c r="R34">
+        <v>4</v>
+      </c>
+      <c r="S34">
+        <v>22</v>
+      </c>
+      <c r="T34">
+        <v>7</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>8</v>
+      </c>
+      <c r="Z34">
+        <v>5</v>
+      </c>
+      <c r="AA34">
+        <v>10</v>
+      </c>
+      <c r="AB34">
+        <v>12</v>
+      </c>
+      <c r="AC34">
+        <v>2</v>
+      </c>
+      <c r="AD34">
+        <v>13</v>
+      </c>
+      <c r="AE34">
+        <v>22</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ34">
+        <v>2</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM34">
+        <v>111</v>
+      </c>
+      <c r="AN34">
+        <v>2</v>
+      </c>
+      <c r="AO34">
+        <v>23</v>
+      </c>
+      <c r="AP34">
+        <v>20</v>
+      </c>
+      <c r="AQ34">
+        <v>100</v>
+      </c>
+      <c r="AR34">
+        <v>40</v>
+      </c>
+      <c r="AS34">
+        <v>260</v>
+      </c>
+      <c r="AT34">
+        <f t="shared" si="0"/>
+        <v>460</v>
+      </c>
+      <c r="AU34">
+        <v>26</v>
+      </c>
+      <c r="AV34">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="AW34">
+        <f t="shared" si="2"/>
+        <v>299</v>
+      </c>
+      <c r="AX34">
+        <f t="shared" si="3"/>
+        <v>1443</v>
+      </c>
+      <c r="AY34">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45557</v>
+      </c>
+      <c r="D35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35" t="s">
+        <v>107</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35" t="s">
+        <v>105</v>
+      </c>
+      <c r="L35">
+        <v>1.31</v>
+      </c>
+      <c r="M35">
+        <v>5.91</v>
+      </c>
+      <c r="N35">
+        <v>9.23</v>
+      </c>
+      <c r="O35" t="s">
+        <v>118</v>
+      </c>
+      <c r="P35" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q35">
+        <v>20</v>
+      </c>
+      <c r="R35">
+        <v>7</v>
+      </c>
+      <c r="S35">
+        <v>8</v>
+      </c>
+      <c r="T35">
+        <v>4</v>
+      </c>
+      <c r="U35">
+        <v>4</v>
+      </c>
+      <c r="V35">
+        <v>5</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <v>6</v>
+      </c>
+      <c r="Z35">
+        <v>2</v>
+      </c>
+      <c r="AA35">
+        <v>6</v>
+      </c>
+      <c r="AB35">
+        <v>14</v>
+      </c>
+      <c r="AC35">
+        <v>7</v>
+      </c>
+      <c r="AD35">
+        <v>8</v>
+      </c>
+      <c r="AE35">
+        <v>20</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ35">
+        <v>9</v>
+      </c>
+      <c r="AK35">
+        <v>1</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM35">
+        <v>271</v>
+      </c>
+      <c r="AN35">
+        <v>7</v>
+      </c>
+      <c r="AO35">
+        <v>97</v>
+      </c>
+      <c r="AP35">
+        <v>115</v>
+      </c>
+      <c r="AQ35">
+        <v>3000</v>
+      </c>
+      <c r="AR35">
+        <v>805</v>
+      </c>
+      <c r="AS35">
+        <v>920</v>
+      </c>
+      <c r="AT35">
+        <f t="shared" si="0"/>
+        <v>11155</v>
+      </c>
+      <c r="AU35">
+        <v>56</v>
+      </c>
+      <c r="AV35">
+        <f t="shared" si="1"/>
+        <v>679</v>
+      </c>
+      <c r="AW35">
+        <f t="shared" si="2"/>
+        <v>776</v>
+      </c>
+      <c r="AX35">
+        <f t="shared" si="3"/>
+        <v>2168</v>
+      </c>
+      <c r="AY35">
+        <v>6440</v>
+      </c>
+    </row>
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="1">
+        <v>45557</v>
+      </c>
+      <c r="D36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>107</v>
+      </c>
+      <c r="L36">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="M36">
+        <v>3.8</v>
+      </c>
+      <c r="N36">
+        <v>2.94</v>
+      </c>
+      <c r="O36" t="s">
+        <v>111</v>
+      </c>
+      <c r="P36" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q36">
+        <v>16</v>
+      </c>
+      <c r="R36">
+        <v>9</v>
+      </c>
+      <c r="S36">
+        <v>6</v>
+      </c>
+      <c r="T36">
+        <v>3</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>3</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>6</v>
+      </c>
+      <c r="Z36">
+        <v>4</v>
+      </c>
+      <c r="AA36">
+        <v>10</v>
+      </c>
+      <c r="AB36">
+        <v>6</v>
+      </c>
+      <c r="AC36">
+        <v>6</v>
+      </c>
+      <c r="AD36">
+        <v>10</v>
+      </c>
+      <c r="AE36">
+        <v>16</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ36">
+        <v>4</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM36">
+        <v>332</v>
+      </c>
+      <c r="AN36">
+        <v>6</v>
+      </c>
+      <c r="AO36">
+        <v>88</v>
+      </c>
+      <c r="AP36">
+        <v>40</v>
+      </c>
+      <c r="AQ36">
+        <v>300</v>
+      </c>
+      <c r="AR36">
+        <v>240</v>
+      </c>
+      <c r="AS36">
+        <v>400</v>
+      </c>
+      <c r="AT36">
+        <f t="shared" si="0"/>
+        <v>3520</v>
+      </c>
+      <c r="AU36">
+        <v>60</v>
+      </c>
+      <c r="AV36">
+        <f t="shared" si="1"/>
+        <v>528</v>
+      </c>
+      <c r="AW36">
+        <f t="shared" si="2"/>
+        <v>880</v>
+      </c>
+      <c r="AX36">
+        <f t="shared" si="3"/>
+        <v>3320</v>
+      </c>
+      <c r="AY36">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45557</v>
+      </c>
+      <c r="D37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>106</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>106</v>
+      </c>
+      <c r="L37">
+        <v>5.19</v>
+      </c>
+      <c r="M37">
+        <v>4.25</v>
+      </c>
+      <c r="N37">
+        <v>1.64</v>
+      </c>
+      <c r="O37" t="s">
+        <v>112</v>
+      </c>
+      <c r="P37" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q37">
+        <v>15</v>
+      </c>
+      <c r="R37">
+        <v>4</v>
+      </c>
+      <c r="S37">
+        <v>10</v>
+      </c>
+      <c r="T37">
+        <v>5</v>
+      </c>
+      <c r="U37">
+        <v>2</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>3</v>
+      </c>
+      <c r="Z37">
+        <v>1</v>
+      </c>
+      <c r="AA37">
+        <v>6</v>
+      </c>
+      <c r="AB37">
+        <v>9</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>4</v>
+      </c>
+      <c r="AE37">
+        <v>15</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ37">
+        <v>3</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>0</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <v>30</v>
+      </c>
+      <c r="AQ37">
+        <v>200</v>
+      </c>
+      <c r="AR37">
+        <v>0</v>
+      </c>
+      <c r="AS37">
+        <v>120</v>
+      </c>
+      <c r="AT37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU37">
+        <v>0</v>
+      </c>
+      <c r="AV37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AX37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/D1_spread.xlsx
+++ b/D1_spread.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBAE6DF-8F9C-403E-A51B-1621106E31F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F7CD59-E04F-4F57-8ECB-4AD1EB690EB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="3705" windowWidth="20355" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="216">
   <si>
     <t>Div</t>
   </si>
@@ -261,31 +261,58 @@
     <t>27</t>
   </si>
   <si>
-    <t>569</t>
-  </si>
-  <si>
-    <t>570</t>
-  </si>
-  <si>
-    <t>571</t>
-  </si>
-  <si>
-    <t>572</t>
-  </si>
-  <si>
-    <t>573</t>
-  </si>
-  <si>
-    <t>574</t>
-  </si>
-  <si>
-    <t>575</t>
-  </si>
-  <si>
-    <t>576</t>
-  </si>
-  <si>
-    <t>577</t>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>664</t>
+  </si>
+  <si>
+    <t>665</t>
+  </si>
+  <si>
+    <t>666</t>
+  </si>
+  <si>
+    <t>667</t>
+  </si>
+  <si>
+    <t>668</t>
+  </si>
+  <si>
+    <t>669</t>
+  </si>
+  <si>
+    <t>670</t>
+  </si>
+  <si>
+    <t>671</t>
+  </si>
+  <si>
+    <t>672</t>
   </si>
   <si>
     <t>D1</t>
@@ -387,15 +414,15 @@
     <t>2-3</t>
   </si>
   <si>
+    <t>3-3</t>
+  </si>
+  <si>
     <t>2-2</t>
   </si>
   <si>
     <t>3-2</t>
   </si>
   <si>
-    <t>3-3</t>
-  </si>
-  <si>
     <t>4-0</t>
   </si>
   <si>
@@ -426,6 +453,9 @@
     <t>2-4</t>
   </si>
   <si>
+    <t>3-4</t>
+  </si>
+  <si>
     <t>6-3</t>
   </si>
   <si>
@@ -447,9 +477,6 @@
     <t>5-4</t>
   </si>
   <si>
-    <t>3-4</t>
-  </si>
-  <si>
     <t>11-2</t>
   </si>
   <si>
@@ -495,6 +522,21 @@
     <t>6-4</t>
   </si>
   <si>
+    <t>11-0</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>4-9</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -607,6 +649,33 @@
   </si>
   <si>
     <t>St Pauli-RB Leipzig</t>
+  </si>
+  <si>
+    <t>Dortmund-Bochum</t>
+  </si>
+  <si>
+    <t>Freiburg-St Pauli</t>
+  </si>
+  <si>
+    <t>Mainz-Heidenheim</t>
+  </si>
+  <si>
+    <t>Mgladbach-Union Berlin</t>
+  </si>
+  <si>
+    <t>RB Leipzig-Augsburg</t>
+  </si>
+  <si>
+    <t>Wolfsburg-Stuttgart</t>
+  </si>
+  <si>
+    <t>Bayern Munich-Leverkusen</t>
+  </si>
+  <si>
+    <t>Holstein Kiel-Ein Frankfurt</t>
+  </si>
+  <si>
+    <t>Hoffenheim-Werder Bremen</t>
   </si>
 </sst>
 </file>
@@ -962,60 +1031,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY37"/>
+  <dimension ref="A1:AY46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AD11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="AC26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO37" sqref="AO37"/>
+      <selection pane="bottomRight" activeCell="AO47" sqref="AO47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="20" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
@@ -1175,16 +1242,16 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1">
         <v>45527</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -1193,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1202,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L2">
         <v>5.33</v>
@@ -1214,10 +1281,10 @@
         <v>1.6</v>
       </c>
       <c r="O2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="P2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="Q2">
         <v>14</v>
@@ -1265,16 +1332,16 @@
         <v>18</v>
       </c>
       <c r="AF2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="AG2" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AH2" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AI2" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AJ2">
         <v>1</v>
@@ -1283,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="AM2">
         <v>284</v>
@@ -1330,16 +1397,16 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1">
         <v>45528</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1348,7 +1415,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -1357,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L3">
         <v>2.3199999999999998</v>
@@ -1369,10 +1436,10 @@
         <v>3.11</v>
       </c>
       <c r="O3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="P3" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="Q3">
         <v>10</v>
@@ -1420,16 +1487,16 @@
         <v>21</v>
       </c>
       <c r="AF3" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AG3" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AH3" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AI3" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AJ3">
         <v>4</v>
@@ -1438,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="AM3">
         <v>121</v>
@@ -1485,16 +1552,16 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1">
         <v>45528</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -1503,7 +1570,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1512,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L4">
         <v>3.5</v>
@@ -1524,10 +1591,10 @@
         <v>2.09</v>
       </c>
       <c r="O4" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="Q4">
         <v>15</v>
@@ -1575,16 +1642,16 @@
         <v>17</v>
       </c>
       <c r="AF4" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="AG4" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AH4" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AI4" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AJ4">
         <v>3</v>
@@ -1593,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="AM4">
         <v>144</v>
@@ -1640,16 +1707,16 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C5" s="1">
         <v>45528</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -1658,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -1667,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L5">
         <v>1.64</v>
@@ -1679,10 +1746,10 @@
         <v>5.07</v>
       </c>
       <c r="O5" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P5" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="Q5">
         <v>20</v>
@@ -1730,16 +1797,16 @@
         <v>22</v>
       </c>
       <c r="AF5" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="AG5" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AH5" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AI5" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AJ5">
         <v>5</v>
@@ -1748,7 +1815,7 @@
         <v>1</v>
       </c>
       <c r="AL5" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="AM5">
         <v>282</v>
@@ -1795,16 +1862,16 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1">
         <v>45528</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1813,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1822,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L6">
         <v>2.08</v>
@@ -1834,10 +1901,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="O6" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="P6" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="Q6">
         <v>15</v>
@@ -1885,16 +1952,16 @@
         <v>24</v>
       </c>
       <c r="AF6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="AG6" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AH6" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AI6" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AJ6">
         <v>4</v>
@@ -1903,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="AM6">
         <v>127</v>
@@ -1950,16 +2017,16 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C7" s="1">
         <v>45528</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1968,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1977,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L7">
         <v>1.25</v>
@@ -1989,10 +2056,10 @@
         <v>10.65</v>
       </c>
       <c r="O7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="P7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="Q7">
         <v>12</v>
@@ -2040,16 +2107,16 @@
         <v>26</v>
       </c>
       <c r="AF7" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="AG7" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AH7" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AI7" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AJ7">
         <v>4</v>
@@ -2058,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="AL7" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="AM7">
         <v>59</v>
@@ -2105,16 +2172,16 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C8" s="1">
         <v>45528</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -2123,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2132,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L8">
         <v>1.71</v>
@@ -2144,10 +2211,10 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="O8" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="P8" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="Q8">
         <v>17</v>
@@ -2195,16 +2262,16 @@
         <v>9</v>
       </c>
       <c r="AF8" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="AG8" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AH8" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AI8" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AJ8">
         <v>1</v>
@@ -2213,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="AM8">
         <v>162</v>
@@ -2260,16 +2327,16 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1">
         <v>45529</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -2278,7 +2345,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2287,7 +2354,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L9">
         <v>6.33</v>
@@ -2299,10 +2366,10 @@
         <v>1.47</v>
       </c>
       <c r="O9" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="P9" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2350,16 +2417,16 @@
         <v>24</v>
       </c>
       <c r="AF9" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="AG9" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AH9" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AI9" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AJ9">
         <v>5</v>
@@ -2368,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="AM9">
         <v>269</v>
@@ -2415,16 +2482,16 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1">
         <v>45529</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2433,7 +2500,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2442,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L10">
         <v>2.13</v>
@@ -2454,10 +2521,10 @@
         <v>3.59</v>
       </c>
       <c r="O10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="P10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -2505,16 +2572,16 @@
         <v>25</v>
       </c>
       <c r="AF10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AG10" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AH10" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AI10" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AJ10">
         <v>5</v>
@@ -2523,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="AM10">
         <v>148</v>
@@ -2570,16 +2637,16 @@
         <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1">
         <v>45534</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2588,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -2597,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L11">
         <v>1.96</v>
@@ -2609,10 +2676,10 @@
         <v>4.29</v>
       </c>
       <c r="O11" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P11" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -2660,16 +2727,16 @@
         <v>21</v>
       </c>
       <c r="AF11" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AH11" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AI11" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AJ11">
         <v>4</v>
@@ -2678,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="AM11">
         <v>34</v>
@@ -2725,16 +2792,16 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C12" s="1">
         <v>45535</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2743,7 +2810,7 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2752,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L12">
         <v>2.66</v>
@@ -2764,10 +2831,10 @@
         <v>2.57</v>
       </c>
       <c r="O12" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="P12" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="Q12">
         <v>16</v>
@@ -2815,16 +2882,16 @@
         <v>19</v>
       </c>
       <c r="AF12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AG12" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AH12" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AI12" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AJ12">
         <v>1</v>
@@ -2833,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="AL12" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="AM12">
         <v>145</v>
@@ -2880,16 +2947,16 @@
         <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C13" s="1">
         <v>45535</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -2898,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -2907,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L13">
         <v>1.8</v>
@@ -2919,10 +2986,10 @@
         <v>4.12</v>
       </c>
       <c r="O13" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P13" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="Q13">
         <v>17</v>
@@ -2970,16 +3037,16 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AG13" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AH13" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AI13" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AJ13">
         <v>3</v>
@@ -2988,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="AM13">
         <v>167</v>
@@ -3035,16 +3102,16 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1">
         <v>45535</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -3053,7 +3120,7 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3062,7 +3129,7 @@
         <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L14">
         <v>3.26</v>
@@ -3074,10 +3141,10 @@
         <v>2.19</v>
       </c>
       <c r="O14" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="P14" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="Q14">
         <v>12</v>
@@ -3125,16 +3192,16 @@
         <v>31</v>
       </c>
       <c r="AF14" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="AG14" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AH14" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AI14" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AJ14">
         <v>11</v>
@@ -3143,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="AM14">
         <v>57</v>
@@ -3190,17 +3257,17 @@
         <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C15" s="1">
         <v>45535</v>
       </c>
       <c r="D15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" t="s">
         <v>100</v>
       </c>
-      <c r="E15" t="s">
-        <v>91</v>
-      </c>
       <c r="F15">
         <v>3</v>
       </c>
@@ -3208,7 +3275,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -3217,7 +3284,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L15">
         <v>1.66</v>
@@ -3229,10 +3296,10 @@
         <v>5.09</v>
       </c>
       <c r="O15" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="P15" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="Q15">
         <v>28</v>
@@ -3280,16 +3347,16 @@
         <v>18</v>
       </c>
       <c r="AF15" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AG15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AH15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AI15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AJ15">
         <v>6</v>
@@ -3298,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="AM15">
         <v>306</v>
@@ -3345,16 +3412,16 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C16" s="1">
         <v>45535</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3363,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -3372,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L16">
         <v>4.05</v>
@@ -3384,10 +3451,10 @@
         <v>1.83</v>
       </c>
       <c r="O16" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="P16" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -3435,16 +3502,16 @@
         <v>27</v>
       </c>
       <c r="AF16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AG16" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AH16" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AI16" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AJ16">
         <v>9</v>
@@ -3453,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="AL16" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="AM16">
         <v>0</v>
@@ -3500,16 +3567,16 @@
         <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C17" s="1">
         <v>45535</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -3518,7 +3585,7 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -3527,7 +3594,7 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L17">
         <v>1.8</v>
@@ -3539,10 +3606,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="O17" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="P17" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="Q17">
         <v>27</v>
@@ -3590,16 +3657,16 @@
         <v>15</v>
       </c>
       <c r="AF17" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AG17" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AH17" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AI17" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AJ17">
         <v>4</v>
@@ -3608,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="AM17">
         <v>266</v>
@@ -3655,16 +3722,16 @@
         <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C18" s="1">
         <v>45536</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -3673,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -3682,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L18">
         <v>2.42</v>
@@ -3694,10 +3761,10 @@
         <v>3.02</v>
       </c>
       <c r="O18" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P18" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="Q18">
         <v>17</v>
@@ -3745,16 +3812,16 @@
         <v>26</v>
       </c>
       <c r="AF18" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AG18" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AH18" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AI18" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AJ18">
         <v>3</v>
@@ -3763,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="AL18" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AM18">
         <v>181</v>
@@ -3810,16 +3877,16 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C19" s="1">
         <v>45536</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -3828,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -3837,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L19">
         <v>1.21</v>
@@ -3849,10 +3916,10 @@
         <v>11.45</v>
       </c>
       <c r="O19" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P19" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="Q19">
         <v>11</v>
@@ -3900,16 +3967,16 @@
         <v>25</v>
       </c>
       <c r="AF19" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="AG19" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AH19" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AI19" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AJ19">
         <v>1</v>
@@ -3918,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="AM19">
         <v>116</v>
@@ -3965,16 +4032,16 @@
         <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C20" s="1">
         <v>45548</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -3983,7 +4050,7 @@
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="I20">
         <v>3</v>
@@ -3992,7 +4059,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L20">
         <v>1.39</v>
@@ -4004,10 +4071,10 @@
         <v>7.83</v>
       </c>
       <c r="O20" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P20" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="Q20">
         <v>13</v>
@@ -4055,16 +4122,16 @@
         <v>31</v>
       </c>
       <c r="AF20" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AG20" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AH20" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AI20" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AJ20">
         <v>4</v>
@@ -4073,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="AL20" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AM20">
         <v>273</v>
@@ -4120,16 +4187,16 @@
         <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C21" s="1">
         <v>45549</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -4138,7 +4205,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -4147,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L21">
         <v>1.69</v>
@@ -4159,10 +4226,10 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="O21" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="P21" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="Q21">
         <v>27</v>
@@ -4210,16 +4277,16 @@
         <v>21</v>
       </c>
       <c r="AF21" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AG21" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AH21" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AI21" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AJ21">
         <v>3</v>
@@ -4228,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="AL21" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AM21">
         <v>164</v>
@@ -4275,16 +4342,16 @@
         <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C22" s="1">
         <v>45549</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -4293,7 +4360,7 @@
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -4302,7 +4369,7 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L22">
         <v>5.95</v>
@@ -4314,10 +4381,10 @@
         <v>1.49</v>
       </c>
       <c r="O22" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P22" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="Q22">
         <v>14</v>
@@ -4365,16 +4432,16 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AG22" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AH22" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AI22" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AJ22">
         <v>4</v>
@@ -4383,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="AL22" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="AM22">
         <v>161</v>
@@ -4430,16 +4497,16 @@
         <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C23" s="1">
         <v>45549</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -4448,7 +4515,7 @@
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -4457,7 +4524,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L23">
         <v>2.84</v>
@@ -4469,10 +4536,10 @@
         <v>2.31</v>
       </c>
       <c r="O23" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P23" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="Q23">
         <v>15</v>
@@ -4520,16 +4587,16 @@
         <v>26</v>
       </c>
       <c r="AF23" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AG23" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AH23" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AI23" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AJ23">
         <v>4</v>
@@ -4538,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="AL23" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="AM23">
         <v>167</v>
@@ -4585,16 +4652,16 @@
         <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C24" s="1">
         <v>45549</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -4603,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -4612,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L24">
         <v>1.48</v>
@@ -4624,10 +4691,10 @@
         <v>6.64</v>
       </c>
       <c r="O24" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="P24" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="Q24">
         <v>16</v>
@@ -4675,16 +4742,16 @@
         <v>28</v>
       </c>
       <c r="AF24" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="AG24" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AH24" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AI24" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AJ24">
         <v>5</v>
@@ -4693,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="AL24" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="AM24">
         <v>0</v>
@@ -4740,16 +4807,16 @@
         <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C25" s="1">
         <v>45549</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -4758,7 +4825,7 @@
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -4767,7 +4834,7 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L25">
         <v>2.72</v>
@@ -4779,10 +4846,10 @@
         <v>2.63</v>
       </c>
       <c r="O25" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="P25" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="Q25">
         <v>17</v>
@@ -4830,16 +4897,16 @@
         <v>25</v>
       </c>
       <c r="AF25" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="AG25" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AH25" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AI25" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AJ25">
         <v>3</v>
@@ -4848,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="AL25" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="AM25">
         <v>188</v>
@@ -4895,16 +4962,16 @@
         <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C26" s="1">
         <v>45549</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -4913,7 +4980,7 @@
         <v>6</v>
       </c>
       <c r="H26" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -4922,7 +4989,7 @@
         <v>4</v>
       </c>
       <c r="K26" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L26">
         <v>11.8</v>
@@ -4934,10 +5001,10 @@
         <v>1.21</v>
       </c>
       <c r="O26" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="P26" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -4985,16 +5052,16 @@
         <v>23</v>
       </c>
       <c r="AF26" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="AG26" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AH26" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AI26" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AJ26">
         <v>1</v>
@@ -5003,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="AL26" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="AM26">
         <v>301</v>
@@ -5050,16 +5117,16 @@
         <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C27" s="1">
         <v>45550</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -5068,7 +5135,7 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -5077,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L27">
         <v>2.09</v>
@@ -5089,10 +5156,10 @@
         <v>3.52</v>
       </c>
       <c r="O27" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="P27" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="Q27">
         <v>18</v>
@@ -5140,16 +5207,16 @@
         <v>22</v>
       </c>
       <c r="AF27" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="AG27" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AH27" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AI27" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AJ27">
         <v>7</v>
@@ -5158,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="AL27" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="AM27">
         <v>279</v>
@@ -5205,16 +5272,16 @@
         <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C28" s="1">
         <v>45550</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -5223,7 +5290,7 @@
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -5232,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L28">
         <v>2.04</v>
@@ -5244,10 +5311,10 @@
         <v>3.61</v>
       </c>
       <c r="O28" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P28" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="Q28">
         <v>11</v>
@@ -5295,16 +5362,16 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="AG28" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AH28" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AI28" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AJ28">
         <v>4</v>
@@ -5313,7 +5380,7 @@
         <v>1</v>
       </c>
       <c r="AL28" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AM28">
         <v>104</v>
@@ -5360,16 +5427,16 @@
         <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C29" s="1">
         <v>45555</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -5378,7 +5445,7 @@
         <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -5387,7 +5454,7 @@
         <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L29">
         <v>2.42</v>
@@ -5399,10 +5466,10 @@
         <v>2.97</v>
       </c>
       <c r="O29" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P29" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="Q29">
         <v>30</v>
@@ -5450,16 +5517,16 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="AG29" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AH29" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AI29" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AJ29">
         <v>8</v>
@@ -5468,7 +5535,7 @@
         <v>2</v>
       </c>
       <c r="AL29" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AM29">
         <v>159</v>
@@ -5492,22 +5559,18 @@
         <v>1950</v>
       </c>
       <c r="AT29">
-        <f>AO29*AP29</f>
         <v>14170</v>
       </c>
       <c r="AU29">
         <v>75</v>
       </c>
       <c r="AV29">
-        <f>AN29*AO29</f>
         <v>545</v>
       </c>
       <c r="AW29">
-        <f>AO29*AD29</f>
         <v>1635</v>
       </c>
       <c r="AX29">
-        <f>AM29*AD29</f>
         <v>2385</v>
       </c>
       <c r="AY29">
@@ -5519,16 +5582,16 @@
         <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C30" s="1">
         <v>45556</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -5537,7 +5600,7 @@
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -5546,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L30">
         <v>1.99</v>
@@ -5558,10 +5621,10 @@
         <v>3.7</v>
       </c>
       <c r="O30" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="P30" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="Q30">
         <v>14</v>
@@ -5609,16 +5672,16 @@
         <v>29</v>
       </c>
       <c r="AF30" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="AG30" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AH30" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AI30" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AJ30">
         <v>5</v>
@@ -5627,7 +5690,7 @@
         <v>0</v>
       </c>
       <c r="AL30" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="AM30">
         <v>161</v>
@@ -5651,22 +5714,18 @@
         <v>350</v>
       </c>
       <c r="AT30">
-        <f t="shared" ref="AT30:AT37" si="0">AO30*AP30</f>
         <v>2650</v>
       </c>
       <c r="AU30">
         <v>28</v>
       </c>
       <c r="AV30">
-        <f t="shared" ref="AV30:AV37" si="1">AN30*AO30</f>
         <v>212</v>
       </c>
       <c r="AW30">
-        <f t="shared" ref="AW30:AW37" si="2">AO30*AD30</f>
         <v>371</v>
       </c>
       <c r="AX30">
-        <f t="shared" ref="AX30:AX37" si="3">AM30*AD30</f>
         <v>1127</v>
       </c>
       <c r="AY30">
@@ -5678,16 +5737,16 @@
         <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C31" s="1">
         <v>45556</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -5696,7 +5755,7 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -5705,7 +5764,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L31">
         <v>2.75</v>
@@ -5717,10 +5776,10 @@
         <v>2.66</v>
       </c>
       <c r="O31" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="P31" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -5768,16 +5827,16 @@
         <v>13</v>
       </c>
       <c r="AF31" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="AG31" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AH31" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AI31" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AJ31">
         <v>2</v>
@@ -5786,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="AL31" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="AM31">
         <v>178</v>
@@ -5810,22 +5869,18 @@
         <v>240</v>
       </c>
       <c r="AT31">
-        <f t="shared" si="0"/>
         <v>2120</v>
       </c>
       <c r="AU31">
         <v>36</v>
       </c>
       <c r="AV31">
-        <f t="shared" si="1"/>
         <v>318</v>
       </c>
       <c r="AW31">
-        <f t="shared" si="2"/>
         <v>1272</v>
       </c>
       <c r="AX31">
-        <f t="shared" si="3"/>
         <v>2136</v>
       </c>
       <c r="AY31">
@@ -5837,16 +5892,16 @@
         <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C32" s="1">
         <v>45556</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E32" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -5855,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -5864,7 +5919,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L32">
         <v>2.04</v>
@@ -5876,10 +5931,10 @@
         <v>3.65</v>
       </c>
       <c r="O32" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P32" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="Q32">
         <v>12</v>
@@ -5927,16 +5982,16 @@
         <v>35</v>
       </c>
       <c r="AF32" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="AG32" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AH32" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AI32" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AJ32">
         <v>6</v>
@@ -5945,7 +6000,7 @@
         <v>0</v>
       </c>
       <c r="AL32" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="AM32">
         <v>77</v>
@@ -5969,22 +6024,18 @@
         <v>600</v>
       </c>
       <c r="AT32">
-        <f t="shared" si="0"/>
         <v>2820</v>
       </c>
       <c r="AU32">
         <v>30</v>
       </c>
       <c r="AV32">
-        <f t="shared" si="1"/>
         <v>141</v>
       </c>
       <c r="AW32">
-        <f t="shared" si="2"/>
         <v>470</v>
       </c>
       <c r="AX32">
-        <f t="shared" si="3"/>
         <v>770</v>
       </c>
       <c r="AY32">
@@ -5996,16 +6047,16 @@
         <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C33" s="1">
         <v>45556</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E33" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -6014,7 +6065,7 @@
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -6023,7 +6074,7 @@
         <v>2</v>
       </c>
       <c r="K33" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L33">
         <v>7.92</v>
@@ -6035,10 +6086,10 @@
         <v>1.36</v>
       </c>
       <c r="O33" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="P33" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -6086,16 +6137,16 @@
         <v>17</v>
       </c>
       <c r="AF33" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AG33" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AH33" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AI33" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AJ33">
         <v>3</v>
@@ -6104,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="AL33" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AM33">
         <v>237</v>
@@ -6128,22 +6179,18 @@
         <v>150</v>
       </c>
       <c r="AT33">
-        <f t="shared" si="0"/>
         <v>2760</v>
       </c>
       <c r="AU33">
         <v>25</v>
       </c>
       <c r="AV33">
-        <f t="shared" si="1"/>
         <v>460</v>
       </c>
       <c r="AW33">
-        <f t="shared" si="2"/>
         <v>460</v>
       </c>
       <c r="AX33">
-        <f t="shared" si="3"/>
         <v>1185</v>
       </c>
       <c r="AY33">
@@ -6155,16 +6202,16 @@
         <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C34" s="1">
         <v>45556</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E34" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -6173,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -6182,7 +6229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L34">
         <v>1.79</v>
@@ -6194,10 +6241,10 @@
         <v>4.26</v>
       </c>
       <c r="O34" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P34" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="Q34">
         <v>14</v>
@@ -6245,16 +6292,16 @@
         <v>22</v>
       </c>
       <c r="AF34" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="AG34" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AH34" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AI34" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AJ34">
         <v>2</v>
@@ -6263,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="AL34" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AM34">
         <v>111</v>
@@ -6287,22 +6334,18 @@
         <v>260</v>
       </c>
       <c r="AT34">
-        <f t="shared" si="0"/>
         <v>460</v>
       </c>
       <c r="AU34">
         <v>26</v>
       </c>
       <c r="AV34">
-        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="AW34">
-        <f t="shared" si="2"/>
         <v>299</v>
       </c>
       <c r="AX34">
-        <f t="shared" si="3"/>
         <v>1443</v>
       </c>
       <c r="AY34">
@@ -6314,16 +6357,16 @@
         <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C35" s="1">
         <v>45557</v>
       </c>
       <c r="D35" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E35" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F35">
         <v>4</v>
@@ -6332,7 +6375,7 @@
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -6341,7 +6384,7 @@
         <v>3</v>
       </c>
       <c r="K35" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L35">
         <v>1.31</v>
@@ -6353,10 +6396,10 @@
         <v>9.23</v>
       </c>
       <c r="O35" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="P35" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="Q35">
         <v>20</v>
@@ -6404,16 +6447,16 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AG35" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AH35" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AI35" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AJ35">
         <v>9</v>
@@ -6422,7 +6465,7 @@
         <v>1</v>
       </c>
       <c r="AL35" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="AM35">
         <v>271</v>
@@ -6446,22 +6489,18 @@
         <v>920</v>
       </c>
       <c r="AT35">
-        <f t="shared" si="0"/>
         <v>11155</v>
       </c>
       <c r="AU35">
         <v>56</v>
       </c>
       <c r="AV35">
-        <f t="shared" si="1"/>
         <v>679</v>
       </c>
       <c r="AW35">
-        <f t="shared" si="2"/>
         <v>776</v>
       </c>
       <c r="AX35">
-        <f t="shared" si="3"/>
         <v>2168</v>
       </c>
       <c r="AY35">
@@ -6473,16 +6512,16 @@
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C36" s="1">
         <v>45557</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E36" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F36">
         <v>5</v>
@@ -6491,7 +6530,7 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -6500,7 +6539,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L36">
         <v>2.3199999999999998</v>
@@ -6512,10 +6551,10 @@
         <v>2.94</v>
       </c>
       <c r="O36" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P36" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="Q36">
         <v>16</v>
@@ -6563,16 +6602,16 @@
         <v>16</v>
       </c>
       <c r="AF36" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="AG36" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AH36" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AI36" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AJ36">
         <v>4</v>
@@ -6581,7 +6620,7 @@
         <v>0</v>
       </c>
       <c r="AL36" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="AM36">
         <v>332</v>
@@ -6605,22 +6644,18 @@
         <v>400</v>
       </c>
       <c r="AT36">
-        <f t="shared" si="0"/>
         <v>3520</v>
       </c>
       <c r="AU36">
         <v>60</v>
       </c>
       <c r="AV36">
-        <f t="shared" si="1"/>
         <v>528</v>
       </c>
       <c r="AW36">
-        <f t="shared" si="2"/>
         <v>880</v>
       </c>
       <c r="AX36">
-        <f t="shared" si="3"/>
         <v>3320</v>
       </c>
       <c r="AY36">
@@ -6632,16 +6667,16 @@
         <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C37" s="1">
         <v>45557</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E37" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -6650,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -6659,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L37">
         <v>5.19</v>
@@ -6671,10 +6706,10 @@
         <v>1.64</v>
       </c>
       <c r="O37" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="P37" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="Q37">
         <v>15</v>
@@ -6722,16 +6757,16 @@
         <v>15</v>
       </c>
       <c r="AF37" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="AG37" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AH37" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AI37" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AJ37">
         <v>3</v>
@@ -6740,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="AL37" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="AM37">
         <v>0</v>
@@ -6764,26 +6799,1457 @@
         <v>120</v>
       </c>
       <c r="AT37">
+        <f>AO37*AP37</f>
+        <v>0</v>
+      </c>
+      <c r="AU37">
+        <v>0</v>
+      </c>
+      <c r="AV37">
+        <f>AN37*AO37</f>
+        <v>0</v>
+      </c>
+      <c r="AW37">
+        <f>AO37*AD37</f>
+        <v>0</v>
+      </c>
+      <c r="AX37">
+        <f>AM37*AD37</f>
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="1">
+        <v>45562</v>
+      </c>
+      <c r="D38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38" t="s">
+        <v>116</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38" t="s">
+        <v>114</v>
+      </c>
+      <c r="L38">
+        <v>1.24</v>
+      </c>
+      <c r="M38">
+        <v>7.21</v>
+      </c>
+      <c r="N38">
+        <v>11.22</v>
+      </c>
+      <c r="O38" t="s">
+        <v>125</v>
+      </c>
+      <c r="P38" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q38">
+        <v>23</v>
+      </c>
+      <c r="R38">
+        <v>8</v>
+      </c>
+      <c r="S38">
+        <v>10</v>
+      </c>
+      <c r="T38">
+        <v>6</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>11</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>12</v>
+      </c>
+      <c r="AB38">
+        <v>9</v>
+      </c>
+      <c r="AC38">
+        <v>6</v>
+      </c>
+      <c r="AD38">
+        <v>11</v>
+      </c>
+      <c r="AE38">
+        <v>21</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>169</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>169</v>
+      </c>
+      <c r="AJ38">
+        <v>2</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM38">
+        <v>299</v>
+      </c>
+      <c r="AN38">
+        <v>6</v>
+      </c>
+      <c r="AO38">
+        <v>78</v>
+      </c>
+      <c r="AP38">
+        <v>20</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>120</v>
+      </c>
+      <c r="AS38">
+        <v>220</v>
+      </c>
+      <c r="AT38">
+        <f t="shared" ref="AT38:AT46" si="0">AO38*AP38</f>
+        <v>1560</v>
+      </c>
+      <c r="AU38">
+        <v>66</v>
+      </c>
+      <c r="AV38">
+        <f t="shared" ref="AV38:AV46" si="1">AN38*AO38</f>
+        <v>468</v>
+      </c>
+      <c r="AW38">
+        <f t="shared" ref="AW38:AW46" si="2">AO38*AD38</f>
+        <v>858</v>
+      </c>
+      <c r="AX38">
+        <f t="shared" ref="AX38:AX46" si="3">AM38*AD38</f>
+        <v>3289</v>
+      </c>
+      <c r="AY38">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45563</v>
+      </c>
+      <c r="D39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39" t="s">
+        <v>114</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39" t="s">
+        <v>114</v>
+      </c>
+      <c r="L39">
+        <v>1.62</v>
+      </c>
+      <c r="M39">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="N39">
+        <v>5.59</v>
+      </c>
+      <c r="O39" t="s">
+        <v>117</v>
+      </c>
+      <c r="P39" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q39">
+        <v>6</v>
+      </c>
+      <c r="R39">
+        <v>2</v>
+      </c>
+      <c r="S39">
+        <v>10</v>
+      </c>
+      <c r="T39">
+        <v>4</v>
+      </c>
+      <c r="U39">
+        <v>3</v>
+      </c>
+      <c r="V39">
+        <v>3</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>4</v>
+      </c>
+      <c r="Z39">
+        <v>2</v>
+      </c>
+      <c r="AA39">
+        <v>7</v>
+      </c>
+      <c r="AB39">
+        <v>18</v>
+      </c>
+      <c r="AC39">
+        <v>3</v>
+      </c>
+      <c r="AD39">
+        <v>6</v>
+      </c>
+      <c r="AE39">
+        <v>25</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>169</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>170</v>
+      </c>
+      <c r="AJ39">
+        <v>6</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM39">
+        <v>129</v>
+      </c>
+      <c r="AN39">
+        <v>3</v>
+      </c>
+      <c r="AO39">
+        <v>69</v>
+      </c>
+      <c r="AP39">
+        <v>60</v>
+      </c>
+      <c r="AQ39">
+        <v>900</v>
+      </c>
+      <c r="AR39">
+        <v>180</v>
+      </c>
+      <c r="AS39">
+        <v>360</v>
+      </c>
+      <c r="AT39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU37">
-        <v>0</v>
-      </c>
-      <c r="AV37">
+        <v>4140</v>
+      </c>
+      <c r="AU39">
+        <v>18</v>
+      </c>
+      <c r="AV39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AW37">
+        <v>207</v>
+      </c>
+      <c r="AW39">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AX37">
+        <v>414</v>
+      </c>
+      <c r="AX39">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AY37">
-        <v>0</v>
+        <v>774</v>
+      </c>
+      <c r="AY39">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="1">
+        <v>45563</v>
+      </c>
+      <c r="D40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40" t="s">
+        <v>114</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>114</v>
+      </c>
+      <c r="L40">
+        <v>1.86</v>
+      </c>
+      <c r="M40">
+        <v>3.82</v>
+      </c>
+      <c r="N40">
+        <v>4.21</v>
+      </c>
+      <c r="O40" t="s">
+        <v>122</v>
+      </c>
+      <c r="P40" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q40">
+        <v>7</v>
+      </c>
+      <c r="R40">
+        <v>2</v>
+      </c>
+      <c r="S40">
+        <v>14</v>
+      </c>
+      <c r="T40">
+        <v>7</v>
+      </c>
+      <c r="U40">
+        <v>4</v>
+      </c>
+      <c r="V40">
+        <v>4</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <v>7</v>
+      </c>
+      <c r="Z40">
+        <v>6</v>
+      </c>
+      <c r="AA40">
+        <v>10</v>
+      </c>
+      <c r="AB40">
+        <v>10</v>
+      </c>
+      <c r="AC40">
+        <v>2</v>
+      </c>
+      <c r="AD40">
+        <v>13</v>
+      </c>
+      <c r="AE40">
+        <v>20</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>170</v>
+      </c>
+      <c r="AJ40">
+        <v>8</v>
+      </c>
+      <c r="AK40">
+        <v>2</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM40">
+        <v>101</v>
+      </c>
+      <c r="AN40">
+        <v>2</v>
+      </c>
+      <c r="AO40">
+        <v>21</v>
+      </c>
+      <c r="AP40">
+        <v>130</v>
+      </c>
+      <c r="AQ40">
+        <v>4225</v>
+      </c>
+      <c r="AR40">
+        <v>260</v>
+      </c>
+      <c r="AS40">
+        <v>1690</v>
+      </c>
+      <c r="AT40">
+        <f t="shared" si="0"/>
+        <v>2730</v>
+      </c>
+      <c r="AU40">
+        <v>26</v>
+      </c>
+      <c r="AV40">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="AW40">
+        <f t="shared" si="2"/>
+        <v>273</v>
+      </c>
+      <c r="AX40">
+        <f t="shared" si="3"/>
+        <v>1313</v>
+      </c>
+      <c r="AY40">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45563</v>
+      </c>
+      <c r="D41" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>116</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>115</v>
+      </c>
+      <c r="L41">
+        <v>2.13</v>
+      </c>
+      <c r="M41">
+        <v>3.54</v>
+      </c>
+      <c r="N41">
+        <v>3.54</v>
+      </c>
+      <c r="O41" t="s">
+        <v>121</v>
+      </c>
+      <c r="P41" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q41">
+        <v>8</v>
+      </c>
+      <c r="R41">
+        <v>3</v>
+      </c>
+      <c r="S41">
+        <v>9</v>
+      </c>
+      <c r="T41">
+        <v>3</v>
+      </c>
+      <c r="U41">
+        <v>3</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>2</v>
+      </c>
+      <c r="Z41">
+        <v>4</v>
+      </c>
+      <c r="AA41">
+        <v>10</v>
+      </c>
+      <c r="AB41">
+        <v>12</v>
+      </c>
+      <c r="AC41">
+        <v>1</v>
+      </c>
+      <c r="AD41">
+        <v>6</v>
+      </c>
+      <c r="AE41">
+        <v>22</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>170</v>
+      </c>
+      <c r="AJ41">
+        <v>4</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM41">
+        <v>90</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
+        <v>31</v>
+      </c>
+      <c r="AP41">
+        <v>40</v>
+      </c>
+      <c r="AQ41">
+        <v>300</v>
+      </c>
+      <c r="AR41">
+        <v>40</v>
+      </c>
+      <c r="AS41">
+        <v>240</v>
+      </c>
+      <c r="AT41">
+        <f t="shared" si="0"/>
+        <v>1240</v>
+      </c>
+      <c r="AU41">
+        <v>6</v>
+      </c>
+      <c r="AV41">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="AW41">
+        <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
+      <c r="AX41">
+        <f t="shared" si="3"/>
+        <v>540</v>
+      </c>
+      <c r="AY41">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="1">
+        <v>45563</v>
+      </c>
+      <c r="D42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>116</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>116</v>
+      </c>
+      <c r="L42">
+        <v>1.4</v>
+      </c>
+      <c r="M42">
+        <v>5.4</v>
+      </c>
+      <c r="N42">
+        <v>7.14</v>
+      </c>
+      <c r="O42" t="s">
+        <v>120</v>
+      </c>
+      <c r="P42" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q42">
+        <v>14</v>
+      </c>
+      <c r="R42">
+        <v>7</v>
+      </c>
+      <c r="S42">
+        <v>7</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <v>2</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>8</v>
+      </c>
+      <c r="Z42">
+        <v>5</v>
+      </c>
+      <c r="AA42">
+        <v>9</v>
+      </c>
+      <c r="AB42">
+        <v>13</v>
+      </c>
+      <c r="AC42">
+        <v>4</v>
+      </c>
+      <c r="AD42">
+        <v>13</v>
+      </c>
+      <c r="AE42">
+        <v>22</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>169</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>169</v>
+      </c>
+      <c r="AJ42">
+        <v>3</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM42">
+        <v>129</v>
+      </c>
+      <c r="AN42">
+        <v>4</v>
+      </c>
+      <c r="AO42">
+        <v>81</v>
+      </c>
+      <c r="AP42">
+        <v>30</v>
+      </c>
+      <c r="AQ42">
+        <v>200</v>
+      </c>
+      <c r="AR42">
+        <v>120</v>
+      </c>
+      <c r="AS42">
+        <v>390</v>
+      </c>
+      <c r="AT42">
+        <f t="shared" si="0"/>
+        <v>2430</v>
+      </c>
+      <c r="AU42">
+        <v>52</v>
+      </c>
+      <c r="AV42">
+        <f t="shared" si="1"/>
+        <v>324</v>
+      </c>
+      <c r="AW42">
+        <f t="shared" si="2"/>
+        <v>1053</v>
+      </c>
+      <c r="AX42">
+        <f t="shared" si="3"/>
+        <v>1677</v>
+      </c>
+      <c r="AY42">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="1">
+        <v>45563</v>
+      </c>
+      <c r="D43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43" t="s">
+        <v>115</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" t="s">
+        <v>115</v>
+      </c>
+      <c r="L43">
+        <v>3.35</v>
+      </c>
+      <c r="M43">
+        <v>3.89</v>
+      </c>
+      <c r="N43">
+        <v>2.09</v>
+      </c>
+      <c r="O43" t="s">
+        <v>119</v>
+      </c>
+      <c r="P43" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q43">
+        <v>5</v>
+      </c>
+      <c r="R43">
+        <v>2</v>
+      </c>
+      <c r="S43">
+        <v>17</v>
+      </c>
+      <c r="T43">
+        <v>5</v>
+      </c>
+      <c r="U43">
+        <v>5</v>
+      </c>
+      <c r="V43">
+        <v>2</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>1</v>
+      </c>
+      <c r="Y43">
+        <v>1</v>
+      </c>
+      <c r="Z43">
+        <v>3</v>
+      </c>
+      <c r="AA43">
+        <v>20</v>
+      </c>
+      <c r="AB43">
+        <v>10</v>
+      </c>
+      <c r="AC43">
+        <v>4</v>
+      </c>
+      <c r="AD43">
+        <v>4</v>
+      </c>
+      <c r="AE43">
+        <v>30</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AJ43">
+        <v>7</v>
+      </c>
+      <c r="AK43">
+        <v>1</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>212</v>
+      </c>
+      <c r="AM43">
+        <v>210</v>
+      </c>
+      <c r="AN43">
+        <v>4</v>
+      </c>
+      <c r="AO43">
+        <v>66</v>
+      </c>
+      <c r="AP43">
+        <v>95</v>
+      </c>
+      <c r="AQ43">
+        <v>2250</v>
+      </c>
+      <c r="AR43">
+        <v>380</v>
+      </c>
+      <c r="AS43">
+        <v>380</v>
+      </c>
+      <c r="AT43">
+        <f t="shared" si="0"/>
+        <v>6270</v>
+      </c>
+      <c r="AU43">
+        <v>16</v>
+      </c>
+      <c r="AV43">
+        <f t="shared" si="1"/>
+        <v>264</v>
+      </c>
+      <c r="AW43">
+        <f t="shared" si="2"/>
+        <v>264</v>
+      </c>
+      <c r="AX43">
+        <f t="shared" si="3"/>
+        <v>840</v>
+      </c>
+      <c r="AY43">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="1">
+        <v>45563</v>
+      </c>
+      <c r="D44" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" t="s">
+        <v>111</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>115</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>115</v>
+      </c>
+      <c r="L44">
+        <v>1.74</v>
+      </c>
+      <c r="M44">
+        <v>4.34</v>
+      </c>
+      <c r="N44">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="O44" t="s">
+        <v>119</v>
+      </c>
+      <c r="P44" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q44">
+        <v>18</v>
+      </c>
+      <c r="R44">
+        <v>3</v>
+      </c>
+      <c r="S44">
+        <v>3</v>
+      </c>
+      <c r="T44">
+        <v>3</v>
+      </c>
+      <c r="U44">
+        <v>1</v>
+      </c>
+      <c r="V44">
+        <v>3</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>6</v>
+      </c>
+      <c r="Z44">
+        <v>1</v>
+      </c>
+      <c r="AA44">
+        <v>11</v>
+      </c>
+      <c r="AB44">
+        <v>15</v>
+      </c>
+      <c r="AC44">
+        <v>2</v>
+      </c>
+      <c r="AD44">
+        <v>7</v>
+      </c>
+      <c r="AE44">
+        <v>26</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>166</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>170</v>
+      </c>
+      <c r="AJ44">
+        <v>4</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>213</v>
+      </c>
+      <c r="AM44">
+        <v>70</v>
+      </c>
+      <c r="AN44">
+        <v>2</v>
+      </c>
+      <c r="AO44">
+        <v>53</v>
+      </c>
+      <c r="AP44">
+        <v>40</v>
+      </c>
+      <c r="AQ44">
+        <v>300</v>
+      </c>
+      <c r="AR44">
+        <v>80</v>
+      </c>
+      <c r="AS44">
+        <v>280</v>
+      </c>
+      <c r="AT44">
+        <f t="shared" si="0"/>
+        <v>2120</v>
+      </c>
+      <c r="AU44">
+        <v>14</v>
+      </c>
+      <c r="AV44">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="AW44">
+        <f t="shared" si="2"/>
+        <v>371</v>
+      </c>
+      <c r="AX44">
+        <f t="shared" si="3"/>
+        <v>490</v>
+      </c>
+      <c r="AY44">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="1">
+        <v>45564</v>
+      </c>
+      <c r="D45" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="H45" t="s">
+        <v>114</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" t="s">
+        <v>115</v>
+      </c>
+      <c r="L45">
+        <v>4.5</v>
+      </c>
+      <c r="M45">
+        <v>4.22</v>
+      </c>
+      <c r="N45">
+        <v>1.73</v>
+      </c>
+      <c r="O45" t="s">
+        <v>119</v>
+      </c>
+      <c r="P45" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q45">
+        <v>10</v>
+      </c>
+      <c r="R45">
+        <v>5</v>
+      </c>
+      <c r="S45">
+        <v>18</v>
+      </c>
+      <c r="T45">
+        <v>10</v>
+      </c>
+      <c r="U45">
+        <v>1</v>
+      </c>
+      <c r="V45">
+        <v>3</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>4</v>
+      </c>
+      <c r="Z45">
+        <v>9</v>
+      </c>
+      <c r="AA45">
+        <v>12</v>
+      </c>
+      <c r="AB45">
+        <v>13</v>
+      </c>
+      <c r="AC45">
+        <v>6</v>
+      </c>
+      <c r="AD45">
+        <v>13</v>
+      </c>
+      <c r="AE45">
+        <v>25</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>169</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>169</v>
+      </c>
+      <c r="AJ45">
+        <v>4</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM45">
+        <v>291</v>
+      </c>
+      <c r="AN45">
+        <v>6</v>
+      </c>
+      <c r="AO45">
+        <v>94</v>
+      </c>
+      <c r="AP45">
+        <v>40</v>
+      </c>
+      <c r="AQ45">
+        <v>300</v>
+      </c>
+      <c r="AR45">
+        <v>240</v>
+      </c>
+      <c r="AS45">
+        <v>520</v>
+      </c>
+      <c r="AT45">
+        <f t="shared" si="0"/>
+        <v>3760</v>
+      </c>
+      <c r="AU45">
+        <v>78</v>
+      </c>
+      <c r="AV45">
+        <f t="shared" si="1"/>
+        <v>564</v>
+      </c>
+      <c r="AW45">
+        <f t="shared" si="2"/>
+        <v>1222</v>
+      </c>
+      <c r="AX45">
+        <f t="shared" si="3"/>
+        <v>3783</v>
+      </c>
+      <c r="AY45">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="1">
+        <v>45564</v>
+      </c>
+      <c r="D46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" t="s">
+        <v>110</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46" t="s">
+        <v>114</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+      <c r="K46" t="s">
+        <v>115</v>
+      </c>
+      <c r="L46">
+        <v>2.4</v>
+      </c>
+      <c r="M46">
+        <v>3.78</v>
+      </c>
+      <c r="N46">
+        <v>2.84</v>
+      </c>
+      <c r="O46" t="s">
+        <v>128</v>
+      </c>
+      <c r="P46" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q46">
+        <v>10</v>
+      </c>
+      <c r="R46">
+        <v>5</v>
+      </c>
+      <c r="S46">
+        <v>18</v>
+      </c>
+      <c r="T46">
+        <v>10</v>
+      </c>
+      <c r="U46">
+        <v>3</v>
+      </c>
+      <c r="V46">
+        <v>3</v>
+      </c>
+      <c r="W46">
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>2</v>
+      </c>
+      <c r="Z46">
+        <v>6</v>
+      </c>
+      <c r="AA46">
+        <v>12</v>
+      </c>
+      <c r="AB46">
+        <v>19</v>
+      </c>
+      <c r="AC46">
+        <v>7</v>
+      </c>
+      <c r="AD46">
+        <v>8</v>
+      </c>
+      <c r="AE46">
+        <v>31</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>169</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>169</v>
+      </c>
+      <c r="AJ46">
+        <v>6</v>
+      </c>
+      <c r="AK46">
+        <v>1</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM46">
+        <v>160</v>
+      </c>
+      <c r="AN46">
+        <v>7</v>
+      </c>
+      <c r="AO46">
+        <v>105</v>
+      </c>
+      <c r="AP46">
+        <v>85</v>
+      </c>
+      <c r="AQ46">
+        <v>1650</v>
+      </c>
+      <c r="AR46">
+        <v>595</v>
+      </c>
+      <c r="AS46">
+        <v>680</v>
+      </c>
+      <c r="AT46">
+        <f t="shared" si="0"/>
+        <v>8925</v>
+      </c>
+      <c r="AU46">
+        <v>56</v>
+      </c>
+      <c r="AV46">
+        <f t="shared" si="1"/>
+        <v>735</v>
+      </c>
+      <c r="AW46">
+        <f t="shared" si="2"/>
+        <v>840</v>
+      </c>
+      <c r="AX46">
+        <f t="shared" si="3"/>
+        <v>1280</v>
+      </c>
+      <c r="AY46">
+        <v>4760</v>
       </c>
     </row>
   </sheetData>

--- a/D1_spread.xlsx
+++ b/D1_spread.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F7CD59-E04F-4F57-8ECB-4AD1EB690EB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB23008-8F8B-4BE5-A315-1BFAD3C1674F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="262">
   <si>
     <t>Div</t>
   </si>
@@ -288,31 +288,85 @@
     <t>36</t>
   </si>
   <si>
-    <t>664</t>
-  </si>
-  <si>
-    <t>665</t>
-  </si>
-  <si>
-    <t>666</t>
-  </si>
-  <si>
-    <t>667</t>
-  </si>
-  <si>
-    <t>668</t>
-  </si>
-  <si>
-    <t>669</t>
-  </si>
-  <si>
-    <t>670</t>
-  </si>
-  <si>
-    <t>671</t>
-  </si>
-  <si>
-    <t>672</t>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>958</t>
+  </si>
+  <si>
+    <t>959</t>
+  </si>
+  <si>
+    <t>960</t>
+  </si>
+  <si>
+    <t>961</t>
+  </si>
+  <si>
+    <t>962</t>
+  </si>
+  <si>
+    <t>963</t>
+  </si>
+  <si>
+    <t>964</t>
+  </si>
+  <si>
+    <t>965</t>
+  </si>
+  <si>
+    <t>966</t>
   </si>
   <si>
     <t>D1</t>
@@ -420,6 +474,9 @@
     <t>2-2</t>
   </si>
   <si>
+    <t>3-0</t>
+  </si>
+  <si>
     <t>3-2</t>
   </si>
   <si>
@@ -537,6 +594,33 @@
     <t>2-6</t>
   </si>
   <si>
+    <t>12-3</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>0-11</t>
+  </si>
+  <si>
+    <t>10-5</t>
+  </si>
+  <si>
+    <t>7-1</t>
+  </si>
+  <si>
+    <t>8-3</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>7-3</t>
+  </si>
+  <si>
+    <t>4-4</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -676,6 +760,60 @@
   </si>
   <si>
     <t>Hoffenheim-Werder Bremen</t>
+  </si>
+  <si>
+    <t>Augsburg-Mgladbach</t>
+  </si>
+  <si>
+    <t>Bochum-Wolfsburg</t>
+  </si>
+  <si>
+    <t>Leverkusen-Holstein Kiel</t>
+  </si>
+  <si>
+    <t>Union Berlin-Dortmund</t>
+  </si>
+  <si>
+    <t>Werder Bremen-Freiburg</t>
+  </si>
+  <si>
+    <t>St Pauli-Mainz</t>
+  </si>
+  <si>
+    <t>Heidenheim-RB Leipzig</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt-Bayern Munich</t>
+  </si>
+  <si>
+    <t>Stuttgart-Hoffenheim</t>
+  </si>
+  <si>
+    <t>Dortmund-St Pauli</t>
+  </si>
+  <si>
+    <t>Freiburg-Augsburg</t>
+  </si>
+  <si>
+    <t>Hoffenheim-Bochum</t>
+  </si>
+  <si>
+    <t>Leverkusen-Ein Frankfurt</t>
+  </si>
+  <si>
+    <t>Mainz-RB Leipzig</t>
+  </si>
+  <si>
+    <t>Mgladbach-Heidenheim</t>
+  </si>
+  <si>
+    <t>Bayern Munich-Stuttgart</t>
+  </si>
+  <si>
+    <t>Holstein Kiel-Union Berlin</t>
+  </si>
+  <si>
+    <t>Wolfsburg-Werder Bremen</t>
   </si>
 </sst>
 </file>
@@ -1031,58 +1169,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY46"/>
+  <dimension ref="A1:AY64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AC26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="AB32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO47" sqref="AO47"/>
+      <selection pane="bottomRight" activeCell="AO65" sqref="AO65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="20" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
@@ -1242,16 +1382,16 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C2" s="1">
         <v>45527</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -1260,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1269,7 +1409,7 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="L2">
         <v>5.33</v>
@@ -1281,10 +1421,10 @@
         <v>1.6</v>
       </c>
       <c r="O2" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="P2" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="Q2">
         <v>14</v>
@@ -1332,16 +1472,16 @@
         <v>18</v>
       </c>
       <c r="AF2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="AG2" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH2" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AI2" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AJ2">
         <v>1</v>
@@ -1350,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="AM2">
         <v>284</v>
@@ -1397,16 +1537,16 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C3" s="1">
         <v>45528</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1415,7 +1555,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -1424,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="L3">
         <v>2.3199999999999998</v>
@@ -1436,10 +1576,10 @@
         <v>3.11</v>
       </c>
       <c r="O3" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="P3" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="Q3">
         <v>10</v>
@@ -1487,16 +1627,16 @@
         <v>21</v>
       </c>
       <c r="AF3" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="AG3" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH3" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AI3" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AJ3">
         <v>4</v>
@@ -1505,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="AM3">
         <v>121</v>
@@ -1552,16 +1692,16 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C4" s="1">
         <v>45528</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -1570,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1579,7 +1719,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="L4">
         <v>3.5</v>
@@ -1591,10 +1731,10 @@
         <v>2.09</v>
       </c>
       <c r="O4" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="P4" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="Q4">
         <v>15</v>
@@ -1642,16 +1782,16 @@
         <v>17</v>
       </c>
       <c r="AF4" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="AG4" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH4" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AI4" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AJ4">
         <v>3</v>
@@ -1660,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="AM4">
         <v>144</v>
@@ -1707,16 +1847,16 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C5" s="1">
         <v>45528</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -1725,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -1734,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="L5">
         <v>1.64</v>
@@ -1746,10 +1886,10 @@
         <v>5.07</v>
       </c>
       <c r="O5" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="P5" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="Q5">
         <v>20</v>
@@ -1797,16 +1937,16 @@
         <v>22</v>
       </c>
       <c r="AF5" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="AG5" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH5" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AI5" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AJ5">
         <v>5</v>
@@ -1815,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="AL5" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="AM5">
         <v>282</v>
@@ -1862,16 +2002,16 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C6" s="1">
         <v>45528</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1880,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1889,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="L6">
         <v>2.08</v>
@@ -1901,10 +2041,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="O6" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="P6" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="Q6">
         <v>15</v>
@@ -1952,16 +2092,16 @@
         <v>24</v>
       </c>
       <c r="AF6" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="AG6" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH6" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AI6" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AJ6">
         <v>4</v>
@@ -1970,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="AM6">
         <v>127</v>
@@ -2017,16 +2157,16 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C7" s="1">
         <v>45528</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2035,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2044,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="L7">
         <v>1.25</v>
@@ -2056,10 +2196,10 @@
         <v>10.65</v>
       </c>
       <c r="O7" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="P7" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="Q7">
         <v>12</v>
@@ -2107,16 +2247,16 @@
         <v>26</v>
       </c>
       <c r="AF7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="AG7" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AH7" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AI7" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AJ7">
         <v>4</v>
@@ -2125,7 +2265,7 @@
         <v>1</v>
       </c>
       <c r="AL7" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="AM7">
         <v>59</v>
@@ -2172,16 +2312,16 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C8" s="1">
         <v>45528</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -2190,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2199,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="L8">
         <v>1.71</v>
@@ -2211,10 +2351,10 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="O8" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="P8" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="Q8">
         <v>17</v>
@@ -2262,16 +2402,16 @@
         <v>9</v>
       </c>
       <c r="AF8" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="AG8" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH8" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AI8" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AJ8">
         <v>1</v>
@@ -2280,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="AM8">
         <v>162</v>
@@ -2327,16 +2467,16 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C9" s="1">
         <v>45529</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -2345,7 +2485,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2354,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="L9">
         <v>6.33</v>
@@ -2366,10 +2506,10 @@
         <v>1.47</v>
       </c>
       <c r="O9" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="P9" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2417,16 +2557,16 @@
         <v>24</v>
       </c>
       <c r="AF9" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="AG9" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH9" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AI9" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AJ9">
         <v>5</v>
@@ -2435,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="AM9">
         <v>269</v>
@@ -2482,16 +2622,16 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C10" s="1">
         <v>45529</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2500,7 +2640,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2509,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="L10">
         <v>2.13</v>
@@ -2521,10 +2661,10 @@
         <v>3.59</v>
       </c>
       <c r="O10" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="P10" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -2572,16 +2712,16 @@
         <v>25</v>
       </c>
       <c r="AF10" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="AG10" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH10" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AI10" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AJ10">
         <v>5</v>
@@ -2590,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="AM10">
         <v>148</v>
@@ -2637,16 +2777,16 @@
         <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C11" s="1">
         <v>45534</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2655,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -2664,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="L11">
         <v>1.96</v>
@@ -2676,10 +2816,10 @@
         <v>4.29</v>
       </c>
       <c r="O11" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="P11" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -2727,16 +2867,16 @@
         <v>21</v>
       </c>
       <c r="AF11" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="AG11" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AH11" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AI11" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AJ11">
         <v>4</v>
@@ -2745,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="AM11">
         <v>34</v>
@@ -2792,16 +2932,16 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C12" s="1">
         <v>45535</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2810,7 +2950,7 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2819,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="L12">
         <v>2.66</v>
@@ -2831,10 +2971,10 @@
         <v>2.57</v>
       </c>
       <c r="O12" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="P12" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="Q12">
         <v>16</v>
@@ -2882,16 +3022,16 @@
         <v>19</v>
       </c>
       <c r="AF12" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH12" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AI12" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AJ12">
         <v>1</v>
@@ -2900,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="AL12" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="AM12">
         <v>145</v>
@@ -2947,16 +3087,16 @@
         <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C13" s="1">
         <v>45535</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -2965,7 +3105,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -2974,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="L13">
         <v>1.8</v>
@@ -2986,10 +3126,10 @@
         <v>4.12</v>
       </c>
       <c r="O13" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="P13" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="Q13">
         <v>17</v>
@@ -3037,16 +3177,16 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="AG13" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH13" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AI13" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AJ13">
         <v>3</v>
@@ -3055,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="AM13">
         <v>167</v>
@@ -3102,16 +3242,16 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C14" s="1">
         <v>45535</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E14" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -3120,7 +3260,7 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3129,7 +3269,7 @@
         <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="L14">
         <v>3.26</v>
@@ -3141,10 +3281,10 @@
         <v>2.19</v>
       </c>
       <c r="O14" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="P14" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="Q14">
         <v>12</v>
@@ -3192,16 +3332,16 @@
         <v>31</v>
       </c>
       <c r="AF14" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH14" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AI14" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AJ14">
         <v>11</v>
@@ -3210,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="AM14">
         <v>57</v>
@@ -3257,16 +3397,16 @@
         <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C15" s="1">
         <v>45535</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -3275,7 +3415,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -3284,7 +3424,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="L15">
         <v>1.66</v>
@@ -3296,10 +3436,10 @@
         <v>5.09</v>
       </c>
       <c r="O15" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="P15" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="Q15">
         <v>28</v>
@@ -3347,16 +3487,16 @@
         <v>18</v>
       </c>
       <c r="AF15" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="AG15" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH15" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AI15" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AJ15">
         <v>6</v>
@@ -3365,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="AM15">
         <v>306</v>
@@ -3412,16 +3552,16 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C16" s="1">
         <v>45535</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3430,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -3439,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="L16">
         <v>4.05</v>
@@ -3451,10 +3591,10 @@
         <v>1.83</v>
       </c>
       <c r="O16" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="P16" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -3502,16 +3642,16 @@
         <v>27</v>
       </c>
       <c r="AF16" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="AG16" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AH16" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AI16" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AJ16">
         <v>9</v>
@@ -3520,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="AL16" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="AM16">
         <v>0</v>
@@ -3567,16 +3707,16 @@
         <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C17" s="1">
         <v>45535</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -3585,7 +3725,7 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -3594,7 +3734,7 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="L17">
         <v>1.8</v>
@@ -3606,10 +3746,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="O17" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="P17" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="Q17">
         <v>27</v>
@@ -3657,16 +3797,16 @@
         <v>15</v>
       </c>
       <c r="AF17" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="AG17" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH17" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AI17" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AJ17">
         <v>4</v>
@@ -3675,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="AM17">
         <v>266</v>
@@ -3722,16 +3862,16 @@
         <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C18" s="1">
         <v>45536</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -3740,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -3749,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="L18">
         <v>2.42</v>
@@ -3761,10 +3901,10 @@
         <v>3.02</v>
       </c>
       <c r="O18" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="P18" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="Q18">
         <v>17</v>
@@ -3812,16 +3952,16 @@
         <v>26</v>
       </c>
       <c r="AF18" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="AG18" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH18" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AI18" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AJ18">
         <v>3</v>
@@ -3830,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="AL18" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="AM18">
         <v>181</v>
@@ -3877,16 +4017,16 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C19" s="1">
         <v>45536</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -3895,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -3904,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="L19">
         <v>1.21</v>
@@ -3916,10 +4056,10 @@
         <v>11.45</v>
       </c>
       <c r="O19" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="P19" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="Q19">
         <v>11</v>
@@ -3967,16 +4107,16 @@
         <v>25</v>
       </c>
       <c r="AF19" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="AG19" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH19" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AI19" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AJ19">
         <v>1</v>
@@ -3985,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="AM19">
         <v>116</v>
@@ -4032,16 +4172,16 @@
         <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C20" s="1">
         <v>45548</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="E20" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -4050,7 +4190,7 @@
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="I20">
         <v>3</v>
@@ -4059,7 +4199,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="L20">
         <v>1.39</v>
@@ -4071,10 +4211,10 @@
         <v>7.83</v>
       </c>
       <c r="O20" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="P20" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="Q20">
         <v>13</v>
@@ -4122,16 +4262,16 @@
         <v>31</v>
       </c>
       <c r="AF20" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="AG20" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH20" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AI20" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AJ20">
         <v>4</v>
@@ -4140,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="AL20" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AM20">
         <v>273</v>
@@ -4187,16 +4327,16 @@
         <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C21" s="1">
         <v>45549</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -4205,7 +4345,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -4214,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="L21">
         <v>1.69</v>
@@ -4226,10 +4366,10 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="O21" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="P21" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="Q21">
         <v>27</v>
@@ -4277,16 +4417,16 @@
         <v>21</v>
       </c>
       <c r="AF21" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="AG21" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH21" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AI21" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AJ21">
         <v>3</v>
@@ -4295,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="AL21" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AM21">
         <v>164</v>
@@ -4342,16 +4482,16 @@
         <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C22" s="1">
         <v>45549</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="E22" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -4360,7 +4500,7 @@
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -4369,7 +4509,7 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="L22">
         <v>5.95</v>
@@ -4381,10 +4521,10 @@
         <v>1.49</v>
       </c>
       <c r="O22" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="P22" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="Q22">
         <v>14</v>
@@ -4432,16 +4572,16 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="AG22" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH22" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AI22" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AJ22">
         <v>4</v>
@@ -4450,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="AL22" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="AM22">
         <v>161</v>
@@ -4497,16 +4637,16 @@
         <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C23" s="1">
         <v>45549</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -4515,7 +4655,7 @@
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -4524,7 +4664,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="L23">
         <v>2.84</v>
@@ -4536,10 +4676,10 @@
         <v>2.31</v>
       </c>
       <c r="O23" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="P23" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="Q23">
         <v>15</v>
@@ -4587,16 +4727,16 @@
         <v>26</v>
       </c>
       <c r="AF23" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="AG23" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH23" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AI23" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AJ23">
         <v>4</v>
@@ -4605,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="AL23" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="AM23">
         <v>167</v>
@@ -4652,16 +4792,16 @@
         <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C24" s="1">
         <v>45549</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="E24" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -4670,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -4679,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="L24">
         <v>1.48</v>
@@ -4691,10 +4831,10 @@
         <v>6.64</v>
       </c>
       <c r="O24" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="P24" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="Q24">
         <v>16</v>
@@ -4742,16 +4882,16 @@
         <v>28</v>
       </c>
       <c r="AF24" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="AG24" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AH24" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AI24" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AJ24">
         <v>5</v>
@@ -4760,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="AL24" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="AM24">
         <v>0</v>
@@ -4807,16 +4947,16 @@
         <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C25" s="1">
         <v>45549</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -4825,7 +4965,7 @@
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -4834,7 +4974,7 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="L25">
         <v>2.72</v>
@@ -4846,10 +4986,10 @@
         <v>2.63</v>
       </c>
       <c r="O25" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="P25" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="Q25">
         <v>17</v>
@@ -4897,16 +5037,16 @@
         <v>25</v>
       </c>
       <c r="AF25" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="AG25" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH25" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AI25" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AJ25">
         <v>3</v>
@@ -4915,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="AL25" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="AM25">
         <v>188</v>
@@ -4962,16 +5102,16 @@
         <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C26" s="1">
         <v>45549</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -4980,7 +5120,7 @@
         <v>6</v>
       </c>
       <c r="H26" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -4989,7 +5129,7 @@
         <v>4</v>
       </c>
       <c r="K26" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="L26">
         <v>11.8</v>
@@ -5001,10 +5141,10 @@
         <v>1.21</v>
       </c>
       <c r="O26" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="P26" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -5052,16 +5192,16 @@
         <v>23</v>
       </c>
       <c r="AF26" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="AG26" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH26" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AI26" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AJ26">
         <v>1</v>
@@ -5070,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="AL26" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="AM26">
         <v>301</v>
@@ -5117,16 +5257,16 @@
         <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C27" s="1">
         <v>45550</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -5135,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -5144,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="L27">
         <v>2.09</v>
@@ -5156,10 +5296,10 @@
         <v>3.52</v>
       </c>
       <c r="O27" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="P27" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="Q27">
         <v>18</v>
@@ -5207,16 +5347,16 @@
         <v>22</v>
       </c>
       <c r="AF27" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="AG27" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH27" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AI27" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AJ27">
         <v>7</v>
@@ -5225,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="AL27" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="AM27">
         <v>279</v>
@@ -5272,16 +5412,16 @@
         <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C28" s="1">
         <v>45550</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E28" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -5290,7 +5430,7 @@
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -5299,7 +5439,7 @@
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="L28">
         <v>2.04</v>
@@ -5311,10 +5451,10 @@
         <v>3.61</v>
       </c>
       <c r="O28" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="P28" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="Q28">
         <v>11</v>
@@ -5362,16 +5502,16 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="AG28" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH28" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AI28" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AJ28">
         <v>4</v>
@@ -5380,7 +5520,7 @@
         <v>1</v>
       </c>
       <c r="AL28" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="AM28">
         <v>104</v>
@@ -5427,16 +5567,16 @@
         <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C29" s="1">
         <v>45555</v>
       </c>
       <c r="D29" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="E29" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -5445,7 +5585,7 @@
         <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -5454,7 +5594,7 @@
         <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="L29">
         <v>2.42</v>
@@ -5466,10 +5606,10 @@
         <v>2.97</v>
       </c>
       <c r="O29" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="P29" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="Q29">
         <v>30</v>
@@ -5517,16 +5657,16 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="AG29" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH29" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AI29" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AJ29">
         <v>8</v>
@@ -5535,7 +5675,7 @@
         <v>2</v>
       </c>
       <c r="AL29" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="AM29">
         <v>159</v>
@@ -5582,16 +5722,16 @@
         <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C30" s="1">
         <v>45556</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -5600,7 +5740,7 @@
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -5609,7 +5749,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="L30">
         <v>1.99</v>
@@ -5621,10 +5761,10 @@
         <v>3.7</v>
       </c>
       <c r="O30" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="P30" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="Q30">
         <v>14</v>
@@ -5672,16 +5812,16 @@
         <v>29</v>
       </c>
       <c r="AF30" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="AG30" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH30" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AI30" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AJ30">
         <v>5</v>
@@ -5690,7 +5830,7 @@
         <v>0</v>
       </c>
       <c r="AL30" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="AM30">
         <v>161</v>
@@ -5737,16 +5877,16 @@
         <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C31" s="1">
         <v>45556</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -5755,7 +5895,7 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -5764,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="L31">
         <v>2.75</v>
@@ -5776,10 +5916,10 @@
         <v>2.66</v>
       </c>
       <c r="O31" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="P31" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -5827,16 +5967,16 @@
         <v>13</v>
       </c>
       <c r="AF31" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="AG31" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH31" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AI31" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AJ31">
         <v>2</v>
@@ -5845,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="AL31" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="AM31">
         <v>178</v>
@@ -5892,16 +6032,16 @@
         <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C32" s="1">
         <v>45556</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="E32" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -5910,7 +6050,7 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -5919,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="L32">
         <v>2.04</v>
@@ -5931,10 +6071,10 @@
         <v>3.65</v>
       </c>
       <c r="O32" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="P32" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="Q32">
         <v>12</v>
@@ -5982,16 +6122,16 @@
         <v>35</v>
       </c>
       <c r="AF32" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="AG32" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH32" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AI32" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AJ32">
         <v>6</v>
@@ -6000,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="AL32" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="AM32">
         <v>77</v>
@@ -6047,16 +6187,16 @@
         <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C33" s="1">
         <v>45556</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="E33" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -6065,7 +6205,7 @@
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -6074,7 +6214,7 @@
         <v>2</v>
       </c>
       <c r="K33" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="L33">
         <v>7.92</v>
@@ -6086,10 +6226,10 @@
         <v>1.36</v>
       </c>
       <c r="O33" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="P33" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -6137,16 +6277,16 @@
         <v>17</v>
       </c>
       <c r="AF33" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="AG33" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH33" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AI33" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AJ33">
         <v>3</v>
@@ -6155,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="AL33" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AM33">
         <v>237</v>
@@ -6202,16 +6342,16 @@
         <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C34" s="1">
         <v>45556</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="E34" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -6220,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -6229,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="L34">
         <v>1.79</v>
@@ -6241,10 +6381,10 @@
         <v>4.26</v>
       </c>
       <c r="O34" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="P34" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="Q34">
         <v>14</v>
@@ -6292,16 +6432,16 @@
         <v>22</v>
       </c>
       <c r="AF34" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="AG34" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH34" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AI34" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AJ34">
         <v>2</v>
@@ -6310,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="AL34" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AM34">
         <v>111</v>
@@ -6357,16 +6497,16 @@
         <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C35" s="1">
         <v>45557</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="E35" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F35">
         <v>4</v>
@@ -6375,7 +6515,7 @@
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -6384,7 +6524,7 @@
         <v>3</v>
       </c>
       <c r="K35" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="L35">
         <v>1.31</v>
@@ -6396,10 +6536,10 @@
         <v>9.23</v>
       </c>
       <c r="O35" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="P35" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="Q35">
         <v>20</v>
@@ -6447,16 +6587,16 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="AG35" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH35" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AI35" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AJ35">
         <v>9</v>
@@ -6465,7 +6605,7 @@
         <v>1</v>
       </c>
       <c r="AL35" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="AM35">
         <v>271</v>
@@ -6512,16 +6652,16 @@
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C36" s="1">
         <v>45557</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="E36" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="F36">
         <v>5</v>
@@ -6530,7 +6670,7 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -6539,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="L36">
         <v>2.3199999999999998</v>
@@ -6551,10 +6691,10 @@
         <v>2.94</v>
       </c>
       <c r="O36" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="P36" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="Q36">
         <v>16</v>
@@ -6602,16 +6742,16 @@
         <v>16</v>
       </c>
       <c r="AF36" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="AG36" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH36" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AI36" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AJ36">
         <v>4</v>
@@ -6620,7 +6760,7 @@
         <v>0</v>
       </c>
       <c r="AL36" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="AM36">
         <v>332</v>
@@ -6667,16 +6807,16 @@
         <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C37" s="1">
         <v>45557</v>
       </c>
       <c r="D37" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="E37" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -6685,7 +6825,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -6694,7 +6834,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="L37">
         <v>5.19</v>
@@ -6706,10 +6846,10 @@
         <v>1.64</v>
       </c>
       <c r="O37" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="P37" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="Q37">
         <v>15</v>
@@ -6757,16 +6897,16 @@
         <v>15</v>
       </c>
       <c r="AF37" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="AG37" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AH37" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AI37" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AJ37">
         <v>3</v>
@@ -6775,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="AL37" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="AM37">
         <v>0</v>
@@ -6799,22 +6939,18 @@
         <v>120</v>
       </c>
       <c r="AT37">
-        <f>AO37*AP37</f>
         <v>0</v>
       </c>
       <c r="AU37">
         <v>0</v>
       </c>
       <c r="AV37">
-        <f>AN37*AO37</f>
         <v>0</v>
       </c>
       <c r="AW37">
-        <f>AO37*AD37</f>
         <v>0</v>
       </c>
       <c r="AX37">
-        <f>AM37*AD37</f>
         <v>0</v>
       </c>
       <c r="AY37">
@@ -6826,16 +6962,16 @@
         <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C38" s="1">
         <v>45562</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="E38" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="F38">
         <v>4</v>
@@ -6844,7 +6980,7 @@
         <v>2</v>
       </c>
       <c r="H38" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -6853,7 +6989,7 @@
         <v>2</v>
       </c>
       <c r="K38" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="L38">
         <v>1.24</v>
@@ -6865,10 +7001,10 @@
         <v>11.22</v>
       </c>
       <c r="O38" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="P38" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="Q38">
         <v>23</v>
@@ -6916,16 +7052,16 @@
         <v>21</v>
       </c>
       <c r="AF38" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="AG38" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH38" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AI38" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AJ38">
         <v>2</v>
@@ -6934,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="AL38" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="AM38">
         <v>299</v>
@@ -6958,22 +7094,18 @@
         <v>220</v>
       </c>
       <c r="AT38">
-        <f t="shared" ref="AT38:AT46" si="0">AO38*AP38</f>
         <v>1560</v>
       </c>
       <c r="AU38">
         <v>66</v>
       </c>
       <c r="AV38">
-        <f t="shared" ref="AV38:AV46" si="1">AN38*AO38</f>
         <v>468</v>
       </c>
       <c r="AW38">
-        <f t="shared" ref="AW38:AW46" si="2">AO38*AD38</f>
         <v>858</v>
       </c>
       <c r="AX38">
-        <f t="shared" ref="AX38:AX46" si="3">AM38*AD38</f>
         <v>3289</v>
       </c>
       <c r="AY38">
@@ -6985,16 +7117,16 @@
         <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C39" s="1">
         <v>45563</v>
       </c>
       <c r="D39" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="E39" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -7003,7 +7135,7 @@
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -7012,7 +7144,7 @@
         <v>2</v>
       </c>
       <c r="K39" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="L39">
         <v>1.62</v>
@@ -7024,10 +7156,10 @@
         <v>5.59</v>
       </c>
       <c r="O39" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="P39" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -7075,16 +7207,16 @@
         <v>25</v>
       </c>
       <c r="AF39" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="AG39" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH39" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AI39" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AJ39">
         <v>6</v>
@@ -7093,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="AL39" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="AM39">
         <v>129</v>
@@ -7117,22 +7249,18 @@
         <v>360</v>
       </c>
       <c r="AT39">
-        <f t="shared" si="0"/>
         <v>4140</v>
       </c>
       <c r="AU39">
         <v>18</v>
       </c>
       <c r="AV39">
-        <f t="shared" si="1"/>
         <v>207</v>
       </c>
       <c r="AW39">
-        <f t="shared" si="2"/>
         <v>414</v>
       </c>
       <c r="AX39">
-        <f t="shared" si="3"/>
         <v>774</v>
       </c>
       <c r="AY39">
@@ -7144,16 +7272,16 @@
         <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C40" s="1">
         <v>45563</v>
       </c>
       <c r="D40" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E40" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -7162,7 +7290,7 @@
         <v>2</v>
       </c>
       <c r="H40" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -7171,7 +7299,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="L40">
         <v>1.86</v>
@@ -7183,10 +7311,10 @@
         <v>4.21</v>
       </c>
       <c r="O40" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="P40" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -7234,16 +7362,16 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="AG40" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH40" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AI40" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AJ40">
         <v>8</v>
@@ -7252,7 +7380,7 @@
         <v>2</v>
       </c>
       <c r="AL40" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="AM40">
         <v>101</v>
@@ -7276,22 +7404,18 @@
         <v>1690</v>
       </c>
       <c r="AT40">
-        <f t="shared" si="0"/>
         <v>2730</v>
       </c>
       <c r="AU40">
         <v>26</v>
       </c>
       <c r="AV40">
-        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="AW40">
-        <f t="shared" si="2"/>
         <v>273</v>
       </c>
       <c r="AX40">
-        <f t="shared" si="3"/>
         <v>1313</v>
       </c>
       <c r="AY40">
@@ -7303,16 +7427,16 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C41" s="1">
         <v>45563</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="E41" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -7321,7 +7445,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -7330,7 +7454,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="L41">
         <v>2.13</v>
@@ -7342,10 +7466,10 @@
         <v>3.54</v>
       </c>
       <c r="O41" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="P41" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -7393,16 +7517,16 @@
         <v>22</v>
       </c>
       <c r="AF41" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="AG41" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AH41" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AI41" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AJ41">
         <v>4</v>
@@ -7411,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="AL41" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="AM41">
         <v>90</v>
@@ -7435,22 +7559,18 @@
         <v>240</v>
       </c>
       <c r="AT41">
-        <f t="shared" si="0"/>
         <v>1240</v>
       </c>
       <c r="AU41">
         <v>6</v>
       </c>
       <c r="AV41">
-        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="AW41">
-        <f t="shared" si="2"/>
         <v>186</v>
       </c>
       <c r="AX41">
-        <f t="shared" si="3"/>
         <v>540</v>
       </c>
       <c r="AY41">
@@ -7462,16 +7582,16 @@
         <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C42" s="1">
         <v>45563</v>
       </c>
       <c r="D42" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="E42" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="F42">
         <v>4</v>
@@ -7480,7 +7600,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="I42">
         <v>2</v>
@@ -7489,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="L42">
         <v>1.4</v>
@@ -7501,10 +7621,10 @@
         <v>7.14</v>
       </c>
       <c r="O42" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="P42" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="Q42">
         <v>14</v>
@@ -7552,16 +7672,16 @@
         <v>22</v>
       </c>
       <c r="AF42" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="AG42" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH42" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AI42" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AJ42">
         <v>3</v>
@@ -7570,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="AL42" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="AM42">
         <v>129</v>
@@ -7594,22 +7714,18 @@
         <v>390</v>
       </c>
       <c r="AT42">
-        <f t="shared" si="0"/>
         <v>2430</v>
       </c>
       <c r="AU42">
         <v>52</v>
       </c>
       <c r="AV42">
-        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="AW42">
-        <f t="shared" si="2"/>
         <v>1053</v>
       </c>
       <c r="AX42">
-        <f t="shared" si="3"/>
         <v>1677</v>
       </c>
       <c r="AY42">
@@ -7621,16 +7737,16 @@
         <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C43" s="1">
         <v>45563</v>
       </c>
       <c r="D43" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="E43" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -7639,7 +7755,7 @@
         <v>2</v>
       </c>
       <c r="H43" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -7648,7 +7764,7 @@
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="L43">
         <v>3.35</v>
@@ -7660,10 +7776,10 @@
         <v>2.09</v>
       </c>
       <c r="O43" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="P43" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -7711,16 +7827,16 @@
         <v>30</v>
       </c>
       <c r="AF43" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="AG43" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH43" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AI43" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AJ43">
         <v>7</v>
@@ -7729,7 +7845,7 @@
         <v>1</v>
       </c>
       <c r="AL43" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="AM43">
         <v>210</v>
@@ -7753,22 +7869,18 @@
         <v>380</v>
       </c>
       <c r="AT43">
-        <f t="shared" si="0"/>
         <v>6270</v>
       </c>
       <c r="AU43">
         <v>16</v>
       </c>
       <c r="AV43">
-        <f t="shared" si="1"/>
         <v>264</v>
       </c>
       <c r="AW43">
-        <f t="shared" si="2"/>
         <v>264</v>
       </c>
       <c r="AX43">
-        <f t="shared" si="3"/>
         <v>840</v>
       </c>
       <c r="AY43">
@@ -7780,16 +7892,16 @@
         <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C44" s="1">
         <v>45563</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E44" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -7798,7 +7910,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -7807,7 +7919,7 @@
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="L44">
         <v>1.74</v>
@@ -7819,10 +7931,10 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="O44" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="P44" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="Q44">
         <v>18</v>
@@ -7870,16 +7982,16 @@
         <v>26</v>
       </c>
       <c r="AF44" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="AG44" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH44" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AI44" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AJ44">
         <v>4</v>
@@ -7888,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="AL44" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="AM44">
         <v>70</v>
@@ -7912,22 +8024,18 @@
         <v>280</v>
       </c>
       <c r="AT44">
-        <f t="shared" si="0"/>
         <v>2120</v>
       </c>
       <c r="AU44">
         <v>14</v>
       </c>
       <c r="AV44">
-        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="AW44">
-        <f t="shared" si="2"/>
         <v>371</v>
       </c>
       <c r="AX44">
-        <f t="shared" si="3"/>
         <v>490</v>
       </c>
       <c r="AY44">
@@ -7939,16 +8047,16 @@
         <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C45" s="1">
         <v>45564</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E45" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F45">
         <v>2</v>
@@ -7957,7 +8065,7 @@
         <v>4</v>
       </c>
       <c r="H45" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -7966,7 +8074,7 @@
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="L45">
         <v>4.5</v>
@@ -7978,10 +8086,10 @@
         <v>1.73</v>
       </c>
       <c r="O45" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="P45" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="Q45">
         <v>10</v>
@@ -8029,16 +8137,16 @@
         <v>25</v>
       </c>
       <c r="AF45" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="AG45" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH45" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AI45" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AJ45">
         <v>4</v>
@@ -8047,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="AL45" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="AM45">
         <v>291</v>
@@ -8071,22 +8179,18 @@
         <v>520</v>
       </c>
       <c r="AT45">
-        <f t="shared" si="0"/>
         <v>3760</v>
       </c>
       <c r="AU45">
         <v>78</v>
       </c>
       <c r="AV45">
-        <f t="shared" si="1"/>
         <v>564</v>
       </c>
       <c r="AW45">
-        <f t="shared" si="2"/>
         <v>1222</v>
       </c>
       <c r="AX45">
-        <f t="shared" si="3"/>
         <v>3783</v>
       </c>
       <c r="AY45">
@@ -8098,16 +8202,16 @@
         <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C46" s="1">
         <v>45564</v>
       </c>
       <c r="D46" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="E46" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="F46">
         <v>3</v>
@@ -8116,7 +8220,7 @@
         <v>4</v>
       </c>
       <c r="H46" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="I46">
         <v>3</v>
@@ -8125,7 +8229,7 @@
         <v>3</v>
       </c>
       <c r="K46" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="L46">
         <v>2.4</v>
@@ -8137,10 +8241,10 @@
         <v>2.84</v>
       </c>
       <c r="O46" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="P46" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="Q46">
         <v>10</v>
@@ -8188,16 +8292,16 @@
         <v>31</v>
       </c>
       <c r="AF46" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="AG46" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AH46" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AI46" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AJ46">
         <v>6</v>
@@ -8206,7 +8310,7 @@
         <v>1</v>
       </c>
       <c r="AL46" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="AM46">
         <v>160</v>
@@ -8230,26 +8334,2848 @@
         <v>680</v>
       </c>
       <c r="AT46">
-        <f t="shared" si="0"/>
         <v>8925</v>
       </c>
       <c r="AU46">
         <v>56</v>
       </c>
       <c r="AV46">
-        <f t="shared" si="1"/>
         <v>735</v>
       </c>
       <c r="AW46">
-        <f t="shared" si="2"/>
         <v>840</v>
       </c>
       <c r="AX46">
-        <f t="shared" si="3"/>
         <v>1280</v>
       </c>
       <c r="AY46">
         <v>4760</v>
+      </c>
+    </row>
+    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="1">
+        <v>45569</v>
+      </c>
+      <c r="D47" t="s">
+        <v>115</v>
+      </c>
+      <c r="E47" t="s">
+        <v>114</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>134</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>134</v>
+      </c>
+      <c r="L47">
+        <v>2.46</v>
+      </c>
+      <c r="M47">
+        <v>3.78</v>
+      </c>
+      <c r="N47">
+        <v>2.81</v>
+      </c>
+      <c r="O47" t="s">
+        <v>141</v>
+      </c>
+      <c r="P47" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q47">
+        <v>13</v>
+      </c>
+      <c r="R47">
+        <v>5</v>
+      </c>
+      <c r="S47">
+        <v>11</v>
+      </c>
+      <c r="T47">
+        <v>5</v>
+      </c>
+      <c r="U47">
+        <v>2</v>
+      </c>
+      <c r="V47">
+        <v>4</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>6</v>
+      </c>
+      <c r="Z47">
+        <v>5</v>
+      </c>
+      <c r="AA47">
+        <v>13</v>
+      </c>
+      <c r="AB47">
+        <v>15</v>
+      </c>
+      <c r="AC47">
+        <v>3</v>
+      </c>
+      <c r="AD47">
+        <v>11</v>
+      </c>
+      <c r="AE47">
+        <v>28</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ47">
+        <v>6</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM47">
+        <v>176</v>
+      </c>
+      <c r="AN47">
+        <v>3</v>
+      </c>
+      <c r="AO47">
+        <v>73</v>
+      </c>
+      <c r="AP47">
+        <v>60</v>
+      </c>
+      <c r="AQ47">
+        <v>800</v>
+      </c>
+      <c r="AR47">
+        <v>180</v>
+      </c>
+      <c r="AS47">
+        <v>660</v>
+      </c>
+      <c r="AT47">
+        <v>4380</v>
+      </c>
+      <c r="AU47">
+        <v>33</v>
+      </c>
+      <c r="AV47">
+        <v>219</v>
+      </c>
+      <c r="AW47">
+        <v>803</v>
+      </c>
+      <c r="AX47">
+        <v>1936</v>
+      </c>
+      <c r="AY47">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="1">
+        <v>45570</v>
+      </c>
+      <c r="D48" t="s">
+        <v>124</v>
+      </c>
+      <c r="E48" t="s">
+        <v>121</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48" t="s">
+        <v>132</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48" t="s">
+        <v>132</v>
+      </c>
+      <c r="L48">
+        <v>3.07</v>
+      </c>
+      <c r="M48">
+        <v>3.78</v>
+      </c>
+      <c r="N48">
+        <v>2.25</v>
+      </c>
+      <c r="O48" t="s">
+        <v>135</v>
+      </c>
+      <c r="P48" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q48">
+        <v>17</v>
+      </c>
+      <c r="R48">
+        <v>5</v>
+      </c>
+      <c r="S48">
+        <v>15</v>
+      </c>
+      <c r="T48">
+        <v>5</v>
+      </c>
+      <c r="U48">
+        <v>1</v>
+      </c>
+      <c r="V48">
+        <v>2</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>7</v>
+      </c>
+      <c r="Z48">
+        <v>6</v>
+      </c>
+      <c r="AA48">
+        <v>11</v>
+      </c>
+      <c r="AB48">
+        <v>12</v>
+      </c>
+      <c r="AC48">
+        <v>4</v>
+      </c>
+      <c r="AD48">
+        <v>13</v>
+      </c>
+      <c r="AE48">
+        <v>23</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ48">
+        <v>3</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>245</v>
+      </c>
+      <c r="AM48">
+        <v>218</v>
+      </c>
+      <c r="AN48">
+        <v>4</v>
+      </c>
+      <c r="AO48">
+        <v>66</v>
+      </c>
+      <c r="AP48">
+        <v>30</v>
+      </c>
+      <c r="AQ48">
+        <v>200</v>
+      </c>
+      <c r="AR48">
+        <v>120</v>
+      </c>
+      <c r="AS48">
+        <v>390</v>
+      </c>
+      <c r="AT48">
+        <v>1980</v>
+      </c>
+      <c r="AU48">
+        <v>52</v>
+      </c>
+      <c r="AV48">
+        <v>264</v>
+      </c>
+      <c r="AW48">
+        <v>858</v>
+      </c>
+      <c r="AX48">
+        <v>2834</v>
+      </c>
+      <c r="AY48">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="1">
+        <v>45570</v>
+      </c>
+      <c r="D49" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" t="s">
+        <v>126</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>133</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49" t="s">
+        <v>134</v>
+      </c>
+      <c r="L49">
+        <v>1.08</v>
+      </c>
+      <c r="M49">
+        <v>13.45</v>
+      </c>
+      <c r="N49">
+        <v>25.93</v>
+      </c>
+      <c r="O49" t="s">
+        <v>136</v>
+      </c>
+      <c r="P49" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q49">
+        <v>24</v>
+      </c>
+      <c r="R49">
+        <v>7</v>
+      </c>
+      <c r="S49">
+        <v>8</v>
+      </c>
+      <c r="T49">
+        <v>4</v>
+      </c>
+      <c r="U49">
+        <v>2</v>
+      </c>
+      <c r="V49">
+        <v>2</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>12</v>
+      </c>
+      <c r="Z49">
+        <v>3</v>
+      </c>
+      <c r="AA49">
+        <v>5</v>
+      </c>
+      <c r="AB49">
+        <v>9</v>
+      </c>
+      <c r="AC49">
+        <v>4</v>
+      </c>
+      <c r="AD49">
+        <v>15</v>
+      </c>
+      <c r="AE49">
+        <v>14</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ49">
+        <v>4</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM49">
+        <v>126</v>
+      </c>
+      <c r="AN49">
+        <v>4</v>
+      </c>
+      <c r="AO49">
+        <v>63</v>
+      </c>
+      <c r="AP49">
+        <v>40</v>
+      </c>
+      <c r="AQ49">
+        <v>400</v>
+      </c>
+      <c r="AR49">
+        <v>160</v>
+      </c>
+      <c r="AS49">
+        <v>600</v>
+      </c>
+      <c r="AT49">
+        <v>2520</v>
+      </c>
+      <c r="AU49">
+        <v>60</v>
+      </c>
+      <c r="AV49">
+        <v>252</v>
+      </c>
+      <c r="AW49">
+        <v>945</v>
+      </c>
+      <c r="AX49">
+        <v>1890</v>
+      </c>
+      <c r="AY49">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="1">
+        <v>45570</v>
+      </c>
+      <c r="D50" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>134</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>134</v>
+      </c>
+      <c r="L50">
+        <v>3.43</v>
+      </c>
+      <c r="M50">
+        <v>3.52</v>
+      </c>
+      <c r="N50">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="O50" t="s">
+        <v>138</v>
+      </c>
+      <c r="P50" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q50">
+        <v>13</v>
+      </c>
+      <c r="R50">
+        <v>5</v>
+      </c>
+      <c r="S50">
+        <v>9</v>
+      </c>
+      <c r="T50">
+        <v>5</v>
+      </c>
+      <c r="U50">
+        <v>4</v>
+      </c>
+      <c r="V50">
+        <v>4</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>3</v>
+      </c>
+      <c r="Z50">
+        <v>3</v>
+      </c>
+      <c r="AA50">
+        <v>15</v>
+      </c>
+      <c r="AB50">
+        <v>17</v>
+      </c>
+      <c r="AC50">
+        <v>3</v>
+      </c>
+      <c r="AD50">
+        <v>6</v>
+      </c>
+      <c r="AE50">
+        <v>32</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ50">
+        <v>8</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>247</v>
+      </c>
+      <c r="AM50">
+        <v>133</v>
+      </c>
+      <c r="AN50">
+        <v>3</v>
+      </c>
+      <c r="AO50">
+        <v>35</v>
+      </c>
+      <c r="AP50">
+        <v>80</v>
+      </c>
+      <c r="AQ50">
+        <v>1600</v>
+      </c>
+      <c r="AR50">
+        <v>240</v>
+      </c>
+      <c r="AS50">
+        <v>480</v>
+      </c>
+      <c r="AT50">
+        <v>2800</v>
+      </c>
+      <c r="AU50">
+        <v>18</v>
+      </c>
+      <c r="AV50">
+        <v>105</v>
+      </c>
+      <c r="AW50">
+        <v>210</v>
+      </c>
+      <c r="AX50">
+        <v>798</v>
+      </c>
+      <c r="AY50">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="1">
+        <v>45570</v>
+      </c>
+      <c r="D51" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" t="s">
+        <v>116</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>132</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>133</v>
+      </c>
+      <c r="L51">
+        <v>2.67</v>
+      </c>
+      <c r="M51">
+        <v>3.61</v>
+      </c>
+      <c r="N51">
+        <v>2.62</v>
+      </c>
+      <c r="O51" t="s">
+        <v>139</v>
+      </c>
+      <c r="P51" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q51">
+        <v>11</v>
+      </c>
+      <c r="R51">
+        <v>3</v>
+      </c>
+      <c r="S51">
+        <v>13</v>
+      </c>
+      <c r="T51">
+        <v>3</v>
+      </c>
+      <c r="U51">
+        <v>1</v>
+      </c>
+      <c r="V51">
+        <v>2</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>7</v>
+      </c>
+      <c r="Z51">
+        <v>5</v>
+      </c>
+      <c r="AA51">
+        <v>7</v>
+      </c>
+      <c r="AB51">
+        <v>9</v>
+      </c>
+      <c r="AC51">
+        <v>1</v>
+      </c>
+      <c r="AD51">
+        <v>12</v>
+      </c>
+      <c r="AE51">
+        <v>16</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ51">
+        <v>3</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>248</v>
+      </c>
+      <c r="AM51">
+        <v>75</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
+        <v>42</v>
+      </c>
+      <c r="AP51">
+        <v>30</v>
+      </c>
+      <c r="AQ51">
+        <v>200</v>
+      </c>
+      <c r="AR51">
+        <v>30</v>
+      </c>
+      <c r="AS51">
+        <v>360</v>
+      </c>
+      <c r="AT51">
+        <v>1260</v>
+      </c>
+      <c r="AU51">
+        <v>12</v>
+      </c>
+      <c r="AV51">
+        <v>42</v>
+      </c>
+      <c r="AW51">
+        <v>504</v>
+      </c>
+      <c r="AX51">
+        <v>900</v>
+      </c>
+      <c r="AY51">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="1">
+        <v>45570</v>
+      </c>
+      <c r="D52" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" t="s">
+        <v>118</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52" t="s">
+        <v>132</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="K52" t="s">
+        <v>132</v>
+      </c>
+      <c r="L52">
+        <v>2.46</v>
+      </c>
+      <c r="M52">
+        <v>3.42</v>
+      </c>
+      <c r="N52">
+        <v>2.99</v>
+      </c>
+      <c r="O52" t="s">
+        <v>135</v>
+      </c>
+      <c r="P52" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q52">
+        <v>17</v>
+      </c>
+      <c r="R52">
+        <v>4</v>
+      </c>
+      <c r="S52">
+        <v>8</v>
+      </c>
+      <c r="T52">
+        <v>4</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>3</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>2</v>
+      </c>
+      <c r="Z52">
+        <v>2</v>
+      </c>
+      <c r="AA52">
+        <v>12</v>
+      </c>
+      <c r="AB52">
+        <v>16</v>
+      </c>
+      <c r="AC52">
+        <v>3</v>
+      </c>
+      <c r="AD52">
+        <v>4</v>
+      </c>
+      <c r="AE52">
+        <v>28</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ52">
+        <v>3</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>249</v>
+      </c>
+      <c r="AM52">
+        <v>83</v>
+      </c>
+      <c r="AN52">
+        <v>3</v>
+      </c>
+      <c r="AO52">
+        <v>69</v>
+      </c>
+      <c r="AP52">
+        <v>30</v>
+      </c>
+      <c r="AQ52">
+        <v>0</v>
+      </c>
+      <c r="AR52">
+        <v>90</v>
+      </c>
+      <c r="AS52">
+        <v>120</v>
+      </c>
+      <c r="AT52">
+        <v>2070</v>
+      </c>
+      <c r="AU52">
+        <v>12</v>
+      </c>
+      <c r="AV52">
+        <v>207</v>
+      </c>
+      <c r="AW52">
+        <v>276</v>
+      </c>
+      <c r="AX52">
+        <v>332</v>
+      </c>
+      <c r="AY52">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="1">
+        <v>45571</v>
+      </c>
+      <c r="D53" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>132</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>133</v>
+      </c>
+      <c r="L53">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="M53">
+        <v>4.18</v>
+      </c>
+      <c r="N53">
+        <v>1.7</v>
+      </c>
+      <c r="O53" t="s">
+        <v>139</v>
+      </c>
+      <c r="P53" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q53">
+        <v>15</v>
+      </c>
+      <c r="R53">
+        <v>4</v>
+      </c>
+      <c r="S53">
+        <v>12</v>
+      </c>
+      <c r="T53">
+        <v>2</v>
+      </c>
+      <c r="U53">
+        <v>2</v>
+      </c>
+      <c r="V53">
+        <v>2</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>3</v>
+      </c>
+      <c r="Z53">
+        <v>2</v>
+      </c>
+      <c r="AA53">
+        <v>12</v>
+      </c>
+      <c r="AB53">
+        <v>13</v>
+      </c>
+      <c r="AC53">
+        <v>1</v>
+      </c>
+      <c r="AD53">
+        <v>5</v>
+      </c>
+      <c r="AE53">
+        <v>25</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ53">
+        <v>4</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM53">
+        <v>59</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
+        <v>11</v>
+      </c>
+      <c r="AP53">
+        <v>40</v>
+      </c>
+      <c r="AQ53">
+        <v>400</v>
+      </c>
+      <c r="AR53">
+        <v>40</v>
+      </c>
+      <c r="AS53">
+        <v>200</v>
+      </c>
+      <c r="AT53">
+        <v>440</v>
+      </c>
+      <c r="AU53">
+        <v>5</v>
+      </c>
+      <c r="AV53">
+        <v>11</v>
+      </c>
+      <c r="AW53">
+        <v>55</v>
+      </c>
+      <c r="AX53">
+        <v>295</v>
+      </c>
+      <c r="AY53">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="1">
+        <v>45571</v>
+      </c>
+      <c r="D54" t="s">
+        <v>125</v>
+      </c>
+      <c r="E54" t="s">
+        <v>131</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="H54" t="s">
+        <v>133</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+      <c r="K54" t="s">
+        <v>133</v>
+      </c>
+      <c r="L54">
+        <v>5.72</v>
+      </c>
+      <c r="M54">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="N54">
+        <v>1.52</v>
+      </c>
+      <c r="O54" t="s">
+        <v>147</v>
+      </c>
+      <c r="P54" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q54">
+        <v>5</v>
+      </c>
+      <c r="R54">
+        <v>4</v>
+      </c>
+      <c r="S54">
+        <v>22</v>
+      </c>
+      <c r="T54">
+        <v>13</v>
+      </c>
+      <c r="U54">
+        <v>1</v>
+      </c>
+      <c r="V54">
+        <v>1</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>11</v>
+      </c>
+      <c r="AA54">
+        <v>10</v>
+      </c>
+      <c r="AB54">
+        <v>6</v>
+      </c>
+      <c r="AC54">
+        <v>6</v>
+      </c>
+      <c r="AD54">
+        <v>11</v>
+      </c>
+      <c r="AE54">
+        <v>16</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ54">
+        <v>2</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>251</v>
+      </c>
+      <c r="AM54">
+        <v>253</v>
+      </c>
+      <c r="AN54">
+        <v>6</v>
+      </c>
+      <c r="AO54">
+        <v>47</v>
+      </c>
+      <c r="AP54">
+        <v>20</v>
+      </c>
+      <c r="AQ54">
+        <v>100</v>
+      </c>
+      <c r="AR54">
+        <v>120</v>
+      </c>
+      <c r="AS54">
+        <v>220</v>
+      </c>
+      <c r="AT54">
+        <v>940</v>
+      </c>
+      <c r="AU54">
+        <v>66</v>
+      </c>
+      <c r="AV54">
+        <v>282</v>
+      </c>
+      <c r="AW54">
+        <v>517</v>
+      </c>
+      <c r="AX54">
+        <v>2783</v>
+      </c>
+      <c r="AY54">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="1">
+        <v>45571</v>
+      </c>
+      <c r="D55" t="s">
+        <v>127</v>
+      </c>
+      <c r="E55" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>133</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" t="s">
+        <v>132</v>
+      </c>
+      <c r="L55">
+        <v>1.3</v>
+      </c>
+      <c r="M55">
+        <v>6.4</v>
+      </c>
+      <c r="N55">
+        <v>8.25</v>
+      </c>
+      <c r="O55" t="s">
+        <v>140</v>
+      </c>
+      <c r="P55" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q55">
+        <v>18</v>
+      </c>
+      <c r="R55">
+        <v>7</v>
+      </c>
+      <c r="S55">
+        <v>7</v>
+      </c>
+      <c r="T55">
+        <v>5</v>
+      </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="V55">
+        <v>4</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>10</v>
+      </c>
+      <c r="Z55">
+        <v>5</v>
+      </c>
+      <c r="AA55">
+        <v>10</v>
+      </c>
+      <c r="AB55">
+        <v>7</v>
+      </c>
+      <c r="AC55">
+        <v>2</v>
+      </c>
+      <c r="AD55">
+        <v>15</v>
+      </c>
+      <c r="AE55">
+        <v>17</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ55">
+        <v>5</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>252</v>
+      </c>
+      <c r="AM55">
+        <v>135</v>
+      </c>
+      <c r="AN55">
+        <v>2</v>
+      </c>
+      <c r="AO55">
+        <v>24</v>
+      </c>
+      <c r="AP55">
+        <v>50</v>
+      </c>
+      <c r="AQ55">
+        <v>400</v>
+      </c>
+      <c r="AR55">
+        <v>100</v>
+      </c>
+      <c r="AS55">
+        <v>750</v>
+      </c>
+      <c r="AT55">
+        <v>1200</v>
+      </c>
+      <c r="AU55">
+        <v>30</v>
+      </c>
+      <c r="AV55">
+        <v>48</v>
+      </c>
+      <c r="AW55">
+        <v>360</v>
+      </c>
+      <c r="AX55">
+        <v>2025</v>
+      </c>
+      <c r="AY55">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" s="1">
+        <v>45583</v>
+      </c>
+      <c r="D56" t="s">
+        <v>120</v>
+      </c>
+      <c r="E56" t="s">
+        <v>122</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>134</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>134</v>
+      </c>
+      <c r="L56">
+        <v>1.31</v>
+      </c>
+      <c r="M56">
+        <v>5.95</v>
+      </c>
+      <c r="N56">
+        <v>10.18</v>
+      </c>
+      <c r="O56" t="s">
+        <v>141</v>
+      </c>
+      <c r="P56" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q56">
+        <v>20</v>
+      </c>
+      <c r="R56">
+        <v>7</v>
+      </c>
+      <c r="S56">
+        <v>10</v>
+      </c>
+      <c r="T56">
+        <v>3</v>
+      </c>
+      <c r="U56">
+        <v>2</v>
+      </c>
+      <c r="V56">
+        <v>1</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>7</v>
+      </c>
+      <c r="Z56">
+        <v>1</v>
+      </c>
+      <c r="AA56">
+        <v>8</v>
+      </c>
+      <c r="AB56">
+        <v>7</v>
+      </c>
+      <c r="AC56">
+        <v>3</v>
+      </c>
+      <c r="AD56">
+        <v>8</v>
+      </c>
+      <c r="AE56">
+        <v>15</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ56">
+        <v>3</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>253</v>
+      </c>
+      <c r="AM56">
+        <v>204</v>
+      </c>
+      <c r="AN56">
+        <v>3</v>
+      </c>
+      <c r="AO56">
+        <v>22</v>
+      </c>
+      <c r="AP56">
+        <v>30</v>
+      </c>
+      <c r="AQ56">
+        <v>200</v>
+      </c>
+      <c r="AR56">
+        <v>90</v>
+      </c>
+      <c r="AS56">
+        <v>240</v>
+      </c>
+      <c r="AT56">
+        <f>AO56*AP56</f>
+        <v>660</v>
+      </c>
+      <c r="AU56">
+        <v>24</v>
+      </c>
+      <c r="AV56">
+        <f>AN56*AO56</f>
+        <v>66</v>
+      </c>
+      <c r="AW56">
+        <f>AO56*AD56</f>
+        <v>176</v>
+      </c>
+      <c r="AX56">
+        <f>AM56*AD56</f>
+        <v>1632</v>
+      </c>
+      <c r="AY56">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="1">
+        <v>45584</v>
+      </c>
+      <c r="D57" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" t="s">
+        <v>115</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>134</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>134</v>
+      </c>
+      <c r="L57">
+        <v>1.74</v>
+      </c>
+      <c r="M57">
+        <v>3.87</v>
+      </c>
+      <c r="N57">
+        <v>4.93</v>
+      </c>
+      <c r="O57" t="s">
+        <v>148</v>
+      </c>
+      <c r="P57" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q57">
+        <v>15</v>
+      </c>
+      <c r="R57">
+        <v>6</v>
+      </c>
+      <c r="S57">
+        <v>9</v>
+      </c>
+      <c r="T57">
+        <v>3</v>
+      </c>
+      <c r="U57">
+        <v>1</v>
+      </c>
+      <c r="V57">
+        <v>1</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>5</v>
+      </c>
+      <c r="Z57">
+        <v>4</v>
+      </c>
+      <c r="AA57">
+        <v>11</v>
+      </c>
+      <c r="AB57">
+        <v>7</v>
+      </c>
+      <c r="AC57">
+        <v>4</v>
+      </c>
+      <c r="AD57">
+        <v>9</v>
+      </c>
+      <c r="AE57">
+        <v>18</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ57">
+        <v>2</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>254</v>
+      </c>
+      <c r="AM57">
+        <v>181</v>
+      </c>
+      <c r="AN57">
+        <v>4</v>
+      </c>
+      <c r="AO57">
+        <v>86</v>
+      </c>
+      <c r="AP57">
+        <v>20</v>
+      </c>
+      <c r="AQ57">
+        <v>100</v>
+      </c>
+      <c r="AR57">
+        <v>80</v>
+      </c>
+      <c r="AS57">
+        <v>180</v>
+      </c>
+      <c r="AT57">
+        <f t="shared" ref="AT57:AT64" si="0">AO57*AP57</f>
+        <v>1720</v>
+      </c>
+      <c r="AU57">
+        <v>36</v>
+      </c>
+      <c r="AV57">
+        <f t="shared" ref="AV57:AV64" si="1">AN57*AO57</f>
+        <v>344</v>
+      </c>
+      <c r="AW57">
+        <f t="shared" ref="AW57:AW64" si="2">AO57*AD57</f>
+        <v>774</v>
+      </c>
+      <c r="AX57">
+        <f t="shared" ref="AX57:AX64" si="3">AM57*AD57</f>
+        <v>1629</v>
+      </c>
+      <c r="AY57">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="1">
+        <v>45584</v>
+      </c>
+      <c r="D58" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58" t="s">
+        <v>124</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>134</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>134</v>
+      </c>
+      <c r="L58">
+        <v>1.7</v>
+      </c>
+      <c r="M58">
+        <v>4.47</v>
+      </c>
+      <c r="N58">
+        <v>4.45</v>
+      </c>
+      <c r="O58" t="s">
+        <v>141</v>
+      </c>
+      <c r="P58" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q58">
+        <v>12</v>
+      </c>
+      <c r="R58">
+        <v>7</v>
+      </c>
+      <c r="S58">
+        <v>13</v>
+      </c>
+      <c r="T58">
+        <v>4</v>
+      </c>
+      <c r="U58">
+        <v>1</v>
+      </c>
+      <c r="V58">
+        <v>1</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>4</v>
+      </c>
+      <c r="Z58">
+        <v>2</v>
+      </c>
+      <c r="AA58">
+        <v>10</v>
+      </c>
+      <c r="AB58">
+        <v>12</v>
+      </c>
+      <c r="AC58">
+        <v>4</v>
+      </c>
+      <c r="AD58">
+        <v>6</v>
+      </c>
+      <c r="AE58">
+        <v>22</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ58">
+        <v>2</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM58">
+        <v>241</v>
+      </c>
+      <c r="AN58">
+        <v>4</v>
+      </c>
+      <c r="AO58">
+        <v>76</v>
+      </c>
+      <c r="AP58">
+        <v>20</v>
+      </c>
+      <c r="AQ58">
+        <v>100</v>
+      </c>
+      <c r="AR58">
+        <v>80</v>
+      </c>
+      <c r="AS58">
+        <v>120</v>
+      </c>
+      <c r="AT58">
+        <f t="shared" si="0"/>
+        <v>1520</v>
+      </c>
+      <c r="AU58">
+        <v>24</v>
+      </c>
+      <c r="AV58">
+        <f t="shared" si="1"/>
+        <v>304</v>
+      </c>
+      <c r="AW58">
+        <f t="shared" si="2"/>
+        <v>456</v>
+      </c>
+      <c r="AX58">
+        <f t="shared" si="3"/>
+        <v>1446</v>
+      </c>
+      <c r="AY58">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="1">
+        <v>45584</v>
+      </c>
+      <c r="D59" t="s">
+        <v>129</v>
+      </c>
+      <c r="E59" t="s">
+        <v>125</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>134</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59" t="s">
+        <v>133</v>
+      </c>
+      <c r="L59">
+        <v>1.45</v>
+      </c>
+      <c r="M59">
+        <v>5.18</v>
+      </c>
+      <c r="N59">
+        <v>6.35</v>
+      </c>
+      <c r="O59" t="s">
+        <v>137</v>
+      </c>
+      <c r="P59" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q59">
+        <v>27</v>
+      </c>
+      <c r="R59">
+        <v>9</v>
+      </c>
+      <c r="S59">
+        <v>9</v>
+      </c>
+      <c r="T59">
+        <v>2</v>
+      </c>
+      <c r="U59">
+        <v>2</v>
+      </c>
+      <c r="V59">
+        <v>1</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>8</v>
+      </c>
+      <c r="Z59">
+        <v>3</v>
+      </c>
+      <c r="AA59">
+        <v>9</v>
+      </c>
+      <c r="AB59">
+        <v>5</v>
+      </c>
+      <c r="AC59">
+        <v>3</v>
+      </c>
+      <c r="AD59">
+        <v>11</v>
+      </c>
+      <c r="AE59">
+        <v>14</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ59">
+        <v>3</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>256</v>
+      </c>
+      <c r="AM59">
+        <v>113</v>
+      </c>
+      <c r="AN59">
+        <v>3</v>
+      </c>
+      <c r="AO59">
+        <v>37</v>
+      </c>
+      <c r="AP59">
+        <v>30</v>
+      </c>
+      <c r="AQ59">
+        <v>200</v>
+      </c>
+      <c r="AR59">
+        <v>90</v>
+      </c>
+      <c r="AS59">
+        <v>330</v>
+      </c>
+      <c r="AT59">
+        <f t="shared" si="0"/>
+        <v>1110</v>
+      </c>
+      <c r="AU59">
+        <v>33</v>
+      </c>
+      <c r="AV59">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="AW59">
+        <f t="shared" si="2"/>
+        <v>407</v>
+      </c>
+      <c r="AX59">
+        <f t="shared" si="3"/>
+        <v>1243</v>
+      </c>
+      <c r="AY59">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="60" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="1">
+        <v>45584</v>
+      </c>
+      <c r="D60" t="s">
+        <v>118</v>
+      </c>
+      <c r="E60" t="s">
+        <v>119</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="H60" t="s">
+        <v>132</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+      <c r="K60" t="s">
+        <v>132</v>
+      </c>
+      <c r="L60">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="M60">
+        <v>3.71</v>
+      </c>
+      <c r="N60">
+        <v>1.88</v>
+      </c>
+      <c r="O60" t="s">
+        <v>135</v>
+      </c>
+      <c r="P60" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q60">
+        <v>16</v>
+      </c>
+      <c r="R60">
+        <v>2</v>
+      </c>
+      <c r="S60">
+        <v>11</v>
+      </c>
+      <c r="T60">
+        <v>5</v>
+      </c>
+      <c r="U60">
+        <v>1</v>
+      </c>
+      <c r="V60">
+        <v>3</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>5</v>
+      </c>
+      <c r="Z60">
+        <v>3</v>
+      </c>
+      <c r="AA60">
+        <v>12</v>
+      </c>
+      <c r="AB60">
+        <v>15</v>
+      </c>
+      <c r="AC60">
+        <v>2</v>
+      </c>
+      <c r="AD60">
+        <v>8</v>
+      </c>
+      <c r="AE60">
+        <v>27</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ60">
+        <v>4</v>
+      </c>
+      <c r="AK60">
+        <v>0</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>257</v>
+      </c>
+      <c r="AM60">
+        <v>57</v>
+      </c>
+      <c r="AN60">
+        <v>2</v>
+      </c>
+      <c r="AO60">
+        <v>14</v>
+      </c>
+      <c r="AP60">
+        <v>40</v>
+      </c>
+      <c r="AQ60">
+        <v>300</v>
+      </c>
+      <c r="AR60">
+        <v>80</v>
+      </c>
+      <c r="AS60">
+        <v>320</v>
+      </c>
+      <c r="AT60">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+      <c r="AU60">
+        <v>16</v>
+      </c>
+      <c r="AV60">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="AW60">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="AX60">
+        <f t="shared" si="3"/>
+        <v>456</v>
+      </c>
+      <c r="AY60">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="1">
+        <v>45584</v>
+      </c>
+      <c r="D61" t="s">
+        <v>114</v>
+      </c>
+      <c r="E61" t="s">
+        <v>130</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61" t="s">
+        <v>134</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61" t="s">
+        <v>133</v>
+      </c>
+      <c r="L61">
+        <v>1.83</v>
+      </c>
+      <c r="M61">
+        <v>3.77</v>
+      </c>
+      <c r="N61">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="O61" t="s">
+        <v>137</v>
+      </c>
+      <c r="P61" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q61">
+        <v>20</v>
+      </c>
+      <c r="R61">
+        <v>10</v>
+      </c>
+      <c r="S61">
+        <v>19</v>
+      </c>
+      <c r="T61">
+        <v>6</v>
+      </c>
+      <c r="U61">
+        <v>3</v>
+      </c>
+      <c r="V61">
+        <v>3</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>6</v>
+      </c>
+      <c r="Z61">
+        <v>3</v>
+      </c>
+      <c r="AA61">
+        <v>15</v>
+      </c>
+      <c r="AB61">
+        <v>9</v>
+      </c>
+      <c r="AC61">
+        <v>5</v>
+      </c>
+      <c r="AD61">
+        <v>9</v>
+      </c>
+      <c r="AE61">
+        <v>24</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ61">
+        <v>6</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>258</v>
+      </c>
+      <c r="AM61">
+        <v>251</v>
+      </c>
+      <c r="AN61">
+        <v>5</v>
+      </c>
+      <c r="AO61">
+        <v>51</v>
+      </c>
+      <c r="AP61">
+        <v>60</v>
+      </c>
+      <c r="AQ61">
+        <v>900</v>
+      </c>
+      <c r="AR61">
+        <v>300</v>
+      </c>
+      <c r="AS61">
+        <v>540</v>
+      </c>
+      <c r="AT61">
+        <f t="shared" si="0"/>
+        <v>3060</v>
+      </c>
+      <c r="AU61">
+        <v>45</v>
+      </c>
+      <c r="AV61">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+      <c r="AW61">
+        <f t="shared" si="2"/>
+        <v>459</v>
+      </c>
+      <c r="AX61">
+        <f t="shared" si="3"/>
+        <v>2259</v>
+      </c>
+      <c r="AY61">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="1">
+        <v>45584</v>
+      </c>
+      <c r="D62" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62" t="s">
+        <v>127</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>134</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>133</v>
+      </c>
+      <c r="L62">
+        <v>1.36</v>
+      </c>
+      <c r="M62">
+        <v>5.88</v>
+      </c>
+      <c r="N62">
+        <v>7.55</v>
+      </c>
+      <c r="O62" t="s">
+        <v>139</v>
+      </c>
+      <c r="P62" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q62">
+        <v>22</v>
+      </c>
+      <c r="R62">
+        <v>10</v>
+      </c>
+      <c r="S62">
+        <v>4</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>2</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>7</v>
+      </c>
+      <c r="Z62">
+        <v>3</v>
+      </c>
+      <c r="AA62">
+        <v>6</v>
+      </c>
+      <c r="AB62">
+        <v>10</v>
+      </c>
+      <c r="AC62">
+        <v>4</v>
+      </c>
+      <c r="AD62">
+        <v>10</v>
+      </c>
+      <c r="AE62">
+        <v>16</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ62">
+        <v>2</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>259</v>
+      </c>
+      <c r="AM62">
+        <v>286</v>
+      </c>
+      <c r="AN62">
+        <v>4</v>
+      </c>
+      <c r="AO62">
+        <v>38</v>
+      </c>
+      <c r="AP62">
+        <v>20</v>
+      </c>
+      <c r="AQ62">
+        <v>0</v>
+      </c>
+      <c r="AR62">
+        <v>80</v>
+      </c>
+      <c r="AS62">
+        <v>200</v>
+      </c>
+      <c r="AT62">
+        <f t="shared" si="0"/>
+        <v>760</v>
+      </c>
+      <c r="AU62">
+        <v>40</v>
+      </c>
+      <c r="AV62">
+        <f t="shared" si="1"/>
+        <v>152</v>
+      </c>
+      <c r="AW62">
+        <f t="shared" si="2"/>
+        <v>380</v>
+      </c>
+      <c r="AX62">
+        <f t="shared" si="3"/>
+        <v>2860</v>
+      </c>
+      <c r="AY62">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="63" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="1">
+        <v>45585</v>
+      </c>
+      <c r="D63" t="s">
+        <v>126</v>
+      </c>
+      <c r="E63" t="s">
+        <v>123</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63" t="s">
+        <v>132</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63" t="s">
+        <v>132</v>
+      </c>
+      <c r="L63">
+        <v>3.48</v>
+      </c>
+      <c r="M63">
+        <v>3.43</v>
+      </c>
+      <c r="N63">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O63" t="s">
+        <v>140</v>
+      </c>
+      <c r="P63" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q63">
+        <v>12</v>
+      </c>
+      <c r="R63">
+        <v>5</v>
+      </c>
+      <c r="S63">
+        <v>14</v>
+      </c>
+      <c r="T63">
+        <v>4</v>
+      </c>
+      <c r="U63">
+        <v>2</v>
+      </c>
+      <c r="V63">
+        <v>1</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>7</v>
+      </c>
+      <c r="Z63">
+        <v>3</v>
+      </c>
+      <c r="AA63">
+        <v>8</v>
+      </c>
+      <c r="AB63">
+        <v>11</v>
+      </c>
+      <c r="AC63">
+        <v>2</v>
+      </c>
+      <c r="AD63">
+        <v>10</v>
+      </c>
+      <c r="AE63">
+        <v>19</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ63">
+        <v>3</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>260</v>
+      </c>
+      <c r="AM63">
+        <v>107</v>
+      </c>
+      <c r="AN63">
+        <v>2</v>
+      </c>
+      <c r="AO63">
+        <v>51</v>
+      </c>
+      <c r="AP63">
+        <v>30</v>
+      </c>
+      <c r="AQ63">
+        <v>200</v>
+      </c>
+      <c r="AR63">
+        <v>60</v>
+      </c>
+      <c r="AS63">
+        <v>300</v>
+      </c>
+      <c r="AT63">
+        <f t="shared" si="0"/>
+        <v>1530</v>
+      </c>
+      <c r="AU63">
+        <v>20</v>
+      </c>
+      <c r="AV63">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="AW63">
+        <f t="shared" si="2"/>
+        <v>510</v>
+      </c>
+      <c r="AX63">
+        <f t="shared" si="3"/>
+        <v>1070</v>
+      </c>
+      <c r="AY63">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" s="1">
+        <v>45585</v>
+      </c>
+      <c r="D64" t="s">
+        <v>121</v>
+      </c>
+      <c r="E64" t="s">
+        <v>128</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>4</v>
+      </c>
+      <c r="H64" t="s">
+        <v>132</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64" t="s">
+        <v>133</v>
+      </c>
+      <c r="L64">
+        <v>2.09</v>
+      </c>
+      <c r="M64">
+        <v>3.66</v>
+      </c>
+      <c r="N64">
+        <v>3.55</v>
+      </c>
+      <c r="O64" t="s">
+        <v>137</v>
+      </c>
+      <c r="P64" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q64">
+        <v>14</v>
+      </c>
+      <c r="R64">
+        <v>6</v>
+      </c>
+      <c r="S64">
+        <v>15</v>
+      </c>
+      <c r="T64">
+        <v>7</v>
+      </c>
+      <c r="U64">
+        <v>1</v>
+      </c>
+      <c r="V64">
+        <v>1</v>
+      </c>
+      <c r="W64">
+        <v>1</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>4</v>
+      </c>
+      <c r="Z64">
+        <v>4</v>
+      </c>
+      <c r="AA64">
+        <v>15</v>
+      </c>
+      <c r="AB64">
+        <v>9</v>
+      </c>
+      <c r="AC64">
+        <v>6</v>
+      </c>
+      <c r="AD64">
+        <v>8</v>
+      </c>
+      <c r="AE64">
+        <v>24</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ64">
+        <v>2</v>
+      </c>
+      <c r="AK64">
+        <v>1</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>261</v>
+      </c>
+      <c r="AM64">
+        <v>333</v>
+      </c>
+      <c r="AN64">
+        <v>6</v>
+      </c>
+      <c r="AO64">
+        <v>91</v>
+      </c>
+      <c r="AP64">
+        <v>45</v>
+      </c>
+      <c r="AQ64">
+        <v>350</v>
+      </c>
+      <c r="AR64">
+        <v>270</v>
+      </c>
+      <c r="AS64">
+        <v>360</v>
+      </c>
+      <c r="AT64">
+        <f t="shared" si="0"/>
+        <v>4095</v>
+      </c>
+      <c r="AU64">
+        <v>48</v>
+      </c>
+      <c r="AV64">
+        <f t="shared" si="1"/>
+        <v>546</v>
+      </c>
+      <c r="AW64">
+        <f t="shared" si="2"/>
+        <v>728</v>
+      </c>
+      <c r="AX64">
+        <f t="shared" si="3"/>
+        <v>2664</v>
+      </c>
+      <c r="AY64">
+        <v>2160</v>
       </c>
     </row>
   </sheetData>

--- a/D1_spread.xlsx
+++ b/D1_spread.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB23008-8F8B-4BE5-A315-1BFAD3C1674F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC8A510-F9F7-4CF6-9974-4E1424CF68C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="307">
   <si>
     <t>Div</t>
   </si>
@@ -342,31 +342,85 @@
     <t>54</t>
   </si>
   <si>
-    <t>958</t>
-  </si>
-  <si>
-    <t>959</t>
-  </si>
-  <si>
-    <t>960</t>
-  </si>
-  <si>
-    <t>961</t>
-  </si>
-  <si>
-    <t>962</t>
-  </si>
-  <si>
-    <t>963</t>
-  </si>
-  <si>
-    <t>964</t>
-  </si>
-  <si>
-    <t>965</t>
-  </si>
-  <si>
-    <t>966</t>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>1116</t>
+  </si>
+  <si>
+    <t>1117</t>
+  </si>
+  <si>
+    <t>1118</t>
   </si>
   <si>
     <t>D1</t>
@@ -477,6 +531,9 @@
     <t>3-0</t>
   </si>
   <si>
+    <t>4-1</t>
+  </si>
+  <si>
     <t>3-2</t>
   </si>
   <si>
@@ -513,6 +570,9 @@
     <t>3-4</t>
   </si>
   <si>
+    <t>7-2</t>
+  </si>
+  <si>
     <t>6-3</t>
   </si>
   <si>
@@ -621,6 +681,27 @@
     <t>4-4</t>
   </si>
   <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>10-2</t>
+  </si>
+  <si>
+    <t>7-4</t>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -814,6 +895,60 @@
   </si>
   <si>
     <t>Wolfsburg-Werder Bremen</t>
+  </si>
+  <si>
+    <t>Mainz-Mgladbach</t>
+  </si>
+  <si>
+    <t>Augsburg-Dortmund</t>
+  </si>
+  <si>
+    <t>RB Leipzig-Freiburg</t>
+  </si>
+  <si>
+    <t>St Pauli-Wolfsburg</t>
+  </si>
+  <si>
+    <t>Stuttgart-Holstein Kiel</t>
+  </si>
+  <si>
+    <t>Werder Bremen-Leverkusen</t>
+  </si>
+  <si>
+    <t>Bochum-Bayern Munich</t>
+  </si>
+  <si>
+    <t>Union Berlin-Ein Frankfurt</t>
+  </si>
+  <si>
+    <t>Heidenheim-Hoffenheim</t>
+  </si>
+  <si>
+    <t>Leverkusen-Stuttgart</t>
+  </si>
+  <si>
+    <t>Bayern Munich-Union Berlin</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt-Bochum</t>
+  </si>
+  <si>
+    <t>Hoffenheim-St Pauli</t>
+  </si>
+  <si>
+    <t>Holstein Kiel-Heidenheim</t>
+  </si>
+  <si>
+    <t>Wolfsburg-Augsburg</t>
+  </si>
+  <si>
+    <t>Dortmund-RB Leipzig</t>
+  </si>
+  <si>
+    <t>Freiburg-Mainz</t>
+  </si>
+  <si>
+    <t>Mgladbach-Werder Bremen</t>
   </si>
 </sst>
 </file>
@@ -1169,60 +1304,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY64"/>
+  <dimension ref="A1:AY82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AB32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AA53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO65" sqref="AO65"/>
+      <selection pane="bottomRight" activeCell="AO83" sqref="AO83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="33" max="35" width="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.140625" customWidth="1"/>
     <col min="40" max="40" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="23" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.42578125" customWidth="1"/>
+    <col min="42" max="42" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="17" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
@@ -1382,16 +1519,16 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1">
         <v>45527</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -1400,7 +1537,7 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1409,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="L2">
         <v>5.33</v>
@@ -1421,10 +1558,10 @@
         <v>1.6</v>
       </c>
       <c r="O2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="P2" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="Q2">
         <v>14</v>
@@ -1472,16 +1609,16 @@
         <v>18</v>
       </c>
       <c r="AF2" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="AG2" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH2" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI2" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AJ2">
         <v>1</v>
@@ -1490,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="AM2">
         <v>284</v>
@@ -1537,16 +1674,16 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C3" s="1">
         <v>45528</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1555,7 +1692,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -1564,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L3">
         <v>2.3199999999999998</v>
@@ -1576,10 +1713,10 @@
         <v>3.11</v>
       </c>
       <c r="O3" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="P3" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="Q3">
         <v>10</v>
@@ -1627,16 +1764,16 @@
         <v>21</v>
       </c>
       <c r="AF3" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="AG3" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH3" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI3" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AJ3">
         <v>4</v>
@@ -1645,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="AM3">
         <v>121</v>
@@ -1692,16 +1829,16 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C4" s="1">
         <v>45528</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -1710,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1719,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L4">
         <v>3.5</v>
@@ -1731,10 +1868,10 @@
         <v>2.09</v>
       </c>
       <c r="O4" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="P4" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="Q4">
         <v>15</v>
@@ -1782,16 +1919,16 @@
         <v>17</v>
       </c>
       <c r="AF4" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="AG4" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH4" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI4" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AJ4">
         <v>3</v>
@@ -1800,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="AM4">
         <v>144</v>
@@ -1847,16 +1984,16 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C5" s="1">
         <v>45528</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -1865,7 +2002,7 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -1874,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L5">
         <v>1.64</v>
@@ -1886,10 +2023,10 @@
         <v>5.07</v>
       </c>
       <c r="O5" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="P5" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="Q5">
         <v>20</v>
@@ -1937,16 +2074,16 @@
         <v>22</v>
       </c>
       <c r="AF5" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="AG5" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH5" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI5" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AJ5">
         <v>5</v>
@@ -1955,7 +2092,7 @@
         <v>1</v>
       </c>
       <c r="AL5" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="AM5">
         <v>282</v>
@@ -2002,16 +2139,16 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C6" s="1">
         <v>45528</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2020,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2029,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L6">
         <v>2.08</v>
@@ -2041,10 +2178,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="O6" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P6" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="Q6">
         <v>15</v>
@@ -2092,16 +2229,16 @@
         <v>24</v>
       </c>
       <c r="AF6" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="AG6" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH6" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AI6" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AJ6">
         <v>4</v>
@@ -2110,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="AM6">
         <v>127</v>
@@ -2157,16 +2294,16 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C7" s="1">
         <v>45528</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2175,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2184,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L7">
         <v>1.25</v>
@@ -2196,10 +2333,10 @@
         <v>10.65</v>
       </c>
       <c r="O7" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P7" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="Q7">
         <v>12</v>
@@ -2247,16 +2384,16 @@
         <v>26</v>
       </c>
       <c r="AF7" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="AG7" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AH7" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AI7" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AJ7">
         <v>4</v>
@@ -2265,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="AL7" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="AM7">
         <v>59</v>
@@ -2312,16 +2449,16 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C8" s="1">
         <v>45528</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -2330,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2339,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L8">
         <v>1.71</v>
@@ -2351,10 +2488,10 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="O8" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P8" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="Q8">
         <v>17</v>
@@ -2402,16 +2539,16 @@
         <v>9</v>
       </c>
       <c r="AF8" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="AG8" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH8" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AI8" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AJ8">
         <v>1</v>
@@ -2420,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="AM8">
         <v>162</v>
@@ -2467,16 +2604,16 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C9" s="1">
         <v>45529</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -2485,7 +2622,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2494,7 +2631,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="L9">
         <v>6.33</v>
@@ -2506,10 +2643,10 @@
         <v>1.47</v>
       </c>
       <c r="O9" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="P9" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2557,16 +2694,16 @@
         <v>24</v>
       </c>
       <c r="AF9" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="AG9" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH9" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI9" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AJ9">
         <v>5</v>
@@ -2575,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="AM9">
         <v>269</v>
@@ -2622,16 +2759,16 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C10" s="1">
         <v>45529</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2640,7 +2777,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2649,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L10">
         <v>2.13</v>
@@ -2661,10 +2798,10 @@
         <v>3.59</v>
       </c>
       <c r="O10" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P10" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -2712,16 +2849,16 @@
         <v>25</v>
       </c>
       <c r="AF10" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="AG10" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH10" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AI10" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AJ10">
         <v>5</v>
@@ -2730,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="AM10">
         <v>148</v>
@@ -2777,16 +2914,16 @@
         <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C11" s="1">
         <v>45534</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2795,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -2804,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L11">
         <v>1.96</v>
@@ -2816,10 +2953,10 @@
         <v>4.29</v>
       </c>
       <c r="O11" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="P11" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -2867,16 +3004,16 @@
         <v>21</v>
       </c>
       <c r="AF11" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="AG11" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AH11" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AI11" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AJ11">
         <v>4</v>
@@ -2885,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="AM11">
         <v>34</v>
@@ -2932,16 +3069,16 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C12" s="1">
         <v>45535</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2950,7 +3087,7 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2959,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L12">
         <v>2.66</v>
@@ -2971,10 +3108,10 @@
         <v>2.57</v>
       </c>
       <c r="O12" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P12" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="Q12">
         <v>16</v>
@@ -3022,16 +3159,16 @@
         <v>19</v>
       </c>
       <c r="AF12" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="AG12" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH12" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AI12" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AJ12">
         <v>1</v>
@@ -3040,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="AL12" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="AM12">
         <v>145</v>
@@ -3087,16 +3224,16 @@
         <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C13" s="1">
         <v>45535</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="E13" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -3105,7 +3242,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -3114,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L13">
         <v>1.8</v>
@@ -3126,10 +3263,10 @@
         <v>4.12</v>
       </c>
       <c r="O13" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="P13" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="Q13">
         <v>17</v>
@@ -3177,16 +3314,16 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="AG13" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH13" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI13" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AJ13">
         <v>3</v>
@@ -3195,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="AM13">
         <v>167</v>
@@ -3242,16 +3379,16 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C14" s="1">
         <v>45535</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="E14" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -3260,7 +3397,7 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3269,7 +3406,7 @@
         <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="L14">
         <v>3.26</v>
@@ -3281,10 +3418,10 @@
         <v>2.19</v>
       </c>
       <c r="O14" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="P14" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="Q14">
         <v>12</v>
@@ -3332,16 +3469,16 @@
         <v>31</v>
       </c>
       <c r="AF14" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="AG14" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH14" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AI14" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AJ14">
         <v>11</v>
@@ -3350,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="AM14">
         <v>57</v>
@@ -3397,16 +3534,16 @@
         <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C15" s="1">
         <v>45535</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="E15" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -3415,7 +3552,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -3424,7 +3561,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L15">
         <v>1.66</v>
@@ -3436,10 +3573,10 @@
         <v>5.09</v>
       </c>
       <c r="O15" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="P15" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="Q15">
         <v>28</v>
@@ -3487,16 +3624,16 @@
         <v>18</v>
       </c>
       <c r="AF15" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="AG15" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH15" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI15" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AJ15">
         <v>6</v>
@@ -3505,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="AM15">
         <v>306</v>
@@ -3552,16 +3689,16 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C16" s="1">
         <v>45535</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E16" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3570,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -3579,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L16">
         <v>4.05</v>
@@ -3591,10 +3728,10 @@
         <v>1.83</v>
       </c>
       <c r="O16" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P16" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -3642,16 +3779,16 @@
         <v>27</v>
       </c>
       <c r="AF16" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AH16" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AI16" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AJ16">
         <v>9</v>
@@ -3660,7 +3797,7 @@
         <v>1</v>
       </c>
       <c r="AL16" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="AM16">
         <v>0</v>
@@ -3707,16 +3844,16 @@
         <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C17" s="1">
         <v>45535</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -3725,7 +3862,7 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -3734,7 +3871,7 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L17">
         <v>1.8</v>
@@ -3746,10 +3883,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="O17" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="P17" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="Q17">
         <v>27</v>
@@ -3797,16 +3934,16 @@
         <v>15</v>
       </c>
       <c r="AF17" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH17" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI17" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AJ17">
         <v>4</v>
@@ -3815,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="AM17">
         <v>266</v>
@@ -3862,16 +3999,16 @@
         <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C18" s="1">
         <v>45536</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -3880,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -3889,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L18">
         <v>2.42</v>
@@ -3901,10 +4038,10 @@
         <v>3.02</v>
       </c>
       <c r="O18" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="P18" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="Q18">
         <v>17</v>
@@ -3952,16 +4089,16 @@
         <v>26</v>
       </c>
       <c r="AF18" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="AG18" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH18" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI18" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AJ18">
         <v>3</v>
@@ -3970,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="AL18" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="AM18">
         <v>181</v>
@@ -4017,16 +4154,16 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C19" s="1">
         <v>45536</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -4035,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -4044,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L19">
         <v>1.21</v>
@@ -4056,10 +4193,10 @@
         <v>11.45</v>
       </c>
       <c r="O19" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="P19" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="Q19">
         <v>11</v>
@@ -4107,16 +4244,16 @@
         <v>25</v>
       </c>
       <c r="AF19" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="AG19" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH19" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AI19" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AJ19">
         <v>1</v>
@@ -4125,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="AM19">
         <v>116</v>
@@ -4172,16 +4309,16 @@
         <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C20" s="1">
         <v>45548</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -4190,7 +4327,7 @@
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I20">
         <v>3</v>
@@ -4199,7 +4336,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L20">
         <v>1.39</v>
@@ -4211,10 +4348,10 @@
         <v>7.83</v>
       </c>
       <c r="O20" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="P20" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="Q20">
         <v>13</v>
@@ -4262,16 +4399,16 @@
         <v>31</v>
       </c>
       <c r="AF20" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="AG20" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH20" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI20" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AJ20">
         <v>4</v>
@@ -4280,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="AL20" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AM20">
         <v>273</v>
@@ -4327,16 +4464,16 @@
         <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C21" s="1">
         <v>45549</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -4345,7 +4482,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -4354,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="L21">
         <v>1.69</v>
@@ -4366,10 +4503,10 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="O21" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="P21" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="Q21">
         <v>27</v>
@@ -4417,16 +4554,16 @@
         <v>21</v>
       </c>
       <c r="AF21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="AG21" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH21" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI21" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AJ21">
         <v>3</v>
@@ -4435,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="AL21" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AM21">
         <v>164</v>
@@ -4482,16 +4619,16 @@
         <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C22" s="1">
         <v>45549</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E22" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -4500,7 +4637,7 @@
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -4509,7 +4646,7 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="L22">
         <v>5.95</v>
@@ -4521,10 +4658,10 @@
         <v>1.49</v>
       </c>
       <c r="O22" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="P22" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="Q22">
         <v>14</v>
@@ -4572,16 +4709,16 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="AG22" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH22" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI22" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AJ22">
         <v>4</v>
@@ -4590,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="AL22" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="AM22">
         <v>161</v>
@@ -4637,16 +4774,16 @@
         <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C23" s="1">
         <v>45549</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E23" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -4655,7 +4792,7 @@
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -4664,7 +4801,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L23">
         <v>2.84</v>
@@ -4676,10 +4813,10 @@
         <v>2.31</v>
       </c>
       <c r="O23" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="P23" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="Q23">
         <v>15</v>
@@ -4727,16 +4864,16 @@
         <v>26</v>
       </c>
       <c r="AF23" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="AG23" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH23" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI23" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AJ23">
         <v>4</v>
@@ -4745,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="AL23" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="AM23">
         <v>167</v>
@@ -4792,16 +4929,16 @@
         <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C24" s="1">
         <v>45549</v>
       </c>
       <c r="D24" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -4810,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -4819,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L24">
         <v>1.48</v>
@@ -4831,10 +4968,10 @@
         <v>6.64</v>
       </c>
       <c r="O24" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P24" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="Q24">
         <v>16</v>
@@ -4882,16 +5019,16 @@
         <v>28</v>
       </c>
       <c r="AF24" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="AG24" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AH24" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AI24" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AJ24">
         <v>5</v>
@@ -4900,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="AL24" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="AM24">
         <v>0</v>
@@ -4947,16 +5084,16 @@
         <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C25" s="1">
         <v>45549</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="E25" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -4965,7 +5102,7 @@
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -4974,7 +5111,7 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="L25">
         <v>2.72</v>
@@ -4986,10 +5123,10 @@
         <v>2.63</v>
       </c>
       <c r="O25" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="P25" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="Q25">
         <v>17</v>
@@ -5037,16 +5174,16 @@
         <v>25</v>
       </c>
       <c r="AF25" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="AG25" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH25" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI25" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AJ25">
         <v>3</v>
@@ -5055,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="AL25" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="AM25">
         <v>188</v>
@@ -5102,16 +5239,16 @@
         <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C26" s="1">
         <v>45549</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -5120,7 +5257,7 @@
         <v>6</v>
       </c>
       <c r="H26" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -5129,7 +5266,7 @@
         <v>4</v>
       </c>
       <c r="K26" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="L26">
         <v>11.8</v>
@@ -5141,10 +5278,10 @@
         <v>1.21</v>
       </c>
       <c r="O26" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="P26" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -5192,16 +5329,16 @@
         <v>23</v>
       </c>
       <c r="AF26" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="AG26" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH26" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI26" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AJ26">
         <v>1</v>
@@ -5210,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="AL26" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="AM26">
         <v>301</v>
@@ -5257,16 +5394,16 @@
         <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C27" s="1">
         <v>45550</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="E27" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -5275,7 +5412,7 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -5284,7 +5421,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L27">
         <v>2.09</v>
@@ -5296,10 +5433,10 @@
         <v>3.52</v>
       </c>
       <c r="O27" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P27" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="Q27">
         <v>18</v>
@@ -5347,16 +5484,16 @@
         <v>22</v>
       </c>
       <c r="AF27" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="AG27" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH27" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI27" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AJ27">
         <v>7</v>
@@ -5365,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="AL27" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="AM27">
         <v>279</v>
@@ -5412,16 +5549,16 @@
         <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C28" s="1">
         <v>45550</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="E28" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -5430,7 +5567,7 @@
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -5439,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L28">
         <v>2.04</v>
@@ -5451,10 +5588,10 @@
         <v>3.61</v>
       </c>
       <c r="O28" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="P28" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="Q28">
         <v>11</v>
@@ -5502,16 +5639,16 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="AG28" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH28" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI28" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AJ28">
         <v>4</v>
@@ -5520,7 +5657,7 @@
         <v>1</v>
       </c>
       <c r="AL28" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="AM28">
         <v>104</v>
@@ -5567,16 +5704,16 @@
         <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C29" s="1">
         <v>45555</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="E29" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -5585,7 +5722,7 @@
         <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -5594,7 +5731,7 @@
         <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="L29">
         <v>2.42</v>
@@ -5606,10 +5743,10 @@
         <v>2.97</v>
       </c>
       <c r="O29" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="P29" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="Q29">
         <v>30</v>
@@ -5657,16 +5794,16 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="AG29" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH29" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI29" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AJ29">
         <v>8</v>
@@ -5675,7 +5812,7 @@
         <v>2</v>
       </c>
       <c r="AL29" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="AM29">
         <v>159</v>
@@ -5722,16 +5859,16 @@
         <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C30" s="1">
         <v>45556</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -5740,7 +5877,7 @@
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -5749,7 +5886,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L30">
         <v>1.99</v>
@@ -5761,10 +5898,10 @@
         <v>3.7</v>
       </c>
       <c r="O30" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="P30" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="Q30">
         <v>14</v>
@@ -5812,16 +5949,16 @@
         <v>29</v>
       </c>
       <c r="AF30" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="AG30" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH30" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI30" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AJ30">
         <v>5</v>
@@ -5830,7 +5967,7 @@
         <v>0</v>
       </c>
       <c r="AL30" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="AM30">
         <v>161</v>
@@ -5877,16 +6014,16 @@
         <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C31" s="1">
         <v>45556</v>
       </c>
       <c r="D31" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E31" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -5895,7 +6032,7 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -5904,7 +6041,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L31">
         <v>2.75</v>
@@ -5916,10 +6053,10 @@
         <v>2.66</v>
       </c>
       <c r="O31" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P31" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -5967,16 +6104,16 @@
         <v>13</v>
       </c>
       <c r="AF31" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AG31" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH31" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI31" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AJ31">
         <v>2</v>
@@ -5985,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="AL31" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="AM31">
         <v>178</v>
@@ -6032,16 +6169,16 @@
         <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C32" s="1">
         <v>45556</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="E32" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -6050,7 +6187,7 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -6059,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L32">
         <v>2.04</v>
@@ -6071,10 +6208,10 @@
         <v>3.65</v>
       </c>
       <c r="O32" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="P32" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="Q32">
         <v>12</v>
@@ -6122,16 +6259,16 @@
         <v>35</v>
       </c>
       <c r="AF32" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AG32" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH32" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI32" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AJ32">
         <v>6</v>
@@ -6140,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="AL32" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="AM32">
         <v>77</v>
@@ -6187,16 +6324,16 @@
         <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C33" s="1">
         <v>45556</v>
       </c>
       <c r="D33" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E33" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -6205,7 +6342,7 @@
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -6214,7 +6351,7 @@
         <v>2</v>
       </c>
       <c r="K33" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="L33">
         <v>7.92</v>
@@ -6226,10 +6363,10 @@
         <v>1.36</v>
       </c>
       <c r="O33" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="P33" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -6277,16 +6414,16 @@
         <v>17</v>
       </c>
       <c r="AF33" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="AG33" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH33" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI33" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AJ33">
         <v>3</v>
@@ -6295,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="AL33" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="AM33">
         <v>237</v>
@@ -6342,16 +6479,16 @@
         <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C34" s="1">
         <v>45556</v>
       </c>
       <c r="D34" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="E34" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -6360,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -6369,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L34">
         <v>1.79</v>
@@ -6381,10 +6518,10 @@
         <v>4.26</v>
       </c>
       <c r="O34" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="P34" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="Q34">
         <v>14</v>
@@ -6432,16 +6569,16 @@
         <v>22</v>
       </c>
       <c r="AF34" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="AG34" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH34" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AI34" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AJ34">
         <v>2</v>
@@ -6450,7 +6587,7 @@
         <v>0</v>
       </c>
       <c r="AL34" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="AM34">
         <v>111</v>
@@ -6497,16 +6634,16 @@
         <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C35" s="1">
         <v>45557</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="E35" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="F35">
         <v>4</v>
@@ -6515,7 +6652,7 @@
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -6524,7 +6661,7 @@
         <v>3</v>
       </c>
       <c r="K35" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="L35">
         <v>1.31</v>
@@ -6536,10 +6673,10 @@
         <v>9.23</v>
       </c>
       <c r="O35" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="P35" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="Q35">
         <v>20</v>
@@ -6587,16 +6724,16 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="AG35" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH35" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI35" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AJ35">
         <v>9</v>
@@ -6605,7 +6742,7 @@
         <v>1</v>
       </c>
       <c r="AL35" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="AM35">
         <v>271</v>
@@ -6652,16 +6789,16 @@
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C36" s="1">
         <v>45557</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="E36" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F36">
         <v>5</v>
@@ -6670,7 +6807,7 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -6679,7 +6816,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L36">
         <v>2.3199999999999998</v>
@@ -6691,10 +6828,10 @@
         <v>2.94</v>
       </c>
       <c r="O36" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="P36" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="Q36">
         <v>16</v>
@@ -6742,16 +6879,16 @@
         <v>16</v>
       </c>
       <c r="AF36" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="AG36" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH36" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI36" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AJ36">
         <v>4</v>
@@ -6760,7 +6897,7 @@
         <v>0</v>
       </c>
       <c r="AL36" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="AM36">
         <v>332</v>
@@ -6807,16 +6944,16 @@
         <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C37" s="1">
         <v>45557</v>
       </c>
       <c r="D37" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -6825,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -6834,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L37">
         <v>5.19</v>
@@ -6846,10 +6983,10 @@
         <v>1.64</v>
       </c>
       <c r="O37" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P37" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="Q37">
         <v>15</v>
@@ -6897,16 +7034,16 @@
         <v>15</v>
       </c>
       <c r="AF37" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="AG37" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AH37" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AI37" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AJ37">
         <v>3</v>
@@ -6915,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="AL37" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="AM37">
         <v>0</v>
@@ -6962,16 +7099,16 @@
         <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C38" s="1">
         <v>45562</v>
       </c>
       <c r="D38" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="E38" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="F38">
         <v>4</v>
@@ -6980,7 +7117,7 @@
         <v>2</v>
       </c>
       <c r="H38" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -6989,7 +7126,7 @@
         <v>2</v>
       </c>
       <c r="K38" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="L38">
         <v>1.24</v>
@@ -7001,10 +7138,10 @@
         <v>11.22</v>
       </c>
       <c r="O38" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="P38" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="Q38">
         <v>23</v>
@@ -7052,16 +7189,16 @@
         <v>21</v>
       </c>
       <c r="AF38" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="AG38" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH38" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI38" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AJ38">
         <v>2</v>
@@ -7070,7 +7207,7 @@
         <v>0</v>
       </c>
       <c r="AL38" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="AM38">
         <v>299</v>
@@ -7117,16 +7254,16 @@
         <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C39" s="1">
         <v>45563</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -7135,7 +7272,7 @@
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -7144,7 +7281,7 @@
         <v>2</v>
       </c>
       <c r="K39" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="L39">
         <v>1.62</v>
@@ -7156,10 +7293,10 @@
         <v>5.59</v>
       </c>
       <c r="O39" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="P39" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -7207,16 +7344,16 @@
         <v>25</v>
       </c>
       <c r="AF39" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="AG39" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH39" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI39" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AJ39">
         <v>6</v>
@@ -7225,7 +7362,7 @@
         <v>0</v>
       </c>
       <c r="AL39" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="AM39">
         <v>129</v>
@@ -7272,16 +7409,16 @@
         <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C40" s="1">
         <v>45563</v>
       </c>
       <c r="D40" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="E40" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -7290,7 +7427,7 @@
         <v>2</v>
       </c>
       <c r="H40" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -7299,7 +7436,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="L40">
         <v>1.86</v>
@@ -7311,10 +7448,10 @@
         <v>4.21</v>
       </c>
       <c r="O40" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="P40" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -7362,16 +7499,16 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="AG40" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH40" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AI40" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AJ40">
         <v>8</v>
@@ -7380,7 +7517,7 @@
         <v>2</v>
       </c>
       <c r="AL40" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="AM40">
         <v>101</v>
@@ -7427,16 +7564,16 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C41" s="1">
         <v>45563</v>
       </c>
       <c r="D41" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E41" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -7445,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -7454,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L41">
         <v>2.13</v>
@@ -7466,10 +7603,10 @@
         <v>3.54</v>
       </c>
       <c r="O41" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P41" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -7517,16 +7654,16 @@
         <v>22</v>
       </c>
       <c r="AF41" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="AG41" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AH41" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AI41" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AJ41">
         <v>4</v>
@@ -7535,7 +7672,7 @@
         <v>0</v>
       </c>
       <c r="AL41" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="AM41">
         <v>90</v>
@@ -7582,16 +7719,16 @@
         <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C42" s="1">
         <v>45563</v>
       </c>
       <c r="D42" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="E42" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F42">
         <v>4</v>
@@ -7600,7 +7737,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I42">
         <v>2</v>
@@ -7609,7 +7746,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L42">
         <v>1.4</v>
@@ -7621,10 +7758,10 @@
         <v>7.14</v>
       </c>
       <c r="O42" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="P42" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="Q42">
         <v>14</v>
@@ -7672,16 +7809,16 @@
         <v>22</v>
       </c>
       <c r="AF42" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="AG42" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH42" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI42" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AJ42">
         <v>3</v>
@@ -7690,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="AL42" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="AM42">
         <v>129</v>
@@ -7737,16 +7874,16 @@
         <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C43" s="1">
         <v>45563</v>
       </c>
       <c r="D43" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="E43" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -7755,7 +7892,7 @@
         <v>2</v>
       </c>
       <c r="H43" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -7764,7 +7901,7 @@
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L43">
         <v>3.35</v>
@@ -7776,10 +7913,10 @@
         <v>2.09</v>
       </c>
       <c r="O43" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="P43" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -7827,16 +7964,16 @@
         <v>30</v>
       </c>
       <c r="AF43" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="AG43" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH43" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI43" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AJ43">
         <v>7</v>
@@ -7845,7 +7982,7 @@
         <v>1</v>
       </c>
       <c r="AL43" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="AM43">
         <v>210</v>
@@ -7892,16 +8029,16 @@
         <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C44" s="1">
         <v>45563</v>
       </c>
       <c r="D44" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E44" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -7910,7 +8047,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -7919,7 +8056,7 @@
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L44">
         <v>1.74</v>
@@ -7931,10 +8068,10 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="O44" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="P44" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="Q44">
         <v>18</v>
@@ -7982,16 +8119,16 @@
         <v>26</v>
       </c>
       <c r="AF44" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="AG44" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH44" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AI44" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AJ44">
         <v>4</v>
@@ -8000,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="AL44" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="AM44">
         <v>70</v>
@@ -8047,16 +8184,16 @@
         <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C45" s="1">
         <v>45564</v>
       </c>
       <c r="D45" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="E45" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="F45">
         <v>2</v>
@@ -8065,7 +8202,7 @@
         <v>4</v>
       </c>
       <c r="H45" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -8074,7 +8211,7 @@
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L45">
         <v>4.5</v>
@@ -8086,10 +8223,10 @@
         <v>1.73</v>
       </c>
       <c r="O45" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="P45" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="Q45">
         <v>10</v>
@@ -8137,16 +8274,16 @@
         <v>25</v>
       </c>
       <c r="AF45" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="AG45" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH45" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI45" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AJ45">
         <v>4</v>
@@ -8155,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="AL45" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="AM45">
         <v>291</v>
@@ -8202,16 +8339,16 @@
         <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C46" s="1">
         <v>45564</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E46" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="F46">
         <v>3</v>
@@ -8220,7 +8357,7 @@
         <v>4</v>
       </c>
       <c r="H46" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="I46">
         <v>3</v>
@@ -8229,7 +8366,7 @@
         <v>3</v>
       </c>
       <c r="K46" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L46">
         <v>2.4</v>
@@ -8241,10 +8378,10 @@
         <v>2.84</v>
       </c>
       <c r="O46" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="P46" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="Q46">
         <v>10</v>
@@ -8292,16 +8429,16 @@
         <v>31</v>
       </c>
       <c r="AF46" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="AG46" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH46" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI46" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AJ46">
         <v>6</v>
@@ -8310,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="AL46" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="AM46">
         <v>160</v>
@@ -8357,16 +8494,16 @@
         <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C47" s="1">
         <v>45569</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="E47" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -8375,7 +8512,7 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -8384,7 +8521,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L47">
         <v>2.46</v>
@@ -8396,10 +8533,10 @@
         <v>2.81</v>
       </c>
       <c r="O47" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="P47" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="Q47">
         <v>13</v>
@@ -8447,16 +8584,16 @@
         <v>28</v>
       </c>
       <c r="AF47" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="AG47" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH47" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI47" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AJ47">
         <v>6</v>
@@ -8465,7 +8602,7 @@
         <v>0</v>
       </c>
       <c r="AL47" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="AM47">
         <v>176</v>
@@ -8512,16 +8649,16 @@
         <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C48" s="1">
         <v>45570</v>
       </c>
       <c r="D48" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E48" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -8530,7 +8667,7 @@
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -8539,7 +8676,7 @@
         <v>2</v>
       </c>
       <c r="K48" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="L48">
         <v>3.07</v>
@@ -8551,10 +8688,10 @@
         <v>2.25</v>
       </c>
       <c r="O48" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="P48" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="Q48">
         <v>17</v>
@@ -8602,16 +8739,16 @@
         <v>23</v>
       </c>
       <c r="AF48" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="AG48" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH48" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI48" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AJ48">
         <v>3</v>
@@ -8620,7 +8757,7 @@
         <v>0</v>
       </c>
       <c r="AL48" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="AM48">
         <v>218</v>
@@ -8667,16 +8804,16 @@
         <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C49" s="1">
         <v>45570</v>
       </c>
       <c r="D49" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="E49" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -8685,7 +8822,7 @@
         <v>2</v>
       </c>
       <c r="H49" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I49">
         <v>2</v>
@@ -8694,7 +8831,7 @@
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L49">
         <v>1.08</v>
@@ -8706,10 +8843,10 @@
         <v>25.93</v>
       </c>
       <c r="O49" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="P49" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="Q49">
         <v>24</v>
@@ -8757,16 +8894,16 @@
         <v>14</v>
       </c>
       <c r="AF49" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="AG49" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH49" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI49" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AJ49">
         <v>4</v>
@@ -8775,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="AL49" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="AM49">
         <v>126</v>
@@ -8822,16 +8959,16 @@
         <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C50" s="1">
         <v>45570</v>
       </c>
       <c r="D50" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="E50" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F50">
         <v>2</v>
@@ -8840,7 +8977,7 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I50">
         <v>2</v>
@@ -8849,7 +8986,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L50">
         <v>3.43</v>
@@ -8861,10 +8998,10 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="O50" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="P50" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="Q50">
         <v>13</v>
@@ -8912,16 +9049,16 @@
         <v>32</v>
       </c>
       <c r="AF50" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="AG50" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH50" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI50" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AJ50">
         <v>8</v>
@@ -8930,7 +9067,7 @@
         <v>0</v>
       </c>
       <c r="AL50" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="AM50">
         <v>133</v>
@@ -8977,16 +9114,16 @@
         <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C51" s="1">
         <v>45570</v>
       </c>
       <c r="D51" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E51" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -8995,7 +9132,7 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -9004,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L51">
         <v>2.67</v>
@@ -9016,10 +9153,10 @@
         <v>2.62</v>
       </c>
       <c r="O51" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P51" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="Q51">
         <v>11</v>
@@ -9067,16 +9204,16 @@
         <v>16</v>
       </c>
       <c r="AF51" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="AG51" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AH51" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AI51" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AJ51">
         <v>3</v>
@@ -9085,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="AL51" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="AM51">
         <v>75</v>
@@ -9132,16 +9269,16 @@
         <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C52" s="1">
         <v>45570</v>
       </c>
       <c r="D52" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="E52" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -9150,7 +9287,7 @@
         <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -9159,7 +9296,7 @@
         <v>2</v>
       </c>
       <c r="K52" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="L52">
         <v>2.46</v>
@@ -9171,10 +9308,10 @@
         <v>2.99</v>
       </c>
       <c r="O52" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="P52" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="Q52">
         <v>17</v>
@@ -9222,16 +9359,16 @@
         <v>28</v>
       </c>
       <c r="AF52" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="AG52" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH52" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI52" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AJ52">
         <v>3</v>
@@ -9240,7 +9377,7 @@
         <v>0</v>
       </c>
       <c r="AL52" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="AM52">
         <v>83</v>
@@ -9287,16 +9424,16 @@
         <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C53" s="1">
         <v>45571</v>
       </c>
       <c r="D53" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E53" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -9305,7 +9442,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -9314,7 +9451,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L53">
         <v>4.7699999999999996</v>
@@ -9326,10 +9463,10 @@
         <v>1.7</v>
       </c>
       <c r="O53" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P53" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="Q53">
         <v>15</v>
@@ -9377,16 +9514,16 @@
         <v>25</v>
       </c>
       <c r="AF53" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="AG53" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AH53" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AI53" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AJ53">
         <v>4</v>
@@ -9395,7 +9532,7 @@
         <v>0</v>
       </c>
       <c r="AL53" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="AM53">
         <v>59</v>
@@ -9442,16 +9579,16 @@
         <v>102</v>
       </c>
       <c r="B54" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C54" s="1">
         <v>45571</v>
       </c>
       <c r="D54" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="E54" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F54">
         <v>3</v>
@@ -9460,7 +9597,7 @@
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I54">
         <v>2</v>
@@ -9469,7 +9606,7 @@
         <v>2</v>
       </c>
       <c r="K54" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L54">
         <v>5.72</v>
@@ -9481,10 +9618,10 @@
         <v>1.52</v>
       </c>
       <c r="O54" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="P54" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -9532,16 +9669,16 @@
         <v>16</v>
       </c>
       <c r="AF54" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AG54" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH54" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI54" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AJ54">
         <v>2</v>
@@ -9550,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="AL54" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="AM54">
         <v>253</v>
@@ -9597,16 +9734,16 @@
         <v>103</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C55" s="1">
         <v>45571</v>
       </c>
       <c r="D55" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="E55" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -9615,7 +9752,7 @@
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -9624,7 +9761,7 @@
         <v>1</v>
       </c>
       <c r="K55" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="L55">
         <v>1.3</v>
@@ -9636,10 +9773,10 @@
         <v>8.25</v>
       </c>
       <c r="O55" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="P55" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="Q55">
         <v>18</v>
@@ -9687,16 +9824,16 @@
         <v>17</v>
       </c>
       <c r="AF55" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="AG55" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH55" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AI55" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AJ55">
         <v>5</v>
@@ -9705,7 +9842,7 @@
         <v>0</v>
       </c>
       <c r="AL55" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="AM55">
         <v>135</v>
@@ -9752,16 +9889,16 @@
         <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C56" s="1">
         <v>45583</v>
       </c>
       <c r="D56" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="E56" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F56">
         <v>2</v>
@@ -9770,7 +9907,7 @@
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -9779,7 +9916,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L56">
         <v>1.31</v>
@@ -9791,10 +9928,10 @@
         <v>10.18</v>
       </c>
       <c r="O56" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="P56" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="Q56">
         <v>20</v>
@@ -9842,16 +9979,16 @@
         <v>15</v>
       </c>
       <c r="AF56" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="AG56" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH56" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI56" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AJ56">
         <v>3</v>
@@ -9860,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="AL56" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="AM56">
         <v>204</v>
@@ -9884,22 +10021,18 @@
         <v>240</v>
       </c>
       <c r="AT56">
-        <f>AO56*AP56</f>
         <v>660</v>
       </c>
       <c r="AU56">
         <v>24</v>
       </c>
       <c r="AV56">
-        <f>AN56*AO56</f>
         <v>66</v>
       </c>
       <c r="AW56">
-        <f>AO56*AD56</f>
         <v>176</v>
       </c>
       <c r="AX56">
-        <f>AM56*AD56</f>
         <v>1632</v>
       </c>
       <c r="AY56">
@@ -9911,16 +10044,16 @@
         <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C57" s="1">
         <v>45584</v>
       </c>
       <c r="D57" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="E57" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F57">
         <v>3</v>
@@ -9929,7 +10062,7 @@
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I57">
         <v>3</v>
@@ -9938,7 +10071,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L57">
         <v>1.74</v>
@@ -9950,10 +10083,10 @@
         <v>4.93</v>
       </c>
       <c r="O57" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="P57" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="Q57">
         <v>15</v>
@@ -10001,16 +10134,16 @@
         <v>18</v>
       </c>
       <c r="AF57" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="AG57" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH57" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI57" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AJ57">
         <v>2</v>
@@ -10019,7 +10152,7 @@
         <v>0</v>
       </c>
       <c r="AL57" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="AM57">
         <v>181</v>
@@ -10043,22 +10176,18 @@
         <v>180</v>
       </c>
       <c r="AT57">
-        <f t="shared" ref="AT57:AT64" si="0">AO57*AP57</f>
         <v>1720</v>
       </c>
       <c r="AU57">
         <v>36</v>
       </c>
       <c r="AV57">
-        <f t="shared" ref="AV57:AV64" si="1">AN57*AO57</f>
         <v>344</v>
       </c>
       <c r="AW57">
-        <f t="shared" ref="AW57:AW64" si="2">AO57*AD57</f>
         <v>774</v>
       </c>
       <c r="AX57">
-        <f t="shared" ref="AX57:AX64" si="3">AM57*AD57</f>
         <v>1629</v>
       </c>
       <c r="AY57">
@@ -10070,16 +10199,16 @@
         <v>106</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C58" s="1">
         <v>45584</v>
       </c>
       <c r="D58" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E58" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="F58">
         <v>3</v>
@@ -10088,7 +10217,7 @@
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -10097,7 +10226,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L58">
         <v>1.7</v>
@@ -10109,10 +10238,10 @@
         <v>4.45</v>
       </c>
       <c r="O58" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="P58" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="Q58">
         <v>12</v>
@@ -10160,16 +10289,16 @@
         <v>22</v>
       </c>
       <c r="AF58" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="AG58" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH58" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI58" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AJ58">
         <v>2</v>
@@ -10178,7 +10307,7 @@
         <v>0</v>
       </c>
       <c r="AL58" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="AM58">
         <v>241</v>
@@ -10202,22 +10331,18 @@
         <v>120</v>
       </c>
       <c r="AT58">
-        <f t="shared" si="0"/>
         <v>1520</v>
       </c>
       <c r="AU58">
         <v>24</v>
       </c>
       <c r="AV58">
-        <f t="shared" si="1"/>
         <v>304</v>
       </c>
       <c r="AW58">
-        <f t="shared" si="2"/>
         <v>456</v>
       </c>
       <c r="AX58">
-        <f t="shared" si="3"/>
         <v>1446</v>
       </c>
       <c r="AY58">
@@ -10229,16 +10354,16 @@
         <v>107</v>
       </c>
       <c r="B59" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C59" s="1">
         <v>45584</v>
       </c>
       <c r="D59" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="E59" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="F59">
         <v>2</v>
@@ -10247,7 +10372,7 @@
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -10256,7 +10381,7 @@
         <v>1</v>
       </c>
       <c r="K59" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L59">
         <v>1.45</v>
@@ -10268,10 +10393,10 @@
         <v>6.35</v>
       </c>
       <c r="O59" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="P59" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="Q59">
         <v>27</v>
@@ -10319,16 +10444,16 @@
         <v>14</v>
       </c>
       <c r="AF59" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="AG59" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH59" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI59" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AJ59">
         <v>3</v>
@@ -10337,7 +10462,7 @@
         <v>0</v>
       </c>
       <c r="AL59" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="AM59">
         <v>113</v>
@@ -10361,22 +10486,18 @@
         <v>330</v>
       </c>
       <c r="AT59">
-        <f t="shared" si="0"/>
         <v>1110</v>
       </c>
       <c r="AU59">
         <v>33</v>
       </c>
       <c r="AV59">
-        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="AW59">
-        <f t="shared" si="2"/>
         <v>407</v>
       </c>
       <c r="AX59">
-        <f t="shared" si="3"/>
         <v>1243</v>
       </c>
       <c r="AY59">
@@ -10388,16 +10509,16 @@
         <v>108</v>
       </c>
       <c r="B60" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C60" s="1">
         <v>45584</v>
       </c>
       <c r="D60" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -10406,7 +10527,7 @@
         <v>2</v>
       </c>
       <c r="H60" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -10415,7 +10536,7 @@
         <v>2</v>
       </c>
       <c r="K60" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="L60">
         <v>4.2699999999999996</v>
@@ -10427,10 +10548,10 @@
         <v>1.88</v>
       </c>
       <c r="O60" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="P60" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="Q60">
         <v>16</v>
@@ -10478,16 +10599,16 @@
         <v>27</v>
       </c>
       <c r="AF60" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="AG60" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH60" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AI60" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AJ60">
         <v>4</v>
@@ -10496,7 +10617,7 @@
         <v>0</v>
       </c>
       <c r="AL60" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="AM60">
         <v>57</v>
@@ -10520,22 +10641,18 @@
         <v>320</v>
       </c>
       <c r="AT60">
-        <f t="shared" si="0"/>
         <v>560</v>
       </c>
       <c r="AU60">
         <v>16</v>
       </c>
       <c r="AV60">
-        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="AW60">
-        <f t="shared" si="2"/>
         <v>112</v>
       </c>
       <c r="AX60">
-        <f t="shared" si="3"/>
         <v>456</v>
       </c>
       <c r="AY60">
@@ -10547,16 +10664,16 @@
         <v>109</v>
       </c>
       <c r="B61" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C61" s="1">
         <v>45584</v>
       </c>
       <c r="D61" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E61" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="F61">
         <v>3</v>
@@ -10565,7 +10682,7 @@
         <v>2</v>
       </c>
       <c r="H61" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -10574,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="K61" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L61">
         <v>1.83</v>
@@ -10586,10 +10703,10 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="O61" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="P61" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="Q61">
         <v>20</v>
@@ -10637,16 +10754,16 @@
         <v>24</v>
       </c>
       <c r="AF61" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="AG61" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH61" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI61" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AJ61">
         <v>6</v>
@@ -10655,7 +10772,7 @@
         <v>0</v>
       </c>
       <c r="AL61" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="AM61">
         <v>251</v>
@@ -10679,22 +10796,18 @@
         <v>540</v>
       </c>
       <c r="AT61">
-        <f t="shared" si="0"/>
         <v>3060</v>
       </c>
       <c r="AU61">
         <v>45</v>
       </c>
       <c r="AV61">
-        <f t="shared" si="1"/>
         <v>255</v>
       </c>
       <c r="AW61">
-        <f t="shared" si="2"/>
         <v>459</v>
       </c>
       <c r="AX61">
-        <f t="shared" si="3"/>
         <v>2259</v>
       </c>
       <c r="AY61">
@@ -10706,16 +10819,16 @@
         <v>110</v>
       </c>
       <c r="B62" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C62" s="1">
         <v>45584</v>
       </c>
       <c r="D62" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E62" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="F62">
         <v>4</v>
@@ -10724,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -10733,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L62">
         <v>1.36</v>
@@ -10745,10 +10858,10 @@
         <v>7.55</v>
       </c>
       <c r="O62" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P62" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="Q62">
         <v>22</v>
@@ -10796,16 +10909,16 @@
         <v>16</v>
       </c>
       <c r="AF62" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AG62" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH62" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI62" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AJ62">
         <v>2</v>
@@ -10814,7 +10927,7 @@
         <v>0</v>
       </c>
       <c r="AL62" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="AM62">
         <v>286</v>
@@ -10838,22 +10951,18 @@
         <v>200</v>
       </c>
       <c r="AT62">
-        <f t="shared" si="0"/>
         <v>760</v>
       </c>
       <c r="AU62">
         <v>40</v>
       </c>
       <c r="AV62">
-        <f t="shared" si="1"/>
         <v>152</v>
       </c>
       <c r="AW62">
-        <f t="shared" si="2"/>
         <v>380</v>
       </c>
       <c r="AX62">
-        <f t="shared" si="3"/>
         <v>2860</v>
       </c>
       <c r="AY62">
@@ -10865,16 +10974,16 @@
         <v>111</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C63" s="1">
         <v>45585</v>
       </c>
       <c r="D63" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -10883,7 +10992,7 @@
         <v>2</v>
       </c>
       <c r="H63" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -10892,7 +11001,7 @@
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="L63">
         <v>3.48</v>
@@ -10904,10 +11013,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="O63" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="P63" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="Q63">
         <v>12</v>
@@ -10955,16 +11064,16 @@
         <v>19</v>
       </c>
       <c r="AF63" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AG63" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH63" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AI63" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AJ63">
         <v>3</v>
@@ -10973,7 +11082,7 @@
         <v>0</v>
       </c>
       <c r="AL63" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="AM63">
         <v>107</v>
@@ -10997,22 +11106,18 @@
         <v>300</v>
       </c>
       <c r="AT63">
-        <f t="shared" si="0"/>
         <v>1530</v>
       </c>
       <c r="AU63">
         <v>20</v>
       </c>
       <c r="AV63">
-        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="AW63">
-        <f t="shared" si="2"/>
         <v>510</v>
       </c>
       <c r="AX63">
-        <f t="shared" si="3"/>
         <v>1070</v>
       </c>
       <c r="AY63">
@@ -11024,16 +11129,16 @@
         <v>112</v>
       </c>
       <c r="B64" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C64" s="1">
         <v>45585</v>
       </c>
       <c r="D64" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="E64" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="F64">
         <v>2</v>
@@ -11042,7 +11147,7 @@
         <v>4</v>
       </c>
       <c r="H64" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -11051,7 +11156,7 @@
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L64">
         <v>2.09</v>
@@ -11063,10 +11168,10 @@
         <v>3.55</v>
       </c>
       <c r="O64" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="P64" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="Q64">
         <v>14</v>
@@ -11114,16 +11219,16 @@
         <v>24</v>
       </c>
       <c r="AF64" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AG64" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AH64" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AI64" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AJ64">
         <v>2</v>
@@ -11132,7 +11237,7 @@
         <v>1</v>
       </c>
       <c r="AL64" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="AM64">
         <v>333</v>
@@ -11156,26 +11261,2844 @@
         <v>360</v>
       </c>
       <c r="AT64">
-        <f t="shared" si="0"/>
         <v>4095</v>
       </c>
       <c r="AU64">
         <v>48</v>
       </c>
       <c r="AV64">
-        <f t="shared" si="1"/>
         <v>546</v>
       </c>
       <c r="AW64">
-        <f t="shared" si="2"/>
         <v>728</v>
       </c>
       <c r="AX64">
-        <f t="shared" si="3"/>
         <v>2664</v>
       </c>
       <c r="AY64">
         <v>2160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="1">
+        <v>45590</v>
+      </c>
+      <c r="D65" t="s">
+        <v>136</v>
+      </c>
+      <c r="E65" t="s">
+        <v>132</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>151</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>151</v>
+      </c>
+      <c r="L65">
+        <v>2.39</v>
+      </c>
+      <c r="M65">
+        <v>3.79</v>
+      </c>
+      <c r="N65">
+        <v>2.89</v>
+      </c>
+      <c r="O65" t="s">
+        <v>157</v>
+      </c>
+      <c r="P65" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q65">
+        <v>23</v>
+      </c>
+      <c r="R65">
+        <v>6</v>
+      </c>
+      <c r="S65">
+        <v>9</v>
+      </c>
+      <c r="T65">
+        <v>5</v>
+      </c>
+      <c r="U65">
+        <v>3</v>
+      </c>
+      <c r="V65">
+        <v>2</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>2</v>
+      </c>
+      <c r="Z65">
+        <v>4</v>
+      </c>
+      <c r="AA65">
+        <v>16</v>
+      </c>
+      <c r="AB65">
+        <v>16</v>
+      </c>
+      <c r="AC65">
+        <v>2</v>
+      </c>
+      <c r="AD65">
+        <v>6</v>
+      </c>
+      <c r="AE65">
+        <v>32</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ65">
+        <v>5</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>289</v>
+      </c>
+      <c r="AM65">
+        <v>112</v>
+      </c>
+      <c r="AN65">
+        <v>2</v>
+      </c>
+      <c r="AO65">
+        <v>33</v>
+      </c>
+      <c r="AP65">
+        <v>50</v>
+      </c>
+      <c r="AQ65">
+        <v>600</v>
+      </c>
+      <c r="AR65">
+        <v>100</v>
+      </c>
+      <c r="AS65">
+        <v>300</v>
+      </c>
+      <c r="AT65">
+        <v>1650</v>
+      </c>
+      <c r="AU65">
+        <v>12</v>
+      </c>
+      <c r="AV65">
+        <v>66</v>
+      </c>
+      <c r="AW65">
+        <v>198</v>
+      </c>
+      <c r="AX65">
+        <v>672</v>
+      </c>
+      <c r="AY65">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="66" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" s="1">
+        <v>45591</v>
+      </c>
+      <c r="D66" t="s">
+        <v>133</v>
+      </c>
+      <c r="E66" t="s">
+        <v>138</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>152</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66" t="s">
+        <v>151</v>
+      </c>
+      <c r="L66">
+        <v>3.83</v>
+      </c>
+      <c r="M66">
+        <v>3.92</v>
+      </c>
+      <c r="N66">
+        <v>1.93</v>
+      </c>
+      <c r="O66" t="s">
+        <v>155</v>
+      </c>
+      <c r="P66" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q66">
+        <v>12</v>
+      </c>
+      <c r="R66">
+        <v>4</v>
+      </c>
+      <c r="S66">
+        <v>11</v>
+      </c>
+      <c r="T66">
+        <v>4</v>
+      </c>
+      <c r="U66">
+        <v>3</v>
+      </c>
+      <c r="V66">
+        <v>3</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>1</v>
+      </c>
+      <c r="Y66">
+        <v>3</v>
+      </c>
+      <c r="Z66">
+        <v>5</v>
+      </c>
+      <c r="AA66">
+        <v>13</v>
+      </c>
+      <c r="AB66">
+        <v>10</v>
+      </c>
+      <c r="AC66">
+        <v>3</v>
+      </c>
+      <c r="AD66">
+        <v>8</v>
+      </c>
+      <c r="AE66">
+        <v>23</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ66">
+        <v>6</v>
+      </c>
+      <c r="AK66">
+        <v>1</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>290</v>
+      </c>
+      <c r="AM66">
+        <v>79</v>
+      </c>
+      <c r="AN66">
+        <v>3</v>
+      </c>
+      <c r="AO66">
+        <v>61</v>
+      </c>
+      <c r="AP66">
+        <v>85</v>
+      </c>
+      <c r="AQ66">
+        <v>1650</v>
+      </c>
+      <c r="AR66">
+        <v>255</v>
+      </c>
+      <c r="AS66">
+        <v>680</v>
+      </c>
+      <c r="AT66">
+        <v>5185</v>
+      </c>
+      <c r="AU66">
+        <v>24</v>
+      </c>
+      <c r="AV66">
+        <v>183</v>
+      </c>
+      <c r="AW66">
+        <v>488</v>
+      </c>
+      <c r="AX66">
+        <v>632</v>
+      </c>
+      <c r="AY66">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="67" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" s="1">
+        <v>45591</v>
+      </c>
+      <c r="D67" t="s">
+        <v>137</v>
+      </c>
+      <c r="E67" t="s">
+        <v>134</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>152</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" t="s">
+        <v>150</v>
+      </c>
+      <c r="L67">
+        <v>1.75</v>
+      </c>
+      <c r="M67">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="N67">
+        <v>4.55</v>
+      </c>
+      <c r="O67" t="s">
+        <v>158</v>
+      </c>
+      <c r="P67" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q67">
+        <v>12</v>
+      </c>
+      <c r="R67">
+        <v>9</v>
+      </c>
+      <c r="S67">
+        <v>15</v>
+      </c>
+      <c r="T67">
+        <v>5</v>
+      </c>
+      <c r="U67">
+        <v>3</v>
+      </c>
+      <c r="V67">
+        <v>2</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>3</v>
+      </c>
+      <c r="Z67">
+        <v>3</v>
+      </c>
+      <c r="AA67">
+        <v>9</v>
+      </c>
+      <c r="AB67">
+        <v>7</v>
+      </c>
+      <c r="AC67">
+        <v>4</v>
+      </c>
+      <c r="AD67">
+        <v>6</v>
+      </c>
+      <c r="AE67">
+        <v>16</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ67">
+        <v>5</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>291</v>
+      </c>
+      <c r="AM67">
+        <v>199</v>
+      </c>
+      <c r="AN67">
+        <v>4</v>
+      </c>
+      <c r="AO67">
+        <v>83</v>
+      </c>
+      <c r="AP67">
+        <v>50</v>
+      </c>
+      <c r="AQ67">
+        <v>600</v>
+      </c>
+      <c r="AR67">
+        <v>200</v>
+      </c>
+      <c r="AS67">
+        <v>300</v>
+      </c>
+      <c r="AT67">
+        <v>4150</v>
+      </c>
+      <c r="AU67">
+        <v>24</v>
+      </c>
+      <c r="AV67">
+        <v>332</v>
+      </c>
+      <c r="AW67">
+        <v>498</v>
+      </c>
+      <c r="AX67">
+        <v>1194</v>
+      </c>
+      <c r="AY67">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" s="1">
+        <v>45591</v>
+      </c>
+      <c r="D68" t="s">
+        <v>140</v>
+      </c>
+      <c r="E68" t="s">
+        <v>139</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>151</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>151</v>
+      </c>
+      <c r="L68">
+        <v>2.66</v>
+      </c>
+      <c r="M68">
+        <v>3.47</v>
+      </c>
+      <c r="N68">
+        <v>2.71</v>
+      </c>
+      <c r="O68" t="s">
+        <v>157</v>
+      </c>
+      <c r="P68" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q68">
+        <v>14</v>
+      </c>
+      <c r="R68">
+        <v>5</v>
+      </c>
+      <c r="S68">
+        <v>10</v>
+      </c>
+      <c r="T68">
+        <v>4</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>3</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>7</v>
+      </c>
+      <c r="Z68">
+        <v>6</v>
+      </c>
+      <c r="AA68">
+        <v>9</v>
+      </c>
+      <c r="AB68">
+        <v>12</v>
+      </c>
+      <c r="AC68">
+        <v>0</v>
+      </c>
+      <c r="AD68">
+        <v>13</v>
+      </c>
+      <c r="AE68">
+        <v>21</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ68">
+        <v>3</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>292</v>
+      </c>
+      <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <v>0</v>
+      </c>
+      <c r="AO68">
+        <v>0</v>
+      </c>
+      <c r="AP68">
+        <v>30</v>
+      </c>
+      <c r="AQ68">
+        <v>0</v>
+      </c>
+      <c r="AR68">
+        <v>0</v>
+      </c>
+      <c r="AS68">
+        <v>390</v>
+      </c>
+      <c r="AT68">
+        <v>0</v>
+      </c>
+      <c r="AU68">
+        <v>0</v>
+      </c>
+      <c r="AV68">
+        <v>0</v>
+      </c>
+      <c r="AW68">
+        <v>0</v>
+      </c>
+      <c r="AX68">
+        <v>0</v>
+      </c>
+      <c r="AY68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" s="1">
+        <v>45591</v>
+      </c>
+      <c r="D69" t="s">
+        <v>145</v>
+      </c>
+      <c r="E69" t="s">
+        <v>144</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>152</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69" t="s">
+        <v>152</v>
+      </c>
+      <c r="L69">
+        <v>1.23</v>
+      </c>
+      <c r="M69">
+        <v>7.21</v>
+      </c>
+      <c r="N69">
+        <v>11.08</v>
+      </c>
+      <c r="O69" t="s">
+        <v>159</v>
+      </c>
+      <c r="P69" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q69">
+        <v>16</v>
+      </c>
+      <c r="R69">
+        <v>6</v>
+      </c>
+      <c r="S69">
+        <v>9</v>
+      </c>
+      <c r="T69">
+        <v>3</v>
+      </c>
+      <c r="U69">
+        <v>3</v>
+      </c>
+      <c r="V69">
+        <v>6</v>
+      </c>
+      <c r="W69">
+        <v>1</v>
+      </c>
+      <c r="X69">
+        <v>1</v>
+      </c>
+      <c r="Y69">
+        <v>9</v>
+      </c>
+      <c r="Z69">
+        <v>5</v>
+      </c>
+      <c r="AA69">
+        <v>6</v>
+      </c>
+      <c r="AB69">
+        <v>17</v>
+      </c>
+      <c r="AC69">
+        <v>3</v>
+      </c>
+      <c r="AD69">
+        <v>14</v>
+      </c>
+      <c r="AE69">
+        <v>23</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ69">
+        <v>9</v>
+      </c>
+      <c r="AK69">
+        <v>2</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM69">
+        <v>164</v>
+      </c>
+      <c r="AN69">
+        <v>3</v>
+      </c>
+      <c r="AO69">
+        <v>73</v>
+      </c>
+      <c r="AP69">
+        <v>140</v>
+      </c>
+      <c r="AQ69">
+        <v>4675</v>
+      </c>
+      <c r="AR69">
+        <v>420</v>
+      </c>
+      <c r="AS69">
+        <v>1960</v>
+      </c>
+      <c r="AT69">
+        <v>10220</v>
+      </c>
+      <c r="AU69">
+        <v>42</v>
+      </c>
+      <c r="AV69">
+        <v>219</v>
+      </c>
+      <c r="AW69">
+        <v>1022</v>
+      </c>
+      <c r="AX69">
+        <v>2296</v>
+      </c>
+      <c r="AY69">
+        <v>5880</v>
+      </c>
+    </row>
+    <row r="70" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>118</v>
+      </c>
+      <c r="B70" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" s="1">
+        <v>45591</v>
+      </c>
+      <c r="D70" t="s">
+        <v>146</v>
+      </c>
+      <c r="E70" t="s">
+        <v>147</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70" t="s">
+        <v>151</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" t="s">
+        <v>150</v>
+      </c>
+      <c r="L70">
+        <v>5.84</v>
+      </c>
+      <c r="M70">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="N70">
+        <v>1.51</v>
+      </c>
+      <c r="O70" t="s">
+        <v>158</v>
+      </c>
+      <c r="P70" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q70">
+        <v>13</v>
+      </c>
+      <c r="R70">
+        <v>8</v>
+      </c>
+      <c r="S70">
+        <v>15</v>
+      </c>
+      <c r="T70">
+        <v>6</v>
+      </c>
+      <c r="U70">
+        <v>1</v>
+      </c>
+      <c r="V70">
+        <v>1</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>3</v>
+      </c>
+      <c r="Z70">
+        <v>5</v>
+      </c>
+      <c r="AA70">
+        <v>9</v>
+      </c>
+      <c r="AB70">
+        <v>11</v>
+      </c>
+      <c r="AC70">
+        <v>4</v>
+      </c>
+      <c r="AD70">
+        <v>8</v>
+      </c>
+      <c r="AE70">
+        <v>20</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ70">
+        <v>2</v>
+      </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>294</v>
+      </c>
+      <c r="AM70">
+        <v>271</v>
+      </c>
+      <c r="AN70">
+        <v>4</v>
+      </c>
+      <c r="AO70">
+        <v>76</v>
+      </c>
+      <c r="AP70">
+        <v>20</v>
+      </c>
+      <c r="AQ70">
+        <v>100</v>
+      </c>
+      <c r="AR70">
+        <v>80</v>
+      </c>
+      <c r="AS70">
+        <v>160</v>
+      </c>
+      <c r="AT70">
+        <v>1520</v>
+      </c>
+      <c r="AU70">
+        <v>32</v>
+      </c>
+      <c r="AV70">
+        <v>304</v>
+      </c>
+      <c r="AW70">
+        <v>608</v>
+      </c>
+      <c r="AX70">
+        <v>2168</v>
+      </c>
+      <c r="AY70">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="71" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" s="1">
+        <v>45592</v>
+      </c>
+      <c r="D71" t="s">
+        <v>142</v>
+      </c>
+      <c r="E71" t="s">
+        <v>149</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>5</v>
+      </c>
+      <c r="H71" t="s">
+        <v>150</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>2</v>
+      </c>
+      <c r="K71" t="s">
+        <v>150</v>
+      </c>
+      <c r="L71">
+        <v>14.33</v>
+      </c>
+      <c r="M71">
+        <v>9.86</v>
+      </c>
+      <c r="N71">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="O71" t="s">
+        <v>153</v>
+      </c>
+      <c r="P71" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q71">
+        <v>6</v>
+      </c>
+      <c r="R71">
+        <v>2</v>
+      </c>
+      <c r="S71">
+        <v>17</v>
+      </c>
+      <c r="T71">
+        <v>9</v>
+      </c>
+      <c r="U71">
+        <v>1</v>
+      </c>
+      <c r="V71">
+        <v>1</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>2</v>
+      </c>
+      <c r="Z71">
+        <v>5</v>
+      </c>
+      <c r="AA71">
+        <v>15</v>
+      </c>
+      <c r="AB71">
+        <v>6</v>
+      </c>
+      <c r="AC71">
+        <v>5</v>
+      </c>
+      <c r="AD71">
+        <v>7</v>
+      </c>
+      <c r="AE71">
+        <v>21</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ71">
+        <v>2</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM71">
+        <v>235</v>
+      </c>
+      <c r="AN71">
+        <v>5</v>
+      </c>
+      <c r="AO71">
+        <v>89</v>
+      </c>
+      <c r="AP71">
+        <v>20</v>
+      </c>
+      <c r="AQ71">
+        <v>100</v>
+      </c>
+      <c r="AR71">
+        <v>100</v>
+      </c>
+      <c r="AS71">
+        <v>140</v>
+      </c>
+      <c r="AT71">
+        <v>1780</v>
+      </c>
+      <c r="AU71">
+        <v>35</v>
+      </c>
+      <c r="AV71">
+        <v>445</v>
+      </c>
+      <c r="AW71">
+        <v>623</v>
+      </c>
+      <c r="AX71">
+        <v>1645</v>
+      </c>
+      <c r="AY71">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="72" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" t="s">
+        <v>131</v>
+      </c>
+      <c r="C72" s="1">
+        <v>45592</v>
+      </c>
+      <c r="D72" t="s">
+        <v>141</v>
+      </c>
+      <c r="E72" t="s">
+        <v>143</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>151</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72" t="s">
+        <v>150</v>
+      </c>
+      <c r="L72">
+        <v>2.63</v>
+      </c>
+      <c r="M72">
+        <v>3.32</v>
+      </c>
+      <c r="N72">
+        <v>2.84</v>
+      </c>
+      <c r="O72" t="s">
+        <v>158</v>
+      </c>
+      <c r="P72" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q72">
+        <v>13</v>
+      </c>
+      <c r="R72">
+        <v>4</v>
+      </c>
+      <c r="S72">
+        <v>17</v>
+      </c>
+      <c r="T72">
+        <v>5</v>
+      </c>
+      <c r="U72">
+        <v>5</v>
+      </c>
+      <c r="V72">
+        <v>3</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>1</v>
+      </c>
+      <c r="Y72">
+        <v>4</v>
+      </c>
+      <c r="Z72">
+        <v>5</v>
+      </c>
+      <c r="AA72">
+        <v>13</v>
+      </c>
+      <c r="AB72">
+        <v>7</v>
+      </c>
+      <c r="AC72">
+        <v>2</v>
+      </c>
+      <c r="AD72">
+        <v>9</v>
+      </c>
+      <c r="AE72">
+        <v>20</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ72">
+        <v>8</v>
+      </c>
+      <c r="AK72">
+        <v>1</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>296</v>
+      </c>
+      <c r="AM72">
+        <v>80</v>
+      </c>
+      <c r="AN72">
+        <v>2</v>
+      </c>
+      <c r="AO72">
+        <v>43</v>
+      </c>
+      <c r="AP72">
+        <v>105</v>
+      </c>
+      <c r="AQ72">
+        <v>2750</v>
+      </c>
+      <c r="AR72">
+        <v>210</v>
+      </c>
+      <c r="AS72">
+        <v>945</v>
+      </c>
+      <c r="AT72">
+        <v>4515</v>
+      </c>
+      <c r="AU72">
+        <v>18</v>
+      </c>
+      <c r="AV72">
+        <v>86</v>
+      </c>
+      <c r="AW72">
+        <v>387</v>
+      </c>
+      <c r="AX72">
+        <v>720</v>
+      </c>
+      <c r="AY72">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="73" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73" s="1">
+        <v>45592</v>
+      </c>
+      <c r="D73" t="s">
+        <v>148</v>
+      </c>
+      <c r="E73" t="s">
+        <v>135</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>151</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73" t="s">
+        <v>151</v>
+      </c>
+      <c r="L73">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="M73">
+        <v>3.68</v>
+      </c>
+      <c r="N73">
+        <v>3.03</v>
+      </c>
+      <c r="O73" t="s">
+        <v>157</v>
+      </c>
+      <c r="P73" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q73">
+        <v>17</v>
+      </c>
+      <c r="R73">
+        <v>3</v>
+      </c>
+      <c r="S73">
+        <v>12</v>
+      </c>
+      <c r="T73">
+        <v>4</v>
+      </c>
+      <c r="U73">
+        <v>1</v>
+      </c>
+      <c r="V73">
+        <v>2</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>7</v>
+      </c>
+      <c r="Z73">
+        <v>3</v>
+      </c>
+      <c r="AA73">
+        <v>12</v>
+      </c>
+      <c r="AB73">
+        <v>16</v>
+      </c>
+      <c r="AC73">
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <v>10</v>
+      </c>
+      <c r="AE73">
+        <v>28</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ73">
+        <v>3</v>
+      </c>
+      <c r="AK73">
+        <v>0</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>297</v>
+      </c>
+      <c r="AM73">
+        <v>0</v>
+      </c>
+      <c r="AN73">
+        <v>0</v>
+      </c>
+      <c r="AO73">
+        <v>0</v>
+      </c>
+      <c r="AP73">
+        <v>30</v>
+      </c>
+      <c r="AQ73">
+        <v>200</v>
+      </c>
+      <c r="AR73">
+        <v>0</v>
+      </c>
+      <c r="AS73">
+        <v>300</v>
+      </c>
+      <c r="AT73">
+        <v>0</v>
+      </c>
+      <c r="AU73">
+        <v>0</v>
+      </c>
+      <c r="AV73">
+        <v>0</v>
+      </c>
+      <c r="AW73">
+        <v>0</v>
+      </c>
+      <c r="AX73">
+        <v>0</v>
+      </c>
+      <c r="AY73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" s="1">
+        <v>45597</v>
+      </c>
+      <c r="D74" t="s">
+        <v>147</v>
+      </c>
+      <c r="E74" t="s">
+        <v>145</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>151</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74" t="s">
+        <v>151</v>
+      </c>
+      <c r="L74">
+        <v>1.57</v>
+      </c>
+      <c r="M74">
+        <v>4.87</v>
+      </c>
+      <c r="N74">
+        <v>5.29</v>
+      </c>
+      <c r="O74" t="s">
+        <v>157</v>
+      </c>
+      <c r="P74" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q74">
+        <v>19</v>
+      </c>
+      <c r="R74">
+        <v>5</v>
+      </c>
+      <c r="S74">
+        <v>4</v>
+      </c>
+      <c r="T74">
+        <v>1</v>
+      </c>
+      <c r="U74">
+        <v>3</v>
+      </c>
+      <c r="V74">
+        <v>4</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>10</v>
+      </c>
+      <c r="Z74">
+        <v>2</v>
+      </c>
+      <c r="AA74">
+        <v>13</v>
+      </c>
+      <c r="AB74">
+        <v>14</v>
+      </c>
+      <c r="AC74">
+        <v>0</v>
+      </c>
+      <c r="AD74">
+        <v>12</v>
+      </c>
+      <c r="AE74">
+        <v>27</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ74">
+        <v>7</v>
+      </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM74">
+        <v>0</v>
+      </c>
+      <c r="AN74">
+        <v>0</v>
+      </c>
+      <c r="AO74">
+        <v>0</v>
+      </c>
+      <c r="AP74">
+        <v>70</v>
+      </c>
+      <c r="AQ74">
+        <v>1200</v>
+      </c>
+      <c r="AR74">
+        <v>0</v>
+      </c>
+      <c r="AS74">
+        <v>840</v>
+      </c>
+      <c r="AT74">
+        <v>0</v>
+      </c>
+      <c r="AU74">
+        <v>0</v>
+      </c>
+      <c r="AV74">
+        <v>0</v>
+      </c>
+      <c r="AW74">
+        <v>0</v>
+      </c>
+      <c r="AX74">
+        <v>0</v>
+      </c>
+      <c r="AY74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" t="s">
+        <v>131</v>
+      </c>
+      <c r="C75" s="1">
+        <v>45598</v>
+      </c>
+      <c r="D75" t="s">
+        <v>149</v>
+      </c>
+      <c r="E75" t="s">
+        <v>141</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>152</v>
+      </c>
+      <c r="I75">
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>152</v>
+      </c>
+      <c r="L75">
+        <v>1.17</v>
+      </c>
+      <c r="M75">
+        <v>8.24</v>
+      </c>
+      <c r="N75">
+        <v>15.58</v>
+      </c>
+      <c r="O75" t="s">
+        <v>156</v>
+      </c>
+      <c r="P75" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q75">
+        <v>16</v>
+      </c>
+      <c r="R75">
+        <v>7</v>
+      </c>
+      <c r="S75">
+        <v>8</v>
+      </c>
+      <c r="T75">
+        <v>1</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>2</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>7</v>
+      </c>
+      <c r="Z75">
+        <v>4</v>
+      </c>
+      <c r="AA75">
+        <v>2</v>
+      </c>
+      <c r="AB75">
+        <v>9</v>
+      </c>
+      <c r="AC75">
+        <v>3</v>
+      </c>
+      <c r="AD75">
+        <v>11</v>
+      </c>
+      <c r="AE75">
+        <v>11</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ75">
+        <v>2</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>299</v>
+      </c>
+      <c r="AM75">
+        <v>109</v>
+      </c>
+      <c r="AN75">
+        <v>3</v>
+      </c>
+      <c r="AO75">
+        <v>29</v>
+      </c>
+      <c r="AP75">
+        <v>20</v>
+      </c>
+      <c r="AQ75">
+        <v>0</v>
+      </c>
+      <c r="AR75">
+        <v>60</v>
+      </c>
+      <c r="AS75">
+        <v>220</v>
+      </c>
+      <c r="AT75">
+        <f>AO75*AP75</f>
+        <v>580</v>
+      </c>
+      <c r="AU75">
+        <v>33</v>
+      </c>
+      <c r="AV75">
+        <f>AN75*AO75</f>
+        <v>87</v>
+      </c>
+      <c r="AW75">
+        <f>AO75*AD75</f>
+        <v>319</v>
+      </c>
+      <c r="AX75">
+        <f>AM75*AD75</f>
+        <v>1199</v>
+      </c>
+      <c r="AY75">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="76" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" t="s">
+        <v>131</v>
+      </c>
+      <c r="C76" s="1">
+        <v>45598</v>
+      </c>
+      <c r="D76" t="s">
+        <v>143</v>
+      </c>
+      <c r="E76" t="s">
+        <v>142</v>
+      </c>
+      <c r="F76">
+        <v>7</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76" t="s">
+        <v>152</v>
+      </c>
+      <c r="I76">
+        <v>4</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76" t="s">
+        <v>152</v>
+      </c>
+      <c r="L76">
+        <v>1.34</v>
+      </c>
+      <c r="M76">
+        <v>6</v>
+      </c>
+      <c r="N76">
+        <v>7.96</v>
+      </c>
+      <c r="O76" t="s">
+        <v>167</v>
+      </c>
+      <c r="P76" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q76">
+        <v>18</v>
+      </c>
+      <c r="R76">
+        <v>9</v>
+      </c>
+      <c r="S76">
+        <v>11</v>
+      </c>
+      <c r="T76">
+        <v>8</v>
+      </c>
+      <c r="U76">
+        <v>1</v>
+      </c>
+      <c r="V76">
+        <v>2</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>5</v>
+      </c>
+      <c r="Z76">
+        <v>2</v>
+      </c>
+      <c r="AA76">
+        <v>6</v>
+      </c>
+      <c r="AB76">
+        <v>15</v>
+      </c>
+      <c r="AC76">
+        <v>9</v>
+      </c>
+      <c r="AD76">
+        <v>7</v>
+      </c>
+      <c r="AE76">
+        <v>21</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ76">
+        <v>3</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>300</v>
+      </c>
+      <c r="AM76">
+        <v>361</v>
+      </c>
+      <c r="AN76">
+        <v>9</v>
+      </c>
+      <c r="AO76">
+        <v>167</v>
+      </c>
+      <c r="AP76">
+        <v>30</v>
+      </c>
+      <c r="AQ76">
+        <v>200</v>
+      </c>
+      <c r="AR76">
+        <v>270</v>
+      </c>
+      <c r="AS76">
+        <v>210</v>
+      </c>
+      <c r="AT76">
+        <f t="shared" ref="AT76:AT82" si="0">AO76*AP76</f>
+        <v>5010</v>
+      </c>
+      <c r="AU76">
+        <v>63</v>
+      </c>
+      <c r="AV76">
+        <f t="shared" ref="AV76:AV82" si="1">AN76*AO76</f>
+        <v>1503</v>
+      </c>
+      <c r="AW76">
+        <f t="shared" ref="AW76:AW82" si="2">AO76*AD76</f>
+        <v>1169</v>
+      </c>
+      <c r="AX76">
+        <f t="shared" ref="AX76:AX82" si="3">AM76*AD76</f>
+        <v>2527</v>
+      </c>
+      <c r="AY76">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="77" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" t="s">
+        <v>131</v>
+      </c>
+      <c r="C77" s="1">
+        <v>45598</v>
+      </c>
+      <c r="D77" t="s">
+        <v>135</v>
+      </c>
+      <c r="E77" t="s">
+        <v>140</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+      <c r="H77" t="s">
+        <v>150</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77" t="s">
+        <v>150</v>
+      </c>
+      <c r="L77">
+        <v>1.88</v>
+      </c>
+      <c r="M77">
+        <v>3.9</v>
+      </c>
+      <c r="N77">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="O77" t="s">
+        <v>158</v>
+      </c>
+      <c r="P77" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q77">
+        <v>12</v>
+      </c>
+      <c r="R77">
+        <v>6</v>
+      </c>
+      <c r="S77">
+        <v>7</v>
+      </c>
+      <c r="T77">
+        <v>3</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>2</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>7</v>
+      </c>
+      <c r="Z77">
+        <v>2</v>
+      </c>
+      <c r="AA77">
+        <v>10</v>
+      </c>
+      <c r="AB77">
+        <v>10</v>
+      </c>
+      <c r="AC77">
+        <v>2</v>
+      </c>
+      <c r="AD77">
+        <v>9</v>
+      </c>
+      <c r="AE77">
+        <v>20</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ77">
+        <v>2</v>
+      </c>
+      <c r="AK77">
+        <v>0</v>
+      </c>
+      <c r="AL77" t="s">
+        <v>301</v>
+      </c>
+      <c r="AM77">
+        <v>110</v>
+      </c>
+      <c r="AN77">
+        <v>2</v>
+      </c>
+      <c r="AO77">
+        <v>36</v>
+      </c>
+      <c r="AP77">
+        <v>20</v>
+      </c>
+      <c r="AQ77">
+        <v>0</v>
+      </c>
+      <c r="AR77">
+        <v>40</v>
+      </c>
+      <c r="AS77">
+        <v>180</v>
+      </c>
+      <c r="AT77">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="AU77">
+        <v>18</v>
+      </c>
+      <c r="AV77">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="AW77">
+        <f t="shared" si="2"/>
+        <v>324</v>
+      </c>
+      <c r="AX77">
+        <f t="shared" si="3"/>
+        <v>990</v>
+      </c>
+      <c r="AY77">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="78" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>126</v>
+      </c>
+      <c r="B78" t="s">
+        <v>131</v>
+      </c>
+      <c r="C78" s="1">
+        <v>45598</v>
+      </c>
+      <c r="D78" t="s">
+        <v>144</v>
+      </c>
+      <c r="E78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>152</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>152</v>
+      </c>
+      <c r="L78">
+        <v>2.82</v>
+      </c>
+      <c r="M78">
+        <v>3.52</v>
+      </c>
+      <c r="N78">
+        <v>2.54</v>
+      </c>
+      <c r="O78" t="s">
+        <v>159</v>
+      </c>
+      <c r="P78" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q78">
+        <v>11</v>
+      </c>
+      <c r="R78">
+        <v>6</v>
+      </c>
+      <c r="S78">
+        <v>17</v>
+      </c>
+      <c r="T78">
+        <v>4</v>
+      </c>
+      <c r="U78">
+        <v>4</v>
+      </c>
+      <c r="V78">
+        <v>5</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>5</v>
+      </c>
+      <c r="Z78">
+        <v>6</v>
+      </c>
+      <c r="AA78">
+        <v>16</v>
+      </c>
+      <c r="AB78">
+        <v>14</v>
+      </c>
+      <c r="AC78">
+        <v>1</v>
+      </c>
+      <c r="AD78">
+        <v>11</v>
+      </c>
+      <c r="AE78">
+        <v>30</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH78" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ78">
+        <v>9</v>
+      </c>
+      <c r="AK78">
+        <v>0</v>
+      </c>
+      <c r="AL78" t="s">
+        <v>302</v>
+      </c>
+      <c r="AM78">
+        <v>28</v>
+      </c>
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
+        <v>4</v>
+      </c>
+      <c r="AP78">
+        <v>90</v>
+      </c>
+      <c r="AQ78">
+        <v>2000</v>
+      </c>
+      <c r="AR78">
+        <v>90</v>
+      </c>
+      <c r="AS78">
+        <v>990</v>
+      </c>
+      <c r="AT78">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="AU78">
+        <v>11</v>
+      </c>
+      <c r="AV78">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AW78">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="AX78">
+        <f t="shared" si="3"/>
+        <v>308</v>
+      </c>
+      <c r="AY78">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="79" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" t="s">
+        <v>131</v>
+      </c>
+      <c r="C79" s="1">
+        <v>45598</v>
+      </c>
+      <c r="D79" t="s">
+        <v>139</v>
+      </c>
+      <c r="E79" t="s">
+        <v>133</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79" t="s">
+        <v>151</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79" t="s">
+        <v>150</v>
+      </c>
+      <c r="L79">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="M79">
+        <v>3.86</v>
+      </c>
+      <c r="N79">
+        <v>3.59</v>
+      </c>
+      <c r="O79" t="s">
+        <v>158</v>
+      </c>
+      <c r="P79" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q79">
+        <v>18</v>
+      </c>
+      <c r="R79">
+        <v>6</v>
+      </c>
+      <c r="S79">
+        <v>3</v>
+      </c>
+      <c r="T79">
+        <v>1</v>
+      </c>
+      <c r="U79">
+        <v>1</v>
+      </c>
+      <c r="V79">
+        <v>3</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>8</v>
+      </c>
+      <c r="Z79">
+        <v>1</v>
+      </c>
+      <c r="AA79">
+        <v>7</v>
+      </c>
+      <c r="AB79">
+        <v>14</v>
+      </c>
+      <c r="AC79">
+        <v>2</v>
+      </c>
+      <c r="AD79">
+        <v>9</v>
+      </c>
+      <c r="AE79">
+        <v>21</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH79" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ79">
+        <v>4</v>
+      </c>
+      <c r="AK79">
+        <v>0</v>
+      </c>
+      <c r="AL79" t="s">
+        <v>303</v>
+      </c>
+      <c r="AM79">
+        <v>116</v>
+      </c>
+      <c r="AN79">
+        <v>2</v>
+      </c>
+      <c r="AO79">
+        <v>30</v>
+      </c>
+      <c r="AP79">
+        <v>40</v>
+      </c>
+      <c r="AQ79">
+        <v>300</v>
+      </c>
+      <c r="AR79">
+        <v>80</v>
+      </c>
+      <c r="AS79">
+        <v>360</v>
+      </c>
+      <c r="AT79">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="AU79">
+        <v>18</v>
+      </c>
+      <c r="AV79">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="AW79">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="AX79">
+        <f t="shared" si="3"/>
+        <v>1044</v>
+      </c>
+      <c r="AY79">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="80" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80" t="s">
+        <v>131</v>
+      </c>
+      <c r="C80" s="1">
+        <v>45598</v>
+      </c>
+      <c r="D80" t="s">
+        <v>138</v>
+      </c>
+      <c r="E80" t="s">
+        <v>137</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>152</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80" t="s">
+        <v>151</v>
+      </c>
+      <c r="L80">
+        <v>2.25</v>
+      </c>
+      <c r="M80">
+        <v>3.69</v>
+      </c>
+      <c r="N80">
+        <v>3.15</v>
+      </c>
+      <c r="O80" t="s">
+        <v>155</v>
+      </c>
+      <c r="P80" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q80">
+        <v>19</v>
+      </c>
+      <c r="R80">
+        <v>7</v>
+      </c>
+      <c r="S80">
+        <v>7</v>
+      </c>
+      <c r="T80">
+        <v>3</v>
+      </c>
+      <c r="U80">
+        <v>3</v>
+      </c>
+      <c r="V80">
+        <v>4</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>4</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>11</v>
+      </c>
+      <c r="AB80">
+        <v>12</v>
+      </c>
+      <c r="AC80">
+        <v>3</v>
+      </c>
+      <c r="AD80">
+        <v>4</v>
+      </c>
+      <c r="AE80">
+        <v>23</v>
+      </c>
+      <c r="AF80" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG80" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH80" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI80" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ80">
+        <v>7</v>
+      </c>
+      <c r="AK80">
+        <v>0</v>
+      </c>
+      <c r="AL80" t="s">
+        <v>304</v>
+      </c>
+      <c r="AM80">
+        <v>122</v>
+      </c>
+      <c r="AN80">
+        <v>3</v>
+      </c>
+      <c r="AO80">
+        <v>53</v>
+      </c>
+      <c r="AP80">
+        <v>70</v>
+      </c>
+      <c r="AQ80">
+        <v>1200</v>
+      </c>
+      <c r="AR80">
+        <v>210</v>
+      </c>
+      <c r="AS80">
+        <v>280</v>
+      </c>
+      <c r="AT80">
+        <f t="shared" si="0"/>
+        <v>3710</v>
+      </c>
+      <c r="AU80">
+        <v>12</v>
+      </c>
+      <c r="AV80">
+        <f t="shared" si="1"/>
+        <v>159</v>
+      </c>
+      <c r="AW80">
+        <f t="shared" si="2"/>
+        <v>212</v>
+      </c>
+      <c r="AX80">
+        <f t="shared" si="3"/>
+        <v>488</v>
+      </c>
+      <c r="AY80">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="81" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>129</v>
+      </c>
+      <c r="B81" t="s">
+        <v>131</v>
+      </c>
+      <c r="C81" s="1">
+        <v>45599</v>
+      </c>
+      <c r="D81" t="s">
+        <v>134</v>
+      </c>
+      <c r="E81" t="s">
+        <v>136</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81" t="s">
+        <v>151</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81" t="s">
+        <v>151</v>
+      </c>
+      <c r="L81">
+        <v>1.7</v>
+      </c>
+      <c r="M81">
+        <v>3.9</v>
+      </c>
+      <c r="N81">
+        <v>5.21</v>
+      </c>
+      <c r="O81" t="s">
+        <v>157</v>
+      </c>
+      <c r="P81" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q81">
+        <v>10</v>
+      </c>
+      <c r="R81">
+        <v>2</v>
+      </c>
+      <c r="S81">
+        <v>9</v>
+      </c>
+      <c r="T81">
+        <v>2</v>
+      </c>
+      <c r="U81">
+        <v>1</v>
+      </c>
+      <c r="V81">
+        <v>2</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>8</v>
+      </c>
+      <c r="Z81">
+        <v>4</v>
+      </c>
+      <c r="AA81">
+        <v>9</v>
+      </c>
+      <c r="AB81">
+        <v>12</v>
+      </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AD81">
+        <v>12</v>
+      </c>
+      <c r="AE81">
+        <v>21</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>223</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH81" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ81">
+        <v>3</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM81">
+        <v>0</v>
+      </c>
+      <c r="AN81">
+        <v>0</v>
+      </c>
+      <c r="AO81">
+        <v>0</v>
+      </c>
+      <c r="AP81">
+        <v>30</v>
+      </c>
+      <c r="AQ81">
+        <v>200</v>
+      </c>
+      <c r="AR81">
+        <v>0</v>
+      </c>
+      <c r="AS81">
+        <v>360</v>
+      </c>
+      <c r="AT81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU81">
+        <v>0</v>
+      </c>
+      <c r="AV81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW81">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AX81">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AY81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>130</v>
+      </c>
+      <c r="B82" t="s">
+        <v>131</v>
+      </c>
+      <c r="C82" s="1">
+        <v>45599</v>
+      </c>
+      <c r="D82" t="s">
+        <v>132</v>
+      </c>
+      <c r="E82" t="s">
+        <v>146</v>
+      </c>
+      <c r="F82">
+        <v>4</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82" t="s">
+        <v>152</v>
+      </c>
+      <c r="I82">
+        <v>3</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82" t="s">
+        <v>152</v>
+      </c>
+      <c r="L82">
+        <v>2.14</v>
+      </c>
+      <c r="M82">
+        <v>3.89</v>
+      </c>
+      <c r="N82">
+        <v>3.22</v>
+      </c>
+      <c r="O82" t="s">
+        <v>166</v>
+      </c>
+      <c r="P82" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q82">
+        <v>16</v>
+      </c>
+      <c r="R82">
+        <v>8</v>
+      </c>
+      <c r="S82">
+        <v>15</v>
+      </c>
+      <c r="T82">
+        <v>5</v>
+      </c>
+      <c r="U82">
+        <v>1</v>
+      </c>
+      <c r="V82">
+        <v>4</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>1</v>
+      </c>
+      <c r="Y82">
+        <v>7</v>
+      </c>
+      <c r="Z82">
+        <v>7</v>
+      </c>
+      <c r="AA82">
+        <v>12</v>
+      </c>
+      <c r="AB82">
+        <v>10</v>
+      </c>
+      <c r="AC82">
+        <v>5</v>
+      </c>
+      <c r="AD82">
+        <v>14</v>
+      </c>
+      <c r="AE82">
+        <v>22</v>
+      </c>
+      <c r="AF82" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG82" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH82" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI82" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ82">
+        <v>5</v>
+      </c>
+      <c r="AK82">
+        <v>1</v>
+      </c>
+      <c r="AL82" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM82">
+        <v>210</v>
+      </c>
+      <c r="AN82">
+        <v>5</v>
+      </c>
+      <c r="AO82">
+        <v>62</v>
+      </c>
+      <c r="AP82">
+        <v>75</v>
+      </c>
+      <c r="AQ82">
+        <v>650</v>
+      </c>
+      <c r="AR82">
+        <v>375</v>
+      </c>
+      <c r="AS82">
+        <v>1050</v>
+      </c>
+      <c r="AT82">
+        <f t="shared" si="0"/>
+        <v>4650</v>
+      </c>
+      <c r="AU82">
+        <v>70</v>
+      </c>
+      <c r="AV82">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+      <c r="AW82">
+        <f t="shared" si="2"/>
+        <v>868</v>
+      </c>
+      <c r="AX82">
+        <f t="shared" si="3"/>
+        <v>2940</v>
+      </c>
+      <c r="AY82">
+        <v>5250</v>
       </c>
     </row>
   </sheetData>

--- a/D1_spread.xlsx
+++ b/D1_spread.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC8A510-F9F7-4CF6-9974-4E1424CF68C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3F9145-0FEA-4652-BE64-EDCD6B223F1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="328">
   <si>
     <t>Div</t>
   </si>
@@ -396,31 +396,58 @@
     <t>72</t>
   </si>
   <si>
-    <t>1110</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>1112</t>
-  </si>
-  <si>
-    <t>1113</t>
-  </si>
-  <si>
-    <t>1114</t>
-  </si>
-  <si>
-    <t>1115</t>
-  </si>
-  <si>
-    <t>1116</t>
-  </si>
-  <si>
-    <t>1117</t>
-  </si>
-  <si>
-    <t>1118</t>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>1196</t>
+  </si>
+  <si>
+    <t>1197</t>
+  </si>
+  <si>
+    <t>1198</t>
+  </si>
+  <si>
+    <t>1199</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>1201</t>
+  </si>
+  <si>
+    <t>1202</t>
+  </si>
+  <si>
+    <t>1203</t>
+  </si>
+  <si>
+    <t>1204</t>
   </si>
   <si>
     <t>D1</t>
@@ -702,6 +729,15 @@
     <t>8-4</t>
   </si>
   <si>
+    <t>8-0</t>
+  </si>
+  <si>
+    <t>5-10</t>
+  </si>
+  <si>
+    <t>10-6</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -949,6 +985,33 @@
   </si>
   <si>
     <t>Mgladbach-Werder Bremen</t>
+  </si>
+  <si>
+    <t>Union Berlin-Freiburg</t>
+  </si>
+  <si>
+    <t>Bochum-Leverkusen</t>
+  </si>
+  <si>
+    <t>Mainz-Dortmund</t>
+  </si>
+  <si>
+    <t>St Pauli-Bayern Munich</t>
+  </si>
+  <si>
+    <t>Werder Bremen-Holstein Kiel</t>
+  </si>
+  <si>
+    <t>RB Leipzig-Mgladbach</t>
+  </si>
+  <si>
+    <t>Augsburg-Hoffenheim</t>
+  </si>
+  <si>
+    <t>Stuttgart-Ein Frankfurt</t>
+  </si>
+  <si>
+    <t>Heidenheim-Wolfsburg</t>
   </si>
 </sst>
 </file>
@@ -1304,62 +1367,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY82"/>
+  <dimension ref="A1:AY91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AA53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AB62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO83" sqref="AO83"/>
+      <selection pane="bottomRight" activeCell="AO92" sqref="AO92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="33" max="35" width="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.140625" customWidth="1"/>
+    <col min="36" max="36" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.85546875" customWidth="1"/>
     <col min="40" max="40" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.42578125" customWidth="1"/>
-    <col min="42" max="42" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="17" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.140625" customWidth="1"/>
+    <col min="42" max="42" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
@@ -1519,16 +1579,16 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1">
         <v>45527</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -1537,7 +1597,7 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1546,7 +1606,7 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L2">
         <v>5.33</v>
@@ -1558,10 +1618,10 @@
         <v>1.6</v>
       </c>
       <c r="O2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="P2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="Q2">
         <v>14</v>
@@ -1609,16 +1669,16 @@
         <v>18</v>
       </c>
       <c r="AF2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="AG2" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH2" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI2" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ2">
         <v>1</v>
@@ -1627,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="AM2">
         <v>284</v>
@@ -1674,16 +1734,16 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C3" s="1">
         <v>45528</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1692,7 +1752,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -1701,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L3">
         <v>2.3199999999999998</v>
@@ -1713,10 +1773,10 @@
         <v>3.11</v>
       </c>
       <c r="O3" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="P3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="Q3">
         <v>10</v>
@@ -1764,16 +1824,16 @@
         <v>21</v>
       </c>
       <c r="AF3" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="AG3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ3">
         <v>4</v>
@@ -1782,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="AM3">
         <v>121</v>
@@ -1829,16 +1889,16 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C4" s="1">
         <v>45528</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E4" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -1847,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1856,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L4">
         <v>3.5</v>
@@ -1868,10 +1928,10 @@
         <v>2.09</v>
       </c>
       <c r="O4" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="P4" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="Q4">
         <v>15</v>
@@ -1919,16 +1979,16 @@
         <v>17</v>
       </c>
       <c r="AF4" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="AG4" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH4" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI4" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ4">
         <v>3</v>
@@ -1937,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="AM4">
         <v>144</v>
@@ -1984,16 +2044,16 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C5" s="1">
         <v>45528</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -2002,7 +2062,7 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -2011,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L5">
         <v>1.64</v>
@@ -2023,10 +2083,10 @@
         <v>5.07</v>
       </c>
       <c r="O5" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="P5" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="Q5">
         <v>20</v>
@@ -2074,16 +2134,16 @@
         <v>22</v>
       </c>
       <c r="AF5" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="AG5" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH5" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI5" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ5">
         <v>5</v>
@@ -2092,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="AL5" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="AM5">
         <v>282</v>
@@ -2139,16 +2199,16 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C6" s="1">
         <v>45528</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2157,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2166,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L6">
         <v>2.08</v>
@@ -2178,10 +2238,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="O6" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P6" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Q6">
         <v>15</v>
@@ -2229,16 +2289,16 @@
         <v>24</v>
       </c>
       <c r="AF6" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="AG6" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH6" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AI6" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ6">
         <v>4</v>
@@ -2247,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="AM6">
         <v>127</v>
@@ -2294,16 +2354,16 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C7" s="1">
         <v>45528</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2312,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2321,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L7">
         <v>1.25</v>
@@ -2333,10 +2393,10 @@
         <v>10.65</v>
       </c>
       <c r="O7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="Q7">
         <v>12</v>
@@ -2384,16 +2444,16 @@
         <v>26</v>
       </c>
       <c r="AF7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AG7" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AH7" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AI7" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ7">
         <v>4</v>
@@ -2402,7 +2462,7 @@
         <v>1</v>
       </c>
       <c r="AL7" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="AM7">
         <v>59</v>
@@ -2449,16 +2509,16 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C8" s="1">
         <v>45528</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -2467,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2476,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L8">
         <v>1.71</v>
@@ -2488,10 +2548,10 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="O8" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P8" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="Q8">
         <v>17</v>
@@ -2539,16 +2599,16 @@
         <v>9</v>
       </c>
       <c r="AF8" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="AG8" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH8" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AI8" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ8">
         <v>1</v>
@@ -2557,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="AM8">
         <v>162</v>
@@ -2604,16 +2664,16 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C9" s="1">
         <v>45529</v>
       </c>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E9" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -2622,7 +2682,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2631,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L9">
         <v>6.33</v>
@@ -2643,10 +2703,10 @@
         <v>1.47</v>
       </c>
       <c r="O9" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="P9" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2694,16 +2754,16 @@
         <v>24</v>
       </c>
       <c r="AF9" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="AG9" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH9" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI9" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ9">
         <v>5</v>
@@ -2712,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="AM9">
         <v>269</v>
@@ -2759,16 +2819,16 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C10" s="1">
         <v>45529</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2777,7 +2837,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2786,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L10">
         <v>2.13</v>
@@ -2798,10 +2858,10 @@
         <v>3.59</v>
       </c>
       <c r="O10" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P10" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -2849,16 +2909,16 @@
         <v>25</v>
       </c>
       <c r="AF10" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="AG10" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH10" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AI10" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ10">
         <v>5</v>
@@ -2867,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="AM10">
         <v>148</v>
@@ -2914,16 +2974,16 @@
         <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C11" s="1">
         <v>45534</v>
       </c>
       <c r="D11" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E11" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2932,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -2941,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L11">
         <v>1.96</v>
@@ -2953,10 +3013,10 @@
         <v>4.29</v>
       </c>
       <c r="O11" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="P11" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -3004,16 +3064,16 @@
         <v>21</v>
       </c>
       <c r="AF11" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="AG11" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AH11" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AI11" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ11">
         <v>4</v>
@@ -3022,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="AM11">
         <v>34</v>
@@ -3069,16 +3129,16 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C12" s="1">
         <v>45535</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3087,7 +3147,7 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -3096,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L12">
         <v>2.66</v>
@@ -3108,10 +3168,10 @@
         <v>2.57</v>
       </c>
       <c r="O12" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P12" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="Q12">
         <v>16</v>
@@ -3159,16 +3219,16 @@
         <v>19</v>
       </c>
       <c r="AF12" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="AG12" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH12" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AI12" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ12">
         <v>1</v>
@@ -3177,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="AL12" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="AM12">
         <v>145</v>
@@ -3224,16 +3284,16 @@
         <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C13" s="1">
         <v>45535</v>
       </c>
       <c r="D13" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E13" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -3242,7 +3302,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -3251,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L13">
         <v>1.8</v>
@@ -3263,10 +3323,10 @@
         <v>4.12</v>
       </c>
       <c r="O13" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="P13" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="Q13">
         <v>17</v>
@@ -3314,16 +3374,16 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="AG13" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH13" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI13" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ13">
         <v>3</v>
@@ -3332,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="AM13">
         <v>167</v>
@@ -3379,16 +3439,16 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C14" s="1">
         <v>45535</v>
       </c>
       <c r="D14" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -3397,7 +3457,7 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3406,7 +3466,7 @@
         <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L14">
         <v>3.26</v>
@@ -3418,10 +3478,10 @@
         <v>2.19</v>
       </c>
       <c r="O14" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="P14" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="Q14">
         <v>12</v>
@@ -3469,16 +3529,16 @@
         <v>31</v>
       </c>
       <c r="AF14" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="AG14" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH14" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AI14" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ14">
         <v>11</v>
@@ -3487,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="AM14">
         <v>57</v>
@@ -3534,17 +3594,17 @@
         <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C15" s="1">
         <v>45535</v>
       </c>
       <c r="D15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" t="s">
         <v>145</v>
       </c>
-      <c r="E15" t="s">
-        <v>136</v>
-      </c>
       <c r="F15">
         <v>3</v>
       </c>
@@ -3552,7 +3612,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -3561,7 +3621,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L15">
         <v>1.66</v>
@@ -3573,10 +3633,10 @@
         <v>5.09</v>
       </c>
       <c r="O15" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="P15" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="Q15">
         <v>28</v>
@@ -3624,16 +3684,16 @@
         <v>18</v>
       </c>
       <c r="AF15" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="AG15" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH15" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI15" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ15">
         <v>6</v>
@@ -3642,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="AM15">
         <v>306</v>
@@ -3689,16 +3749,16 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C16" s="1">
         <v>45535</v>
       </c>
       <c r="D16" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E16" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3707,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -3716,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L16">
         <v>4.05</v>
@@ -3728,10 +3788,10 @@
         <v>1.83</v>
       </c>
       <c r="O16" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P16" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -3779,16 +3839,16 @@
         <v>27</v>
       </c>
       <c r="AF16" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AG16" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AH16" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AI16" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ16">
         <v>9</v>
@@ -3797,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="AL16" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="AM16">
         <v>0</v>
@@ -3844,16 +3904,16 @@
         <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C17" s="1">
         <v>45535</v>
       </c>
       <c r="D17" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E17" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -3862,7 +3922,7 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -3871,7 +3931,7 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L17">
         <v>1.8</v>
@@ -3883,10 +3943,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="O17" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="P17" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="Q17">
         <v>27</v>
@@ -3934,16 +3994,16 @@
         <v>15</v>
       </c>
       <c r="AF17" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="AG17" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH17" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI17" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ17">
         <v>4</v>
@@ -3952,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="AM17">
         <v>266</v>
@@ -3999,16 +4059,16 @@
         <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C18" s="1">
         <v>45536</v>
       </c>
       <c r="D18" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E18" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -4017,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -4026,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L18">
         <v>2.42</v>
@@ -4038,10 +4098,10 @@
         <v>3.02</v>
       </c>
       <c r="O18" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="P18" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="Q18">
         <v>17</v>
@@ -4089,16 +4149,16 @@
         <v>26</v>
       </c>
       <c r="AF18" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH18" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI18" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ18">
         <v>3</v>
@@ -4107,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="AL18" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="AM18">
         <v>181</v>
@@ -4154,16 +4214,16 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C19" s="1">
         <v>45536</v>
       </c>
       <c r="D19" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E19" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -4172,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -4181,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L19">
         <v>1.21</v>
@@ -4193,10 +4253,10 @@
         <v>11.45</v>
       </c>
       <c r="O19" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="P19" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="Q19">
         <v>11</v>
@@ -4244,16 +4304,16 @@
         <v>25</v>
       </c>
       <c r="AF19" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="AG19" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH19" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AI19" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ19">
         <v>1</v>
@@ -4262,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="AM19">
         <v>116</v>
@@ -4309,16 +4369,16 @@
         <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C20" s="1">
         <v>45548</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E20" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -4327,7 +4387,7 @@
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I20">
         <v>3</v>
@@ -4336,7 +4396,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L20">
         <v>1.39</v>
@@ -4348,10 +4408,10 @@
         <v>7.83</v>
       </c>
       <c r="O20" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="P20" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="Q20">
         <v>13</v>
@@ -4399,16 +4459,16 @@
         <v>31</v>
       </c>
       <c r="AF20" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="AG20" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH20" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI20" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ20">
         <v>4</v>
@@ -4417,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="AL20" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AM20">
         <v>273</v>
@@ -4464,16 +4524,16 @@
         <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C21" s="1">
         <v>45549</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E21" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -4482,7 +4542,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -4491,7 +4551,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L21">
         <v>1.69</v>
@@ -4503,10 +4563,10 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="O21" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="P21" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="Q21">
         <v>27</v>
@@ -4554,16 +4614,16 @@
         <v>21</v>
       </c>
       <c r="AF21" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AG21" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH21" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI21" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ21">
         <v>3</v>
@@ -4572,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="AL21" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AM21">
         <v>164</v>
@@ -4619,16 +4679,16 @@
         <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C22" s="1">
         <v>45549</v>
       </c>
       <c r="D22" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E22" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -4637,7 +4697,7 @@
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -4646,7 +4706,7 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L22">
         <v>5.95</v>
@@ -4658,10 +4718,10 @@
         <v>1.49</v>
       </c>
       <c r="O22" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="P22" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="Q22">
         <v>14</v>
@@ -4709,16 +4769,16 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="AG22" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH22" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI22" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ22">
         <v>4</v>
@@ -4727,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="AL22" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="AM22">
         <v>161</v>
@@ -4774,16 +4834,16 @@
         <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C23" s="1">
         <v>45549</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E23" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -4792,7 +4852,7 @@
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -4801,7 +4861,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L23">
         <v>2.84</v>
@@ -4813,10 +4873,10 @@
         <v>2.31</v>
       </c>
       <c r="O23" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="P23" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="Q23">
         <v>15</v>
@@ -4864,16 +4924,16 @@
         <v>26</v>
       </c>
       <c r="AF23" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="AG23" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH23" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI23" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ23">
         <v>4</v>
@@ -4882,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="AL23" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="AM23">
         <v>167</v>
@@ -4929,16 +4989,16 @@
         <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C24" s="1">
         <v>45549</v>
       </c>
       <c r="D24" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E24" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -4947,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -4956,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L24">
         <v>1.48</v>
@@ -4968,10 +5028,10 @@
         <v>6.64</v>
       </c>
       <c r="O24" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P24" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="Q24">
         <v>16</v>
@@ -5019,16 +5079,16 @@
         <v>28</v>
       </c>
       <c r="AF24" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="AG24" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AH24" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AI24" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ24">
         <v>5</v>
@@ -5037,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="AL24" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="AM24">
         <v>0</v>
@@ -5084,16 +5144,16 @@
         <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C25" s="1">
         <v>45549</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E25" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -5102,7 +5162,7 @@
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -5111,7 +5171,7 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L25">
         <v>2.72</v>
@@ -5123,10 +5183,10 @@
         <v>2.63</v>
       </c>
       <c r="O25" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="P25" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="Q25">
         <v>17</v>
@@ -5174,16 +5234,16 @@
         <v>25</v>
       </c>
       <c r="AF25" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="AG25" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH25" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI25" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ25">
         <v>3</v>
@@ -5192,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="AL25" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AM25">
         <v>188</v>
@@ -5239,16 +5299,16 @@
         <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C26" s="1">
         <v>45549</v>
       </c>
       <c r="D26" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E26" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -5257,7 +5317,7 @@
         <v>6</v>
       </c>
       <c r="H26" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -5266,7 +5326,7 @@
         <v>4</v>
       </c>
       <c r="K26" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L26">
         <v>11.8</v>
@@ -5278,10 +5338,10 @@
         <v>1.21</v>
       </c>
       <c r="O26" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="P26" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -5329,16 +5389,16 @@
         <v>23</v>
       </c>
       <c r="AF26" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="AG26" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH26" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI26" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ26">
         <v>1</v>
@@ -5347,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="AL26" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AM26">
         <v>301</v>
@@ -5394,16 +5454,16 @@
         <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C27" s="1">
         <v>45550</v>
       </c>
       <c r="D27" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -5412,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -5421,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L27">
         <v>2.09</v>
@@ -5433,10 +5493,10 @@
         <v>3.52</v>
       </c>
       <c r="O27" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P27" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="Q27">
         <v>18</v>
@@ -5484,16 +5544,16 @@
         <v>22</v>
       </c>
       <c r="AF27" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="AG27" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH27" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI27" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ27">
         <v>7</v>
@@ -5502,7 +5562,7 @@
         <v>0</v>
       </c>
       <c r="AL27" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AM27">
         <v>279</v>
@@ -5549,16 +5609,16 @@
         <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C28" s="1">
         <v>45550</v>
       </c>
       <c r="D28" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E28" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -5567,7 +5627,7 @@
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -5576,7 +5636,7 @@
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L28">
         <v>2.04</v>
@@ -5588,10 +5648,10 @@
         <v>3.61</v>
       </c>
       <c r="O28" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="P28" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="Q28">
         <v>11</v>
@@ -5639,16 +5699,16 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="AG28" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH28" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI28" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ28">
         <v>4</v>
@@ -5657,7 +5717,7 @@
         <v>1</v>
       </c>
       <c r="AL28" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="AM28">
         <v>104</v>
@@ -5704,16 +5764,16 @@
         <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C29" s="1">
         <v>45555</v>
       </c>
       <c r="D29" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E29" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -5722,7 +5782,7 @@
         <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -5731,7 +5791,7 @@
         <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L29">
         <v>2.42</v>
@@ -5743,10 +5803,10 @@
         <v>2.97</v>
       </c>
       <c r="O29" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="P29" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="Q29">
         <v>30</v>
@@ -5794,16 +5854,16 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="AG29" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH29" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI29" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ29">
         <v>8</v>
@@ -5812,7 +5872,7 @@
         <v>2</v>
       </c>
       <c r="AL29" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="AM29">
         <v>159</v>
@@ -5859,16 +5919,16 @@
         <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C30" s="1">
         <v>45556</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E30" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -5877,7 +5937,7 @@
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -5886,7 +5946,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L30">
         <v>1.99</v>
@@ -5898,10 +5958,10 @@
         <v>3.7</v>
       </c>
       <c r="O30" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="P30" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="Q30">
         <v>14</v>
@@ -5949,16 +6009,16 @@
         <v>29</v>
       </c>
       <c r="AF30" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AG30" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH30" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI30" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ30">
         <v>5</v>
@@ -5967,7 +6027,7 @@
         <v>0</v>
       </c>
       <c r="AL30" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="AM30">
         <v>161</v>
@@ -6014,16 +6074,16 @@
         <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C31" s="1">
         <v>45556</v>
       </c>
       <c r="D31" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E31" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -6032,7 +6092,7 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -6041,7 +6101,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L31">
         <v>2.75</v>
@@ -6053,10 +6113,10 @@
         <v>2.66</v>
       </c>
       <c r="O31" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P31" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -6104,16 +6164,16 @@
         <v>13</v>
       </c>
       <c r="AF31" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="AG31" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH31" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI31" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ31">
         <v>2</v>
@@ -6122,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="AL31" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="AM31">
         <v>178</v>
@@ -6169,16 +6229,16 @@
         <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C32" s="1">
         <v>45556</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E32" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -6187,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -6196,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L32">
         <v>2.04</v>
@@ -6208,10 +6268,10 @@
         <v>3.65</v>
       </c>
       <c r="O32" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="P32" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="Q32">
         <v>12</v>
@@ -6259,16 +6319,16 @@
         <v>35</v>
       </c>
       <c r="AF32" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="AG32" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH32" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI32" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ32">
         <v>6</v>
@@ -6277,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="AL32" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="AM32">
         <v>77</v>
@@ -6324,16 +6384,16 @@
         <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C33" s="1">
         <v>45556</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E33" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -6342,7 +6402,7 @@
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -6351,7 +6411,7 @@
         <v>2</v>
       </c>
       <c r="K33" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L33">
         <v>7.92</v>
@@ -6363,10 +6423,10 @@
         <v>1.36</v>
       </c>
       <c r="O33" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="P33" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -6414,16 +6474,16 @@
         <v>17</v>
       </c>
       <c r="AF33" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="AG33" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH33" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI33" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ33">
         <v>3</v>
@@ -6432,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="AL33" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="AM33">
         <v>237</v>
@@ -6479,16 +6539,16 @@
         <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C34" s="1">
         <v>45556</v>
       </c>
       <c r="D34" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E34" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -6497,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -6506,7 +6566,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L34">
         <v>1.79</v>
@@ -6518,10 +6578,10 @@
         <v>4.26</v>
       </c>
       <c r="O34" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="P34" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="Q34">
         <v>14</v>
@@ -6569,16 +6629,16 @@
         <v>22</v>
       </c>
       <c r="AF34" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="AG34" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH34" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AI34" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ34">
         <v>2</v>
@@ -6587,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="AL34" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="AM34">
         <v>111</v>
@@ -6634,16 +6694,16 @@
         <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C35" s="1">
         <v>45557</v>
       </c>
       <c r="D35" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="F35">
         <v>4</v>
@@ -6652,7 +6712,7 @@
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -6661,7 +6721,7 @@
         <v>3</v>
       </c>
       <c r="K35" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L35">
         <v>1.31</v>
@@ -6673,10 +6733,10 @@
         <v>9.23</v>
       </c>
       <c r="O35" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="P35" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="Q35">
         <v>20</v>
@@ -6724,16 +6784,16 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="AG35" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH35" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI35" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ35">
         <v>9</v>
@@ -6742,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="AL35" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="AM35">
         <v>271</v>
@@ -6789,16 +6849,16 @@
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C36" s="1">
         <v>45557</v>
       </c>
       <c r="D36" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E36" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F36">
         <v>5</v>
@@ -6807,7 +6867,7 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -6816,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L36">
         <v>2.3199999999999998</v>
@@ -6828,10 +6888,10 @@
         <v>2.94</v>
       </c>
       <c r="O36" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="P36" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="Q36">
         <v>16</v>
@@ -6879,16 +6939,16 @@
         <v>16</v>
       </c>
       <c r="AF36" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="AG36" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH36" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI36" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ36">
         <v>4</v>
@@ -6897,7 +6957,7 @@
         <v>0</v>
       </c>
       <c r="AL36" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="AM36">
         <v>332</v>
@@ -6944,16 +7004,16 @@
         <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C37" s="1">
         <v>45557</v>
       </c>
       <c r="D37" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E37" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -6962,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -6971,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L37">
         <v>5.19</v>
@@ -6983,10 +7043,10 @@
         <v>1.64</v>
       </c>
       <c r="O37" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P37" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="Q37">
         <v>15</v>
@@ -7034,16 +7094,16 @@
         <v>15</v>
       </c>
       <c r="AF37" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AG37" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AH37" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AI37" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ37">
         <v>3</v>
@@ -7052,7 +7112,7 @@
         <v>0</v>
       </c>
       <c r="AL37" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="AM37">
         <v>0</v>
@@ -7099,16 +7159,16 @@
         <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C38" s="1">
         <v>45562</v>
       </c>
       <c r="D38" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E38" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F38">
         <v>4</v>
@@ -7117,7 +7177,7 @@
         <v>2</v>
       </c>
       <c r="H38" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -7126,7 +7186,7 @@
         <v>2</v>
       </c>
       <c r="K38" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L38">
         <v>1.24</v>
@@ -7138,10 +7198,10 @@
         <v>11.22</v>
       </c>
       <c r="O38" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="P38" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="Q38">
         <v>23</v>
@@ -7189,16 +7249,16 @@
         <v>21</v>
       </c>
       <c r="AF38" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="AG38" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH38" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI38" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ38">
         <v>2</v>
@@ -7207,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="AL38" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="AM38">
         <v>299</v>
@@ -7254,16 +7314,16 @@
         <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C39" s="1">
         <v>45563</v>
       </c>
       <c r="D39" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E39" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -7272,7 +7332,7 @@
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -7281,7 +7341,7 @@
         <v>2</v>
       </c>
       <c r="K39" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L39">
         <v>1.62</v>
@@ -7293,10 +7353,10 @@
         <v>5.59</v>
       </c>
       <c r="O39" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="P39" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -7344,16 +7404,16 @@
         <v>25</v>
       </c>
       <c r="AF39" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="AG39" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH39" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI39" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ39">
         <v>6</v>
@@ -7362,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="AL39" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="AM39">
         <v>129</v>
@@ -7409,16 +7469,16 @@
         <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C40" s="1">
         <v>45563</v>
       </c>
       <c r="D40" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E40" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -7427,7 +7487,7 @@
         <v>2</v>
       </c>
       <c r="H40" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -7436,7 +7496,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L40">
         <v>1.86</v>
@@ -7448,10 +7508,10 @@
         <v>4.21</v>
       </c>
       <c r="O40" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="P40" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -7499,16 +7559,16 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="AG40" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH40" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AI40" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ40">
         <v>8</v>
@@ -7517,7 +7577,7 @@
         <v>2</v>
       </c>
       <c r="AL40" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="AM40">
         <v>101</v>
@@ -7564,16 +7624,16 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C41" s="1">
         <v>45563</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E41" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -7582,7 +7642,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -7591,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L41">
         <v>2.13</v>
@@ -7603,10 +7663,10 @@
         <v>3.54</v>
       </c>
       <c r="O41" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P41" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -7654,16 +7714,16 @@
         <v>22</v>
       </c>
       <c r="AF41" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="AG41" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AH41" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AI41" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ41">
         <v>4</v>
@@ -7672,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="AL41" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="AM41">
         <v>90</v>
@@ -7719,16 +7779,16 @@
         <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C42" s="1">
         <v>45563</v>
       </c>
       <c r="D42" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E42" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F42">
         <v>4</v>
@@ -7737,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I42">
         <v>2</v>
@@ -7746,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L42">
         <v>1.4</v>
@@ -7758,10 +7818,10 @@
         <v>7.14</v>
       </c>
       <c r="O42" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="P42" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="Q42">
         <v>14</v>
@@ -7809,16 +7869,16 @@
         <v>22</v>
       </c>
       <c r="AF42" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="AG42" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH42" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI42" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ42">
         <v>3</v>
@@ -7827,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="AL42" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="AM42">
         <v>129</v>
@@ -7874,16 +7934,16 @@
         <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C43" s="1">
         <v>45563</v>
       </c>
       <c r="D43" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E43" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -7892,7 +7952,7 @@
         <v>2</v>
       </c>
       <c r="H43" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -7901,7 +7961,7 @@
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L43">
         <v>3.35</v>
@@ -7913,10 +7973,10 @@
         <v>2.09</v>
       </c>
       <c r="O43" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="P43" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -7964,16 +8024,16 @@
         <v>30</v>
       </c>
       <c r="AF43" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AG43" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH43" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI43" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ43">
         <v>7</v>
@@ -7982,7 +8042,7 @@
         <v>1</v>
       </c>
       <c r="AL43" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="AM43">
         <v>210</v>
@@ -8029,16 +8089,16 @@
         <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C44" s="1">
         <v>45563</v>
       </c>
       <c r="D44" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E44" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -8047,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -8056,7 +8116,7 @@
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L44">
         <v>1.74</v>
@@ -8068,10 +8128,10 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="O44" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="P44" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Q44">
         <v>18</v>
@@ -8119,16 +8179,16 @@
         <v>26</v>
       </c>
       <c r="AF44" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="AG44" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH44" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AI44" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ44">
         <v>4</v>
@@ -8137,7 +8197,7 @@
         <v>0</v>
       </c>
       <c r="AL44" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="AM44">
         <v>70</v>
@@ -8184,16 +8244,16 @@
         <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C45" s="1">
         <v>45564</v>
       </c>
       <c r="D45" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E45" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F45">
         <v>2</v>
@@ -8202,7 +8262,7 @@
         <v>4</v>
       </c>
       <c r="H45" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -8211,7 +8271,7 @@
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L45">
         <v>4.5</v>
@@ -8223,10 +8283,10 @@
         <v>1.73</v>
       </c>
       <c r="O45" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="P45" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="Q45">
         <v>10</v>
@@ -8274,16 +8334,16 @@
         <v>25</v>
       </c>
       <c r="AF45" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="AG45" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH45" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI45" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ45">
         <v>4</v>
@@ -8292,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="AL45" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AM45">
         <v>291</v>
@@ -8339,16 +8399,16 @@
         <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C46" s="1">
         <v>45564</v>
       </c>
       <c r="D46" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E46" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F46">
         <v>3</v>
@@ -8357,7 +8417,7 @@
         <v>4</v>
       </c>
       <c r="H46" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I46">
         <v>3</v>
@@ -8366,7 +8426,7 @@
         <v>3</v>
       </c>
       <c r="K46" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L46">
         <v>2.4</v>
@@ -8378,10 +8438,10 @@
         <v>2.84</v>
       </c>
       <c r="O46" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="P46" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="Q46">
         <v>10</v>
@@ -8429,16 +8489,16 @@
         <v>31</v>
       </c>
       <c r="AF46" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="AG46" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH46" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI46" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ46">
         <v>6</v>
@@ -8447,7 +8507,7 @@
         <v>1</v>
       </c>
       <c r="AL46" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AM46">
         <v>160</v>
@@ -8494,16 +8554,16 @@
         <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C47" s="1">
         <v>45569</v>
       </c>
       <c r="D47" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E47" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -8512,7 +8572,7 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -8521,7 +8581,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L47">
         <v>2.46</v>
@@ -8533,10 +8593,10 @@
         <v>2.81</v>
       </c>
       <c r="O47" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="P47" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="Q47">
         <v>13</v>
@@ -8584,16 +8644,16 @@
         <v>28</v>
       </c>
       <c r="AF47" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="AG47" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH47" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI47" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ47">
         <v>6</v>
@@ -8602,7 +8662,7 @@
         <v>0</v>
       </c>
       <c r="AL47" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AM47">
         <v>176</v>
@@ -8649,16 +8709,16 @@
         <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C48" s="1">
         <v>45570</v>
       </c>
       <c r="D48" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E48" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -8667,7 +8727,7 @@
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -8676,7 +8736,7 @@
         <v>2</v>
       </c>
       <c r="K48" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L48">
         <v>3.07</v>
@@ -8688,10 +8748,10 @@
         <v>2.25</v>
       </c>
       <c r="O48" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="P48" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="Q48">
         <v>17</v>
@@ -8739,16 +8799,16 @@
         <v>23</v>
       </c>
       <c r="AF48" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="AG48" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH48" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI48" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ48">
         <v>3</v>
@@ -8757,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AL48" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="AM48">
         <v>218</v>
@@ -8804,16 +8864,16 @@
         <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C49" s="1">
         <v>45570</v>
       </c>
       <c r="D49" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E49" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -8822,7 +8882,7 @@
         <v>2</v>
       </c>
       <c r="H49" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I49">
         <v>2</v>
@@ -8831,7 +8891,7 @@
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L49">
         <v>1.08</v>
@@ -8843,10 +8903,10 @@
         <v>25.93</v>
       </c>
       <c r="O49" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="P49" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="Q49">
         <v>24</v>
@@ -8894,16 +8954,16 @@
         <v>14</v>
       </c>
       <c r="AF49" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="AG49" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH49" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI49" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ49">
         <v>4</v>
@@ -8912,7 +8972,7 @@
         <v>0</v>
       </c>
       <c r="AL49" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AM49">
         <v>126</v>
@@ -8959,16 +9019,16 @@
         <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C50" s="1">
         <v>45570</v>
       </c>
       <c r="D50" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E50" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F50">
         <v>2</v>
@@ -8977,7 +9037,7 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I50">
         <v>2</v>
@@ -8986,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L50">
         <v>3.43</v>
@@ -8998,10 +9058,10 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="O50" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="P50" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="Q50">
         <v>13</v>
@@ -9049,16 +9109,16 @@
         <v>32</v>
       </c>
       <c r="AF50" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="AG50" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH50" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI50" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ50">
         <v>8</v>
@@ -9067,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="AL50" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM50">
         <v>133</v>
@@ -9114,16 +9174,16 @@
         <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C51" s="1">
         <v>45570</v>
       </c>
       <c r="D51" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E51" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -9132,7 +9192,7 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -9141,7 +9201,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L51">
         <v>2.67</v>
@@ -9153,10 +9213,10 @@
         <v>2.62</v>
       </c>
       <c r="O51" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P51" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Q51">
         <v>11</v>
@@ -9204,16 +9264,16 @@
         <v>16</v>
       </c>
       <c r="AF51" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AG51" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AH51" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AI51" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ51">
         <v>3</v>
@@ -9222,7 +9282,7 @@
         <v>0</v>
       </c>
       <c r="AL51" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AM51">
         <v>75</v>
@@ -9269,16 +9329,16 @@
         <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C52" s="1">
         <v>45570</v>
       </c>
       <c r="D52" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E52" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -9287,7 +9347,7 @@
         <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -9296,7 +9356,7 @@
         <v>2</v>
       </c>
       <c r="K52" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L52">
         <v>2.46</v>
@@ -9308,10 +9368,10 @@
         <v>2.99</v>
       </c>
       <c r="O52" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="P52" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="Q52">
         <v>17</v>
@@ -9359,16 +9419,16 @@
         <v>28</v>
       </c>
       <c r="AF52" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="AG52" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH52" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI52" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ52">
         <v>3</v>
@@ -9377,7 +9437,7 @@
         <v>0</v>
       </c>
       <c r="AL52" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AM52">
         <v>83</v>
@@ -9424,16 +9484,16 @@
         <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C53" s="1">
         <v>45571</v>
       </c>
       <c r="D53" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E53" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -9442,7 +9502,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -9451,7 +9511,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L53">
         <v>4.7699999999999996</v>
@@ -9463,10 +9523,10 @@
         <v>1.7</v>
       </c>
       <c r="O53" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P53" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Q53">
         <v>15</v>
@@ -9514,16 +9574,16 @@
         <v>25</v>
       </c>
       <c r="AF53" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AG53" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AH53" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AI53" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ53">
         <v>4</v>
@@ -9532,7 +9592,7 @@
         <v>0</v>
       </c>
       <c r="AL53" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AM53">
         <v>59</v>
@@ -9579,16 +9639,16 @@
         <v>102</v>
       </c>
       <c r="B54" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C54" s="1">
         <v>45571</v>
       </c>
       <c r="D54" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E54" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F54">
         <v>3</v>
@@ -9597,7 +9657,7 @@
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I54">
         <v>2</v>
@@ -9606,7 +9666,7 @@
         <v>2</v>
       </c>
       <c r="K54" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L54">
         <v>5.72</v>
@@ -9618,10 +9678,10 @@
         <v>1.52</v>
       </c>
       <c r="O54" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="P54" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -9669,16 +9729,16 @@
         <v>16</v>
       </c>
       <c r="AF54" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="AG54" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH54" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI54" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ54">
         <v>2</v>
@@ -9687,7 +9747,7 @@
         <v>0</v>
       </c>
       <c r="AL54" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AM54">
         <v>253</v>
@@ -9734,16 +9794,16 @@
         <v>103</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C55" s="1">
         <v>45571</v>
       </c>
       <c r="D55" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E55" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -9752,7 +9812,7 @@
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -9761,7 +9821,7 @@
         <v>1</v>
       </c>
       <c r="K55" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L55">
         <v>1.3</v>
@@ -9773,10 +9833,10 @@
         <v>8.25</v>
       </c>
       <c r="O55" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="P55" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Q55">
         <v>18</v>
@@ -9824,16 +9884,16 @@
         <v>17</v>
       </c>
       <c r="AF55" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="AG55" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH55" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AI55" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ55">
         <v>5</v>
@@ -9842,7 +9902,7 @@
         <v>0</v>
       </c>
       <c r="AL55" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AM55">
         <v>135</v>
@@ -9889,16 +9949,16 @@
         <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C56" s="1">
         <v>45583</v>
       </c>
       <c r="D56" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E56" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F56">
         <v>2</v>
@@ -9907,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -9916,7 +9976,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L56">
         <v>1.31</v>
@@ -9928,10 +9988,10 @@
         <v>10.18</v>
       </c>
       <c r="O56" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="P56" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="Q56">
         <v>20</v>
@@ -9979,16 +10039,16 @@
         <v>15</v>
       </c>
       <c r="AF56" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="AG56" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH56" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI56" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ56">
         <v>3</v>
@@ -9997,7 +10057,7 @@
         <v>0</v>
       </c>
       <c r="AL56" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="AM56">
         <v>204</v>
@@ -10044,16 +10104,16 @@
         <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C57" s="1">
         <v>45584</v>
       </c>
       <c r="D57" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E57" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F57">
         <v>3</v>
@@ -10062,7 +10122,7 @@
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I57">
         <v>3</v>
@@ -10071,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L57">
         <v>1.74</v>
@@ -10083,10 +10143,10 @@
         <v>4.93</v>
       </c>
       <c r="O57" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="P57" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="Q57">
         <v>15</v>
@@ -10134,16 +10194,16 @@
         <v>18</v>
       </c>
       <c r="AF57" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="AG57" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH57" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI57" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ57">
         <v>2</v>
@@ -10152,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="AL57" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="AM57">
         <v>181</v>
@@ -10199,16 +10259,16 @@
         <v>106</v>
       </c>
       <c r="B58" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C58" s="1">
         <v>45584</v>
       </c>
       <c r="D58" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E58" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F58">
         <v>3</v>
@@ -10217,7 +10277,7 @@
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -10226,7 +10286,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L58">
         <v>1.7</v>
@@ -10238,10 +10298,10 @@
         <v>4.45</v>
       </c>
       <c r="O58" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="P58" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="Q58">
         <v>12</v>
@@ -10289,16 +10349,16 @@
         <v>22</v>
       </c>
       <c r="AF58" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="AG58" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH58" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI58" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ58">
         <v>2</v>
@@ -10307,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="AL58" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="AM58">
         <v>241</v>
@@ -10354,16 +10414,16 @@
         <v>107</v>
       </c>
       <c r="B59" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C59" s="1">
         <v>45584</v>
       </c>
       <c r="D59" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E59" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F59">
         <v>2</v>
@@ -10372,7 +10432,7 @@
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -10381,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="K59" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L59">
         <v>1.45</v>
@@ -10393,10 +10453,10 @@
         <v>6.35</v>
       </c>
       <c r="O59" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="P59" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="Q59">
         <v>27</v>
@@ -10444,16 +10504,16 @@
         <v>14</v>
       </c>
       <c r="AF59" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AG59" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH59" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI59" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ59">
         <v>3</v>
@@ -10462,7 +10522,7 @@
         <v>0</v>
       </c>
       <c r="AL59" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="AM59">
         <v>113</v>
@@ -10509,16 +10569,16 @@
         <v>108</v>
       </c>
       <c r="B60" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C60" s="1">
         <v>45584</v>
       </c>
       <c r="D60" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E60" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -10527,7 +10587,7 @@
         <v>2</v>
       </c>
       <c r="H60" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -10536,7 +10596,7 @@
         <v>2</v>
       </c>
       <c r="K60" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L60">
         <v>4.2699999999999996</v>
@@ -10548,10 +10608,10 @@
         <v>1.88</v>
       </c>
       <c r="O60" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="P60" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="Q60">
         <v>16</v>
@@ -10599,16 +10659,16 @@
         <v>27</v>
       </c>
       <c r="AF60" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="AG60" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH60" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AI60" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ60">
         <v>4</v>
@@ -10617,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="AL60" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="AM60">
         <v>57</v>
@@ -10664,16 +10724,16 @@
         <v>109</v>
       </c>
       <c r="B61" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C61" s="1">
         <v>45584</v>
       </c>
       <c r="D61" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E61" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F61">
         <v>3</v>
@@ -10682,7 +10742,7 @@
         <v>2</v>
       </c>
       <c r="H61" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -10691,7 +10751,7 @@
         <v>1</v>
       </c>
       <c r="K61" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L61">
         <v>1.83</v>
@@ -10703,10 +10763,10 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="O61" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="P61" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="Q61">
         <v>20</v>
@@ -10754,16 +10814,16 @@
         <v>24</v>
       </c>
       <c r="AF61" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="AG61" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH61" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI61" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ61">
         <v>6</v>
@@ -10772,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="AL61" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="AM61">
         <v>251</v>
@@ -10819,16 +10879,16 @@
         <v>110</v>
       </c>
       <c r="B62" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C62" s="1">
         <v>45584</v>
       </c>
       <c r="D62" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E62" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F62">
         <v>4</v>
@@ -10837,7 +10897,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -10846,7 +10906,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L62">
         <v>1.36</v>
@@ -10858,10 +10918,10 @@
         <v>7.55</v>
       </c>
       <c r="O62" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P62" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="Q62">
         <v>22</v>
@@ -10909,16 +10969,16 @@
         <v>16</v>
       </c>
       <c r="AF62" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AG62" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH62" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI62" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ62">
         <v>2</v>
@@ -10927,7 +10987,7 @@
         <v>0</v>
       </c>
       <c r="AL62" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="AM62">
         <v>286</v>
@@ -10974,16 +11034,16 @@
         <v>111</v>
       </c>
       <c r="B63" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C63" s="1">
         <v>45585</v>
       </c>
       <c r="D63" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E63" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -10992,7 +11052,7 @@
         <v>2</v>
       </c>
       <c r="H63" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -11001,7 +11061,7 @@
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L63">
         <v>3.48</v>
@@ -11013,10 +11073,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="O63" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="P63" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="Q63">
         <v>12</v>
@@ -11064,16 +11124,16 @@
         <v>19</v>
       </c>
       <c r="AF63" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AG63" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH63" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AI63" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ63">
         <v>3</v>
@@ -11082,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="AL63" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="AM63">
         <v>107</v>
@@ -11129,16 +11189,16 @@
         <v>112</v>
       </c>
       <c r="B64" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C64" s="1">
         <v>45585</v>
       </c>
       <c r="D64" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E64" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F64">
         <v>2</v>
@@ -11147,7 +11207,7 @@
         <v>4</v>
       </c>
       <c r="H64" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -11156,7 +11216,7 @@
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L64">
         <v>2.09</v>
@@ -11168,10 +11228,10 @@
         <v>3.55</v>
       </c>
       <c r="O64" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="P64" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="Q64">
         <v>14</v>
@@ -11219,16 +11279,16 @@
         <v>24</v>
       </c>
       <c r="AF64" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AG64" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH64" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI64" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ64">
         <v>2</v>
@@ -11237,7 +11297,7 @@
         <v>1</v>
       </c>
       <c r="AL64" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="AM64">
         <v>333</v>
@@ -11284,16 +11344,16 @@
         <v>113</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C65" s="1">
         <v>45590</v>
       </c>
       <c r="D65" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E65" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -11302,7 +11362,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -11311,7 +11371,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L65">
         <v>2.39</v>
@@ -11323,10 +11383,10 @@
         <v>2.89</v>
       </c>
       <c r="O65" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P65" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Q65">
         <v>23</v>
@@ -11374,16 +11434,16 @@
         <v>32</v>
       </c>
       <c r="AF65" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="AG65" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH65" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AI65" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ65">
         <v>5</v>
@@ -11392,7 +11452,7 @@
         <v>0</v>
       </c>
       <c r="AL65" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="AM65">
         <v>112</v>
@@ -11439,16 +11499,16 @@
         <v>114</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C66" s="1">
         <v>45591</v>
       </c>
       <c r="D66" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E66" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F66">
         <v>2</v>
@@ -11457,7 +11517,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -11466,7 +11526,7 @@
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L66">
         <v>3.83</v>
@@ -11478,10 +11538,10 @@
         <v>1.93</v>
       </c>
       <c r="O66" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="P66" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="Q66">
         <v>12</v>
@@ -11529,16 +11589,16 @@
         <v>23</v>
       </c>
       <c r="AF66" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AG66" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH66" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI66" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ66">
         <v>6</v>
@@ -11547,7 +11607,7 @@
         <v>1</v>
       </c>
       <c r="AL66" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="AM66">
         <v>79</v>
@@ -11594,16 +11654,16 @@
         <v>115</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C67" s="1">
         <v>45591</v>
       </c>
       <c r="D67" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E67" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F67">
         <v>3</v>
@@ -11612,7 +11672,7 @@
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -11621,7 +11681,7 @@
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L67">
         <v>1.75</v>
@@ -11633,10 +11693,10 @@
         <v>4.55</v>
       </c>
       <c r="O67" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="P67" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="Q67">
         <v>12</v>
@@ -11684,16 +11744,16 @@
         <v>16</v>
       </c>
       <c r="AF67" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="AG67" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH67" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI67" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ67">
         <v>5</v>
@@ -11702,7 +11762,7 @@
         <v>0</v>
       </c>
       <c r="AL67" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="AM67">
         <v>199</v>
@@ -11749,16 +11809,16 @@
         <v>116</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C68" s="1">
         <v>45591</v>
       </c>
       <c r="D68" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E68" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -11767,7 +11827,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -11776,7 +11836,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L68">
         <v>2.66</v>
@@ -11788,10 +11848,10 @@
         <v>2.71</v>
       </c>
       <c r="O68" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P68" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="Q68">
         <v>14</v>
@@ -11839,16 +11899,16 @@
         <v>21</v>
       </c>
       <c r="AF68" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="AG68" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AH68" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AI68" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ68">
         <v>3</v>
@@ -11857,7 +11917,7 @@
         <v>0</v>
       </c>
       <c r="AL68" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="AM68">
         <v>0</v>
@@ -11904,16 +11964,16 @@
         <v>117</v>
       </c>
       <c r="B69" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C69" s="1">
         <v>45591</v>
       </c>
       <c r="D69" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E69" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F69">
         <v>2</v>
@@ -11922,7 +11982,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -11931,7 +11991,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L69">
         <v>1.23</v>
@@ -11943,10 +12003,10 @@
         <v>11.08</v>
       </c>
       <c r="O69" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="P69" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="Q69">
         <v>16</v>
@@ -11994,16 +12054,16 @@
         <v>23</v>
       </c>
       <c r="AF69" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AG69" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH69" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI69" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ69">
         <v>9</v>
@@ -12012,7 +12072,7 @@
         <v>2</v>
       </c>
       <c r="AL69" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="AM69">
         <v>164</v>
@@ -12059,16 +12119,16 @@
         <v>118</v>
       </c>
       <c r="B70" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C70" s="1">
         <v>45591</v>
       </c>
       <c r="D70" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E70" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F70">
         <v>2</v>
@@ -12077,7 +12137,7 @@
         <v>2</v>
       </c>
       <c r="H70" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -12086,7 +12146,7 @@
         <v>1</v>
       </c>
       <c r="K70" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L70">
         <v>5.84</v>
@@ -12098,10 +12158,10 @@
         <v>1.51</v>
       </c>
       <c r="O70" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="P70" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="Q70">
         <v>13</v>
@@ -12149,16 +12209,16 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AG70" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH70" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI70" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ70">
         <v>2</v>
@@ -12167,7 +12227,7 @@
         <v>0</v>
       </c>
       <c r="AL70" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="AM70">
         <v>271</v>
@@ -12214,16 +12274,16 @@
         <v>119</v>
       </c>
       <c r="B71" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C71" s="1">
         <v>45592</v>
       </c>
       <c r="D71" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E71" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -12232,7 +12292,7 @@
         <v>5</v>
       </c>
       <c r="H71" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -12241,7 +12301,7 @@
         <v>2</v>
       </c>
       <c r="K71" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L71">
         <v>14.33</v>
@@ -12253,10 +12313,10 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="O71" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="P71" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -12304,16 +12364,16 @@
         <v>21</v>
       </c>
       <c r="AF71" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AG71" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH71" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI71" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ71">
         <v>2</v>
@@ -12322,7 +12382,7 @@
         <v>0</v>
       </c>
       <c r="AL71" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="AM71">
         <v>235</v>
@@ -12369,16 +12429,16 @@
         <v>120</v>
       </c>
       <c r="B72" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C72" s="1">
         <v>45592</v>
       </c>
       <c r="D72" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -12387,7 +12447,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -12396,7 +12456,7 @@
         <v>1</v>
       </c>
       <c r="K72" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L72">
         <v>2.63</v>
@@ -12408,10 +12468,10 @@
         <v>2.84</v>
       </c>
       <c r="O72" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="P72" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Q72">
         <v>13</v>
@@ -12459,16 +12519,16 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="AG72" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH72" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AI72" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ72">
         <v>8</v>
@@ -12477,7 +12537,7 @@
         <v>1</v>
       </c>
       <c r="AL72" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="AM72">
         <v>80</v>
@@ -12524,16 +12584,16 @@
         <v>121</v>
       </c>
       <c r="B73" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C73" s="1">
         <v>45592</v>
       </c>
       <c r="D73" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E73" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -12542,7 +12602,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -12551,7 +12611,7 @@
         <v>0</v>
       </c>
       <c r="K73" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L73">
         <v>2.3199999999999998</v>
@@ -12563,10 +12623,10 @@
         <v>3.03</v>
       </c>
       <c r="O73" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P73" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="Q73">
         <v>17</v>
@@ -12614,16 +12674,16 @@
         <v>28</v>
       </c>
       <c r="AF73" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AG73" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AH73" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AI73" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ73">
         <v>3</v>
@@ -12632,7 +12692,7 @@
         <v>0</v>
       </c>
       <c r="AL73" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="AM73">
         <v>0</v>
@@ -12679,16 +12739,16 @@
         <v>122</v>
       </c>
       <c r="B74" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C74" s="1">
         <v>45597</v>
       </c>
       <c r="D74" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -12697,7 +12757,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -12706,7 +12766,7 @@
         <v>0</v>
       </c>
       <c r="K74" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L74">
         <v>1.57</v>
@@ -12718,10 +12778,10 @@
         <v>5.29</v>
       </c>
       <c r="O74" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P74" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="Q74">
         <v>19</v>
@@ -12769,16 +12829,16 @@
         <v>27</v>
       </c>
       <c r="AF74" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="AG74" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AH74" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AI74" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ74">
         <v>7</v>
@@ -12787,7 +12847,7 @@
         <v>0</v>
       </c>
       <c r="AL74" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AM74">
         <v>0</v>
@@ -12834,16 +12894,16 @@
         <v>123</v>
       </c>
       <c r="B75" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C75" s="1">
         <v>45598</v>
       </c>
       <c r="D75" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E75" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F75">
         <v>3</v>
@@ -12852,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I75">
         <v>2</v>
@@ -12861,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L75">
         <v>1.17</v>
@@ -12873,10 +12933,10 @@
         <v>15.58</v>
       </c>
       <c r="O75" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="P75" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="Q75">
         <v>16</v>
@@ -12924,16 +12984,16 @@
         <v>11</v>
       </c>
       <c r="AF75" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="AG75" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH75" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI75" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ75">
         <v>2</v>
@@ -12942,7 +13002,7 @@
         <v>0</v>
       </c>
       <c r="AL75" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="AM75">
         <v>109</v>
@@ -12966,22 +13026,18 @@
         <v>220</v>
       </c>
       <c r="AT75">
-        <f>AO75*AP75</f>
         <v>580</v>
       </c>
       <c r="AU75">
         <v>33</v>
       </c>
       <c r="AV75">
-        <f>AN75*AO75</f>
         <v>87</v>
       </c>
       <c r="AW75">
-        <f>AO75*AD75</f>
         <v>319</v>
       </c>
       <c r="AX75">
-        <f>AM75*AD75</f>
         <v>1199</v>
       </c>
       <c r="AY75">
@@ -12993,16 +13049,16 @@
         <v>124</v>
       </c>
       <c r="B76" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C76" s="1">
         <v>45598</v>
       </c>
       <c r="D76" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E76" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F76">
         <v>7</v>
@@ -13011,7 +13067,7 @@
         <v>2</v>
       </c>
       <c r="H76" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I76">
         <v>4</v>
@@ -13020,7 +13076,7 @@
         <v>1</v>
       </c>
       <c r="K76" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L76">
         <v>1.34</v>
@@ -13032,10 +13088,10 @@
         <v>7.96</v>
       </c>
       <c r="O76" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="P76" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="Q76">
         <v>18</v>
@@ -13083,16 +13139,16 @@
         <v>21</v>
       </c>
       <c r="AF76" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="AG76" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH76" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI76" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ76">
         <v>3</v>
@@ -13101,7 +13157,7 @@
         <v>0</v>
       </c>
       <c r="AL76" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="AM76">
         <v>361</v>
@@ -13125,22 +13181,18 @@
         <v>210</v>
       </c>
       <c r="AT76">
-        <f t="shared" ref="AT76:AT82" si="0">AO76*AP76</f>
         <v>5010</v>
       </c>
       <c r="AU76">
         <v>63</v>
       </c>
       <c r="AV76">
-        <f t="shared" ref="AV76:AV82" si="1">AN76*AO76</f>
         <v>1503</v>
       </c>
       <c r="AW76">
-        <f t="shared" ref="AW76:AW82" si="2">AO76*AD76</f>
         <v>1169</v>
       </c>
       <c r="AX76">
-        <f t="shared" ref="AX76:AX82" si="3">AM76*AD76</f>
         <v>2527</v>
       </c>
       <c r="AY76">
@@ -13152,16 +13204,16 @@
         <v>125</v>
       </c>
       <c r="B77" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C77" s="1">
         <v>45598</v>
       </c>
       <c r="D77" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E77" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -13170,7 +13222,7 @@
         <v>2</v>
       </c>
       <c r="H77" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -13179,7 +13231,7 @@
         <v>1</v>
       </c>
       <c r="K77" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L77">
         <v>1.88</v>
@@ -13191,10 +13243,10 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="O77" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="P77" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="Q77">
         <v>12</v>
@@ -13242,16 +13294,16 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="AG77" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH77" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AI77" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ77">
         <v>2</v>
@@ -13260,7 +13312,7 @@
         <v>0</v>
       </c>
       <c r="AL77" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="AM77">
         <v>110</v>
@@ -13284,22 +13336,18 @@
         <v>180</v>
       </c>
       <c r="AT77">
-        <f t="shared" si="0"/>
         <v>720</v>
       </c>
       <c r="AU77">
         <v>18</v>
       </c>
       <c r="AV77">
-        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="AW77">
-        <f t="shared" si="2"/>
         <v>324</v>
       </c>
       <c r="AX77">
-        <f t="shared" si="3"/>
         <v>990</v>
       </c>
       <c r="AY77">
@@ -13311,16 +13359,16 @@
         <v>126</v>
       </c>
       <c r="B78" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C78" s="1">
         <v>45598</v>
       </c>
       <c r="D78" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E78" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -13329,7 +13377,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -13338,7 +13386,7 @@
         <v>0</v>
       </c>
       <c r="K78" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L78">
         <v>2.82</v>
@@ -13350,10 +13398,10 @@
         <v>2.54</v>
       </c>
       <c r="O78" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="P78" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="Q78">
         <v>11</v>
@@ -13401,16 +13449,16 @@
         <v>30</v>
       </c>
       <c r="AF78" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AG78" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AH78" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AI78" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ78">
         <v>9</v>
@@ -13419,7 +13467,7 @@
         <v>0</v>
       </c>
       <c r="AL78" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="AM78">
         <v>28</v>
@@ -13443,22 +13491,18 @@
         <v>990</v>
       </c>
       <c r="AT78">
-        <f t="shared" si="0"/>
         <v>360</v>
       </c>
       <c r="AU78">
         <v>11</v>
       </c>
       <c r="AV78">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AW78">
-        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="AX78">
-        <f t="shared" si="3"/>
         <v>308</v>
       </c>
       <c r="AY78">
@@ -13470,16 +13514,16 @@
         <v>127</v>
       </c>
       <c r="B79" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C79" s="1">
         <v>45598</v>
       </c>
       <c r="D79" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E79" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -13488,7 +13532,7 @@
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -13497,7 +13541,7 @@
         <v>1</v>
       </c>
       <c r="K79" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L79">
         <v>2.0099999999999998</v>
@@ -13509,10 +13553,10 @@
         <v>3.59</v>
       </c>
       <c r="O79" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="P79" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Q79">
         <v>18</v>
@@ -13560,16 +13604,16 @@
         <v>21</v>
       </c>
       <c r="AF79" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="AG79" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH79" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AI79" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ79">
         <v>4</v>
@@ -13578,7 +13622,7 @@
         <v>0</v>
       </c>
       <c r="AL79" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="AM79">
         <v>116</v>
@@ -13602,22 +13646,18 @@
         <v>360</v>
       </c>
       <c r="AT79">
-        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
       <c r="AU79">
         <v>18</v>
       </c>
       <c r="AV79">
-        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="AW79">
-        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="AX79">
-        <f t="shared" si="3"/>
         <v>1044</v>
       </c>
       <c r="AY79">
@@ -13629,16 +13669,16 @@
         <v>128</v>
       </c>
       <c r="B80" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C80" s="1">
         <v>45598</v>
       </c>
       <c r="D80" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E80" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F80">
         <v>2</v>
@@ -13647,7 +13687,7 @@
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -13656,7 +13696,7 @@
         <v>1</v>
       </c>
       <c r="K80" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L80">
         <v>2.25</v>
@@ -13668,10 +13708,10 @@
         <v>3.15</v>
       </c>
       <c r="O80" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="P80" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="Q80">
         <v>19</v>
@@ -13719,16 +13759,16 @@
         <v>23</v>
       </c>
       <c r="AF80" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="AG80" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH80" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI80" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ80">
         <v>7</v>
@@ -13737,7 +13777,7 @@
         <v>0</v>
       </c>
       <c r="AL80" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="AM80">
         <v>122</v>
@@ -13761,22 +13801,18 @@
         <v>280</v>
       </c>
       <c r="AT80">
-        <f t="shared" si="0"/>
         <v>3710</v>
       </c>
       <c r="AU80">
         <v>12</v>
       </c>
       <c r="AV80">
-        <f t="shared" si="1"/>
         <v>159</v>
       </c>
       <c r="AW80">
-        <f t="shared" si="2"/>
         <v>212</v>
       </c>
       <c r="AX80">
-        <f t="shared" si="3"/>
         <v>488</v>
       </c>
       <c r="AY80">
@@ -13788,16 +13824,16 @@
         <v>129</v>
       </c>
       <c r="B81" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C81" s="1">
         <v>45599</v>
       </c>
       <c r="D81" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E81" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -13806,7 +13842,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -13815,7 +13851,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L81">
         <v>1.7</v>
@@ -13827,10 +13863,10 @@
         <v>5.21</v>
       </c>
       <c r="O81" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P81" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="Q81">
         <v>10</v>
@@ -13878,16 +13914,16 @@
         <v>21</v>
       </c>
       <c r="AF81" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="AG81" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AH81" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AI81" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AJ81">
         <v>3</v>
@@ -13896,7 +13932,7 @@
         <v>0</v>
       </c>
       <c r="AL81" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="AM81">
         <v>0</v>
@@ -13920,22 +13956,18 @@
         <v>360</v>
       </c>
       <c r="AT81">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AU81">
         <v>0</v>
       </c>
       <c r="AV81">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AW81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AX81">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AY81">
@@ -13947,16 +13979,16 @@
         <v>130</v>
       </c>
       <c r="B82" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C82" s="1">
         <v>45599</v>
       </c>
       <c r="D82" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E82" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F82">
         <v>4</v>
@@ -13965,7 +13997,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I82">
         <v>3</v>
@@ -13974,7 +14006,7 @@
         <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L82">
         <v>2.14</v>
@@ -13986,10 +14018,10 @@
         <v>3.22</v>
       </c>
       <c r="O82" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="P82" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="Q82">
         <v>16</v>
@@ -14037,16 +14069,16 @@
         <v>22</v>
       </c>
       <c r="AF82" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="AG82" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AH82" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AI82" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AJ82">
         <v>5</v>
@@ -14055,7 +14087,7 @@
         <v>1</v>
       </c>
       <c r="AL82" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="AM82">
         <v>210</v>
@@ -14079,26 +14111,1453 @@
         <v>1050</v>
       </c>
       <c r="AT82">
-        <f t="shared" si="0"/>
         <v>4650</v>
       </c>
       <c r="AU82">
         <v>70</v>
       </c>
       <c r="AV82">
-        <f t="shared" si="1"/>
         <v>310</v>
       </c>
       <c r="AW82">
-        <f t="shared" si="2"/>
         <v>868</v>
       </c>
       <c r="AX82">
-        <f t="shared" si="3"/>
         <v>2940</v>
       </c>
       <c r="AY82">
         <v>5250</v>
+      </c>
+    </row>
+    <row r="83" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>131</v>
+      </c>
+      <c r="B83" t="s">
+        <v>140</v>
+      </c>
+      <c r="C83" s="1">
+        <v>45604</v>
+      </c>
+      <c r="D83" t="s">
+        <v>150</v>
+      </c>
+      <c r="E83" t="s">
+        <v>143</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83" t="s">
+        <v>160</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83" t="s">
+        <v>160</v>
+      </c>
+      <c r="L83">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="M83">
+        <v>3.19</v>
+      </c>
+      <c r="N83">
+        <v>3.11</v>
+      </c>
+      <c r="O83" t="s">
+        <v>166</v>
+      </c>
+      <c r="P83" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q83">
+        <v>12</v>
+      </c>
+      <c r="R83">
+        <v>6</v>
+      </c>
+      <c r="S83">
+        <v>14</v>
+      </c>
+      <c r="T83">
+        <v>4</v>
+      </c>
+      <c r="U83">
+        <v>2</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>4</v>
+      </c>
+      <c r="Z83">
+        <v>1</v>
+      </c>
+      <c r="AA83">
+        <v>11</v>
+      </c>
+      <c r="AB83">
+        <v>8</v>
+      </c>
+      <c r="AC83">
+        <v>0</v>
+      </c>
+      <c r="AD83">
+        <v>5</v>
+      </c>
+      <c r="AE83">
+        <v>19</v>
+      </c>
+      <c r="AF83" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG83" t="s">
+        <v>237</v>
+      </c>
+      <c r="AH83" t="s">
+        <v>237</v>
+      </c>
+      <c r="AI83" t="s">
+        <v>237</v>
+      </c>
+      <c r="AJ83">
+        <v>2</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
+      <c r="AL83" t="s">
+        <v>319</v>
+      </c>
+      <c r="AM83">
+        <v>0</v>
+      </c>
+      <c r="AN83">
+        <v>0</v>
+      </c>
+      <c r="AO83">
+        <v>0</v>
+      </c>
+      <c r="AP83">
+        <v>20</v>
+      </c>
+      <c r="AQ83">
+        <v>0</v>
+      </c>
+      <c r="AR83">
+        <v>0</v>
+      </c>
+      <c r="AS83">
+        <v>100</v>
+      </c>
+      <c r="AT83">
+        <f>AO83*AP83</f>
+        <v>0</v>
+      </c>
+      <c r="AU83">
+        <v>0</v>
+      </c>
+      <c r="AV83">
+        <f>AN83*AO83</f>
+        <v>0</v>
+      </c>
+      <c r="AW83">
+        <f>AO83*AD83</f>
+        <v>0</v>
+      </c>
+      <c r="AX83">
+        <f>AM83*AD83</f>
+        <v>0</v>
+      </c>
+      <c r="AY83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>132</v>
+      </c>
+      <c r="B84" t="s">
+        <v>140</v>
+      </c>
+      <c r="C84" s="1">
+        <v>45605</v>
+      </c>
+      <c r="D84" t="s">
+        <v>151</v>
+      </c>
+      <c r="E84" t="s">
+        <v>156</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84" t="s">
+        <v>160</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84" t="s">
+        <v>159</v>
+      </c>
+      <c r="L84">
+        <v>10.94</v>
+      </c>
+      <c r="M84">
+        <v>6.8</v>
+      </c>
+      <c r="N84">
+        <v>1.24</v>
+      </c>
+      <c r="O84" t="s">
+        <v>167</v>
+      </c>
+      <c r="P84" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q84">
+        <v>15</v>
+      </c>
+      <c r="R84">
+        <v>3</v>
+      </c>
+      <c r="S84">
+        <v>11</v>
+      </c>
+      <c r="T84">
+        <v>3</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>1</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>6</v>
+      </c>
+      <c r="Z84">
+        <v>4</v>
+      </c>
+      <c r="AA84">
+        <v>10</v>
+      </c>
+      <c r="AB84">
+        <v>9</v>
+      </c>
+      <c r="AC84">
+        <v>2</v>
+      </c>
+      <c r="AD84">
+        <v>10</v>
+      </c>
+      <c r="AE84">
+        <v>19</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH84" t="s">
+        <v>237</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>237</v>
+      </c>
+      <c r="AJ84">
+        <v>1</v>
+      </c>
+      <c r="AK84">
+        <v>0</v>
+      </c>
+      <c r="AL84" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM84">
+        <v>107</v>
+      </c>
+      <c r="AN84">
+        <v>2</v>
+      </c>
+      <c r="AO84">
+        <v>37</v>
+      </c>
+      <c r="AP84">
+        <v>10</v>
+      </c>
+      <c r="AQ84">
+        <v>0</v>
+      </c>
+      <c r="AR84">
+        <v>20</v>
+      </c>
+      <c r="AS84">
+        <v>100</v>
+      </c>
+      <c r="AT84">
+        <f t="shared" ref="AT84:AT91" si="0">AO84*AP84</f>
+        <v>370</v>
+      </c>
+      <c r="AU84">
+        <v>20</v>
+      </c>
+      <c r="AV84">
+        <f t="shared" ref="AV84:AV91" si="1">AN84*AO84</f>
+        <v>74</v>
+      </c>
+      <c r="AW84">
+        <f t="shared" ref="AW84:AW91" si="2">AO84*AD84</f>
+        <v>370</v>
+      </c>
+      <c r="AX84">
+        <f t="shared" ref="AX84:AX91" si="3">AM84*AD84</f>
+        <v>1070</v>
+      </c>
+      <c r="AY84">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>133</v>
+      </c>
+      <c r="B85" t="s">
+        <v>140</v>
+      </c>
+      <c r="C85" s="1">
+        <v>45605</v>
+      </c>
+      <c r="D85" t="s">
+        <v>145</v>
+      </c>
+      <c r="E85" t="s">
+        <v>147</v>
+      </c>
+      <c r="F85">
+        <v>3</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85" t="s">
+        <v>161</v>
+      </c>
+      <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85" t="s">
+        <v>161</v>
+      </c>
+      <c r="L85">
+        <v>3.48</v>
+      </c>
+      <c r="M85">
+        <v>3.74</v>
+      </c>
+      <c r="N85">
+        <v>2.08</v>
+      </c>
+      <c r="O85" t="s">
+        <v>163</v>
+      </c>
+      <c r="P85" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q85">
+        <v>13</v>
+      </c>
+      <c r="R85">
+        <v>9</v>
+      </c>
+      <c r="S85">
+        <v>2</v>
+      </c>
+      <c r="T85">
+        <v>1</v>
+      </c>
+      <c r="U85">
+        <v>3</v>
+      </c>
+      <c r="V85">
+        <v>1</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>1</v>
+      </c>
+      <c r="Y85">
+        <v>8</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>17</v>
+      </c>
+      <c r="AB85">
+        <v>5</v>
+      </c>
+      <c r="AC85">
+        <v>4</v>
+      </c>
+      <c r="AD85">
+        <v>8</v>
+      </c>
+      <c r="AE85">
+        <v>22</v>
+      </c>
+      <c r="AF85" t="s">
+        <v>233</v>
+      </c>
+      <c r="AG85" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH85" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI85" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ85">
+        <v>4</v>
+      </c>
+      <c r="AK85">
+        <v>1</v>
+      </c>
+      <c r="AL85" t="s">
+        <v>321</v>
+      </c>
+      <c r="AM85">
+        <v>175</v>
+      </c>
+      <c r="AN85">
+        <v>4</v>
+      </c>
+      <c r="AO85">
+        <v>53</v>
+      </c>
+      <c r="AP85">
+        <v>65</v>
+      </c>
+      <c r="AQ85">
+        <v>1050</v>
+      </c>
+      <c r="AR85">
+        <v>260</v>
+      </c>
+      <c r="AS85">
+        <v>520</v>
+      </c>
+      <c r="AT85">
+        <f t="shared" si="0"/>
+        <v>3445</v>
+      </c>
+      <c r="AU85">
+        <v>32</v>
+      </c>
+      <c r="AV85">
+        <f t="shared" si="1"/>
+        <v>212</v>
+      </c>
+      <c r="AW85">
+        <f t="shared" si="2"/>
+        <v>424</v>
+      </c>
+      <c r="AX85">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+      <c r="AY85">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="86" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>134</v>
+      </c>
+      <c r="B86" t="s">
+        <v>140</v>
+      </c>
+      <c r="C86" s="1">
+        <v>45605</v>
+      </c>
+      <c r="D86" t="s">
+        <v>149</v>
+      </c>
+      <c r="E86" t="s">
+        <v>158</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86" t="s">
+        <v>159</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86" t="s">
+        <v>159</v>
+      </c>
+      <c r="L86">
+        <v>12.45</v>
+      </c>
+      <c r="M86">
+        <v>7.14</v>
+      </c>
+      <c r="N86">
+        <v>1.22</v>
+      </c>
+      <c r="O86" t="s">
+        <v>167</v>
+      </c>
+      <c r="P86" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q86">
+        <v>3</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>13</v>
+      </c>
+      <c r="T86">
+        <v>6</v>
+      </c>
+      <c r="U86">
+        <v>2</v>
+      </c>
+      <c r="V86">
+        <v>2</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>5</v>
+      </c>
+      <c r="Z86">
+        <v>10</v>
+      </c>
+      <c r="AA86">
+        <v>10</v>
+      </c>
+      <c r="AB86">
+        <v>7</v>
+      </c>
+      <c r="AC86">
+        <v>1</v>
+      </c>
+      <c r="AD86">
+        <v>15</v>
+      </c>
+      <c r="AE86">
+        <v>17</v>
+      </c>
+      <c r="AF86" t="s">
+        <v>234</v>
+      </c>
+      <c r="AG86" t="s">
+        <v>237</v>
+      </c>
+      <c r="AH86" t="s">
+        <v>237</v>
+      </c>
+      <c r="AI86" t="s">
+        <v>237</v>
+      </c>
+      <c r="AJ86">
+        <v>4</v>
+      </c>
+      <c r="AK86">
+        <v>0</v>
+      </c>
+      <c r="AL86" t="s">
+        <v>322</v>
+      </c>
+      <c r="AM86">
+        <v>22</v>
+      </c>
+      <c r="AN86">
+        <v>1</v>
+      </c>
+      <c r="AO86">
+        <v>42</v>
+      </c>
+      <c r="AP86">
+        <v>40</v>
+      </c>
+      <c r="AQ86">
+        <v>400</v>
+      </c>
+      <c r="AR86">
+        <v>40</v>
+      </c>
+      <c r="AS86">
+        <v>600</v>
+      </c>
+      <c r="AT86">
+        <f t="shared" si="0"/>
+        <v>1680</v>
+      </c>
+      <c r="AU86">
+        <v>15</v>
+      </c>
+      <c r="AV86">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="AW86">
+        <f t="shared" si="2"/>
+        <v>630</v>
+      </c>
+      <c r="AX86">
+        <f t="shared" si="3"/>
+        <v>330</v>
+      </c>
+      <c r="AY86">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="87" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>135</v>
+      </c>
+      <c r="B87" t="s">
+        <v>140</v>
+      </c>
+      <c r="C87" s="1">
+        <v>45605</v>
+      </c>
+      <c r="D87" t="s">
+        <v>155</v>
+      </c>
+      <c r="E87" t="s">
+        <v>153</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87" t="s">
+        <v>161</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87" t="s">
+        <v>161</v>
+      </c>
+      <c r="L87">
+        <v>1.64</v>
+      </c>
+      <c r="M87">
+        <v>4.29</v>
+      </c>
+      <c r="N87">
+        <v>5.15</v>
+      </c>
+      <c r="O87" t="s">
+        <v>168</v>
+      </c>
+      <c r="P87" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q87">
+        <v>16</v>
+      </c>
+      <c r="R87">
+        <v>5</v>
+      </c>
+      <c r="S87">
+        <v>12</v>
+      </c>
+      <c r="T87">
+        <v>5</v>
+      </c>
+      <c r="U87">
+        <v>3</v>
+      </c>
+      <c r="V87">
+        <v>2</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>6</v>
+      </c>
+      <c r="Z87">
+        <v>3</v>
+      </c>
+      <c r="AA87">
+        <v>10</v>
+      </c>
+      <c r="AB87">
+        <v>19</v>
+      </c>
+      <c r="AC87">
+        <v>3</v>
+      </c>
+      <c r="AD87">
+        <v>9</v>
+      </c>
+      <c r="AE87">
+        <v>29</v>
+      </c>
+      <c r="AF87" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG87" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH87" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI87" t="s">
+        <v>237</v>
+      </c>
+      <c r="AJ87">
+        <v>5</v>
+      </c>
+      <c r="AK87">
+        <v>0</v>
+      </c>
+      <c r="AL87" t="s">
+        <v>323</v>
+      </c>
+      <c r="AM87">
+        <v>173</v>
+      </c>
+      <c r="AN87">
+        <v>3</v>
+      </c>
+      <c r="AO87">
+        <v>40</v>
+      </c>
+      <c r="AP87">
+        <v>50</v>
+      </c>
+      <c r="AQ87">
+        <v>600</v>
+      </c>
+      <c r="AR87">
+        <v>150</v>
+      </c>
+      <c r="AS87">
+        <v>450</v>
+      </c>
+      <c r="AT87">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="AU87">
+        <v>27</v>
+      </c>
+      <c r="AV87">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="AW87">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+      <c r="AX87">
+        <f t="shared" si="3"/>
+        <v>1557</v>
+      </c>
+      <c r="AY87">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="88" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88" t="s">
+        <v>140</v>
+      </c>
+      <c r="C88" s="1">
+        <v>45605</v>
+      </c>
+      <c r="D88" t="s">
+        <v>146</v>
+      </c>
+      <c r="E88" t="s">
+        <v>141</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88" t="s">
+        <v>160</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88" t="s">
+        <v>160</v>
+      </c>
+      <c r="L88">
+        <v>1.6</v>
+      </c>
+      <c r="M88">
+        <v>4.67</v>
+      </c>
+      <c r="N88">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="O88" t="s">
+        <v>166</v>
+      </c>
+      <c r="P88" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q88">
+        <v>11</v>
+      </c>
+      <c r="R88">
+        <v>4</v>
+      </c>
+      <c r="S88">
+        <v>14</v>
+      </c>
+      <c r="T88">
+        <v>4</v>
+      </c>
+      <c r="U88">
+        <v>2</v>
+      </c>
+      <c r="V88">
+        <v>2</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <v>8</v>
+      </c>
+      <c r="Z88">
+        <v>4</v>
+      </c>
+      <c r="AA88">
+        <v>14</v>
+      </c>
+      <c r="AB88">
+        <v>7</v>
+      </c>
+      <c r="AC88">
+        <v>0</v>
+      </c>
+      <c r="AD88">
+        <v>12</v>
+      </c>
+      <c r="AE88">
+        <v>21</v>
+      </c>
+      <c r="AF88" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG88" t="s">
+        <v>237</v>
+      </c>
+      <c r="AH88" t="s">
+        <v>237</v>
+      </c>
+      <c r="AI88" t="s">
+        <v>237</v>
+      </c>
+      <c r="AJ88">
+        <v>4</v>
+      </c>
+      <c r="AK88">
+        <v>0</v>
+      </c>
+      <c r="AL88" t="s">
+        <v>324</v>
+      </c>
+      <c r="AM88">
+        <v>0</v>
+      </c>
+      <c r="AN88">
+        <v>0</v>
+      </c>
+      <c r="AO88">
+        <v>0</v>
+      </c>
+      <c r="AP88">
+        <v>40</v>
+      </c>
+      <c r="AQ88">
+        <v>400</v>
+      </c>
+      <c r="AR88">
+        <v>0</v>
+      </c>
+      <c r="AS88">
+        <v>480</v>
+      </c>
+      <c r="AT88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU88">
+        <v>0</v>
+      </c>
+      <c r="AV88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW88">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AX88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AY88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>137</v>
+      </c>
+      <c r="B89" t="s">
+        <v>140</v>
+      </c>
+      <c r="C89" s="1">
+        <v>45606</v>
+      </c>
+      <c r="D89" t="s">
+        <v>142</v>
+      </c>
+      <c r="E89" t="s">
+        <v>144</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89" t="s">
+        <v>160</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89" t="s">
+        <v>160</v>
+      </c>
+      <c r="L89">
+        <v>2.11</v>
+      </c>
+      <c r="M89">
+        <v>3.85</v>
+      </c>
+      <c r="N89">
+        <v>3.33</v>
+      </c>
+      <c r="O89" t="s">
+        <v>166</v>
+      </c>
+      <c r="P89" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q89">
+        <v>16</v>
+      </c>
+      <c r="R89">
+        <v>4</v>
+      </c>
+      <c r="S89">
+        <v>11</v>
+      </c>
+      <c r="T89">
+        <v>2</v>
+      </c>
+      <c r="U89">
+        <v>2</v>
+      </c>
+      <c r="V89">
+        <v>3</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <v>10</v>
+      </c>
+      <c r="Z89">
+        <v>6</v>
+      </c>
+      <c r="AA89">
+        <v>16</v>
+      </c>
+      <c r="AB89">
+        <v>7</v>
+      </c>
+      <c r="AC89">
+        <v>0</v>
+      </c>
+      <c r="AD89">
+        <v>16</v>
+      </c>
+      <c r="AE89">
+        <v>23</v>
+      </c>
+      <c r="AF89" t="s">
+        <v>235</v>
+      </c>
+      <c r="AG89" t="s">
+        <v>237</v>
+      </c>
+      <c r="AH89" t="s">
+        <v>237</v>
+      </c>
+      <c r="AI89" t="s">
+        <v>237</v>
+      </c>
+      <c r="AJ89">
+        <v>5</v>
+      </c>
+      <c r="AK89">
+        <v>0</v>
+      </c>
+      <c r="AL89" t="s">
+        <v>325</v>
+      </c>
+      <c r="AM89">
+        <v>0</v>
+      </c>
+      <c r="AN89">
+        <v>0</v>
+      </c>
+      <c r="AO89">
+        <v>0</v>
+      </c>
+      <c r="AP89">
+        <v>50</v>
+      </c>
+      <c r="AQ89">
+        <v>600</v>
+      </c>
+      <c r="AR89">
+        <v>0</v>
+      </c>
+      <c r="AS89">
+        <v>800</v>
+      </c>
+      <c r="AT89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU89">
+        <v>0</v>
+      </c>
+      <c r="AV89">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AX89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AY89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>138</v>
+      </c>
+      <c r="B90" t="s">
+        <v>140</v>
+      </c>
+      <c r="C90" s="1">
+        <v>45606</v>
+      </c>
+      <c r="D90" t="s">
+        <v>154</v>
+      </c>
+      <c r="E90" t="s">
+        <v>152</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+      <c r="H90" t="s">
+        <v>159</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90" t="s">
+        <v>159</v>
+      </c>
+      <c r="L90">
+        <v>1.93</v>
+      </c>
+      <c r="M90">
+        <v>4.05</v>
+      </c>
+      <c r="N90">
+        <v>3.72</v>
+      </c>
+      <c r="O90" t="s">
+        <v>167</v>
+      </c>
+      <c r="P90" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q90">
+        <v>22</v>
+      </c>
+      <c r="R90">
+        <v>11</v>
+      </c>
+      <c r="S90">
+        <v>8</v>
+      </c>
+      <c r="T90">
+        <v>5</v>
+      </c>
+      <c r="U90">
+        <v>2</v>
+      </c>
+      <c r="V90">
+        <v>3</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90">
+        <v>0</v>
+      </c>
+      <c r="Y90">
+        <v>8</v>
+      </c>
+      <c r="Z90">
+        <v>3</v>
+      </c>
+      <c r="AA90">
+        <v>10</v>
+      </c>
+      <c r="AB90">
+        <v>15</v>
+      </c>
+      <c r="AC90">
+        <v>5</v>
+      </c>
+      <c r="AD90">
+        <v>11</v>
+      </c>
+      <c r="AE90">
+        <v>25</v>
+      </c>
+      <c r="AF90" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG90" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH90" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI90" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ90">
+        <v>5</v>
+      </c>
+      <c r="AK90">
+        <v>0</v>
+      </c>
+      <c r="AL90" t="s">
+        <v>326</v>
+      </c>
+      <c r="AM90">
+        <v>338</v>
+      </c>
+      <c r="AN90">
+        <v>5</v>
+      </c>
+      <c r="AO90">
+        <v>54</v>
+      </c>
+      <c r="AP90">
+        <v>50</v>
+      </c>
+      <c r="AQ90">
+        <v>600</v>
+      </c>
+      <c r="AR90">
+        <v>250</v>
+      </c>
+      <c r="AS90">
+        <v>550</v>
+      </c>
+      <c r="AT90">
+        <f t="shared" si="0"/>
+        <v>2700</v>
+      </c>
+      <c r="AU90">
+        <v>55</v>
+      </c>
+      <c r="AV90">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="AW90">
+        <f t="shared" si="2"/>
+        <v>594</v>
+      </c>
+      <c r="AX90">
+        <f t="shared" si="3"/>
+        <v>3718</v>
+      </c>
+      <c r="AY90">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="91" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>139</v>
+      </c>
+      <c r="B91" t="s">
+        <v>140</v>
+      </c>
+      <c r="C91" s="1">
+        <v>45606</v>
+      </c>
+      <c r="D91" t="s">
+        <v>157</v>
+      </c>
+      <c r="E91" t="s">
+        <v>148</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>3</v>
+      </c>
+      <c r="H91" t="s">
+        <v>159</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>2</v>
+      </c>
+      <c r="K91" t="s">
+        <v>159</v>
+      </c>
+      <c r="L91">
+        <v>2.91</v>
+      </c>
+      <c r="M91">
+        <v>3.27</v>
+      </c>
+      <c r="N91">
+        <v>2.61</v>
+      </c>
+      <c r="O91" t="s">
+        <v>162</v>
+      </c>
+      <c r="P91" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q91">
+        <v>19</v>
+      </c>
+      <c r="R91">
+        <v>4</v>
+      </c>
+      <c r="S91">
+        <v>13</v>
+      </c>
+      <c r="T91">
+        <v>6</v>
+      </c>
+      <c r="U91">
+        <v>1</v>
+      </c>
+      <c r="V91">
+        <v>6</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
+      <c r="Y91">
+        <v>5</v>
+      </c>
+      <c r="Z91">
+        <v>5</v>
+      </c>
+      <c r="AA91">
+        <v>9</v>
+      </c>
+      <c r="AB91">
+        <v>23</v>
+      </c>
+      <c r="AC91">
+        <v>4</v>
+      </c>
+      <c r="AD91">
+        <v>10</v>
+      </c>
+      <c r="AE91">
+        <v>32</v>
+      </c>
+      <c r="AF91" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG91" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH91" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI91" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ91">
+        <v>7</v>
+      </c>
+      <c r="AK91">
+        <v>0</v>
+      </c>
+      <c r="AL91" t="s">
+        <v>327</v>
+      </c>
+      <c r="AM91">
+        <v>199</v>
+      </c>
+      <c r="AN91">
+        <v>4</v>
+      </c>
+      <c r="AO91">
+        <v>84</v>
+      </c>
+      <c r="AP91">
+        <v>70</v>
+      </c>
+      <c r="AQ91">
+        <v>600</v>
+      </c>
+      <c r="AR91">
+        <v>280</v>
+      </c>
+      <c r="AS91">
+        <v>700</v>
+      </c>
+      <c r="AT91">
+        <f t="shared" si="0"/>
+        <v>5880</v>
+      </c>
+      <c r="AU91">
+        <v>40</v>
+      </c>
+      <c r="AV91">
+        <f t="shared" si="1"/>
+        <v>336</v>
+      </c>
+      <c r="AW91">
+        <f t="shared" si="2"/>
+        <v>840</v>
+      </c>
+      <c r="AX91">
+        <f t="shared" si="3"/>
+        <v>1990</v>
+      </c>
+      <c r="AY91">
+        <v>2800</v>
       </c>
     </row>
   </sheetData>
